--- a/config_Release/extra_award_server.xlsx
+++ b/config_Release/extra_award_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="727"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task|任务配置" sheetId="2" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>id|</t>
   </si>
@@ -157,18 +157,30 @@
   <si>
     <t>source_type</t>
   </si>
+  <si>
+    <t>ymshf_017_hldr_rank</t>
+  </si>
+  <si>
+    <t>buyu_3d_get_use_item</t>
+  </si>
+  <si>
+    <t>100,110,130,150</t>
+  </si>
+  <si>
+    <t>buyu_get_use_item</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,13 +196,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -202,33 +207,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,7 +229,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,7 +243,86 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,70 +337,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,7 +361,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,6 +372,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -395,7 +406,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,7 +418,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,163 +562,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,13 +597,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,17 +645,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,36 +686,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -692,25 +694,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -719,139 +712,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -860,72 +853,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1251,10 +1257,10 @@
   <sheetPr/>
   <dimension ref="A1:E1565"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1268,5567 +1274,5567 @@
   </cols>
   <sheetData>
     <row r="1" ht="56.1" customHeight="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="43.5" customHeight="1" spans="2:5">
-      <c r="B2" s="8"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="5"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" ht="43.5" customHeight="1" spans="2:5">
-      <c r="B3" s="8"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" ht="43.5" customHeight="1" spans="2:5">
-      <c r="B4" s="8"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" ht="43.5" customHeight="1" spans="2:5">
-      <c r="B5" s="8"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" ht="43.5" customHeight="1" spans="2:5">
-      <c r="B6" s="8"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="8"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="8"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="8"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="5"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="8"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="8"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="8"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="8"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" s="8" customFormat="1" spans="3:5">
-      <c r="C12" s="7"/>
+    <row r="12" s="21" customFormat="1" spans="3:5">
+      <c r="C12" s="8"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="8"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="8"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" s="8" customFormat="1" spans="3:5">
-      <c r="C14" s="7"/>
+    <row r="14" s="21" customFormat="1" spans="3:5">
+      <c r="C14" s="8"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="8"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="8"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" ht="18.75" customHeight="1" spans="2:5">
-      <c r="B16" s="8"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="8"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="8"/>
-      <c r="C17" s="7"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="8"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="8"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="8"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" s="8" customFormat="1" spans="3:5">
-      <c r="C19" s="7"/>
+    <row r="19" s="21" customFormat="1" spans="3:5">
+      <c r="C19" s="8"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" s="8" customFormat="1" spans="3:5">
-      <c r="C20" s="7"/>
+    <row r="20" s="21" customFormat="1" spans="3:5">
+      <c r="C20" s="8"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" s="8" customFormat="1" spans="3:5">
-      <c r="C21" s="7"/>
+    <row r="21" s="21" customFormat="1" spans="3:5">
+      <c r="C21" s="8"/>
       <c r="D21" s="2"/>
       <c r="E21"/>
     </row>
-    <row r="22" s="8" customFormat="1" spans="3:5">
-      <c r="C22" s="7"/>
+    <row r="22" s="21" customFormat="1" spans="3:5">
+      <c r="C22" s="8"/>
       <c r="D22" s="2"/>
       <c r="E22"/>
     </row>
-    <row r="23" s="8" customFormat="1" spans="3:5">
-      <c r="C23" s="7"/>
+    <row r="23" s="21" customFormat="1" spans="3:5">
+      <c r="C23" s="8"/>
       <c r="D23" s="2"/>
       <c r="E23"/>
     </row>
-    <row r="24" s="8" customFormat="1" spans="3:5">
-      <c r="C24" s="7"/>
-      <c r="D24" s="5"/>
+    <row r="24" s="21" customFormat="1" spans="3:5">
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" s="8" customFormat="1" spans="3:5">
-      <c r="C25" s="7"/>
-      <c r="D25" s="5"/>
+    <row r="25" s="21" customFormat="1" spans="3:5">
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" s="8" customFormat="1" spans="3:5">
-      <c r="C26" s="7"/>
+    <row r="26" s="21" customFormat="1" spans="3:5">
+      <c r="C26" s="8"/>
       <c r="D26" s="2"/>
       <c r="E26"/>
     </row>
-    <row r="27" s="8" customFormat="1" spans="3:5">
-      <c r="C27" s="7"/>
+    <row r="27" s="21" customFormat="1" spans="3:5">
+      <c r="C27" s="8"/>
       <c r="D27" s="2"/>
       <c r="E27"/>
     </row>
-    <row r="28" s="8" customFormat="1" spans="3:5">
-      <c r="C28" s="7"/>
+    <row r="28" s="21" customFormat="1" spans="3:5">
+      <c r="C28" s="8"/>
       <c r="D28" s="2"/>
       <c r="E28"/>
     </row>
-    <row r="29" s="8" customFormat="1" spans="3:5">
-      <c r="C29" s="7"/>
+    <row r="29" s="21" customFormat="1" spans="3:5">
+      <c r="C29" s="8"/>
       <c r="D29" s="2"/>
       <c r="E29"/>
     </row>
-    <row r="30" s="8" customFormat="1" spans="3:5">
-      <c r="C30" s="7"/>
+    <row r="30" s="21" customFormat="1" spans="3:5">
+      <c r="C30" s="8"/>
       <c r="D30" s="2"/>
       <c r="E30"/>
     </row>
-    <row r="31" s="8" customFormat="1" spans="3:5">
-      <c r="C31" s="7"/>
+    <row r="31" s="21" customFormat="1" spans="3:5">
+      <c r="C31" s="8"/>
       <c r="D31" s="2"/>
       <c r="E31"/>
     </row>
-    <row r="32" s="8" customFormat="1" spans="3:5">
-      <c r="C32" s="7"/>
+    <row r="32" s="21" customFormat="1" spans="3:5">
+      <c r="C32" s="8"/>
       <c r="D32" s="2"/>
       <c r="E32"/>
     </row>
-    <row r="33" s="8" customFormat="1" spans="3:5">
-      <c r="C33" s="7"/>
+    <row r="33" s="21" customFormat="1" spans="3:5">
+      <c r="C33" s="8"/>
       <c r="D33" s="2"/>
       <c r="E33"/>
     </row>
-    <row r="34" s="8" customFormat="1" spans="3:5">
-      <c r="C34" s="7"/>
+    <row r="34" s="21" customFormat="1" spans="3:5">
+      <c r="C34" s="8"/>
       <c r="D34" s="2"/>
       <c r="E34"/>
     </row>
-    <row r="35" s="8" customFormat="1" spans="3:5">
-      <c r="C35" s="7"/>
+    <row r="35" s="21" customFormat="1" spans="3:5">
+      <c r="C35" s="8"/>
       <c r="D35" s="2"/>
       <c r="E35"/>
     </row>
-    <row r="36" s="8" customFormat="1" spans="3:5">
-      <c r="C36" s="7"/>
+    <row r="36" s="21" customFormat="1" spans="3:5">
+      <c r="C36" s="8"/>
       <c r="D36" s="2"/>
       <c r="E36"/>
     </row>
-    <row r="37" s="8" customFormat="1" spans="3:5">
-      <c r="C37" s="7"/>
+    <row r="37" s="21" customFormat="1" spans="3:5">
+      <c r="C37" s="8"/>
       <c r="D37" s="2"/>
       <c r="E37"/>
     </row>
-    <row r="38" s="8" customFormat="1" spans="3:5">
-      <c r="C38" s="7"/>
+    <row r="38" s="21" customFormat="1" spans="3:5">
+      <c r="C38" s="8"/>
       <c r="D38" s="2"/>
       <c r="E38"/>
     </row>
-    <row r="39" s="8" customFormat="1" spans="3:5">
-      <c r="C39" s="7"/>
+    <row r="39" s="21" customFormat="1" spans="3:5">
+      <c r="C39" s="8"/>
       <c r="D39" s="2"/>
       <c r="E39"/>
     </row>
-    <row r="40" s="8" customFormat="1" spans="3:5">
-      <c r="C40" s="7"/>
+    <row r="40" s="21" customFormat="1" spans="3:5">
+      <c r="C40" s="8"/>
       <c r="D40" s="2"/>
       <c r="E40"/>
     </row>
-    <row r="41" s="8" customFormat="1" spans="3:5">
-      <c r="C41" s="7"/>
+    <row r="41" s="21" customFormat="1" spans="3:5">
+      <c r="C41" s="8"/>
       <c r="D41" s="2"/>
       <c r="E41"/>
     </row>
-    <row r="42" s="8" customFormat="1" spans="3:5">
-      <c r="C42" s="7"/>
+    <row r="42" s="21" customFormat="1" spans="3:5">
+      <c r="C42" s="8"/>
       <c r="D42" s="2"/>
       <c r="E42"/>
     </row>
-    <row r="43" s="8" customFormat="1" spans="3:5">
-      <c r="C43" s="7"/>
+    <row r="43" s="21" customFormat="1" spans="3:5">
+      <c r="C43" s="8"/>
       <c r="D43" s="2"/>
       <c r="E43"/>
     </row>
-    <row r="44" s="8" customFormat="1" spans="3:5">
-      <c r="C44" s="7"/>
+    <row r="44" s="21" customFormat="1" spans="3:5">
+      <c r="C44" s="8"/>
       <c r="D44" s="2"/>
       <c r="E44"/>
     </row>
-    <row r="45" s="8" customFormat="1" spans="3:5">
-      <c r="C45" s="7"/>
+    <row r="45" s="21" customFormat="1" spans="3:5">
+      <c r="C45" s="8"/>
       <c r="D45" s="2"/>
       <c r="E45"/>
     </row>
-    <row r="46" s="19" customFormat="1" spans="2:5">
-      <c r="B46" s="8"/>
-      <c r="C46" s="7"/>
+    <row r="46" s="24" customFormat="1" spans="2:5">
+      <c r="B46" s="21"/>
+      <c r="C46" s="8"/>
       <c r="D46" s="2"/>
       <c r="E46"/>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="8"/>
-      <c r="C47" s="7"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="8"/>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="8"/>
-      <c r="C48" s="7"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="8"/>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="8"/>
-      <c r="C49" s="7"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="8"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="8"/>
-      <c r="C50" s="7"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="8"/>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="8"/>
-      <c r="C51" s="7"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="8"/>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="8"/>
-      <c r="C52" s="7"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="8"/>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="8"/>
-      <c r="C53" s="7"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="8"/>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="8"/>
-      <c r="C54" s="7"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="8"/>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="8"/>
-      <c r="C55" s="7"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="8"/>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="8"/>
-      <c r="C56" s="7"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="8"/>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="8"/>
-      <c r="C57" s="7"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="8"/>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="8"/>
-      <c r="C58" s="7"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="8"/>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="8"/>
-      <c r="C59" s="7"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="8"/>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="8"/>
-      <c r="C60" s="7"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="8"/>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="8"/>
-      <c r="C61" s="7"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="8"/>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="8"/>
-      <c r="C62" s="7"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="8"/>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="8"/>
-      <c r="C63" s="7"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="8"/>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="8"/>
-      <c r="C64" s="5"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="7"/>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="8"/>
-      <c r="C65" s="7"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="8"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="8"/>
-      <c r="C66" s="7"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="8"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="8"/>
-      <c r="C67" s="7"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="8"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="8"/>
-      <c r="C68" s="7"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="8"/>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="8"/>
-      <c r="C69" s="7"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="8"/>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="8"/>
-      <c r="C70" s="7"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="8"/>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="8"/>
-      <c r="C71" s="5"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="7"/>
     </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="8"/>
-      <c r="C72" s="7"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="8"/>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="8"/>
-      <c r="C73" s="7"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="8"/>
     </row>
     <row r="74" spans="2:3">
-      <c r="B74" s="8"/>
-      <c r="C74" s="7"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="8"/>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="8"/>
-      <c r="C75" s="7"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="8"/>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="8"/>
-      <c r="C76" s="7"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="8"/>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="8"/>
-      <c r="C77" s="7"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="8"/>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="8"/>
-      <c r="C78" s="7"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="8"/>
     </row>
     <row r="79" spans="2:3">
-      <c r="B79" s="8"/>
-      <c r="C79" s="7"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="8"/>
     </row>
     <row r="80" spans="2:3">
-      <c r="B80" s="8"/>
-      <c r="C80" s="7"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="8"/>
     </row>
     <row r="81" spans="2:3">
-      <c r="B81" s="8"/>
-      <c r="C81" s="7"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="8"/>
     </row>
     <row r="82" spans="2:3">
-      <c r="B82" s="8"/>
-      <c r="C82" s="7"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="8"/>
     </row>
     <row r="83" spans="2:3">
-      <c r="B83" s="8"/>
-      <c r="C83" s="7"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="8"/>
     </row>
     <row r="84" spans="2:3">
-      <c r="B84" s="8"/>
-      <c r="C84" s="7"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="8"/>
     </row>
     <row r="85" spans="2:3">
-      <c r="B85" s="8"/>
-      <c r="C85" s="7"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="8"/>
     </row>
     <row r="86" spans="2:3">
-      <c r="B86" s="8"/>
-      <c r="C86" s="7"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="8"/>
     </row>
     <row r="87" spans="2:3">
-      <c r="B87" s="8"/>
-      <c r="C87" s="7"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="8"/>
     </row>
     <row r="88" spans="2:3">
-      <c r="B88" s="8"/>
-      <c r="C88" s="7"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="8"/>
     </row>
     <row r="89" spans="2:3">
-      <c r="B89" s="8"/>
-      <c r="C89" s="7"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="8"/>
     </row>
     <row r="90" spans="2:3">
-      <c r="B90" s="8"/>
-      <c r="C90" s="5"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="7"/>
     </row>
     <row r="91" spans="2:3">
-      <c r="B91" s="8"/>
-      <c r="C91" s="5"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="7"/>
     </row>
     <row r="92" spans="2:3">
-      <c r="B92" s="8"/>
-      <c r="C92" s="5"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="7"/>
     </row>
     <row r="93" spans="2:3">
-      <c r="B93" s="8"/>
-      <c r="C93" s="5"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="7"/>
     </row>
     <row r="94" spans="2:3">
-      <c r="B94" s="8"/>
-      <c r="C94" s="5"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="7"/>
     </row>
     <row r="95" spans="2:3">
-      <c r="B95" s="8"/>
-      <c r="C95" s="5"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="7"/>
     </row>
     <row r="96" spans="2:3">
-      <c r="B96" s="8"/>
-      <c r="C96" s="7"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="8"/>
     </row>
     <row r="97" spans="2:3">
-      <c r="B97" s="8"/>
-      <c r="C97" s="5"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="7"/>
     </row>
     <row r="98" spans="2:3">
-      <c r="B98" s="8"/>
-      <c r="C98" s="7"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="8"/>
     </row>
     <row r="99" spans="2:3">
-      <c r="B99" s="8"/>
-      <c r="C99" s="7"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="8"/>
     </row>
     <row r="100" spans="2:3">
-      <c r="B100" s="8"/>
-      <c r="C100" s="7"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="8"/>
     </row>
     <row r="101" spans="2:3">
-      <c r="B101" s="8"/>
-      <c r="C101" s="7"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="8"/>
     </row>
     <row r="102" spans="2:3">
-      <c r="B102" s="8"/>
-      <c r="C102" s="7"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="8"/>
     </row>
     <row r="103" spans="2:3">
-      <c r="B103" s="8"/>
-      <c r="C103" s="7"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="8"/>
     </row>
     <row r="104" spans="2:3">
-      <c r="B104" s="8"/>
-      <c r="C104" s="7"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="8"/>
     </row>
     <row r="105" spans="2:3">
-      <c r="B105" s="8"/>
-      <c r="C105" s="7"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="8"/>
     </row>
     <row r="106" spans="2:3">
-      <c r="B106" s="8"/>
-      <c r="C106" s="7"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="8"/>
     </row>
     <row r="107" spans="2:3">
-      <c r="B107" s="8"/>
-      <c r="C107" s="7"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="8"/>
     </row>
     <row r="108" spans="2:3">
-      <c r="B108" s="8"/>
-      <c r="C108" s="7"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="8"/>
     </row>
     <row r="109" spans="2:3">
-      <c r="B109" s="8"/>
-      <c r="C109" s="7"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="8"/>
     </row>
     <row r="110" spans="2:3">
-      <c r="B110" s="8"/>
-      <c r="C110" s="7"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="8"/>
     </row>
     <row r="111" spans="2:3">
-      <c r="B111" s="8"/>
-      <c r="C111" s="7"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="8"/>
     </row>
     <row r="112" spans="2:3">
-      <c r="B112" s="8"/>
-      <c r="C112" s="7"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="8"/>
     </row>
     <row r="113" spans="2:3">
-      <c r="B113" s="8"/>
-      <c r="C113" s="7"/>
+      <c r="B113" s="21"/>
+      <c r="C113" s="8"/>
     </row>
     <row r="114" spans="2:3">
-      <c r="B114" s="8"/>
-      <c r="C114" s="7"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="8"/>
     </row>
     <row r="115" spans="2:3">
-      <c r="B115" s="8"/>
-      <c r="C115" s="7"/>
+      <c r="B115" s="21"/>
+      <c r="C115" s="8"/>
     </row>
     <row r="116" spans="2:3">
-      <c r="B116" s="8"/>
-      <c r="C116" s="7"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="8"/>
     </row>
     <row r="117" spans="2:3">
-      <c r="B117" s="8"/>
-      <c r="C117" s="7"/>
+      <c r="B117" s="21"/>
+      <c r="C117" s="8"/>
     </row>
     <row r="118" spans="2:3">
-      <c r="B118" s="8"/>
-      <c r="C118" s="7"/>
+      <c r="B118" s="21"/>
+      <c r="C118" s="8"/>
     </row>
     <row r="119" spans="2:3">
-      <c r="B119" s="8"/>
-      <c r="C119" s="7"/>
+      <c r="B119" s="21"/>
+      <c r="C119" s="8"/>
     </row>
     <row r="120" spans="2:3">
-      <c r="B120" s="8"/>
-      <c r="C120" s="7"/>
+      <c r="B120" s="21"/>
+      <c r="C120" s="8"/>
     </row>
     <row r="121" spans="2:3">
-      <c r="B121" s="8"/>
-      <c r="C121" s="7"/>
+      <c r="B121" s="21"/>
+      <c r="C121" s="8"/>
     </row>
     <row r="122" spans="2:3">
-      <c r="B122" s="8"/>
-      <c r="C122" s="7"/>
+      <c r="B122" s="21"/>
+      <c r="C122" s="8"/>
     </row>
     <row r="123" spans="2:3">
-      <c r="B123" s="8"/>
-      <c r="C123" s="7"/>
+      <c r="B123" s="21"/>
+      <c r="C123" s="8"/>
     </row>
     <row r="124" spans="2:3">
-      <c r="B124" s="21"/>
-      <c r="C124" s="7"/>
+      <c r="B124" s="26"/>
+      <c r="C124" s="8"/>
     </row>
     <row r="125" spans="2:3">
-      <c r="B125" s="21"/>
-      <c r="C125" s="7"/>
+      <c r="B125" s="26"/>
+      <c r="C125" s="8"/>
     </row>
     <row r="126" spans="2:3">
-      <c r="B126" s="21"/>
-      <c r="C126" s="7"/>
+      <c r="B126" s="26"/>
+      <c r="C126" s="8"/>
     </row>
     <row r="127" spans="2:3">
-      <c r="B127" s="21"/>
-      <c r="C127" s="7"/>
+      <c r="B127" s="26"/>
+      <c r="C127" s="8"/>
     </row>
     <row r="128" spans="2:3">
-      <c r="B128" s="21"/>
-      <c r="C128" s="7"/>
+      <c r="B128" s="26"/>
+      <c r="C128" s="8"/>
     </row>
     <row r="129" spans="2:3">
-      <c r="B129" s="21"/>
-      <c r="C129" s="7"/>
+      <c r="B129" s="26"/>
+      <c r="C129" s="8"/>
     </row>
     <row r="130" spans="2:3">
-      <c r="B130" s="21"/>
-      <c r="C130" s="7"/>
+      <c r="B130" s="26"/>
+      <c r="C130" s="8"/>
     </row>
     <row r="131" spans="2:3">
-      <c r="B131" s="21"/>
-      <c r="C131" s="7"/>
+      <c r="B131" s="26"/>
+      <c r="C131" s="8"/>
     </row>
     <row r="132" spans="2:3">
-      <c r="B132" s="8"/>
-      <c r="C132" s="7"/>
+      <c r="B132" s="21"/>
+      <c r="C132" s="8"/>
     </row>
     <row r="133" spans="2:3">
-      <c r="B133" s="8"/>
-      <c r="C133" s="7"/>
+      <c r="B133" s="21"/>
+      <c r="C133" s="8"/>
     </row>
     <row r="134" spans="2:3">
-      <c r="B134" s="8"/>
-      <c r="C134" s="7"/>
+      <c r="B134" s="21"/>
+      <c r="C134" s="8"/>
     </row>
     <row r="135" spans="2:3">
-      <c r="B135" s="8"/>
-      <c r="C135" s="7"/>
+      <c r="B135" s="21"/>
+      <c r="C135" s="8"/>
     </row>
     <row r="136" spans="2:3">
-      <c r="B136" s="8"/>
-      <c r="C136" s="7"/>
+      <c r="B136" s="21"/>
+      <c r="C136" s="8"/>
     </row>
     <row r="137" spans="2:3">
-      <c r="B137" s="8"/>
-      <c r="C137" s="7"/>
+      <c r="B137" s="21"/>
+      <c r="C137" s="8"/>
     </row>
     <row r="138" spans="2:3">
-      <c r="B138" s="8"/>
-      <c r="C138" s="7"/>
+      <c r="B138" s="21"/>
+      <c r="C138" s="8"/>
     </row>
     <row r="139" spans="2:3">
-      <c r="B139" s="8"/>
-      <c r="C139" s="7"/>
+      <c r="B139" s="21"/>
+      <c r="C139" s="8"/>
     </row>
     <row r="140" spans="2:3">
-      <c r="B140" s="8"/>
-      <c r="C140" s="7"/>
+      <c r="B140" s="21"/>
+      <c r="C140" s="8"/>
     </row>
     <row r="141" spans="2:3">
-      <c r="B141" s="8"/>
-      <c r="C141" s="7"/>
+      <c r="B141" s="21"/>
+      <c r="C141" s="8"/>
     </row>
     <row r="142" spans="2:3">
-      <c r="B142" s="8"/>
-      <c r="C142" s="7"/>
+      <c r="B142" s="21"/>
+      <c r="C142" s="8"/>
     </row>
     <row r="143" spans="2:3">
-      <c r="B143" s="8"/>
-      <c r="C143" s="7"/>
+      <c r="B143" s="21"/>
+      <c r="C143" s="8"/>
     </row>
     <row r="144" spans="2:3">
-      <c r="B144" s="8"/>
-      <c r="C144" s="7"/>
+      <c r="B144" s="21"/>
+      <c r="C144" s="8"/>
     </row>
     <row r="145" spans="2:3">
-      <c r="B145" s="8"/>
-      <c r="C145" s="7"/>
+      <c r="B145" s="21"/>
+      <c r="C145" s="8"/>
     </row>
     <row r="146" spans="2:3">
-      <c r="B146" s="8"/>
-      <c r="C146" s="7"/>
+      <c r="B146" s="21"/>
+      <c r="C146" s="8"/>
     </row>
     <row r="147" spans="2:3">
-      <c r="B147" s="8"/>
-      <c r="C147" s="7"/>
+      <c r="B147" s="21"/>
+      <c r="C147" s="8"/>
     </row>
     <row r="148" spans="2:3">
-      <c r="B148" s="8"/>
-      <c r="C148" s="7"/>
+      <c r="B148" s="21"/>
+      <c r="C148" s="8"/>
     </row>
     <row r="149" spans="2:3">
-      <c r="B149" s="8"/>
-      <c r="C149" s="7"/>
+      <c r="B149" s="21"/>
+      <c r="C149" s="8"/>
     </row>
     <row r="150" spans="2:3">
-      <c r="B150" s="8"/>
-      <c r="C150" s="7"/>
+      <c r="B150" s="21"/>
+      <c r="C150" s="8"/>
     </row>
     <row r="151" spans="2:3">
-      <c r="B151" s="8"/>
-      <c r="C151" s="7"/>
+      <c r="B151" s="21"/>
+      <c r="C151" s="8"/>
     </row>
     <row r="152" spans="2:3">
-      <c r="B152" s="8"/>
-      <c r="C152" s="7"/>
+      <c r="B152" s="21"/>
+      <c r="C152" s="8"/>
     </row>
     <row r="153" spans="2:3">
-      <c r="B153" s="8"/>
-      <c r="C153" s="7"/>
+      <c r="B153" s="21"/>
+      <c r="C153" s="8"/>
     </row>
     <row r="154" spans="2:3">
-      <c r="B154" s="8"/>
-      <c r="C154" s="7"/>
+      <c r="B154" s="21"/>
+      <c r="C154" s="8"/>
     </row>
     <row r="155" spans="2:3">
-      <c r="B155" s="8"/>
-      <c r="C155" s="7"/>
+      <c r="B155" s="21"/>
+      <c r="C155" s="8"/>
     </row>
     <row r="156" spans="2:3">
-      <c r="B156" s="8"/>
-      <c r="C156" s="7"/>
+      <c r="B156" s="21"/>
+      <c r="C156" s="8"/>
     </row>
     <row r="157" spans="2:3">
-      <c r="B157" s="8"/>
-      <c r="C157" s="7"/>
+      <c r="B157" s="21"/>
+      <c r="C157" s="8"/>
     </row>
     <row r="158" spans="2:3">
-      <c r="B158" s="8"/>
-      <c r="C158" s="7"/>
+      <c r="B158" s="21"/>
+      <c r="C158" s="8"/>
     </row>
     <row r="159" spans="2:3">
-      <c r="B159" s="8"/>
-      <c r="C159" s="7"/>
+      <c r="B159" s="21"/>
+      <c r="C159" s="8"/>
     </row>
     <row r="160" spans="2:3">
-      <c r="B160" s="8"/>
-      <c r="C160" s="7"/>
+      <c r="B160" s="21"/>
+      <c r="C160" s="8"/>
     </row>
     <row r="161" spans="2:3">
-      <c r="B161" s="8"/>
-      <c r="C161" s="7"/>
+      <c r="B161" s="21"/>
+      <c r="C161" s="8"/>
     </row>
     <row r="162" spans="2:3">
-      <c r="B162" s="8"/>
-      <c r="C162" s="7"/>
+      <c r="B162" s="21"/>
+      <c r="C162" s="8"/>
     </row>
     <row r="163" spans="2:3">
-      <c r="B163" s="8"/>
-      <c r="C163" s="7"/>
+      <c r="B163" s="21"/>
+      <c r="C163" s="8"/>
     </row>
     <row r="164" spans="2:3">
-      <c r="B164" s="8"/>
-      <c r="C164" s="7"/>
+      <c r="B164" s="21"/>
+      <c r="C164" s="8"/>
     </row>
     <row r="165" spans="2:3">
-      <c r="B165" s="8"/>
-      <c r="C165" s="7"/>
+      <c r="B165" s="21"/>
+      <c r="C165" s="8"/>
     </row>
     <row r="166" spans="2:3">
-      <c r="B166" s="8"/>
-      <c r="C166" s="7"/>
+      <c r="B166" s="21"/>
+      <c r="C166" s="8"/>
     </row>
     <row r="167" spans="2:3">
-      <c r="B167" s="8"/>
-      <c r="C167" s="7"/>
+      <c r="B167" s="21"/>
+      <c r="C167" s="8"/>
     </row>
     <row r="168" spans="2:3">
-      <c r="B168" s="8"/>
-      <c r="C168" s="7"/>
+      <c r="B168" s="21"/>
+      <c r="C168" s="8"/>
     </row>
     <row r="169" spans="2:3">
-      <c r="B169" s="8"/>
-      <c r="C169" s="7"/>
+      <c r="B169" s="21"/>
+      <c r="C169" s="8"/>
     </row>
     <row r="170" spans="2:3">
-      <c r="B170" s="8"/>
-      <c r="C170" s="7"/>
+      <c r="B170" s="21"/>
+      <c r="C170" s="8"/>
     </row>
     <row r="171" spans="2:3">
-      <c r="B171" s="8"/>
-      <c r="C171" s="7"/>
+      <c r="B171" s="21"/>
+      <c r="C171" s="8"/>
     </row>
     <row r="172" spans="2:3">
-      <c r="B172" s="8"/>
-      <c r="C172" s="7"/>
+      <c r="B172" s="21"/>
+      <c r="C172" s="8"/>
     </row>
     <row r="173" spans="2:3">
-      <c r="B173" s="8"/>
-      <c r="C173" s="7"/>
+      <c r="B173" s="21"/>
+      <c r="C173" s="8"/>
     </row>
     <row r="174" spans="2:3">
-      <c r="B174" s="8"/>
-      <c r="C174" s="7"/>
+      <c r="B174" s="21"/>
+      <c r="C174" s="8"/>
     </row>
     <row r="175" spans="2:3">
-      <c r="B175" s="8"/>
-      <c r="C175" s="7"/>
+      <c r="B175" s="21"/>
+      <c r="C175" s="8"/>
     </row>
     <row r="176" spans="2:3">
-      <c r="B176" s="8"/>
-      <c r="C176" s="7"/>
+      <c r="B176" s="21"/>
+      <c r="C176" s="8"/>
     </row>
     <row r="177" spans="2:3">
-      <c r="B177" s="8"/>
-      <c r="C177" s="7"/>
+      <c r="B177" s="21"/>
+      <c r="C177" s="8"/>
     </row>
     <row r="178" spans="2:3">
-      <c r="B178" s="8"/>
-      <c r="C178" s="5"/>
+      <c r="B178" s="21"/>
+      <c r="C178" s="7"/>
     </row>
     <row r="179" spans="2:3">
-      <c r="B179" s="8"/>
-      <c r="C179" s="5"/>
+      <c r="B179" s="21"/>
+      <c r="C179" s="7"/>
     </row>
     <row r="180" spans="2:3">
-      <c r="B180" s="8"/>
-      <c r="C180" s="5"/>
+      <c r="B180" s="21"/>
+      <c r="C180" s="7"/>
     </row>
     <row r="181" spans="2:3">
-      <c r="B181" s="8"/>
-      <c r="C181" s="5"/>
+      <c r="B181" s="21"/>
+      <c r="C181" s="7"/>
     </row>
     <row r="182" spans="2:3">
-      <c r="B182" s="8"/>
-      <c r="C182" s="5"/>
+      <c r="B182" s="21"/>
+      <c r="C182" s="7"/>
     </row>
     <row r="183" spans="2:3">
-      <c r="B183" s="21"/>
-      <c r="C183" s="7"/>
+      <c r="B183" s="26"/>
+      <c r="C183" s="8"/>
     </row>
     <row r="184" spans="2:3">
-      <c r="B184" s="8"/>
-      <c r="C184" s="5"/>
+      <c r="B184" s="21"/>
+      <c r="C184" s="7"/>
     </row>
     <row r="185" spans="2:3">
-      <c r="B185" s="8"/>
-      <c r="C185" s="5"/>
+      <c r="B185" s="21"/>
+      <c r="C185" s="7"/>
     </row>
     <row r="186" spans="2:3">
-      <c r="B186" s="8"/>
-      <c r="C186" s="5"/>
+      <c r="B186" s="21"/>
+      <c r="C186" s="7"/>
     </row>
     <row r="187" spans="2:3">
-      <c r="B187" s="8"/>
-      <c r="C187" s="5"/>
+      <c r="B187" s="21"/>
+      <c r="C187" s="7"/>
     </row>
     <row r="188" spans="2:3">
-      <c r="B188" s="8"/>
-      <c r="C188" s="7"/>
+      <c r="B188" s="21"/>
+      <c r="C188" s="8"/>
     </row>
     <row r="189" spans="2:3">
-      <c r="B189" s="8"/>
-      <c r="C189" s="5"/>
+      <c r="B189" s="21"/>
+      <c r="C189" s="7"/>
     </row>
     <row r="190" spans="2:3">
-      <c r="B190" s="8"/>
-      <c r="C190" s="7"/>
+      <c r="B190" s="21"/>
+      <c r="C190" s="8"/>
     </row>
     <row r="191" spans="2:3">
-      <c r="B191" s="8"/>
-      <c r="C191" s="7"/>
+      <c r="B191" s="21"/>
+      <c r="C191" s="8"/>
     </row>
     <row r="192" spans="2:3">
-      <c r="B192" s="19"/>
-      <c r="C192" s="7"/>
+      <c r="B192" s="24"/>
+      <c r="C192" s="8"/>
     </row>
     <row r="193" spans="2:3">
-      <c r="B193" s="19"/>
-      <c r="C193" s="7"/>
+      <c r="B193" s="24"/>
+      <c r="C193" s="8"/>
     </row>
     <row r="194" spans="2:3">
-      <c r="B194" s="19"/>
-      <c r="C194" s="7"/>
+      <c r="B194" s="24"/>
+      <c r="C194" s="8"/>
     </row>
     <row r="195" spans="2:3">
-      <c r="B195" s="19"/>
-      <c r="C195" s="7"/>
+      <c r="B195" s="24"/>
+      <c r="C195" s="8"/>
     </row>
     <row r="196" spans="2:3">
-      <c r="B196" s="19"/>
-      <c r="C196" s="7"/>
+      <c r="B196" s="24"/>
+      <c r="C196" s="8"/>
     </row>
     <row r="197" spans="2:3">
-      <c r="B197" s="19"/>
-      <c r="C197" s="7"/>
+      <c r="B197" s="24"/>
+      <c r="C197" s="8"/>
     </row>
     <row r="198" spans="2:3">
-      <c r="B198" s="19"/>
-      <c r="C198" s="7"/>
+      <c r="B198" s="24"/>
+      <c r="C198" s="8"/>
     </row>
     <row r="199" spans="2:3">
-      <c r="B199" s="8"/>
-      <c r="C199" s="7"/>
+      <c r="B199" s="21"/>
+      <c r="C199" s="8"/>
     </row>
     <row r="200" spans="2:3">
-      <c r="B200" s="8"/>
-      <c r="C200" s="7"/>
+      <c r="B200" s="21"/>
+      <c r="C200" s="8"/>
     </row>
     <row r="201" spans="2:3">
-      <c r="B201" s="8"/>
-      <c r="C201" s="7"/>
+      <c r="B201" s="21"/>
+      <c r="C201" s="8"/>
     </row>
     <row r="202" spans="2:3">
-      <c r="B202" s="8"/>
-      <c r="C202" s="7"/>
+      <c r="B202" s="21"/>
+      <c r="C202" s="8"/>
     </row>
     <row r="203" spans="2:3">
-      <c r="B203" s="8"/>
-      <c r="C203" s="7"/>
+      <c r="B203" s="21"/>
+      <c r="C203" s="8"/>
     </row>
     <row r="204" spans="2:3">
-      <c r="B204" s="8"/>
-      <c r="C204" s="7"/>
+      <c r="B204" s="21"/>
+      <c r="C204" s="8"/>
     </row>
     <row r="205" spans="2:3">
-      <c r="B205" s="8"/>
-      <c r="C205" s="7"/>
+      <c r="B205" s="21"/>
+      <c r="C205" s="8"/>
     </row>
     <row r="206" spans="2:3">
-      <c r="B206" s="8"/>
-      <c r="C206" s="7"/>
+      <c r="B206" s="21"/>
+      <c r="C206" s="8"/>
     </row>
     <row r="207" spans="2:3">
-      <c r="B207" s="8"/>
-      <c r="C207" s="7"/>
+      <c r="B207" s="21"/>
+      <c r="C207" s="8"/>
     </row>
     <row r="208" spans="2:3">
-      <c r="B208" s="8"/>
-      <c r="C208" s="17"/>
+      <c r="B208" s="21"/>
+      <c r="C208" s="22"/>
     </row>
     <row r="209" spans="2:3">
-      <c r="B209" s="8"/>
-      <c r="C209" s="17"/>
+      <c r="B209" s="21"/>
+      <c r="C209" s="22"/>
     </row>
     <row r="210" spans="2:3">
-      <c r="B210" s="8"/>
-      <c r="C210" s="17"/>
+      <c r="B210" s="21"/>
+      <c r="C210" s="22"/>
     </row>
     <row r="211" spans="2:3">
-      <c r="B211" s="8"/>
-      <c r="C211" s="17"/>
+      <c r="B211" s="21"/>
+      <c r="C211" s="22"/>
     </row>
     <row r="212" spans="2:3">
-      <c r="B212" s="8"/>
-      <c r="C212" s="17"/>
+      <c r="B212" s="21"/>
+      <c r="C212" s="22"/>
     </row>
     <row r="213" spans="2:3">
-      <c r="B213" s="8"/>
-      <c r="C213" s="17"/>
+      <c r="B213" s="21"/>
+      <c r="C213" s="22"/>
     </row>
     <row r="214" spans="2:3">
-      <c r="B214" s="8"/>
-      <c r="C214" s="17"/>
+      <c r="B214" s="21"/>
+      <c r="C214" s="22"/>
     </row>
     <row r="215" spans="2:3">
-      <c r="B215" s="8"/>
-      <c r="C215" s="17"/>
+      <c r="B215" s="21"/>
+      <c r="C215" s="22"/>
     </row>
     <row r="216" spans="2:3">
-      <c r="B216" s="8"/>
-      <c r="C216" s="17"/>
+      <c r="B216" s="21"/>
+      <c r="C216" s="22"/>
     </row>
     <row r="217" spans="2:3">
-      <c r="B217" s="8"/>
-      <c r="C217" s="17"/>
+      <c r="B217" s="21"/>
+      <c r="C217" s="22"/>
     </row>
     <row r="218" spans="2:3">
-      <c r="B218" s="8"/>
-      <c r="C218" s="17"/>
+      <c r="B218" s="21"/>
+      <c r="C218" s="22"/>
     </row>
     <row r="219" spans="2:3">
-      <c r="B219" s="8"/>
-      <c r="C219" s="17"/>
+      <c r="B219" s="21"/>
+      <c r="C219" s="22"/>
     </row>
     <row r="220" spans="2:3">
-      <c r="B220" s="8"/>
-      <c r="C220" s="17"/>
+      <c r="B220" s="21"/>
+      <c r="C220" s="22"/>
     </row>
     <row r="221" spans="2:3">
-      <c r="B221" s="8"/>
-      <c r="C221" s="17"/>
+      <c r="B221" s="21"/>
+      <c r="C221" s="22"/>
     </row>
     <row r="222" spans="2:3">
-      <c r="B222" s="8"/>
-      <c r="C222" s="17"/>
+      <c r="B222" s="21"/>
+      <c r="C222" s="22"/>
     </row>
     <row r="223" spans="2:3">
-      <c r="B223" s="8"/>
-      <c r="C223" s="17"/>
+      <c r="B223" s="21"/>
+      <c r="C223" s="22"/>
     </row>
     <row r="224" spans="2:3">
-      <c r="B224" s="8"/>
-      <c r="C224" s="17"/>
+      <c r="B224" s="21"/>
+      <c r="C224" s="22"/>
     </row>
     <row r="225" spans="2:3">
-      <c r="B225" s="8"/>
-      <c r="C225" s="17"/>
+      <c r="B225" s="21"/>
+      <c r="C225" s="22"/>
     </row>
     <row r="226" spans="2:3">
-      <c r="B226" s="8"/>
-      <c r="C226" s="17"/>
+      <c r="B226" s="21"/>
+      <c r="C226" s="22"/>
     </row>
     <row r="227" spans="2:3">
-      <c r="B227" s="8"/>
-      <c r="C227" s="17"/>
+      <c r="B227" s="21"/>
+      <c r="C227" s="22"/>
     </row>
     <row r="228" spans="2:3">
-      <c r="B228" s="8"/>
-      <c r="C228" s="8"/>
+      <c r="B228" s="21"/>
+      <c r="C228" s="21"/>
     </row>
     <row r="229" spans="2:3">
-      <c r="B229" s="8"/>
-      <c r="C229" s="8"/>
+      <c r="B229" s="21"/>
+      <c r="C229" s="21"/>
     </row>
     <row r="230" spans="2:3">
-      <c r="B230" s="8"/>
-      <c r="C230" s="8"/>
+      <c r="B230" s="21"/>
+      <c r="C230" s="21"/>
     </row>
     <row r="231" spans="2:3">
-      <c r="B231" s="8"/>
-      <c r="C231" s="8"/>
+      <c r="B231" s="21"/>
+      <c r="C231" s="21"/>
     </row>
     <row r="232" spans="2:3">
-      <c r="B232" s="8"/>
-      <c r="C232" s="8"/>
+      <c r="B232" s="21"/>
+      <c r="C232" s="21"/>
     </row>
     <row r="233" spans="2:3">
-      <c r="B233" s="8"/>
-      <c r="C233" s="8"/>
+      <c r="B233" s="21"/>
+      <c r="C233" s="21"/>
     </row>
     <row r="234" spans="2:3">
-      <c r="B234" s="8"/>
-      <c r="C234" s="8"/>
+      <c r="B234" s="21"/>
+      <c r="C234" s="21"/>
     </row>
     <row r="235" spans="2:3">
-      <c r="B235" s="8"/>
-      <c r="C235" s="8"/>
+      <c r="B235" s="21"/>
+      <c r="C235" s="21"/>
     </row>
     <row r="236" spans="2:3">
-      <c r="B236" s="8"/>
-      <c r="C236" s="8"/>
+      <c r="B236" s="21"/>
+      <c r="C236" s="21"/>
     </row>
     <row r="237" spans="2:3">
-      <c r="B237" s="8"/>
-      <c r="C237" s="8"/>
+      <c r="B237" s="21"/>
+      <c r="C237" s="21"/>
     </row>
     <row r="238" spans="2:3">
-      <c r="B238" s="8"/>
-      <c r="C238" s="8"/>
+      <c r="B238" s="21"/>
+      <c r="C238" s="21"/>
     </row>
     <row r="239" spans="2:3">
-      <c r="B239" s="8"/>
-      <c r="C239" s="8"/>
+      <c r="B239" s="21"/>
+      <c r="C239" s="21"/>
     </row>
     <row r="240" spans="2:3">
-      <c r="B240" s="8"/>
-      <c r="C240" s="8"/>
+      <c r="B240" s="21"/>
+      <c r="C240" s="21"/>
     </row>
     <row r="241" spans="2:3">
-      <c r="B241" s="8"/>
-      <c r="C241" s="8"/>
+      <c r="B241" s="21"/>
+      <c r="C241" s="21"/>
     </row>
     <row r="242" spans="2:3">
-      <c r="B242" s="8"/>
-      <c r="C242" s="8"/>
+      <c r="B242" s="21"/>
+      <c r="C242" s="21"/>
     </row>
     <row r="243" spans="2:3">
-      <c r="B243" s="8"/>
-      <c r="C243" s="7"/>
+      <c r="B243" s="21"/>
+      <c r="C243" s="8"/>
     </row>
     <row r="244" spans="2:3">
-      <c r="B244" s="8"/>
-      <c r="C244" s="7"/>
+      <c r="B244" s="21"/>
+      <c r="C244" s="8"/>
     </row>
     <row r="245" spans="2:3">
-      <c r="B245" s="8"/>
-      <c r="C245" s="7"/>
+      <c r="B245" s="21"/>
+      <c r="C245" s="8"/>
     </row>
     <row r="246" spans="2:3">
-      <c r="B246" s="8"/>
-      <c r="C246" s="7"/>
+      <c r="B246" s="21"/>
+      <c r="C246" s="8"/>
     </row>
     <row r="247" spans="2:3">
-      <c r="B247" s="8"/>
-      <c r="C247" s="7"/>
+      <c r="B247" s="21"/>
+      <c r="C247" s="8"/>
     </row>
     <row r="248" spans="2:3">
-      <c r="B248" s="8"/>
-      <c r="C248" s="7"/>
+      <c r="B248" s="21"/>
+      <c r="C248" s="8"/>
     </row>
     <row r="249" spans="2:3">
-      <c r="B249" s="8"/>
-      <c r="C249" s="7"/>
+      <c r="B249" s="21"/>
+      <c r="C249" s="8"/>
     </row>
     <row r="250" spans="2:3">
-      <c r="B250" s="8"/>
-      <c r="C250" s="7"/>
+      <c r="B250" s="21"/>
+      <c r="C250" s="8"/>
     </row>
     <row r="251" spans="2:3">
-      <c r="B251" s="8"/>
-      <c r="C251" s="7"/>
+      <c r="B251" s="21"/>
+      <c r="C251" s="8"/>
     </row>
     <row r="252" spans="2:3">
-      <c r="B252" s="8"/>
-      <c r="C252" s="7"/>
+      <c r="B252" s="21"/>
+      <c r="C252" s="8"/>
     </row>
     <row r="253" spans="2:3">
-      <c r="B253" s="8"/>
-      <c r="C253" s="7"/>
+      <c r="B253" s="21"/>
+      <c r="C253" s="8"/>
     </row>
     <row r="254" spans="2:3">
-      <c r="B254" s="8"/>
-      <c r="C254" s="7"/>
+      <c r="B254" s="21"/>
+      <c r="C254" s="8"/>
     </row>
     <row r="255" spans="2:3">
-      <c r="B255" s="8"/>
-      <c r="C255" s="7"/>
+      <c r="B255" s="21"/>
+      <c r="C255" s="8"/>
     </row>
     <row r="256" spans="2:3">
-      <c r="B256" s="8"/>
-      <c r="C256" s="7"/>
+      <c r="B256" s="21"/>
+      <c r="C256" s="8"/>
     </row>
     <row r="257" spans="2:3">
-      <c r="B257" s="8"/>
-      <c r="C257" s="7"/>
+      <c r="B257" s="21"/>
+      <c r="C257" s="8"/>
     </row>
     <row r="258" spans="2:3">
-      <c r="B258" s="8"/>
-      <c r="C258" s="7"/>
+      <c r="B258" s="21"/>
+      <c r="C258" s="8"/>
     </row>
     <row r="259" spans="2:3">
-      <c r="B259" s="8"/>
-      <c r="C259" s="7"/>
+      <c r="B259" s="21"/>
+      <c r="C259" s="8"/>
     </row>
     <row r="260" spans="2:3">
-      <c r="B260" s="8"/>
-      <c r="C260" s="7"/>
+      <c r="B260" s="21"/>
+      <c r="C260" s="8"/>
     </row>
     <row r="261" spans="2:3">
-      <c r="B261" s="8"/>
-      <c r="C261" s="7"/>
+      <c r="B261" s="21"/>
+      <c r="C261" s="8"/>
     </row>
     <row r="262" spans="2:3">
-      <c r="B262" s="8"/>
-      <c r="C262" s="7"/>
+      <c r="B262" s="21"/>
+      <c r="C262" s="8"/>
     </row>
     <row r="263" spans="2:3">
-      <c r="B263" s="8"/>
-      <c r="C263" s="7"/>
+      <c r="B263" s="21"/>
+      <c r="C263" s="8"/>
     </row>
     <row r="264" spans="2:3">
-      <c r="B264" s="8"/>
-      <c r="C264" s="7"/>
+      <c r="B264" s="21"/>
+      <c r="C264" s="8"/>
     </row>
     <row r="265" spans="2:3">
-      <c r="B265" s="8"/>
-      <c r="C265" s="7"/>
+      <c r="B265" s="21"/>
+      <c r="C265" s="8"/>
     </row>
     <row r="266" spans="2:3">
-      <c r="B266" s="8"/>
-      <c r="C266" s="7"/>
+      <c r="B266" s="21"/>
+      <c r="C266" s="8"/>
     </row>
     <row r="267" spans="2:3">
-      <c r="B267" s="8"/>
-      <c r="C267" s="7"/>
+      <c r="B267" s="21"/>
+      <c r="C267" s="8"/>
     </row>
     <row r="268" spans="2:3">
-      <c r="B268" s="8"/>
-      <c r="C268" s="17"/>
+      <c r="B268" s="21"/>
+      <c r="C268" s="22"/>
     </row>
     <row r="269" spans="2:3">
-      <c r="B269" s="8"/>
-      <c r="C269" s="17"/>
+      <c r="B269" s="21"/>
+      <c r="C269" s="22"/>
     </row>
     <row r="270" spans="2:3">
-      <c r="B270" s="8"/>
-      <c r="C270" s="7"/>
+      <c r="B270" s="21"/>
+      <c r="C270" s="8"/>
     </row>
     <row r="271" spans="2:3">
-      <c r="B271" s="8"/>
-      <c r="C271" s="7"/>
+      <c r="B271" s="21"/>
+      <c r="C271" s="8"/>
     </row>
     <row r="272" spans="2:3">
-      <c r="B272" s="8"/>
-      <c r="C272" s="7"/>
+      <c r="B272" s="21"/>
+      <c r="C272" s="8"/>
     </row>
     <row r="273" spans="2:3">
-      <c r="B273" s="8"/>
-      <c r="C273" s="7"/>
+      <c r="B273" s="21"/>
+      <c r="C273" s="8"/>
     </row>
     <row r="274" spans="2:3">
-      <c r="B274" s="8"/>
-      <c r="C274" s="7"/>
+      <c r="B274" s="21"/>
+      <c r="C274" s="8"/>
     </row>
     <row r="275" spans="2:3">
-      <c r="B275" s="8"/>
-      <c r="C275" s="7"/>
+      <c r="B275" s="21"/>
+      <c r="C275" s="8"/>
     </row>
     <row r="276" spans="2:3">
-      <c r="B276" s="8"/>
-      <c r="C276" s="7"/>
+      <c r="B276" s="21"/>
+      <c r="C276" s="8"/>
     </row>
     <row r="277" spans="2:3">
-      <c r="B277" s="8"/>
-      <c r="C277" s="7"/>
+      <c r="B277" s="21"/>
+      <c r="C277" s="8"/>
     </row>
     <row r="278" spans="2:3">
-      <c r="B278" s="8"/>
-      <c r="C278" s="7"/>
+      <c r="B278" s="21"/>
+      <c r="C278" s="8"/>
     </row>
     <row r="279" spans="2:3">
-      <c r="B279" s="8"/>
-      <c r="C279" s="7"/>
+      <c r="B279" s="21"/>
+      <c r="C279" s="8"/>
     </row>
     <row r="280" spans="2:3">
-      <c r="B280" s="8"/>
-      <c r="C280" s="7"/>
+      <c r="B280" s="21"/>
+      <c r="C280" s="8"/>
     </row>
     <row r="281" spans="2:3">
-      <c r="B281" s="8"/>
-      <c r="C281" s="7"/>
+      <c r="B281" s="21"/>
+      <c r="C281" s="8"/>
     </row>
     <row r="282" spans="2:3">
-      <c r="B282" s="8"/>
-      <c r="C282" s="5"/>
+      <c r="B282" s="21"/>
+      <c r="C282" s="7"/>
     </row>
     <row r="283" spans="2:3">
-      <c r="B283" s="8"/>
-      <c r="C283" s="5"/>
+      <c r="B283" s="21"/>
+      <c r="C283" s="7"/>
     </row>
     <row r="284" spans="2:3">
-      <c r="B284" s="8"/>
-      <c r="C284" s="5"/>
+      <c r="B284" s="21"/>
+      <c r="C284" s="7"/>
     </row>
     <row r="285" spans="2:3">
-      <c r="B285" s="8"/>
-      <c r="C285" s="5"/>
+      <c r="B285" s="21"/>
+      <c r="C285" s="7"/>
     </row>
     <row r="286" spans="2:3">
-      <c r="B286" s="8"/>
-      <c r="C286" s="5"/>
+      <c r="B286" s="21"/>
+      <c r="C286" s="7"/>
     </row>
     <row r="287" spans="2:3">
-      <c r="B287" s="8"/>
-      <c r="C287" s="5"/>
+      <c r="B287" s="21"/>
+      <c r="C287" s="7"/>
     </row>
     <row r="288" spans="2:3">
-      <c r="B288" s="8"/>
-      <c r="C288" s="5"/>
+      <c r="B288" s="21"/>
+      <c r="C288" s="7"/>
     </row>
     <row r="289" spans="2:3">
-      <c r="B289" s="8"/>
-      <c r="C289" s="5"/>
+      <c r="B289" s="21"/>
+      <c r="C289" s="7"/>
     </row>
     <row r="290" spans="2:3">
-      <c r="B290" s="8"/>
-      <c r="C290" s="5"/>
+      <c r="B290" s="21"/>
+      <c r="C290" s="7"/>
     </row>
     <row r="291" spans="2:3">
-      <c r="B291" s="8"/>
-      <c r="C291" s="5"/>
+      <c r="B291" s="21"/>
+      <c r="C291" s="7"/>
     </row>
     <row r="292" spans="2:3">
-      <c r="B292" s="8"/>
-      <c r="C292" s="5"/>
+      <c r="B292" s="21"/>
+      <c r="C292" s="7"/>
     </row>
     <row r="293" spans="2:3">
-      <c r="B293" s="8"/>
-      <c r="C293" s="5"/>
+      <c r="B293" s="21"/>
+      <c r="C293" s="7"/>
     </row>
     <row r="294" spans="2:3">
-      <c r="B294" s="8"/>
-      <c r="C294" s="5"/>
+      <c r="B294" s="21"/>
+      <c r="C294" s="7"/>
     </row>
     <row r="295" spans="2:3">
-      <c r="B295" s="8"/>
-      <c r="C295" s="5"/>
+      <c r="B295" s="21"/>
+      <c r="C295" s="7"/>
     </row>
     <row r="296" spans="2:3">
-      <c r="B296" s="8"/>
-      <c r="C296" s="5"/>
+      <c r="B296" s="21"/>
+      <c r="C296" s="7"/>
     </row>
     <row r="297" spans="2:3">
-      <c r="B297" s="8"/>
-      <c r="C297" s="7"/>
+      <c r="B297" s="21"/>
+      <c r="C297" s="8"/>
     </row>
     <row r="298" spans="2:3">
-      <c r="B298" s="8"/>
-      <c r="C298" s="7"/>
+      <c r="B298" s="21"/>
+      <c r="C298" s="8"/>
     </row>
     <row r="299" spans="2:3">
-      <c r="B299" s="8"/>
-      <c r="C299" s="7"/>
+      <c r="B299" s="21"/>
+      <c r="C299" s="8"/>
     </row>
     <row r="300" spans="2:3">
-      <c r="B300" s="8"/>
-      <c r="C300" s="7"/>
+      <c r="B300" s="21"/>
+      <c r="C300" s="8"/>
     </row>
     <row r="301" spans="2:3">
-      <c r="B301" s="8"/>
-      <c r="C301" s="7"/>
+      <c r="B301" s="21"/>
+      <c r="C301" s="8"/>
     </row>
     <row r="302" spans="2:3">
-      <c r="B302" s="8"/>
-      <c r="C302" s="5"/>
+      <c r="B302" s="21"/>
+      <c r="C302" s="7"/>
     </row>
     <row r="303" spans="2:3">
-      <c r="B303" s="8"/>
-      <c r="C303" s="5"/>
+      <c r="B303" s="21"/>
+      <c r="C303" s="7"/>
     </row>
     <row r="304" spans="2:3">
-      <c r="B304" s="8"/>
-      <c r="C304" s="5"/>
+      <c r="B304" s="21"/>
+      <c r="C304" s="7"/>
     </row>
     <row r="305" spans="2:3">
-      <c r="B305" s="8"/>
-      <c r="C305" s="5"/>
+      <c r="B305" s="21"/>
+      <c r="C305" s="7"/>
     </row>
     <row r="306" spans="2:3">
-      <c r="B306" s="8"/>
-      <c r="C306" s="5"/>
+      <c r="B306" s="21"/>
+      <c r="C306" s="7"/>
     </row>
     <row r="307" spans="2:3">
-      <c r="B307" s="8"/>
-      <c r="C307" s="7"/>
+      <c r="B307" s="21"/>
+      <c r="C307" s="8"/>
     </row>
     <row r="308" spans="2:3">
-      <c r="B308" s="8"/>
-      <c r="C308" s="7"/>
+      <c r="B308" s="21"/>
+      <c r="C308" s="8"/>
     </row>
     <row r="309" spans="2:3">
-      <c r="B309" s="8"/>
-      <c r="C309" s="7"/>
+      <c r="B309" s="21"/>
+      <c r="C309" s="8"/>
     </row>
     <row r="310" spans="2:3">
-      <c r="B310" s="8"/>
-      <c r="C310" s="7"/>
+      <c r="B310" s="21"/>
+      <c r="C310" s="8"/>
     </row>
     <row r="311" spans="2:3">
-      <c r="B311" s="8"/>
-      <c r="C311" s="7"/>
+      <c r="B311" s="21"/>
+      <c r="C311" s="8"/>
     </row>
     <row r="312" spans="2:3">
-      <c r="B312" s="8"/>
-      <c r="C312" s="7"/>
+      <c r="B312" s="21"/>
+      <c r="C312" s="8"/>
     </row>
     <row r="313" spans="2:3">
-      <c r="B313" s="8"/>
-      <c r="C313" s="5"/>
+      <c r="B313" s="21"/>
+      <c r="C313" s="7"/>
     </row>
     <row r="314" spans="2:3">
-      <c r="B314" s="8"/>
-      <c r="C314" s="5"/>
+      <c r="B314" s="21"/>
+      <c r="C314" s="7"/>
     </row>
     <row r="315" spans="2:3">
-      <c r="B315" s="8"/>
-      <c r="C315" s="5"/>
+      <c r="B315" s="21"/>
+      <c r="C315" s="7"/>
     </row>
     <row r="316" spans="2:3">
-      <c r="B316" s="8"/>
-      <c r="C316" s="5"/>
+      <c r="B316" s="21"/>
+      <c r="C316" s="7"/>
     </row>
     <row r="317" spans="2:3">
-      <c r="B317" s="8"/>
-      <c r="C317" s="5"/>
+      <c r="B317" s="21"/>
+      <c r="C317" s="7"/>
     </row>
     <row r="318" spans="2:3">
-      <c r="B318" s="8"/>
-      <c r="C318" s="5"/>
+      <c r="B318" s="21"/>
+      <c r="C318" s="7"/>
     </row>
     <row r="319" spans="2:3">
-      <c r="B319" s="8"/>
-      <c r="C319" s="5"/>
+      <c r="B319" s="21"/>
+      <c r="C319" s="7"/>
     </row>
     <row r="320" spans="2:3">
-      <c r="B320" s="8"/>
-      <c r="C320" s="7"/>
+      <c r="B320" s="21"/>
+      <c r="C320" s="8"/>
     </row>
     <row r="321" spans="2:3">
-      <c r="B321" s="8"/>
-      <c r="C321" s="7"/>
+      <c r="B321" s="21"/>
+      <c r="C321" s="8"/>
     </row>
     <row r="322" spans="2:3">
-      <c r="B322" s="8"/>
-      <c r="C322" s="7"/>
+      <c r="B322" s="21"/>
+      <c r="C322" s="8"/>
     </row>
     <row r="323" spans="2:3">
-      <c r="B323" s="8"/>
-      <c r="C323" s="5"/>
+      <c r="B323" s="21"/>
+      <c r="C323" s="7"/>
     </row>
     <row r="324" spans="2:3">
-      <c r="B324" s="8"/>
-      <c r="C324" s="5"/>
+      <c r="B324" s="21"/>
+      <c r="C324" s="7"/>
     </row>
     <row r="325" spans="2:3">
-      <c r="B325" s="8"/>
-      <c r="C325" s="5"/>
+      <c r="B325" s="21"/>
+      <c r="C325" s="7"/>
     </row>
     <row r="326" spans="2:3">
-      <c r="B326" s="8"/>
-      <c r="C326" s="5"/>
+      <c r="B326" s="21"/>
+      <c r="C326" s="7"/>
     </row>
     <row r="327" spans="2:3">
-      <c r="B327" s="8"/>
-      <c r="C327" s="5"/>
+      <c r="B327" s="21"/>
+      <c r="C327" s="7"/>
     </row>
     <row r="328" spans="2:3">
-      <c r="B328" s="8"/>
-      <c r="C328" s="7"/>
+      <c r="B328" s="21"/>
+      <c r="C328" s="8"/>
     </row>
     <row r="329" spans="2:3">
-      <c r="B329" s="8"/>
-      <c r="C329" s="7"/>
+      <c r="B329" s="21"/>
+      <c r="C329" s="8"/>
     </row>
     <row r="330" spans="2:3">
-      <c r="B330" s="8"/>
-      <c r="C330" s="7"/>
+      <c r="B330" s="21"/>
+      <c r="C330" s="8"/>
     </row>
     <row r="331" spans="2:3">
-      <c r="B331" s="8"/>
-      <c r="C331" s="7"/>
+      <c r="B331" s="21"/>
+      <c r="C331" s="8"/>
     </row>
     <row r="332" spans="2:3">
-      <c r="B332" s="8"/>
-      <c r="C332" s="7"/>
+      <c r="B332" s="21"/>
+      <c r="C332" s="8"/>
     </row>
     <row r="333" spans="2:3">
-      <c r="B333" s="8"/>
-      <c r="C333" s="7"/>
+      <c r="B333" s="21"/>
+      <c r="C333" s="8"/>
     </row>
     <row r="334" spans="2:3">
-      <c r="B334" s="8"/>
-      <c r="C334" s="7"/>
+      <c r="B334" s="21"/>
+      <c r="C334" s="8"/>
     </row>
     <row r="335" spans="2:3">
-      <c r="B335" s="8"/>
-      <c r="C335" s="7"/>
+      <c r="B335" s="21"/>
+      <c r="C335" s="8"/>
     </row>
     <row r="336" spans="2:3">
-      <c r="B336" s="8"/>
-      <c r="C336" s="7"/>
+      <c r="B336" s="21"/>
+      <c r="C336" s="8"/>
     </row>
     <row r="337" spans="2:3">
-      <c r="B337" s="8"/>
-      <c r="C337" s="7"/>
+      <c r="B337" s="21"/>
+      <c r="C337" s="8"/>
     </row>
     <row r="338" spans="2:3">
-      <c r="B338" s="8"/>
-      <c r="C338" s="7"/>
+      <c r="B338" s="21"/>
+      <c r="C338" s="8"/>
     </row>
     <row r="339" spans="2:3">
-      <c r="B339" s="8"/>
-      <c r="C339" s="7"/>
+      <c r="B339" s="21"/>
+      <c r="C339" s="8"/>
     </row>
     <row r="340" spans="2:3">
-      <c r="B340" s="8"/>
-      <c r="C340" s="7"/>
+      <c r="B340" s="21"/>
+      <c r="C340" s="8"/>
     </row>
     <row r="341" spans="2:3">
-      <c r="B341" s="8"/>
-      <c r="C341" s="7"/>
+      <c r="B341" s="21"/>
+      <c r="C341" s="8"/>
     </row>
     <row r="342" spans="2:3">
-      <c r="B342" s="8"/>
-      <c r="C342" s="7"/>
+      <c r="B342" s="21"/>
+      <c r="C342" s="8"/>
     </row>
     <row r="343" spans="2:3">
-      <c r="B343" s="8"/>
-      <c r="C343" s="7"/>
+      <c r="B343" s="21"/>
+      <c r="C343" s="8"/>
     </row>
     <row r="344" spans="2:3">
-      <c r="B344" s="8"/>
-      <c r="C344" s="7"/>
+      <c r="B344" s="21"/>
+      <c r="C344" s="8"/>
     </row>
     <row r="345" spans="2:3">
-      <c r="B345" s="8"/>
-      <c r="C345" s="7"/>
+      <c r="B345" s="21"/>
+      <c r="C345" s="8"/>
     </row>
     <row r="346" spans="2:3">
-      <c r="B346" s="8"/>
-      <c r="C346" s="7"/>
+      <c r="B346" s="21"/>
+      <c r="C346" s="8"/>
     </row>
     <row r="347" spans="2:3">
-      <c r="B347" s="8"/>
-      <c r="C347" s="7"/>
+      <c r="B347" s="21"/>
+      <c r="C347" s="8"/>
     </row>
     <row r="348" spans="2:3">
-      <c r="B348" s="8"/>
-      <c r="C348" s="7"/>
+      <c r="B348" s="21"/>
+      <c r="C348" s="8"/>
     </row>
     <row r="349" spans="2:3">
-      <c r="B349" s="8"/>
-      <c r="C349" s="7"/>
+      <c r="B349" s="21"/>
+      <c r="C349" s="8"/>
     </row>
     <row r="350" spans="2:3">
-      <c r="B350" s="8"/>
-      <c r="C350" s="7"/>
+      <c r="B350" s="21"/>
+      <c r="C350" s="8"/>
     </row>
     <row r="351" spans="2:3">
-      <c r="B351" s="8"/>
-      <c r="C351" s="7"/>
+      <c r="B351" s="21"/>
+      <c r="C351" s="8"/>
     </row>
     <row r="352" spans="2:3">
-      <c r="B352" s="8"/>
-      <c r="C352" s="7"/>
+      <c r="B352" s="21"/>
+      <c r="C352" s="8"/>
     </row>
     <row r="353" spans="2:3">
-      <c r="B353" s="8"/>
-      <c r="C353" s="7"/>
+      <c r="B353" s="21"/>
+      <c r="C353" s="8"/>
     </row>
     <row r="354" spans="2:3">
-      <c r="B354" s="8"/>
-      <c r="C354" s="7"/>
+      <c r="B354" s="21"/>
+      <c r="C354" s="8"/>
     </row>
     <row r="355" spans="2:3">
-      <c r="B355" s="8"/>
-      <c r="C355" s="7"/>
+      <c r="B355" s="21"/>
+      <c r="C355" s="8"/>
     </row>
     <row r="356" spans="2:3">
-      <c r="B356" s="8"/>
-      <c r="C356" s="7"/>
+      <c r="B356" s="21"/>
+      <c r="C356" s="8"/>
     </row>
     <row r="357" spans="2:3">
-      <c r="B357" s="8"/>
-      <c r="C357" s="7"/>
+      <c r="B357" s="21"/>
+      <c r="C357" s="8"/>
     </row>
     <row r="358" spans="2:3">
-      <c r="B358" s="8"/>
-      <c r="C358" s="7"/>
+      <c r="B358" s="21"/>
+      <c r="C358" s="8"/>
     </row>
     <row r="359" spans="2:3">
-      <c r="B359" s="8"/>
-      <c r="C359" s="7"/>
+      <c r="B359" s="21"/>
+      <c r="C359" s="8"/>
     </row>
     <row r="360" spans="2:3">
-      <c r="B360" s="8"/>
-      <c r="C360" s="7"/>
+      <c r="B360" s="21"/>
+      <c r="C360" s="8"/>
     </row>
     <row r="361" spans="2:3">
-      <c r="B361" s="8"/>
-      <c r="C361" s="7"/>
+      <c r="B361" s="21"/>
+      <c r="C361" s="8"/>
     </row>
     <row r="362" spans="2:3">
-      <c r="B362" s="8"/>
-      <c r="C362" s="7"/>
+      <c r="B362" s="21"/>
+      <c r="C362" s="8"/>
     </row>
     <row r="363" spans="2:3">
-      <c r="B363" s="8"/>
-      <c r="C363" s="7"/>
+      <c r="B363" s="21"/>
+      <c r="C363" s="8"/>
     </row>
     <row r="364" spans="2:3">
-      <c r="B364" s="8"/>
-      <c r="C364" s="7"/>
+      <c r="B364" s="21"/>
+      <c r="C364" s="8"/>
     </row>
     <row r="365" spans="2:3">
-      <c r="B365" s="8"/>
-      <c r="C365" s="7"/>
+      <c r="B365" s="21"/>
+      <c r="C365" s="8"/>
     </row>
     <row r="366" spans="2:3">
-      <c r="B366" s="8"/>
-      <c r="C366" s="7"/>
+      <c r="B366" s="21"/>
+      <c r="C366" s="8"/>
     </row>
     <row r="367" spans="2:3">
-      <c r="B367" s="8"/>
-      <c r="C367" s="7"/>
+      <c r="B367" s="21"/>
+      <c r="C367" s="8"/>
     </row>
     <row r="368" spans="2:3">
-      <c r="B368" s="8"/>
-      <c r="C368" s="7"/>
+      <c r="B368" s="21"/>
+      <c r="C368" s="8"/>
     </row>
     <row r="369" spans="2:3">
-      <c r="B369" s="8"/>
-      <c r="C369" s="7"/>
+      <c r="B369" s="21"/>
+      <c r="C369" s="8"/>
     </row>
     <row r="370" spans="2:3">
-      <c r="B370" s="8"/>
-      <c r="C370" s="7"/>
+      <c r="B370" s="21"/>
+      <c r="C370" s="8"/>
     </row>
     <row r="371" spans="2:3">
-      <c r="B371" s="8"/>
-      <c r="C371" s="7"/>
+      <c r="B371" s="21"/>
+      <c r="C371" s="8"/>
     </row>
     <row r="372" spans="2:3">
-      <c r="B372" s="8"/>
-      <c r="C372" s="7"/>
+      <c r="B372" s="21"/>
+      <c r="C372" s="8"/>
     </row>
     <row r="373" spans="2:3">
-      <c r="B373" s="8"/>
-      <c r="C373" s="7"/>
+      <c r="B373" s="21"/>
+      <c r="C373" s="8"/>
     </row>
     <row r="374" spans="2:3">
-      <c r="B374" s="8"/>
-      <c r="C374" s="7"/>
+      <c r="B374" s="21"/>
+      <c r="C374" s="8"/>
     </row>
     <row r="375" spans="2:3">
-      <c r="B375" s="8"/>
-      <c r="C375" s="7"/>
+      <c r="B375" s="21"/>
+      <c r="C375" s="8"/>
     </row>
     <row r="376" spans="2:3">
-      <c r="B376" s="8"/>
-      <c r="C376" s="7"/>
+      <c r="B376" s="21"/>
+      <c r="C376" s="8"/>
     </row>
     <row r="377" spans="2:3">
-      <c r="B377" s="8"/>
-      <c r="C377" s="7"/>
+      <c r="B377" s="21"/>
+      <c r="C377" s="8"/>
     </row>
     <row r="378" spans="2:3">
-      <c r="B378" s="8"/>
-      <c r="C378" s="7"/>
+      <c r="B378" s="21"/>
+      <c r="C378" s="8"/>
     </row>
     <row r="379" spans="2:3">
-      <c r="B379" s="8"/>
-      <c r="C379" s="7"/>
+      <c r="B379" s="21"/>
+      <c r="C379" s="8"/>
     </row>
     <row r="380" spans="2:3">
-      <c r="B380" s="8"/>
-      <c r="C380" s="7"/>
+      <c r="B380" s="21"/>
+      <c r="C380" s="8"/>
     </row>
     <row r="381" spans="2:3">
-      <c r="B381" s="8"/>
-      <c r="C381" s="7"/>
+      <c r="B381" s="21"/>
+      <c r="C381" s="8"/>
     </row>
     <row r="382" spans="2:3">
-      <c r="B382" s="8"/>
-      <c r="C382" s="7"/>
+      <c r="B382" s="21"/>
+      <c r="C382" s="8"/>
     </row>
     <row r="383" spans="2:3">
-      <c r="B383" s="8"/>
-      <c r="C383" s="7"/>
+      <c r="B383" s="21"/>
+      <c r="C383" s="8"/>
     </row>
     <row r="384" spans="2:3">
-      <c r="B384" s="8"/>
-      <c r="C384" s="7"/>
+      <c r="B384" s="21"/>
+      <c r="C384" s="8"/>
     </row>
     <row r="385" spans="2:3">
-      <c r="B385" s="8"/>
-      <c r="C385" s="7"/>
+      <c r="B385" s="21"/>
+      <c r="C385" s="8"/>
     </row>
     <row r="386" spans="2:3">
-      <c r="B386" s="8"/>
-      <c r="C386" s="7"/>
+      <c r="B386" s="21"/>
+      <c r="C386" s="8"/>
     </row>
     <row r="387" spans="2:3">
-      <c r="B387" s="8"/>
-      <c r="C387" s="7"/>
+      <c r="B387" s="21"/>
+      <c r="C387" s="8"/>
     </row>
     <row r="388" spans="2:3">
-      <c r="B388" s="8"/>
-      <c r="C388" s="5"/>
+      <c r="B388" s="21"/>
+      <c r="C388" s="7"/>
     </row>
     <row r="389" spans="2:3">
-      <c r="B389" s="8"/>
-      <c r="C389" s="5"/>
+      <c r="B389" s="21"/>
+      <c r="C389" s="7"/>
     </row>
     <row r="390" spans="2:3">
-      <c r="B390" s="8"/>
-      <c r="C390" s="5"/>
+      <c r="B390" s="21"/>
+      <c r="C390" s="7"/>
     </row>
     <row r="391" spans="2:3">
-      <c r="B391" s="8"/>
-      <c r="C391" s="5"/>
+      <c r="B391" s="21"/>
+      <c r="C391" s="7"/>
     </row>
     <row r="392" spans="2:3">
-      <c r="B392" s="8"/>
-      <c r="C392" s="5"/>
+      <c r="B392" s="21"/>
+      <c r="C392" s="7"/>
     </row>
     <row r="393" spans="2:3">
-      <c r="B393" s="21"/>
-      <c r="C393" s="5"/>
+      <c r="B393" s="26"/>
+      <c r="C393" s="7"/>
     </row>
     <row r="394" spans="2:3">
-      <c r="B394" s="8"/>
-      <c r="C394" s="5"/>
+      <c r="B394" s="21"/>
+      <c r="C394" s="7"/>
     </row>
     <row r="395" spans="2:3">
-      <c r="B395" s="8"/>
-      <c r="C395" s="5"/>
+      <c r="B395" s="21"/>
+      <c r="C395" s="7"/>
     </row>
     <row r="396" spans="2:3">
-      <c r="B396" s="8"/>
-      <c r="C396" s="5"/>
+      <c r="B396" s="21"/>
+      <c r="C396" s="7"/>
     </row>
     <row r="397" spans="2:3">
-      <c r="B397" s="8"/>
-      <c r="C397" s="5"/>
+      <c r="B397" s="21"/>
+      <c r="C397" s="7"/>
     </row>
     <row r="398" spans="2:3">
-      <c r="B398" s="8"/>
-      <c r="C398" s="5"/>
+      <c r="B398" s="21"/>
+      <c r="C398" s="7"/>
     </row>
     <row r="399" spans="2:3">
-      <c r="B399" s="8"/>
-      <c r="C399" s="5"/>
+      <c r="B399" s="21"/>
+      <c r="C399" s="7"/>
     </row>
     <row r="400" spans="2:3">
-      <c r="B400" s="8"/>
-      <c r="C400" s="5"/>
+      <c r="B400" s="21"/>
+      <c r="C400" s="7"/>
     </row>
     <row r="401" spans="2:3">
-      <c r="B401" s="8"/>
-      <c r="C401" s="5"/>
+      <c r="B401" s="21"/>
+      <c r="C401" s="7"/>
     </row>
     <row r="402" spans="2:3">
-      <c r="B402" s="8"/>
-      <c r="C402" s="5"/>
+      <c r="B402" s="21"/>
+      <c r="C402" s="7"/>
     </row>
     <row r="403" spans="2:3">
-      <c r="B403" s="8"/>
-      <c r="C403" s="7"/>
+      <c r="B403" s="21"/>
+      <c r="C403" s="8"/>
     </row>
     <row r="404" spans="2:3">
-      <c r="B404" s="8"/>
-      <c r="C404" s="7"/>
+      <c r="B404" s="21"/>
+      <c r="C404" s="8"/>
     </row>
     <row r="405" spans="2:3">
-      <c r="B405" s="8"/>
-      <c r="C405" s="7"/>
+      <c r="B405" s="21"/>
+      <c r="C405" s="8"/>
     </row>
     <row r="406" spans="2:3">
-      <c r="B406" s="8"/>
-      <c r="C406" s="7"/>
+      <c r="B406" s="21"/>
+      <c r="C406" s="8"/>
     </row>
     <row r="407" spans="2:3">
-      <c r="B407" s="8"/>
-      <c r="C407" s="7"/>
+      <c r="B407" s="21"/>
+      <c r="C407" s="8"/>
     </row>
     <row r="408" spans="2:3">
-      <c r="B408" s="8"/>
-      <c r="C408" s="7"/>
+      <c r="B408" s="21"/>
+      <c r="C408" s="8"/>
     </row>
     <row r="409" spans="2:3">
-      <c r="B409" s="8"/>
-      <c r="C409" s="7"/>
+      <c r="B409" s="21"/>
+      <c r="C409" s="8"/>
     </row>
     <row r="410" spans="2:3">
-      <c r="B410" s="8"/>
-      <c r="C410" s="7"/>
+      <c r="B410" s="21"/>
+      <c r="C410" s="8"/>
     </row>
     <row r="411" spans="2:3">
-      <c r="B411" s="8"/>
-      <c r="C411" s="7"/>
+      <c r="B411" s="21"/>
+      <c r="C411" s="8"/>
     </row>
     <row r="412" spans="2:3">
-      <c r="B412" s="8"/>
-      <c r="C412" s="7"/>
+      <c r="B412" s="21"/>
+      <c r="C412" s="8"/>
     </row>
     <row r="413" spans="2:3">
-      <c r="B413" s="8"/>
-      <c r="C413" s="7"/>
+      <c r="B413" s="21"/>
+      <c r="C413" s="8"/>
     </row>
     <row r="414" spans="2:3">
-      <c r="B414" s="8"/>
-      <c r="C414" s="7"/>
+      <c r="B414" s="21"/>
+      <c r="C414" s="8"/>
     </row>
     <row r="415" spans="2:3">
-      <c r="B415" s="8"/>
-      <c r="C415" s="7"/>
+      <c r="B415" s="21"/>
+      <c r="C415" s="8"/>
     </row>
     <row r="416" spans="2:3">
-      <c r="B416" s="8"/>
-      <c r="C416" s="7"/>
+      <c r="B416" s="21"/>
+      <c r="C416" s="8"/>
     </row>
     <row r="417" spans="2:3">
-      <c r="B417" s="8"/>
-      <c r="C417" s="7"/>
+      <c r="B417" s="21"/>
+      <c r="C417" s="8"/>
     </row>
     <row r="418" spans="2:3">
-      <c r="B418" s="8"/>
-      <c r="C418" s="7"/>
+      <c r="B418" s="21"/>
+      <c r="C418" s="8"/>
     </row>
     <row r="419" spans="2:3">
-      <c r="B419" s="8"/>
-      <c r="C419" s="5"/>
+      <c r="B419" s="21"/>
+      <c r="C419" s="7"/>
     </row>
     <row r="420" spans="2:3">
-      <c r="B420" s="8"/>
-      <c r="C420" s="5"/>
+      <c r="B420" s="21"/>
+      <c r="C420" s="7"/>
     </row>
     <row r="421" spans="2:3">
-      <c r="B421" s="8"/>
-      <c r="C421" s="5"/>
+      <c r="B421" s="21"/>
+      <c r="C421" s="7"/>
     </row>
     <row r="422" spans="2:3">
-      <c r="B422" s="8"/>
-      <c r="C422" s="5"/>
+      <c r="B422" s="21"/>
+      <c r="C422" s="7"/>
     </row>
     <row r="423" spans="2:3">
-      <c r="B423" s="8"/>
-      <c r="C423" s="5"/>
+      <c r="B423" s="21"/>
+      <c r="C423" s="7"/>
     </row>
     <row r="424" spans="2:3">
-      <c r="B424" s="8"/>
-      <c r="C424" s="5"/>
+      <c r="B424" s="21"/>
+      <c r="C424" s="7"/>
     </row>
     <row r="425" spans="2:3">
-      <c r="B425" s="8"/>
-      <c r="C425" s="5"/>
+      <c r="B425" s="21"/>
+      <c r="C425" s="7"/>
     </row>
     <row r="426" spans="2:3">
-      <c r="B426" s="8"/>
-      <c r="C426" s="5"/>
+      <c r="B426" s="21"/>
+      <c r="C426" s="7"/>
     </row>
     <row r="427" spans="2:3">
-      <c r="B427" s="8"/>
-      <c r="C427" s="5"/>
+      <c r="B427" s="21"/>
+      <c r="C427" s="7"/>
     </row>
     <row r="428" spans="2:3">
-      <c r="B428" s="8"/>
-      <c r="C428" s="5"/>
+      <c r="B428" s="21"/>
+      <c r="C428" s="7"/>
     </row>
     <row r="429" spans="2:3">
-      <c r="B429" s="8"/>
-      <c r="C429" s="5"/>
+      <c r="B429" s="21"/>
+      <c r="C429" s="7"/>
     </row>
     <row r="430" spans="2:3">
-      <c r="B430" s="8"/>
-      <c r="C430" s="22"/>
+      <c r="B430" s="21"/>
+      <c r="C430" s="27"/>
     </row>
     <row r="431" spans="2:3">
-      <c r="B431" s="8"/>
-      <c r="C431" s="18"/>
+      <c r="B431" s="21"/>
+      <c r="C431" s="23"/>
     </row>
     <row r="432" spans="2:3">
-      <c r="B432" s="8"/>
-      <c r="C432" s="18"/>
+      <c r="B432" s="21"/>
+      <c r="C432" s="23"/>
     </row>
     <row r="433" spans="2:3">
-      <c r="B433" s="8"/>
-      <c r="C433" s="18"/>
+      <c r="B433" s="21"/>
+      <c r="C433" s="23"/>
     </row>
     <row r="434" spans="2:3">
-      <c r="B434" s="8"/>
-      <c r="C434" s="18"/>
+      <c r="B434" s="21"/>
+      <c r="C434" s="23"/>
     </row>
     <row r="435" spans="2:3">
-      <c r="B435" s="8"/>
-      <c r="C435" s="22"/>
+      <c r="B435" s="21"/>
+      <c r="C435" s="27"/>
     </row>
     <row r="436" spans="2:3">
-      <c r="B436" s="8"/>
-      <c r="C436" s="9"/>
+      <c r="B436" s="21"/>
+      <c r="C436" s="13"/>
     </row>
     <row r="437" spans="2:3">
-      <c r="B437" s="8"/>
-      <c r="C437" s="9"/>
+      <c r="B437" s="21"/>
+      <c r="C437" s="13"/>
     </row>
     <row r="438" spans="2:3">
-      <c r="B438" s="8"/>
-      <c r="C438" s="9"/>
+      <c r="B438" s="21"/>
+      <c r="C438" s="13"/>
     </row>
     <row r="439" spans="2:3">
-      <c r="B439" s="8"/>
-      <c r="C439" s="9"/>
+      <c r="B439" s="21"/>
+      <c r="C439" s="13"/>
     </row>
     <row r="440" spans="2:3">
-      <c r="B440" s="8"/>
-      <c r="C440" s="9"/>
+      <c r="B440" s="21"/>
+      <c r="C440" s="13"/>
     </row>
     <row r="441" spans="2:3">
-      <c r="B441" s="8"/>
-      <c r="C441" s="9"/>
+      <c r="B441" s="21"/>
+      <c r="C441" s="13"/>
     </row>
     <row r="442" spans="2:3">
-      <c r="B442" s="8"/>
-      <c r="C442" s="9"/>
+      <c r="B442" s="21"/>
+      <c r="C442" s="13"/>
     </row>
     <row r="443" spans="2:3">
-      <c r="B443" s="8"/>
-      <c r="C443" s="9"/>
+      <c r="B443" s="21"/>
+      <c r="C443" s="13"/>
     </row>
     <row r="444" spans="2:3">
-      <c r="B444" s="8"/>
-      <c r="C444" s="9"/>
+      <c r="B444" s="21"/>
+      <c r="C444" s="13"/>
     </row>
     <row r="445" spans="2:3">
-      <c r="B445" s="8"/>
-      <c r="C445" s="9"/>
+      <c r="B445" s="21"/>
+      <c r="C445" s="13"/>
     </row>
     <row r="446" spans="2:3">
-      <c r="B446" s="8"/>
-      <c r="C446" s="9"/>
+      <c r="B446" s="21"/>
+      <c r="C446" s="13"/>
     </row>
     <row r="447" spans="2:3">
-      <c r="B447" s="8"/>
-      <c r="C447" s="9"/>
+      <c r="B447" s="21"/>
+      <c r="C447" s="13"/>
     </row>
     <row r="448" spans="2:3">
-      <c r="B448" s="8"/>
-      <c r="C448" s="9"/>
+      <c r="B448" s="21"/>
+      <c r="C448" s="13"/>
     </row>
     <row r="449" spans="2:3">
-      <c r="B449" s="8"/>
-      <c r="C449" s="9"/>
+      <c r="B449" s="21"/>
+      <c r="C449" s="13"/>
     </row>
     <row r="450" spans="2:3">
-      <c r="B450" s="8"/>
-      <c r="C450" s="9"/>
+      <c r="B450" s="21"/>
+      <c r="C450" s="13"/>
     </row>
     <row r="451" spans="2:3">
-      <c r="B451" s="8"/>
-      <c r="C451" s="9"/>
+      <c r="B451" s="21"/>
+      <c r="C451" s="13"/>
     </row>
     <row r="452" spans="2:3">
-      <c r="B452" s="8"/>
-      <c r="C452" s="9"/>
+      <c r="B452" s="21"/>
+      <c r="C452" s="13"/>
     </row>
     <row r="453" spans="2:3">
-      <c r="B453" s="8"/>
-      <c r="C453" s="9"/>
+      <c r="B453" s="21"/>
+      <c r="C453" s="13"/>
     </row>
     <row r="454" spans="2:3">
-      <c r="B454" s="8"/>
-      <c r="C454" s="9"/>
+      <c r="B454" s="21"/>
+      <c r="C454" s="13"/>
     </row>
     <row r="455" spans="2:3">
-      <c r="B455" s="8"/>
-      <c r="C455" s="9"/>
+      <c r="B455" s="21"/>
+      <c r="C455" s="13"/>
     </row>
     <row r="456" spans="2:3">
-      <c r="B456" s="8"/>
-      <c r="C456" s="9"/>
+      <c r="B456" s="21"/>
+      <c r="C456" s="13"/>
     </row>
     <row r="457" spans="2:3">
-      <c r="B457" s="8"/>
-      <c r="C457" s="23"/>
+      <c r="B457" s="21"/>
+      <c r="C457" s="28"/>
     </row>
     <row r="458" spans="2:3">
-      <c r="B458" s="8"/>
-      <c r="C458" s="24"/>
+      <c r="B458" s="21"/>
+      <c r="C458" s="29"/>
     </row>
     <row r="459" spans="2:3">
-      <c r="B459" s="8"/>
-      <c r="C459" s="23"/>
+      <c r="B459" s="21"/>
+      <c r="C459" s="28"/>
     </row>
     <row r="460" spans="2:3">
-      <c r="B460" s="8"/>
-      <c r="C460" s="23"/>
+      <c r="B460" s="21"/>
+      <c r="C460" s="28"/>
     </row>
     <row r="461" spans="2:3">
-      <c r="B461" s="8"/>
-      <c r="C461" s="23"/>
+      <c r="B461" s="21"/>
+      <c r="C461" s="28"/>
     </row>
     <row r="462" spans="2:3">
-      <c r="B462" s="8"/>
-      <c r="C462" s="23"/>
+      <c r="B462" s="21"/>
+      <c r="C462" s="28"/>
     </row>
     <row r="463" spans="2:3">
-      <c r="B463" s="8"/>
-      <c r="C463" s="23"/>
+      <c r="B463" s="21"/>
+      <c r="C463" s="28"/>
     </row>
     <row r="464" spans="2:3">
-      <c r="B464" s="8"/>
-      <c r="C464" s="23"/>
+      <c r="B464" s="21"/>
+      <c r="C464" s="28"/>
     </row>
     <row r="465" spans="2:3">
-      <c r="B465" s="8"/>
-      <c r="C465" s="23"/>
+      <c r="B465" s="21"/>
+      <c r="C465" s="28"/>
     </row>
     <row r="466" spans="2:3">
-      <c r="B466" s="8"/>
-      <c r="C466" s="23"/>
+      <c r="B466" s="21"/>
+      <c r="C466" s="28"/>
     </row>
     <row r="467" spans="2:3">
-      <c r="B467" s="8"/>
-      <c r="C467" s="24"/>
+      <c r="B467" s="21"/>
+      <c r="C467" s="29"/>
     </row>
     <row r="468" spans="2:3">
-      <c r="B468" s="8"/>
-      <c r="C468" s="23"/>
+      <c r="B468" s="21"/>
+      <c r="C468" s="28"/>
     </row>
     <row r="469" spans="2:3">
-      <c r="B469" s="8"/>
-      <c r="C469" s="23"/>
+      <c r="B469" s="21"/>
+      <c r="C469" s="28"/>
     </row>
     <row r="470" spans="2:3">
-      <c r="B470" s="8"/>
-      <c r="C470" s="23"/>
+      <c r="B470" s="21"/>
+      <c r="C470" s="28"/>
     </row>
     <row r="471" spans="2:3">
-      <c r="B471" s="8"/>
-      <c r="C471" s="23"/>
+      <c r="B471" s="21"/>
+      <c r="C471" s="28"/>
     </row>
     <row r="472" spans="2:3">
-      <c r="B472" s="8"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="21"/>
+      <c r="C472" s="28"/>
     </row>
     <row r="473" spans="2:3">
-      <c r="B473" s="8"/>
-      <c r="C473" s="23"/>
+      <c r="B473" s="21"/>
+      <c r="C473" s="28"/>
     </row>
     <row r="474" spans="2:3">
-      <c r="B474" s="8"/>
-      <c r="C474" s="23"/>
+      <c r="B474" s="21"/>
+      <c r="C474" s="28"/>
     </row>
     <row r="475" spans="2:3">
-      <c r="B475" s="8"/>
-      <c r="C475" s="23"/>
+      <c r="B475" s="21"/>
+      <c r="C475" s="28"/>
     </row>
     <row r="476" spans="2:3">
-      <c r="B476" s="8"/>
-      <c r="C476" s="23"/>
+      <c r="B476" s="21"/>
+      <c r="C476" s="28"/>
     </row>
     <row r="477" spans="2:3">
-      <c r="B477" s="8"/>
-      <c r="C477" s="23"/>
+      <c r="B477" s="21"/>
+      <c r="C477" s="28"/>
     </row>
     <row r="478" spans="2:3">
-      <c r="B478" s="8"/>
-      <c r="C478" s="23"/>
+      <c r="B478" s="21"/>
+      <c r="C478" s="28"/>
     </row>
     <row r="479" spans="2:3">
-      <c r="B479" s="8"/>
-      <c r="C479" s="23"/>
+      <c r="B479" s="21"/>
+      <c r="C479" s="28"/>
     </row>
     <row r="480" spans="2:3">
-      <c r="B480" s="8"/>
-      <c r="C480" s="23"/>
+      <c r="B480" s="21"/>
+      <c r="C480" s="28"/>
     </row>
     <row r="481" spans="2:3">
-      <c r="B481" s="8"/>
-      <c r="C481" s="23"/>
+      <c r="B481" s="21"/>
+      <c r="C481" s="28"/>
     </row>
     <row r="482" spans="2:3">
-      <c r="B482" s="8"/>
-      <c r="C482" s="23"/>
+      <c r="B482" s="21"/>
+      <c r="C482" s="28"/>
     </row>
     <row r="483" spans="2:3">
-      <c r="B483" s="8"/>
-      <c r="C483" s="23"/>
+      <c r="B483" s="21"/>
+      <c r="C483" s="28"/>
     </row>
     <row r="484" spans="2:3">
-      <c r="B484" s="8"/>
-      <c r="C484" s="23"/>
+      <c r="B484" s="21"/>
+      <c r="C484" s="28"/>
     </row>
     <row r="485" spans="2:3">
-      <c r="B485" s="8"/>
-      <c r="C485" s="23"/>
+      <c r="B485" s="21"/>
+      <c r="C485" s="28"/>
     </row>
     <row r="486" spans="2:3">
-      <c r="B486" s="8"/>
-      <c r="C486" s="5"/>
+      <c r="B486" s="21"/>
+      <c r="C486" s="7"/>
     </row>
     <row r="487" spans="2:3">
-      <c r="B487" s="8"/>
-      <c r="C487" s="5"/>
+      <c r="B487" s="21"/>
+      <c r="C487" s="7"/>
     </row>
     <row r="488" spans="2:3">
-      <c r="B488" s="8"/>
-      <c r="C488" s="5"/>
+      <c r="B488" s="21"/>
+      <c r="C488" s="7"/>
     </row>
     <row r="489" spans="2:3">
-      <c r="B489" s="8"/>
-      <c r="C489" s="5"/>
+      <c r="B489" s="21"/>
+      <c r="C489" s="7"/>
     </row>
     <row r="490" spans="2:3">
-      <c r="B490" s="8"/>
-      <c r="C490" s="5"/>
+      <c r="B490" s="21"/>
+      <c r="C490" s="7"/>
     </row>
     <row r="491" spans="2:3">
-      <c r="B491" s="8"/>
-      <c r="C491" s="5"/>
+      <c r="B491" s="21"/>
+      <c r="C491" s="7"/>
     </row>
     <row r="492" spans="2:3">
-      <c r="B492" s="8"/>
-      <c r="C492" s="5"/>
+      <c r="B492" s="21"/>
+      <c r="C492" s="7"/>
     </row>
     <row r="493" spans="2:3">
-      <c r="B493" s="8"/>
-      <c r="C493" s="5"/>
+      <c r="B493" s="21"/>
+      <c r="C493" s="7"/>
     </row>
     <row r="494" spans="2:3">
-      <c r="B494" s="8"/>
-      <c r="C494" s="5"/>
+      <c r="B494" s="21"/>
+      <c r="C494" s="7"/>
     </row>
     <row r="495" spans="2:3">
-      <c r="B495" s="8"/>
-      <c r="C495" s="5"/>
+      <c r="B495" s="21"/>
+      <c r="C495" s="7"/>
     </row>
     <row r="496" spans="2:3">
-      <c r="B496" s="8"/>
-      <c r="C496" s="5"/>
+      <c r="B496" s="21"/>
+      <c r="C496" s="7"/>
     </row>
     <row r="497" spans="2:3">
-      <c r="B497" s="8"/>
-      <c r="C497" s="5"/>
+      <c r="B497" s="21"/>
+      <c r="C497" s="7"/>
     </row>
     <row r="498" spans="2:3">
-      <c r="B498" s="8"/>
-      <c r="C498" s="5"/>
+      <c r="B498" s="21"/>
+      <c r="C498" s="7"/>
     </row>
     <row r="499" spans="2:3">
-      <c r="B499" s="8"/>
-      <c r="C499" s="5"/>
+      <c r="B499" s="21"/>
+      <c r="C499" s="7"/>
     </row>
     <row r="500" spans="2:3">
-      <c r="B500" s="8"/>
-      <c r="C500" s="5"/>
+      <c r="B500" s="21"/>
+      <c r="C500" s="7"/>
     </row>
     <row r="501" spans="2:3">
-      <c r="B501" s="8"/>
-      <c r="C501" s="25"/>
+      <c r="B501" s="21"/>
+      <c r="C501" s="30"/>
     </row>
     <row r="502" spans="2:3">
-      <c r="B502" s="8"/>
-      <c r="C502" s="5"/>
+      <c r="B502" s="21"/>
+      <c r="C502" s="7"/>
     </row>
     <row r="503" spans="2:3">
-      <c r="B503" s="8"/>
-      <c r="C503" s="5"/>
+      <c r="B503" s="21"/>
+      <c r="C503" s="7"/>
     </row>
     <row r="504" spans="2:3">
-      <c r="B504" s="8"/>
-      <c r="C504" s="5"/>
+      <c r="B504" s="21"/>
+      <c r="C504" s="7"/>
     </row>
     <row r="505" spans="2:3">
-      <c r="B505" s="8"/>
-      <c r="C505" s="5"/>
+      <c r="B505" s="21"/>
+      <c r="C505" s="7"/>
     </row>
     <row r="506" spans="2:3">
-      <c r="B506" s="8"/>
-      <c r="C506" s="5"/>
+      <c r="B506" s="21"/>
+      <c r="C506" s="7"/>
     </row>
     <row r="507" spans="2:3">
-      <c r="B507" s="8"/>
-      <c r="C507" s="5"/>
+      <c r="B507" s="21"/>
+      <c r="C507" s="7"/>
     </row>
     <row r="508" spans="2:3">
-      <c r="B508" s="8"/>
-      <c r="C508" s="5"/>
+      <c r="B508" s="21"/>
+      <c r="C508" s="7"/>
     </row>
     <row r="509" spans="2:3">
-      <c r="B509" s="8"/>
-      <c r="C509" s="5"/>
+      <c r="B509" s="21"/>
+      <c r="C509" s="7"/>
     </row>
     <row r="510" spans="2:3">
-      <c r="B510" s="8"/>
-      <c r="C510" s="5"/>
+      <c r="B510" s="21"/>
+      <c r="C510" s="7"/>
     </row>
     <row r="511" spans="2:3">
-      <c r="B511" s="8"/>
-      <c r="C511" s="5"/>
+      <c r="B511" s="21"/>
+      <c r="C511" s="7"/>
     </row>
     <row r="512" spans="2:3">
-      <c r="B512" s="8"/>
-      <c r="C512" s="5"/>
+      <c r="B512" s="21"/>
+      <c r="C512" s="7"/>
     </row>
     <row r="513" spans="2:3">
-      <c r="B513" s="8"/>
-      <c r="C513" s="5"/>
+      <c r="B513" s="21"/>
+      <c r="C513" s="7"/>
     </row>
     <row r="514" spans="2:3">
-      <c r="B514" s="8"/>
-      <c r="C514" s="5"/>
+      <c r="B514" s="21"/>
+      <c r="C514" s="7"/>
     </row>
     <row r="515" spans="2:3">
-      <c r="B515" s="8"/>
-      <c r="C515" s="5"/>
+      <c r="B515" s="21"/>
+      <c r="C515" s="7"/>
     </row>
     <row r="516" spans="2:3">
-      <c r="B516" s="8"/>
-      <c r="C516" s="5"/>
+      <c r="B516" s="21"/>
+      <c r="C516" s="7"/>
     </row>
     <row r="517" spans="2:3">
-      <c r="B517" s="8"/>
-      <c r="C517" s="5"/>
+      <c r="B517" s="21"/>
+      <c r="C517" s="7"/>
     </row>
     <row r="518" spans="2:3">
-      <c r="B518" s="8"/>
-      <c r="C518" s="5"/>
+      <c r="B518" s="21"/>
+      <c r="C518" s="7"/>
     </row>
     <row r="519" spans="2:3">
-      <c r="B519" s="8"/>
-      <c r="C519" s="5"/>
+      <c r="B519" s="21"/>
+      <c r="C519" s="7"/>
     </row>
     <row r="520" spans="2:3">
-      <c r="B520" s="8"/>
-      <c r="C520" s="5"/>
+      <c r="B520" s="21"/>
+      <c r="C520" s="7"/>
     </row>
     <row r="521" spans="2:3">
-      <c r="B521" s="8"/>
-      <c r="C521" s="5"/>
+      <c r="B521" s="21"/>
+      <c r="C521" s="7"/>
     </row>
     <row r="522" spans="2:3">
-      <c r="B522" s="8"/>
-      <c r="C522" s="5"/>
+      <c r="B522" s="21"/>
+      <c r="C522" s="7"/>
     </row>
     <row r="523" spans="2:3">
-      <c r="B523" s="8"/>
-      <c r="C523" s="5"/>
+      <c r="B523" s="21"/>
+      <c r="C523" s="7"/>
     </row>
     <row r="524" spans="2:3">
-      <c r="B524" s="8"/>
-      <c r="C524" s="5"/>
+      <c r="B524" s="21"/>
+      <c r="C524" s="7"/>
     </row>
     <row r="525" spans="2:3">
-      <c r="B525" s="17"/>
-      <c r="C525" s="5"/>
+      <c r="B525" s="22"/>
+      <c r="C525" s="7"/>
     </row>
     <row r="526" spans="2:3">
-      <c r="B526" s="17"/>
-      <c r="C526" s="5"/>
+      <c r="B526" s="22"/>
+      <c r="C526" s="7"/>
     </row>
     <row r="527" spans="2:3">
-      <c r="B527" s="17"/>
-      <c r="C527" s="5"/>
+      <c r="B527" s="22"/>
+      <c r="C527" s="7"/>
     </row>
     <row r="528" spans="2:3">
-      <c r="B528" s="17"/>
-      <c r="C528" s="5"/>
+      <c r="B528" s="22"/>
+      <c r="C528" s="7"/>
     </row>
     <row r="529" spans="2:3">
-      <c r="B529" s="17"/>
-      <c r="C529" s="5"/>
+      <c r="B529" s="22"/>
+      <c r="C529" s="7"/>
     </row>
     <row r="530" spans="2:3">
-      <c r="B530" s="17"/>
-      <c r="C530" s="5"/>
+      <c r="B530" s="22"/>
+      <c r="C530" s="7"/>
     </row>
     <row r="531" spans="2:3">
-      <c r="B531" s="17"/>
-      <c r="C531" s="5"/>
+      <c r="B531" s="22"/>
+      <c r="C531" s="7"/>
     </row>
     <row r="532" spans="2:3">
-      <c r="B532" s="17"/>
-      <c r="C532" s="5"/>
+      <c r="B532" s="22"/>
+      <c r="C532" s="7"/>
     </row>
     <row r="533" spans="2:3">
-      <c r="B533" s="17"/>
-      <c r="C533" s="5"/>
+      <c r="B533" s="22"/>
+      <c r="C533" s="7"/>
     </row>
     <row r="534" spans="2:3">
-      <c r="B534" s="17"/>
-      <c r="C534" s="5"/>
+      <c r="B534" s="22"/>
+      <c r="C534" s="7"/>
     </row>
     <row r="535" spans="2:3">
-      <c r="B535" s="17"/>
-      <c r="C535" s="5"/>
+      <c r="B535" s="22"/>
+      <c r="C535" s="7"/>
     </row>
     <row r="536" spans="2:3">
-      <c r="B536" s="17"/>
-      <c r="C536" s="5"/>
+      <c r="B536" s="22"/>
+      <c r="C536" s="7"/>
     </row>
     <row r="537" spans="2:3">
-      <c r="B537" s="17"/>
-      <c r="C537" s="5"/>
+      <c r="B537" s="22"/>
+      <c r="C537" s="7"/>
     </row>
     <row r="538" spans="2:3">
-      <c r="B538" s="17"/>
-      <c r="C538" s="5"/>
+      <c r="B538" s="22"/>
+      <c r="C538" s="7"/>
     </row>
     <row r="539" spans="2:3">
-      <c r="B539" s="17"/>
-      <c r="C539" s="5"/>
+      <c r="B539" s="22"/>
+      <c r="C539" s="7"/>
     </row>
     <row r="540" spans="2:3">
-      <c r="B540" s="17"/>
-      <c r="C540" s="5"/>
+      <c r="B540" s="22"/>
+      <c r="C540" s="7"/>
     </row>
     <row r="541" spans="2:3">
-      <c r="B541" s="17"/>
-      <c r="C541" s="5"/>
+      <c r="B541" s="22"/>
+      <c r="C541" s="7"/>
     </row>
     <row r="542" spans="2:3">
-      <c r="B542" s="17"/>
-      <c r="C542" s="5"/>
+      <c r="B542" s="22"/>
+      <c r="C542" s="7"/>
     </row>
     <row r="543" spans="2:3">
-      <c r="B543" s="17"/>
-      <c r="C543" s="5"/>
+      <c r="B543" s="22"/>
+      <c r="C543" s="7"/>
     </row>
     <row r="544" spans="2:3">
-      <c r="B544" s="17"/>
-      <c r="C544" s="5"/>
+      <c r="B544" s="22"/>
+      <c r="C544" s="7"/>
     </row>
     <row r="545" spans="2:3">
-      <c r="B545" s="17"/>
-      <c r="C545" s="5"/>
+      <c r="B545" s="22"/>
+      <c r="C545" s="7"/>
     </row>
     <row r="546" spans="2:3">
-      <c r="B546" s="17"/>
-      <c r="C546" s="5"/>
+      <c r="B546" s="22"/>
+      <c r="C546" s="7"/>
     </row>
     <row r="547" spans="2:3">
-      <c r="B547" s="17"/>
-      <c r="C547" s="5"/>
+      <c r="B547" s="22"/>
+      <c r="C547" s="7"/>
     </row>
     <row r="548" spans="2:3">
-      <c r="B548" s="17"/>
-      <c r="C548" s="5"/>
+      <c r="B548" s="22"/>
+      <c r="C548" s="7"/>
     </row>
     <row r="549" spans="2:3">
-      <c r="B549" s="17"/>
-      <c r="C549" s="5"/>
+      <c r="B549" s="22"/>
+      <c r="C549" s="7"/>
     </row>
     <row r="550" spans="2:3">
-      <c r="B550" s="17"/>
-      <c r="C550" s="5"/>
+      <c r="B550" s="22"/>
+      <c r="C550" s="7"/>
     </row>
     <row r="551" spans="2:3">
-      <c r="B551" s="17"/>
-      <c r="C551" s="5"/>
+      <c r="B551" s="22"/>
+      <c r="C551" s="7"/>
     </row>
     <row r="552" spans="2:3">
-      <c r="B552" s="17"/>
-      <c r="C552" s="5"/>
+      <c r="B552" s="22"/>
+      <c r="C552" s="7"/>
     </row>
     <row r="553" spans="2:3">
-      <c r="B553" s="17"/>
-      <c r="C553" s="5"/>
+      <c r="B553" s="22"/>
+      <c r="C553" s="7"/>
     </row>
     <row r="554" spans="2:3">
-      <c r="B554" s="17"/>
-      <c r="C554" s="5"/>
+      <c r="B554" s="22"/>
+      <c r="C554" s="7"/>
     </row>
     <row r="555" spans="2:3">
-      <c r="B555" s="17"/>
-      <c r="C555" s="5"/>
+      <c r="B555" s="22"/>
+      <c r="C555" s="7"/>
     </row>
     <row r="556" spans="2:3">
-      <c r="B556" s="17"/>
-      <c r="C556" s="5"/>
+      <c r="B556" s="22"/>
+      <c r="C556" s="7"/>
     </row>
     <row r="557" spans="2:3">
-      <c r="B557" s="17"/>
-      <c r="C557" s="5"/>
+      <c r="B557" s="22"/>
+      <c r="C557" s="7"/>
     </row>
     <row r="558" spans="2:3">
-      <c r="B558" s="17"/>
-      <c r="C558" s="5"/>
+      <c r="B558" s="22"/>
+      <c r="C558" s="7"/>
     </row>
     <row r="559" spans="2:3">
-      <c r="B559" s="17"/>
-      <c r="C559" s="5"/>
+      <c r="B559" s="22"/>
+      <c r="C559" s="7"/>
     </row>
     <row r="560" spans="2:3">
-      <c r="B560" s="17"/>
-      <c r="C560" s="5"/>
+      <c r="B560" s="22"/>
+      <c r="C560" s="7"/>
     </row>
     <row r="561" spans="2:3">
-      <c r="B561" s="17"/>
-      <c r="C561" s="5"/>
+      <c r="B561" s="22"/>
+      <c r="C561" s="7"/>
     </row>
     <row r="562" spans="2:3">
-      <c r="B562" s="17"/>
-      <c r="C562" s="5"/>
+      <c r="B562" s="22"/>
+      <c r="C562" s="7"/>
     </row>
     <row r="563" spans="2:3">
-      <c r="B563" s="17"/>
-      <c r="C563" s="23"/>
+      <c r="B563" s="22"/>
+      <c r="C563" s="28"/>
     </row>
     <row r="564" spans="2:3">
-      <c r="B564" s="17"/>
-      <c r="C564" s="23"/>
+      <c r="B564" s="22"/>
+      <c r="C564" s="28"/>
     </row>
     <row r="565" spans="2:3">
-      <c r="B565" s="17"/>
-      <c r="C565" s="23"/>
+      <c r="B565" s="22"/>
+      <c r="C565" s="28"/>
     </row>
     <row r="566" spans="2:3">
-      <c r="B566" s="17"/>
-      <c r="C566" s="23"/>
+      <c r="B566" s="22"/>
+      <c r="C566" s="28"/>
     </row>
     <row r="567" spans="2:3">
-      <c r="B567" s="17"/>
-      <c r="C567" s="23"/>
+      <c r="B567" s="22"/>
+      <c r="C567" s="28"/>
     </row>
     <row r="568" spans="2:3">
-      <c r="B568" s="17"/>
-      <c r="C568" s="23"/>
+      <c r="B568" s="22"/>
+      <c r="C568" s="28"/>
     </row>
     <row r="569" spans="2:3">
-      <c r="B569" s="17"/>
-      <c r="C569" s="23"/>
+      <c r="B569" s="22"/>
+      <c r="C569" s="28"/>
     </row>
     <row r="570" spans="2:3">
-      <c r="B570" s="17"/>
-      <c r="C570" s="23"/>
+      <c r="B570" s="22"/>
+      <c r="C570" s="28"/>
     </row>
     <row r="571" spans="2:3">
-      <c r="B571" s="17"/>
-      <c r="C571" s="23"/>
+      <c r="B571" s="22"/>
+      <c r="C571" s="28"/>
     </row>
     <row r="572" spans="2:3">
-      <c r="B572" s="17"/>
-      <c r="C572" s="23"/>
+      <c r="B572" s="22"/>
+      <c r="C572" s="28"/>
     </row>
     <row r="573" spans="2:3">
-      <c r="B573" s="17"/>
-      <c r="C573" s="23"/>
+      <c r="B573" s="22"/>
+      <c r="C573" s="28"/>
     </row>
     <row r="574" spans="2:3">
-      <c r="B574" s="17"/>
-      <c r="C574" s="23"/>
+      <c r="B574" s="22"/>
+      <c r="C574" s="28"/>
     </row>
     <row r="575" spans="2:3">
-      <c r="B575" s="17"/>
-      <c r="C575" s="23"/>
+      <c r="B575" s="22"/>
+      <c r="C575" s="28"/>
     </row>
     <row r="576" spans="2:3">
-      <c r="B576" s="17"/>
-      <c r="C576" s="23"/>
+      <c r="B576" s="22"/>
+      <c r="C576" s="28"/>
     </row>
     <row r="577" spans="2:3">
-      <c r="B577" s="17"/>
-      <c r="C577" s="5"/>
+      <c r="B577" s="22"/>
+      <c r="C577" s="7"/>
     </row>
     <row r="578" spans="2:3">
-      <c r="B578" s="17"/>
-      <c r="C578" s="5"/>
+      <c r="B578" s="22"/>
+      <c r="C578" s="7"/>
     </row>
     <row r="579" spans="2:3">
-      <c r="B579" s="17"/>
-      <c r="C579" s="5"/>
+      <c r="B579" s="22"/>
+      <c r="C579" s="7"/>
     </row>
     <row r="580" spans="2:3">
-      <c r="B580" s="8"/>
-      <c r="C580" s="5"/>
+      <c r="B580" s="21"/>
+      <c r="C580" s="7"/>
     </row>
     <row r="581" spans="2:3">
-      <c r="B581" s="17"/>
-      <c r="C581" s="5"/>
+      <c r="B581" s="22"/>
+      <c r="C581" s="7"/>
     </row>
     <row r="582" spans="2:3">
-      <c r="B582" s="17"/>
-      <c r="C582" s="5"/>
+      <c r="B582" s="22"/>
+      <c r="C582" s="7"/>
     </row>
     <row r="583" spans="2:3">
-      <c r="B583" s="17"/>
-      <c r="C583" s="5"/>
+      <c r="B583" s="22"/>
+      <c r="C583" s="7"/>
     </row>
     <row r="584" spans="2:3">
-      <c r="B584" s="17"/>
-      <c r="C584" s="5"/>
+      <c r="B584" s="22"/>
+      <c r="C584" s="7"/>
     </row>
     <row r="585" spans="2:3">
-      <c r="B585" s="8"/>
-      <c r="C585" s="5"/>
+      <c r="B585" s="21"/>
+      <c r="C585" s="7"/>
     </row>
     <row r="586" spans="2:3">
-      <c r="B586" s="17"/>
-      <c r="C586" s="5"/>
+      <c r="B586" s="22"/>
+      <c r="C586" s="7"/>
     </row>
     <row r="587" spans="2:3">
-      <c r="B587" s="17"/>
-      <c r="C587" s="5"/>
+      <c r="B587" s="22"/>
+      <c r="C587" s="7"/>
     </row>
     <row r="588" spans="2:3">
-      <c r="B588" s="8"/>
-      <c r="C588" s="5"/>
+      <c r="B588" s="21"/>
+      <c r="C588" s="7"/>
     </row>
     <row r="589" spans="2:3">
-      <c r="B589" s="17"/>
-      <c r="C589" s="5"/>
+      <c r="B589" s="22"/>
+      <c r="C589" s="7"/>
     </row>
     <row r="590" spans="2:3">
-      <c r="B590" s="17"/>
-      <c r="C590" s="5"/>
+      <c r="B590" s="22"/>
+      <c r="C590" s="7"/>
     </row>
     <row r="591" spans="2:3">
-      <c r="B591" s="8"/>
-      <c r="C591" s="5"/>
+      <c r="B591" s="21"/>
+      <c r="C591" s="7"/>
     </row>
     <row r="592" spans="2:3">
-      <c r="B592" s="8"/>
-      <c r="C592" s="5"/>
+      <c r="B592" s="21"/>
+      <c r="C592" s="7"/>
     </row>
     <row r="593" spans="2:3">
-      <c r="B593" s="17"/>
-      <c r="C593" s="5"/>
+      <c r="B593" s="22"/>
+      <c r="C593" s="7"/>
     </row>
     <row r="594" spans="2:3">
-      <c r="B594" s="8"/>
-      <c r="C594" s="5"/>
+      <c r="B594" s="21"/>
+      <c r="C594" s="7"/>
     </row>
     <row r="595" spans="2:3">
-      <c r="B595" s="17"/>
-      <c r="C595" s="5"/>
+      <c r="B595" s="22"/>
+      <c r="C595" s="7"/>
     </row>
     <row r="596" spans="2:3">
-      <c r="B596" s="8"/>
-      <c r="C596" s="5"/>
+      <c r="B596" s="21"/>
+      <c r="C596" s="7"/>
     </row>
     <row r="597" spans="2:3">
-      <c r="B597" s="17"/>
-      <c r="C597" s="5"/>
+      <c r="B597" s="22"/>
+      <c r="C597" s="7"/>
     </row>
     <row r="598" spans="2:3">
-      <c r="B598" s="8"/>
-      <c r="C598" s="5"/>
+      <c r="B598" s="21"/>
+      <c r="C598" s="7"/>
     </row>
     <row r="599" spans="2:3">
-      <c r="B599" s="17"/>
-      <c r="C599" s="5"/>
+      <c r="B599" s="22"/>
+      <c r="C599" s="7"/>
     </row>
     <row r="600" spans="2:3">
-      <c r="B600" s="8"/>
-      <c r="C600" s="5"/>
+      <c r="B600" s="21"/>
+      <c r="C600" s="7"/>
     </row>
     <row r="601" spans="2:3">
-      <c r="B601" s="17"/>
-      <c r="C601" s="5"/>
+      <c r="B601" s="22"/>
+      <c r="C601" s="7"/>
     </row>
     <row r="602" spans="2:3">
-      <c r="B602" s="8"/>
-      <c r="C602" s="5"/>
+      <c r="B602" s="21"/>
+      <c r="C602" s="7"/>
     </row>
     <row r="603" spans="2:3">
-      <c r="B603" s="8"/>
-      <c r="C603" s="5"/>
+      <c r="B603" s="21"/>
+      <c r="C603" s="7"/>
     </row>
     <row r="604" spans="2:3">
-      <c r="B604" s="8"/>
-      <c r="C604" s="5"/>
+      <c r="B604" s="21"/>
+      <c r="C604" s="7"/>
     </row>
     <row r="605" spans="2:3">
-      <c r="B605" s="17"/>
-      <c r="C605" s="5"/>
+      <c r="B605" s="22"/>
+      <c r="C605" s="7"/>
     </row>
     <row r="606" spans="2:3">
-      <c r="B606" s="8"/>
-      <c r="C606" s="5"/>
+      <c r="B606" s="21"/>
+      <c r="C606" s="7"/>
     </row>
     <row r="607" spans="2:3">
-      <c r="B607" s="17"/>
-      <c r="C607" s="5"/>
+      <c r="B607" s="22"/>
+      <c r="C607" s="7"/>
     </row>
     <row r="608" spans="2:3">
-      <c r="B608" s="8"/>
-      <c r="C608" s="5"/>
+      <c r="B608" s="21"/>
+      <c r="C608" s="7"/>
     </row>
     <row r="609" spans="2:3">
-      <c r="B609" s="17"/>
-      <c r="C609" s="5"/>
+      <c r="B609" s="22"/>
+      <c r="C609" s="7"/>
     </row>
     <row r="610" spans="2:3">
-      <c r="B610" s="8"/>
-      <c r="C610" s="5"/>
+      <c r="B610" s="21"/>
+      <c r="C610" s="7"/>
     </row>
     <row r="611" spans="2:3">
-      <c r="B611" s="17"/>
-      <c r="C611" s="5"/>
+      <c r="B611" s="22"/>
+      <c r="C611" s="7"/>
     </row>
     <row r="612" spans="2:3">
-      <c r="B612" s="8"/>
-      <c r="C612" s="5"/>
+      <c r="B612" s="21"/>
+      <c r="C612" s="7"/>
     </row>
     <row r="613" spans="2:3">
-      <c r="B613" s="17"/>
-      <c r="C613" s="5"/>
+      <c r="B613" s="22"/>
+      <c r="C613" s="7"/>
     </row>
     <row r="614" spans="2:3">
-      <c r="B614" s="8"/>
-      <c r="C614" s="5"/>
+      <c r="B614" s="21"/>
+      <c r="C614" s="7"/>
     </row>
     <row r="615" spans="2:3">
-      <c r="B615" s="17"/>
-      <c r="C615" s="5"/>
+      <c r="B615" s="22"/>
+      <c r="C615" s="7"/>
     </row>
     <row r="616" spans="2:3">
-      <c r="B616" s="8"/>
-      <c r="C616" s="5"/>
+      <c r="B616" s="21"/>
+      <c r="C616" s="7"/>
     </row>
     <row r="617" spans="2:3">
-      <c r="B617" s="8"/>
-      <c r="C617" s="5"/>
+      <c r="B617" s="21"/>
+      <c r="C617" s="7"/>
     </row>
     <row r="618" spans="2:3">
-      <c r="B618" s="17"/>
-      <c r="C618" s="5"/>
+      <c r="B618" s="22"/>
+      <c r="C618" s="7"/>
     </row>
     <row r="619" spans="2:3">
-      <c r="B619" s="8"/>
-      <c r="C619" s="5"/>
+      <c r="B619" s="21"/>
+      <c r="C619" s="7"/>
     </row>
     <row r="620" spans="2:3">
-      <c r="B620" s="8"/>
-      <c r="C620" s="5"/>
+      <c r="B620" s="21"/>
+      <c r="C620" s="7"/>
     </row>
     <row r="621" spans="2:3">
-      <c r="B621" s="17"/>
-      <c r="C621" s="5"/>
+      <c r="B621" s="22"/>
+      <c r="C621" s="7"/>
     </row>
     <row r="622" spans="2:3">
-      <c r="B622" s="17"/>
-      <c r="C622" s="5"/>
+      <c r="B622" s="22"/>
+      <c r="C622" s="7"/>
     </row>
     <row r="623" spans="2:3">
-      <c r="B623" s="8"/>
-      <c r="C623" s="5"/>
+      <c r="B623" s="21"/>
+      <c r="C623" s="7"/>
     </row>
     <row r="624" spans="2:3">
-      <c r="B624" s="8"/>
-      <c r="C624" s="5"/>
+      <c r="B624" s="21"/>
+      <c r="C624" s="7"/>
     </row>
     <row r="625" spans="2:3">
-      <c r="B625" s="17"/>
-      <c r="C625" s="5"/>
+      <c r="B625" s="22"/>
+      <c r="C625" s="7"/>
     </row>
     <row r="626" spans="2:3">
-      <c r="B626" s="8"/>
-      <c r="C626" s="5"/>
+      <c r="B626" s="21"/>
+      <c r="C626" s="7"/>
     </row>
     <row r="627" spans="2:3">
-      <c r="B627" s="8"/>
-      <c r="C627" s="5"/>
+      <c r="B627" s="21"/>
+      <c r="C627" s="7"/>
     </row>
     <row r="628" spans="2:3">
-      <c r="B628" s="8"/>
-      <c r="C628" s="5"/>
+      <c r="B628" s="21"/>
+      <c r="C628" s="7"/>
     </row>
     <row r="629" spans="2:3">
-      <c r="B629" s="17"/>
-      <c r="C629" s="5"/>
+      <c r="B629" s="22"/>
+      <c r="C629" s="7"/>
     </row>
     <row r="630" spans="2:3">
-      <c r="B630" s="8"/>
-      <c r="C630" s="5"/>
+      <c r="B630" s="21"/>
+      <c r="C630" s="7"/>
     </row>
     <row r="631" spans="2:3">
-      <c r="B631" s="8"/>
-      <c r="C631" s="5"/>
+      <c r="B631" s="21"/>
+      <c r="C631" s="7"/>
     </row>
     <row r="632" spans="2:3">
-      <c r="B632" s="17"/>
-      <c r="C632" s="5"/>
+      <c r="B632" s="22"/>
+      <c r="C632" s="7"/>
     </row>
     <row r="633" spans="2:3">
-      <c r="B633" s="8"/>
-      <c r="C633" s="5"/>
+      <c r="B633" s="21"/>
+      <c r="C633" s="7"/>
     </row>
     <row r="634" spans="2:3">
-      <c r="B634" s="8"/>
-      <c r="C634" s="5"/>
+      <c r="B634" s="21"/>
+      <c r="C634" s="7"/>
     </row>
     <row r="635" spans="2:3">
-      <c r="B635" s="17"/>
-      <c r="C635" s="5"/>
+      <c r="B635" s="22"/>
+      <c r="C635" s="7"/>
     </row>
     <row r="636" spans="2:3">
-      <c r="B636" s="8"/>
-      <c r="C636" s="5"/>
+      <c r="B636" s="21"/>
+      <c r="C636" s="7"/>
     </row>
     <row r="637" spans="2:3">
-      <c r="B637" s="8"/>
-      <c r="C637" s="5"/>
+      <c r="B637" s="21"/>
+      <c r="C637" s="7"/>
     </row>
     <row r="638" spans="2:3">
-      <c r="B638" s="17"/>
-      <c r="C638" s="5"/>
+      <c r="B638" s="22"/>
+      <c r="C638" s="7"/>
     </row>
     <row r="639" spans="2:3">
-      <c r="B639" s="8"/>
-      <c r="C639" s="5"/>
+      <c r="B639" s="21"/>
+      <c r="C639" s="7"/>
     </row>
     <row r="640" spans="2:3">
-      <c r="B640" s="8"/>
-      <c r="C640" s="5"/>
+      <c r="B640" s="21"/>
+      <c r="C640" s="7"/>
     </row>
     <row r="641" spans="2:3">
-      <c r="B641" s="17"/>
-      <c r="C641" s="5"/>
+      <c r="B641" s="22"/>
+      <c r="C641" s="7"/>
     </row>
     <row r="642" spans="2:3">
-      <c r="B642" s="8"/>
-      <c r="C642" s="5"/>
+      <c r="B642" s="21"/>
+      <c r="C642" s="7"/>
     </row>
     <row r="643" spans="2:3">
-      <c r="B643" s="8"/>
-      <c r="C643" s="5"/>
+      <c r="B643" s="21"/>
+      <c r="C643" s="7"/>
     </row>
     <row r="644" spans="2:3">
-      <c r="B644" s="8"/>
-      <c r="C644" s="5"/>
+      <c r="B644" s="21"/>
+      <c r="C644" s="7"/>
     </row>
     <row r="645" spans="2:3">
-      <c r="B645" s="8"/>
-      <c r="C645" s="5"/>
+      <c r="B645" s="21"/>
+      <c r="C645" s="7"/>
     </row>
     <row r="646" spans="2:3">
-      <c r="B646" s="8"/>
-      <c r="C646" s="5"/>
+      <c r="B646" s="21"/>
+      <c r="C646" s="7"/>
     </row>
     <row r="647" spans="2:3">
-      <c r="B647" s="17"/>
-      <c r="C647" s="5"/>
+      <c r="B647" s="22"/>
+      <c r="C647" s="7"/>
     </row>
     <row r="648" spans="2:3">
-      <c r="B648" s="8"/>
-      <c r="C648" s="5"/>
+      <c r="B648" s="21"/>
+      <c r="C648" s="7"/>
     </row>
     <row r="649" spans="2:3">
-      <c r="B649" s="17"/>
-      <c r="C649" s="5"/>
+      <c r="B649" s="22"/>
+      <c r="C649" s="7"/>
     </row>
     <row r="650" spans="2:3">
-      <c r="B650" s="8"/>
-      <c r="C650" s="5"/>
+      <c r="B650" s="21"/>
+      <c r="C650" s="7"/>
     </row>
     <row r="651" spans="2:3">
-      <c r="B651" s="17"/>
-      <c r="C651" s="5"/>
+      <c r="B651" s="22"/>
+      <c r="C651" s="7"/>
     </row>
     <row r="652" spans="2:3">
-      <c r="B652" s="8"/>
-      <c r="C652" s="5"/>
+      <c r="B652" s="21"/>
+      <c r="C652" s="7"/>
     </row>
     <row r="653" spans="2:3">
-      <c r="B653" s="17"/>
-      <c r="C653" s="5"/>
+      <c r="B653" s="22"/>
+      <c r="C653" s="7"/>
     </row>
     <row r="654" spans="2:3">
-      <c r="B654" s="8"/>
-      <c r="C654" s="5"/>
+      <c r="B654" s="21"/>
+      <c r="C654" s="7"/>
     </row>
     <row r="655" spans="2:3">
-      <c r="B655" s="8"/>
-      <c r="C655" s="5"/>
+      <c r="B655" s="21"/>
+      <c r="C655" s="7"/>
     </row>
     <row r="656" spans="2:3">
-      <c r="B656" s="8"/>
-      <c r="C656" s="5"/>
+      <c r="B656" s="21"/>
+      <c r="C656" s="7"/>
     </row>
     <row r="657" spans="2:3">
-      <c r="B657" s="8"/>
-      <c r="C657" s="23"/>
+      <c r="B657" s="21"/>
+      <c r="C657" s="28"/>
     </row>
     <row r="658" spans="2:3">
-      <c r="B658" s="8"/>
-      <c r="C658" s="23"/>
+      <c r="B658" s="21"/>
+      <c r="C658" s="28"/>
     </row>
     <row r="659" spans="2:3">
-      <c r="B659" s="8"/>
-      <c r="C659" s="23"/>
+      <c r="B659" s="21"/>
+      <c r="C659" s="28"/>
     </row>
     <row r="660" spans="2:3">
-      <c r="B660" s="8"/>
-      <c r="C660" s="23"/>
+      <c r="B660" s="21"/>
+      <c r="C660" s="28"/>
     </row>
     <row r="661" spans="2:3">
-      <c r="B661" s="8"/>
-      <c r="C661" s="23"/>
+      <c r="B661" s="21"/>
+      <c r="C661" s="28"/>
     </row>
     <row r="662" spans="2:3">
-      <c r="B662" s="8"/>
-      <c r="C662" s="23"/>
+      <c r="B662" s="21"/>
+      <c r="C662" s="28"/>
     </row>
     <row r="663" spans="2:3">
-      <c r="B663" s="8"/>
-      <c r="C663" s="23"/>
+      <c r="B663" s="21"/>
+      <c r="C663" s="28"/>
     </row>
     <row r="664" spans="2:3">
-      <c r="B664" s="8"/>
-      <c r="C664" s="23"/>
+      <c r="B664" s="21"/>
+      <c r="C664" s="28"/>
     </row>
     <row r="665" spans="2:3">
-      <c r="B665" s="8"/>
-      <c r="C665" s="23"/>
+      <c r="B665" s="21"/>
+      <c r="C665" s="28"/>
     </row>
     <row r="666" spans="2:3">
-      <c r="B666" s="8"/>
-      <c r="C666" s="23"/>
+      <c r="B666" s="21"/>
+      <c r="C666" s="28"/>
     </row>
     <row r="667" spans="2:3">
-      <c r="B667" s="8"/>
-      <c r="C667" s="23"/>
+      <c r="B667" s="21"/>
+      <c r="C667" s="28"/>
     </row>
     <row r="668" spans="2:3">
-      <c r="B668" s="8"/>
-      <c r="C668" s="23"/>
+      <c r="B668" s="21"/>
+      <c r="C668" s="28"/>
     </row>
     <row r="669" spans="2:3">
-      <c r="B669" s="8"/>
-      <c r="C669" s="23"/>
+      <c r="B669" s="21"/>
+      <c r="C669" s="28"/>
     </row>
     <row r="670" spans="2:3">
-      <c r="B670" s="8"/>
-      <c r="C670" s="23"/>
+      <c r="B670" s="21"/>
+      <c r="C670" s="28"/>
     </row>
     <row r="671" spans="2:3">
-      <c r="B671" s="8"/>
-      <c r="C671" s="23"/>
+      <c r="B671" s="21"/>
+      <c r="C671" s="28"/>
     </row>
     <row r="672" spans="2:3">
-      <c r="B672" s="8"/>
-      <c r="C672" s="23"/>
+      <c r="B672" s="21"/>
+      <c r="C672" s="28"/>
     </row>
     <row r="673" spans="2:3">
-      <c r="B673" s="8"/>
-      <c r="C673" s="23"/>
+      <c r="B673" s="21"/>
+      <c r="C673" s="28"/>
     </row>
     <row r="674" spans="2:3">
-      <c r="B674" s="8"/>
-      <c r="C674" s="23"/>
+      <c r="B674" s="21"/>
+      <c r="C674" s="28"/>
     </row>
     <row r="675" spans="2:3">
-      <c r="B675" s="8"/>
-      <c r="C675" s="23"/>
+      <c r="B675" s="21"/>
+      <c r="C675" s="28"/>
     </row>
     <row r="676" spans="2:3">
-      <c r="B676" s="8"/>
-      <c r="C676" s="23"/>
+      <c r="B676" s="21"/>
+      <c r="C676" s="28"/>
     </row>
     <row r="677" spans="2:3">
-      <c r="B677" s="8"/>
-      <c r="C677" s="23"/>
+      <c r="B677" s="21"/>
+      <c r="C677" s="28"/>
     </row>
     <row r="678" spans="2:3">
-      <c r="B678" s="8"/>
-      <c r="C678" s="5"/>
+      <c r="B678" s="21"/>
+      <c r="C678" s="7"/>
     </row>
     <row r="679" spans="2:3">
-      <c r="B679" s="8"/>
-      <c r="C679" s="5"/>
+      <c r="B679" s="21"/>
+      <c r="C679" s="7"/>
     </row>
     <row r="680" spans="2:3">
-      <c r="B680" s="8"/>
-      <c r="C680" s="5"/>
+      <c r="B680" s="21"/>
+      <c r="C680" s="7"/>
     </row>
     <row r="681" spans="2:3">
-      <c r="B681" s="8"/>
-      <c r="C681" s="8"/>
+      <c r="B681" s="21"/>
+      <c r="C681" s="21"/>
     </row>
     <row r="682" spans="2:3">
-      <c r="B682" s="8"/>
-      <c r="C682" s="8"/>
+      <c r="B682" s="21"/>
+      <c r="C682" s="21"/>
     </row>
     <row r="683" spans="2:3">
-      <c r="B683" s="8"/>
-      <c r="C683" s="8"/>
+      <c r="B683" s="21"/>
+      <c r="C683" s="21"/>
     </row>
     <row r="684" spans="2:3">
-      <c r="B684" s="8"/>
-      <c r="C684" s="8"/>
+      <c r="B684" s="21"/>
+      <c r="C684" s="21"/>
     </row>
     <row r="685" spans="2:3">
-      <c r="B685" s="8"/>
-      <c r="C685" s="8"/>
+      <c r="B685" s="21"/>
+      <c r="C685" s="21"/>
     </row>
     <row r="686" spans="2:3">
-      <c r="B686" s="8"/>
-      <c r="C686" s="8"/>
+      <c r="B686" s="21"/>
+      <c r="C686" s="21"/>
     </row>
     <row r="687" spans="2:3">
-      <c r="B687" s="8"/>
-      <c r="C687" s="8"/>
+      <c r="B687" s="21"/>
+      <c r="C687" s="21"/>
     </row>
     <row r="688" spans="2:3">
-      <c r="B688" s="8"/>
-      <c r="C688" s="8"/>
+      <c r="B688" s="21"/>
+      <c r="C688" s="21"/>
     </row>
     <row r="689" spans="2:3">
-      <c r="B689" s="8"/>
-      <c r="C689" s="8"/>
+      <c r="B689" s="21"/>
+      <c r="C689" s="21"/>
     </row>
     <row r="690" spans="2:3">
-      <c r="B690" s="8"/>
-      <c r="C690" s="8"/>
+      <c r="B690" s="21"/>
+      <c r="C690" s="21"/>
     </row>
     <row r="691" spans="2:3">
-      <c r="B691" s="8"/>
-      <c r="C691" s="8"/>
+      <c r="B691" s="21"/>
+      <c r="C691" s="21"/>
     </row>
     <row r="692" spans="2:3">
-      <c r="B692" s="8"/>
-      <c r="C692" s="8"/>
+      <c r="B692" s="21"/>
+      <c r="C692" s="21"/>
     </row>
     <row r="693" spans="2:3">
-      <c r="B693" s="8"/>
-      <c r="C693" s="8"/>
+      <c r="B693" s="21"/>
+      <c r="C693" s="21"/>
     </row>
     <row r="694" spans="2:3">
-      <c r="B694" s="8"/>
-      <c r="C694" s="8"/>
+      <c r="B694" s="21"/>
+      <c r="C694" s="21"/>
     </row>
     <row r="695" spans="2:3">
-      <c r="B695" s="8"/>
-      <c r="C695" s="8"/>
+      <c r="B695" s="21"/>
+      <c r="C695" s="21"/>
     </row>
     <row r="696" spans="2:3">
-      <c r="B696" s="8"/>
-      <c r="C696" s="8"/>
+      <c r="B696" s="21"/>
+      <c r="C696" s="21"/>
     </row>
     <row r="697" spans="2:3">
-      <c r="B697" s="8"/>
-      <c r="C697" s="5"/>
+      <c r="B697" s="21"/>
+      <c r="C697" s="7"/>
     </row>
     <row r="698" spans="2:3">
-      <c r="B698" s="8"/>
-      <c r="C698" s="5"/>
+      <c r="B698" s="21"/>
+      <c r="C698" s="7"/>
     </row>
     <row r="699" spans="2:3">
-      <c r="B699" s="8"/>
-      <c r="C699" s="5"/>
+      <c r="B699" s="21"/>
+      <c r="C699" s="7"/>
     </row>
     <row r="700" spans="2:3">
-      <c r="B700" s="8"/>
-      <c r="C700" s="5"/>
+      <c r="B700" s="21"/>
+      <c r="C700" s="7"/>
     </row>
     <row r="701" spans="2:3">
-      <c r="B701" s="8"/>
-      <c r="C701" s="5"/>
+      <c r="B701" s="21"/>
+      <c r="C701" s="7"/>
     </row>
     <row r="702" spans="2:3">
-      <c r="B702" s="8"/>
-      <c r="C702" s="5"/>
+      <c r="B702" s="21"/>
+      <c r="C702" s="7"/>
     </row>
     <row r="703" spans="2:3">
-      <c r="B703" s="8"/>
-      <c r="C703" s="23"/>
+      <c r="B703" s="21"/>
+      <c r="C703" s="28"/>
     </row>
     <row r="704" spans="2:3">
-      <c r="B704" s="8"/>
-      <c r="C704" s="23"/>
+      <c r="B704" s="21"/>
+      <c r="C704" s="28"/>
     </row>
     <row r="705" spans="2:3">
-      <c r="B705" s="8"/>
-      <c r="C705" s="23"/>
+      <c r="B705" s="21"/>
+      <c r="C705" s="28"/>
     </row>
     <row r="706" spans="2:3">
-      <c r="B706" s="8"/>
-      <c r="C706" s="23"/>
+      <c r="B706" s="21"/>
+      <c r="C706" s="28"/>
     </row>
     <row r="707" spans="2:3">
-      <c r="B707" s="8"/>
-      <c r="C707" s="23"/>
+      <c r="B707" s="21"/>
+      <c r="C707" s="28"/>
     </row>
     <row r="708" spans="2:3">
-      <c r="B708" s="8"/>
-      <c r="C708" s="23"/>
+      <c r="B708" s="21"/>
+      <c r="C708" s="28"/>
     </row>
     <row r="709" spans="2:3">
-      <c r="B709" s="8"/>
-      <c r="C709" s="23"/>
+      <c r="B709" s="21"/>
+      <c r="C709" s="28"/>
     </row>
     <row r="710" spans="2:3">
-      <c r="B710" s="8"/>
-      <c r="C710" s="23"/>
+      <c r="B710" s="21"/>
+      <c r="C710" s="28"/>
     </row>
     <row r="711" spans="2:3">
-      <c r="B711" s="8"/>
-      <c r="C711" s="23"/>
+      <c r="B711" s="21"/>
+      <c r="C711" s="28"/>
     </row>
     <row r="712" spans="2:3">
-      <c r="B712" s="8"/>
-      <c r="C712" s="23"/>
+      <c r="B712" s="21"/>
+      <c r="C712" s="28"/>
     </row>
     <row r="713" spans="2:3">
-      <c r="B713" s="8"/>
-      <c r="C713" s="23"/>
+      <c r="B713" s="21"/>
+      <c r="C713" s="28"/>
     </row>
     <row r="714" spans="2:3">
-      <c r="B714" s="8"/>
-      <c r="C714" s="23"/>
+      <c r="B714" s="21"/>
+      <c r="C714" s="28"/>
     </row>
     <row r="715" spans="2:3">
-      <c r="B715" s="8"/>
-      <c r="C715" s="23"/>
+      <c r="B715" s="21"/>
+      <c r="C715" s="28"/>
     </row>
     <row r="716" spans="2:3">
-      <c r="B716" s="8"/>
-      <c r="C716" s="23"/>
+      <c r="B716" s="21"/>
+      <c r="C716" s="28"/>
     </row>
     <row r="717" spans="2:3">
-      <c r="B717" s="8"/>
-      <c r="C717" s="5"/>
+      <c r="B717" s="21"/>
+      <c r="C717" s="7"/>
     </row>
     <row r="718" spans="2:3">
-      <c r="B718" s="8"/>
-      <c r="C718" s="23"/>
+      <c r="B718" s="21"/>
+      <c r="C718" s="28"/>
     </row>
     <row r="719" spans="2:3">
-      <c r="B719" s="8"/>
-      <c r="C719" s="23"/>
+      <c r="B719" s="21"/>
+      <c r="C719" s="28"/>
     </row>
     <row r="720" spans="2:3">
-      <c r="B720" s="8"/>
-      <c r="C720" s="23"/>
+      <c r="B720" s="21"/>
+      <c r="C720" s="28"/>
     </row>
     <row r="721" spans="2:3">
-      <c r="B721" s="8"/>
-      <c r="C721" s="23"/>
+      <c r="B721" s="21"/>
+      <c r="C721" s="28"/>
     </row>
     <row r="722" spans="2:3">
-      <c r="B722" s="8"/>
-      <c r="C722" s="23"/>
+      <c r="B722" s="21"/>
+      <c r="C722" s="28"/>
     </row>
     <row r="723" spans="2:3">
-      <c r="B723" s="8"/>
-      <c r="C723" s="23"/>
+      <c r="B723" s="21"/>
+      <c r="C723" s="28"/>
     </row>
     <row r="724" spans="2:3">
-      <c r="B724" s="8"/>
-      <c r="C724" s="23"/>
+      <c r="B724" s="21"/>
+      <c r="C724" s="28"/>
     </row>
     <row r="725" spans="2:3">
-      <c r="B725" s="8"/>
-      <c r="C725" s="5"/>
+      <c r="B725" s="21"/>
+      <c r="C725" s="7"/>
     </row>
     <row r="726" spans="2:3">
-      <c r="B726" s="8"/>
-      <c r="C726" s="5"/>
+      <c r="B726" s="21"/>
+      <c r="C726" s="7"/>
     </row>
     <row r="727" spans="2:3">
-      <c r="B727" s="8"/>
-      <c r="C727" s="5"/>
+      <c r="B727" s="21"/>
+      <c r="C727" s="7"/>
     </row>
     <row r="728" spans="2:3">
-      <c r="B728" s="8"/>
-      <c r="C728" s="5"/>
+      <c r="B728" s="21"/>
+      <c r="C728" s="7"/>
     </row>
     <row r="729" spans="2:3">
-      <c r="B729" s="8"/>
-      <c r="C729" s="5"/>
+      <c r="B729" s="21"/>
+      <c r="C729" s="7"/>
     </row>
     <row r="730" spans="2:3">
-      <c r="B730" s="8"/>
-      <c r="C730" s="5"/>
+      <c r="B730" s="21"/>
+      <c r="C730" s="7"/>
     </row>
     <row r="731" spans="2:3">
-      <c r="B731" s="8"/>
-      <c r="C731" s="5"/>
+      <c r="B731" s="21"/>
+      <c r="C731" s="7"/>
     </row>
     <row r="732" spans="2:3">
-      <c r="B732" s="8"/>
-      <c r="C732" s="5"/>
+      <c r="B732" s="21"/>
+      <c r="C732" s="7"/>
     </row>
     <row r="733" spans="2:3">
-      <c r="B733" s="8"/>
-      <c r="C733" s="5"/>
+      <c r="B733" s="21"/>
+      <c r="C733" s="7"/>
     </row>
     <row r="734" spans="2:3">
-      <c r="B734" s="8"/>
-      <c r="C734" s="5"/>
+      <c r="B734" s="21"/>
+      <c r="C734" s="7"/>
     </row>
     <row r="735" spans="2:3">
-      <c r="B735" s="8"/>
-      <c r="C735" s="5"/>
+      <c r="B735" s="21"/>
+      <c r="C735" s="7"/>
     </row>
     <row r="736" spans="2:3">
-      <c r="B736" s="8"/>
-      <c r="C736" s="5"/>
+      <c r="B736" s="21"/>
+      <c r="C736" s="7"/>
     </row>
     <row r="737" spans="2:3">
-      <c r="B737" s="8"/>
-      <c r="C737" s="5"/>
+      <c r="B737" s="21"/>
+      <c r="C737" s="7"/>
     </row>
     <row r="738" spans="2:3">
-      <c r="B738" s="8"/>
-      <c r="C738" s="5"/>
+      <c r="B738" s="21"/>
+      <c r="C738" s="7"/>
     </row>
     <row r="739" spans="2:3">
-      <c r="B739" s="8"/>
-      <c r="C739" s="5"/>
+      <c r="B739" s="21"/>
+      <c r="C739" s="7"/>
     </row>
     <row r="740" spans="2:3">
-      <c r="B740" s="8"/>
-      <c r="C740" s="5"/>
+      <c r="B740" s="21"/>
+      <c r="C740" s="7"/>
     </row>
     <row r="741" spans="2:3">
-      <c r="B741" s="8"/>
-      <c r="C741" s="5"/>
+      <c r="B741" s="21"/>
+      <c r="C741" s="7"/>
     </row>
     <row r="742" spans="2:3">
-      <c r="B742" s="8"/>
-      <c r="C742" s="5"/>
+      <c r="B742" s="21"/>
+      <c r="C742" s="7"/>
     </row>
     <row r="743" spans="2:3">
-      <c r="B743" s="8"/>
-      <c r="C743" s="5"/>
+      <c r="B743" s="21"/>
+      <c r="C743" s="7"/>
     </row>
     <row r="744" spans="2:3">
-      <c r="B744" s="8"/>
-      <c r="C744" s="5"/>
+      <c r="B744" s="21"/>
+      <c r="C744" s="7"/>
     </row>
     <row r="745" spans="2:3">
-      <c r="B745" s="8"/>
-      <c r="C745" s="5"/>
+      <c r="B745" s="21"/>
+      <c r="C745" s="7"/>
     </row>
     <row r="746" spans="2:3">
-      <c r="B746" s="8"/>
-      <c r="C746" s="5"/>
+      <c r="B746" s="21"/>
+      <c r="C746" s="7"/>
     </row>
     <row r="747" spans="2:3">
-      <c r="B747" s="8"/>
-      <c r="C747" s="5"/>
+      <c r="B747" s="21"/>
+      <c r="C747" s="7"/>
     </row>
     <row r="748" spans="2:3">
-      <c r="B748" s="8"/>
-      <c r="C748" s="5"/>
+      <c r="B748" s="21"/>
+      <c r="C748" s="7"/>
     </row>
     <row r="749" spans="2:3">
-      <c r="B749" s="8"/>
-      <c r="C749" s="5"/>
+      <c r="B749" s="21"/>
+      <c r="C749" s="7"/>
     </row>
     <row r="750" spans="2:3">
-      <c r="B750" s="8"/>
-      <c r="C750" s="5"/>
+      <c r="B750" s="21"/>
+      <c r="C750" s="7"/>
     </row>
     <row r="751" spans="2:3">
-      <c r="B751" s="8"/>
-      <c r="C751" s="5"/>
+      <c r="B751" s="21"/>
+      <c r="C751" s="7"/>
     </row>
     <row r="752" spans="2:3">
-      <c r="B752" s="8"/>
-      <c r="C752" s="5"/>
+      <c r="B752" s="21"/>
+      <c r="C752" s="7"/>
     </row>
     <row r="753" spans="2:3">
-      <c r="B753" s="8"/>
-      <c r="C753" s="5"/>
+      <c r="B753" s="21"/>
+      <c r="C753" s="7"/>
     </row>
     <row r="754" spans="2:3">
-      <c r="B754" s="8"/>
-      <c r="C754" s="5"/>
+      <c r="B754" s="21"/>
+      <c r="C754" s="7"/>
     </row>
     <row r="755" spans="2:3">
-      <c r="B755" s="8"/>
-      <c r="C755" s="5"/>
+      <c r="B755" s="21"/>
+      <c r="C755" s="7"/>
     </row>
     <row r="756" spans="2:3">
-      <c r="B756" s="8"/>
-      <c r="C756" s="5"/>
+      <c r="B756" s="21"/>
+      <c r="C756" s="7"/>
     </row>
     <row r="757" spans="2:3">
-      <c r="B757" s="8"/>
-      <c r="C757" s="5"/>
+      <c r="B757" s="21"/>
+      <c r="C757" s="7"/>
     </row>
     <row r="758" spans="2:3">
-      <c r="B758" s="8"/>
-      <c r="C758" s="5"/>
+      <c r="B758" s="21"/>
+      <c r="C758" s="7"/>
     </row>
     <row r="759" spans="2:3">
-      <c r="B759" s="8"/>
-      <c r="C759" s="5"/>
+      <c r="B759" s="21"/>
+      <c r="C759" s="7"/>
     </row>
     <row r="760" spans="2:3">
-      <c r="B760" s="8"/>
-      <c r="C760" s="5"/>
+      <c r="B760" s="21"/>
+      <c r="C760" s="7"/>
     </row>
     <row r="761" spans="2:3">
-      <c r="B761" s="8"/>
-      <c r="C761" s="5"/>
+      <c r="B761" s="21"/>
+      <c r="C761" s="7"/>
     </row>
     <row r="762" spans="2:3">
-      <c r="B762" s="8"/>
-      <c r="C762" s="5"/>
+      <c r="B762" s="21"/>
+      <c r="C762" s="7"/>
     </row>
     <row r="763" spans="2:3">
-      <c r="B763" s="8"/>
-      <c r="C763" s="5"/>
+      <c r="B763" s="21"/>
+      <c r="C763" s="7"/>
     </row>
     <row r="764" spans="2:3">
-      <c r="B764" s="8"/>
-      <c r="C764" s="5"/>
+      <c r="B764" s="21"/>
+      <c r="C764" s="7"/>
     </row>
     <row r="765" spans="2:3">
-      <c r="B765" s="8"/>
-      <c r="C765" s="5"/>
+      <c r="B765" s="21"/>
+      <c r="C765" s="7"/>
     </row>
     <row r="766" spans="2:3">
-      <c r="B766" s="8"/>
-      <c r="C766" s="5"/>
+      <c r="B766" s="21"/>
+      <c r="C766" s="7"/>
     </row>
     <row r="767" spans="2:3">
-      <c r="B767" s="8"/>
-      <c r="C767" s="5"/>
+      <c r="B767" s="21"/>
+      <c r="C767" s="7"/>
     </row>
     <row r="768" spans="2:3">
-      <c r="B768" s="8"/>
-      <c r="C768" s="5"/>
+      <c r="B768" s="21"/>
+      <c r="C768" s="7"/>
     </row>
     <row r="769" spans="2:3">
-      <c r="B769" s="8"/>
-      <c r="C769" s="5"/>
+      <c r="B769" s="21"/>
+      <c r="C769" s="7"/>
     </row>
     <row r="770" spans="2:3">
-      <c r="B770" s="8"/>
-      <c r="C770" s="5"/>
+      <c r="B770" s="21"/>
+      <c r="C770" s="7"/>
     </row>
     <row r="771" spans="2:3">
-      <c r="B771" s="8"/>
-      <c r="C771" s="5"/>
+      <c r="B771" s="21"/>
+      <c r="C771" s="7"/>
     </row>
     <row r="772" spans="2:3">
-      <c r="B772" s="8"/>
-      <c r="C772" s="5"/>
+      <c r="B772" s="21"/>
+      <c r="C772" s="7"/>
     </row>
     <row r="773" spans="2:3">
-      <c r="B773" s="8"/>
-      <c r="C773" s="5"/>
+      <c r="B773" s="21"/>
+      <c r="C773" s="7"/>
     </row>
     <row r="774" spans="2:3">
-      <c r="B774" s="8"/>
-      <c r="C774" s="5"/>
+      <c r="B774" s="21"/>
+      <c r="C774" s="7"/>
     </row>
     <row r="775" spans="2:3">
-      <c r="B775" s="8"/>
-      <c r="C775" s="5"/>
+      <c r="B775" s="21"/>
+      <c r="C775" s="7"/>
     </row>
     <row r="776" spans="2:3">
-      <c r="B776" s="8"/>
-      <c r="C776" s="5"/>
+      <c r="B776" s="21"/>
+      <c r="C776" s="7"/>
     </row>
     <row r="777" spans="2:3">
-      <c r="B777" s="8"/>
-      <c r="C777" s="5"/>
+      <c r="B777" s="21"/>
+      <c r="C777" s="7"/>
     </row>
     <row r="778" spans="2:3">
-      <c r="B778" s="8"/>
-      <c r="C778" s="5"/>
+      <c r="B778" s="21"/>
+      <c r="C778" s="7"/>
     </row>
     <row r="779" spans="2:3">
-      <c r="B779" s="8"/>
-      <c r="C779" s="5"/>
+      <c r="B779" s="21"/>
+      <c r="C779" s="7"/>
     </row>
     <row r="780" spans="2:3">
-      <c r="B780" s="8"/>
-      <c r="C780" s="5"/>
+      <c r="B780" s="21"/>
+      <c r="C780" s="7"/>
     </row>
     <row r="781" spans="2:3">
-      <c r="B781" s="8"/>
-      <c r="C781" s="5"/>
+      <c r="B781" s="21"/>
+      <c r="C781" s="7"/>
     </row>
     <row r="782" spans="2:3">
-      <c r="B782" s="8"/>
-      <c r="C782" s="5"/>
+      <c r="B782" s="21"/>
+      <c r="C782" s="7"/>
     </row>
     <row r="783" spans="2:3">
-      <c r="B783" s="8"/>
-      <c r="C783" s="5"/>
+      <c r="B783" s="21"/>
+      <c r="C783" s="7"/>
     </row>
     <row r="784" spans="2:3">
-      <c r="B784" s="8"/>
-      <c r="C784" s="5"/>
+      <c r="B784" s="21"/>
+      <c r="C784" s="7"/>
     </row>
     <row r="785" spans="2:3">
-      <c r="B785" s="8"/>
-      <c r="C785" s="5"/>
+      <c r="B785" s="21"/>
+      <c r="C785" s="7"/>
     </row>
     <row r="786" spans="2:3">
-      <c r="B786" s="8"/>
-      <c r="C786" s="5"/>
+      <c r="B786" s="21"/>
+      <c r="C786" s="7"/>
     </row>
     <row r="787" spans="2:3">
-      <c r="B787" s="8"/>
-      <c r="C787" s="5"/>
+      <c r="B787" s="21"/>
+      <c r="C787" s="7"/>
     </row>
     <row r="788" spans="2:3">
-      <c r="B788" s="19"/>
-      <c r="C788" s="5"/>
+      <c r="B788" s="24"/>
+      <c r="C788" s="7"/>
     </row>
     <row r="789" spans="2:3">
-      <c r="B789" s="19"/>
-      <c r="C789" s="5"/>
+      <c r="B789" s="24"/>
+      <c r="C789" s="7"/>
     </row>
     <row r="790" spans="2:3">
-      <c r="B790" s="19"/>
-      <c r="C790" s="5"/>
+      <c r="B790" s="24"/>
+      <c r="C790" s="7"/>
     </row>
     <row r="791" spans="2:3">
-      <c r="B791" s="19"/>
-      <c r="C791" s="5"/>
+      <c r="B791" s="24"/>
+      <c r="C791" s="7"/>
     </row>
     <row r="792" spans="2:3">
-      <c r="B792" s="19"/>
-      <c r="C792" s="5"/>
+      <c r="B792" s="24"/>
+      <c r="C792" s="7"/>
     </row>
     <row r="793" spans="2:3">
-      <c r="B793" s="19"/>
-      <c r="C793" s="5"/>
+      <c r="B793" s="24"/>
+      <c r="C793" s="7"/>
     </row>
     <row r="794" spans="2:3">
-      <c r="B794" s="19"/>
-      <c r="C794" s="5"/>
+      <c r="B794" s="24"/>
+      <c r="C794" s="7"/>
     </row>
     <row r="795" spans="2:3">
-      <c r="B795" s="19"/>
-      <c r="C795" s="5"/>
+      <c r="B795" s="24"/>
+      <c r="C795" s="7"/>
     </row>
     <row r="796" spans="2:3">
-      <c r="B796" s="19"/>
-      <c r="C796" s="5"/>
+      <c r="B796" s="24"/>
+      <c r="C796" s="7"/>
     </row>
     <row r="797" spans="2:3">
-      <c r="B797" s="19"/>
-      <c r="C797" s="5"/>
+      <c r="B797" s="24"/>
+      <c r="C797" s="7"/>
     </row>
     <row r="798" spans="2:3">
-      <c r="B798" s="19"/>
-      <c r="C798" s="5"/>
+      <c r="B798" s="24"/>
+      <c r="C798" s="7"/>
     </row>
     <row r="799" spans="2:3">
-      <c r="B799" s="19"/>
-      <c r="C799" s="5"/>
+      <c r="B799" s="24"/>
+      <c r="C799" s="7"/>
     </row>
     <row r="800" spans="2:3">
-      <c r="B800" s="19"/>
-      <c r="C800" s="5"/>
+      <c r="B800" s="24"/>
+      <c r="C800" s="7"/>
     </row>
     <row r="801" spans="2:3">
-      <c r="B801" s="19"/>
-      <c r="C801" s="5"/>
+      <c r="B801" s="24"/>
+      <c r="C801" s="7"/>
     </row>
     <row r="802" spans="2:3">
-      <c r="B802" s="19"/>
-      <c r="C802" s="5"/>
+      <c r="B802" s="24"/>
+      <c r="C802" s="7"/>
     </row>
     <row r="803" spans="2:3">
-      <c r="B803" s="19"/>
-      <c r="C803" s="5"/>
+      <c r="B803" s="24"/>
+      <c r="C803" s="7"/>
     </row>
     <row r="804" spans="3:3">
-      <c r="C804" s="5"/>
+      <c r="C804" s="7"/>
     </row>
     <row r="805" spans="3:3">
-      <c r="C805" s="5"/>
+      <c r="C805" s="7"/>
     </row>
     <row r="806" spans="3:3">
-      <c r="C806" s="5"/>
+      <c r="C806" s="7"/>
     </row>
     <row r="807" spans="3:3">
-      <c r="C807" s="5"/>
+      <c r="C807" s="7"/>
     </row>
     <row r="808" spans="3:3">
-      <c r="C808" s="5"/>
+      <c r="C808" s="7"/>
     </row>
     <row r="809" spans="3:3">
-      <c r="C809" s="5"/>
+      <c r="C809" s="7"/>
     </row>
     <row r="810" spans="3:3">
-      <c r="C810" s="5"/>
+      <c r="C810" s="7"/>
     </row>
     <row r="811" spans="3:3">
-      <c r="C811" s="5"/>
+      <c r="C811" s="7"/>
     </row>
     <row r="812" spans="3:3">
-      <c r="C812" s="5"/>
+      <c r="C812" s="7"/>
     </row>
     <row r="813" spans="3:3">
-      <c r="C813" s="5"/>
+      <c r="C813" s="7"/>
     </row>
     <row r="814" spans="3:3">
-      <c r="C814" s="5"/>
+      <c r="C814" s="7"/>
     </row>
     <row r="815" spans="3:3">
-      <c r="C815" s="5"/>
+      <c r="C815" s="7"/>
     </row>
     <row r="816" spans="3:3">
-      <c r="C816" s="5"/>
+      <c r="C816" s="7"/>
     </row>
     <row r="817" spans="3:3">
-      <c r="C817" s="5"/>
+      <c r="C817" s="7"/>
     </row>
     <row r="818" spans="3:3">
-      <c r="C818" s="5"/>
+      <c r="C818" s="7"/>
     </row>
     <row r="819" spans="3:3">
-      <c r="C819" s="5"/>
+      <c r="C819" s="7"/>
     </row>
     <row r="820" spans="3:3">
-      <c r="C820" s="5"/>
+      <c r="C820" s="7"/>
     </row>
     <row r="821" spans="3:3">
-      <c r="C821" s="5"/>
+      <c r="C821" s="7"/>
     </row>
     <row r="822" spans="3:3">
-      <c r="C822" s="5"/>
+      <c r="C822" s="7"/>
     </row>
     <row r="823" spans="3:3">
-      <c r="C823" s="5"/>
+      <c r="C823" s="7"/>
     </row>
     <row r="824" spans="3:3">
-      <c r="C824" s="26"/>
+      <c r="C824" s="31"/>
     </row>
     <row r="825" spans="3:3">
-      <c r="C825" s="5"/>
+      <c r="C825" s="7"/>
     </row>
     <row r="826" spans="3:3">
-      <c r="C826" s="5"/>
+      <c r="C826" s="7"/>
     </row>
     <row r="827" spans="3:3">
-      <c r="C827" s="5"/>
+      <c r="C827" s="7"/>
     </row>
     <row r="828" spans="3:3">
-      <c r="C828" s="5"/>
+      <c r="C828" s="7"/>
     </row>
     <row r="829" spans="3:3">
-      <c r="C829" s="5"/>
+      <c r="C829" s="7"/>
     </row>
     <row r="830" spans="3:3">
-      <c r="C830" s="5"/>
+      <c r="C830" s="7"/>
     </row>
     <row r="831" spans="3:3">
-      <c r="C831" s="5"/>
+      <c r="C831" s="7"/>
     </row>
     <row r="832" spans="3:3">
-      <c r="C832" s="5"/>
+      <c r="C832" s="7"/>
     </row>
     <row r="833" spans="3:3">
-      <c r="C833" s="5"/>
+      <c r="C833" s="7"/>
     </row>
     <row r="834" spans="3:3">
-      <c r="C834" s="5"/>
+      <c r="C834" s="7"/>
     </row>
     <row r="835" spans="3:3">
-      <c r="C835" s="5"/>
+      <c r="C835" s="7"/>
     </row>
     <row r="836" spans="3:3">
-      <c r="C836" s="5"/>
+      <c r="C836" s="7"/>
     </row>
     <row r="837" spans="3:3">
-      <c r="C837" s="5"/>
+      <c r="C837" s="7"/>
     </row>
     <row r="838" spans="3:3">
-      <c r="C838" s="5"/>
+      <c r="C838" s="7"/>
     </row>
     <row r="839" spans="3:3">
-      <c r="C839" s="5"/>
+      <c r="C839" s="7"/>
     </row>
     <row r="840" spans="3:3">
-      <c r="C840" s="5"/>
+      <c r="C840" s="7"/>
     </row>
     <row r="841" spans="3:3">
-      <c r="C841" s="5"/>
+      <c r="C841" s="7"/>
     </row>
     <row r="842" spans="3:3">
-      <c r="C842" s="5"/>
+      <c r="C842" s="7"/>
     </row>
     <row r="843" spans="3:3">
-      <c r="C843" s="5"/>
+      <c r="C843" s="7"/>
     </row>
     <row r="844" spans="3:3">
-      <c r="C844" s="5"/>
+      <c r="C844" s="7"/>
     </row>
     <row r="845" spans="3:3">
-      <c r="C845" s="5"/>
+      <c r="C845" s="7"/>
     </row>
     <row r="846" spans="3:3">
-      <c r="C846" s="5"/>
+      <c r="C846" s="7"/>
     </row>
     <row r="847" spans="3:3">
-      <c r="C847" s="5"/>
+      <c r="C847" s="7"/>
     </row>
     <row r="848" spans="3:3">
-      <c r="C848" s="5"/>
+      <c r="C848" s="7"/>
     </row>
     <row r="849" spans="3:3">
-      <c r="C849" s="5"/>
+      <c r="C849" s="7"/>
     </row>
     <row r="850" spans="3:3">
-      <c r="C850" s="5"/>
+      <c r="C850" s="7"/>
     </row>
     <row r="851" spans="3:3">
-      <c r="C851" s="5"/>
+      <c r="C851" s="7"/>
     </row>
     <row r="852" spans="3:3">
-      <c r="C852" s="5"/>
+      <c r="C852" s="7"/>
     </row>
     <row r="853" spans="3:3">
-      <c r="C853" s="5"/>
+      <c r="C853" s="7"/>
     </row>
     <row r="854" spans="3:3">
-      <c r="C854" s="5"/>
+      <c r="C854" s="7"/>
     </row>
     <row r="855" spans="3:3">
-      <c r="C855" s="5"/>
+      <c r="C855" s="7"/>
     </row>
     <row r="856" spans="3:3">
-      <c r="C856" s="5"/>
+      <c r="C856" s="7"/>
     </row>
     <row r="857" spans="3:3">
-      <c r="C857" s="5"/>
+      <c r="C857" s="7"/>
     </row>
     <row r="858" spans="3:3">
-      <c r="C858" s="5"/>
+      <c r="C858" s="7"/>
     </row>
     <row r="859" spans="3:3">
-      <c r="C859" s="5"/>
+      <c r="C859" s="7"/>
     </row>
     <row r="860" spans="3:3">
-      <c r="C860" s="5"/>
+      <c r="C860" s="7"/>
     </row>
     <row r="861" spans="3:3">
-      <c r="C861" s="5"/>
+      <c r="C861" s="7"/>
     </row>
     <row r="862" spans="3:3">
-      <c r="C862" s="5"/>
+      <c r="C862" s="7"/>
     </row>
     <row r="863" spans="3:3">
-      <c r="C863" s="5"/>
+      <c r="C863" s="7"/>
     </row>
     <row r="864" spans="3:3">
-      <c r="C864" s="5"/>
+      <c r="C864" s="7"/>
     </row>
     <row r="865" spans="3:3">
-      <c r="C865" s="5"/>
+      <c r="C865" s="7"/>
     </row>
     <row r="866" spans="3:3">
-      <c r="C866" s="5"/>
+      <c r="C866" s="7"/>
     </row>
     <row r="867" spans="3:3">
-      <c r="C867" s="5"/>
+      <c r="C867" s="7"/>
     </row>
     <row r="868" spans="3:3">
-      <c r="C868" s="5"/>
+      <c r="C868" s="7"/>
     </row>
     <row r="869" spans="3:3">
-      <c r="C869" s="5"/>
+      <c r="C869" s="7"/>
     </row>
     <row r="870" spans="3:3">
-      <c r="C870" s="5"/>
+      <c r="C870" s="7"/>
     </row>
     <row r="871" spans="3:3">
-      <c r="C871" s="5"/>
+      <c r="C871" s="7"/>
     </row>
     <row r="872" spans="3:3">
-      <c r="C872" s="5"/>
+      <c r="C872" s="7"/>
     </row>
     <row r="873" spans="3:3">
-      <c r="C873" s="5"/>
+      <c r="C873" s="7"/>
     </row>
     <row r="874" spans="3:3">
-      <c r="C874" s="5"/>
+      <c r="C874" s="7"/>
     </row>
     <row r="875" spans="3:3">
-      <c r="C875" s="5"/>
+      <c r="C875" s="7"/>
     </row>
     <row r="876" spans="3:3">
-      <c r="C876" s="5"/>
+      <c r="C876" s="7"/>
     </row>
     <row r="877" spans="3:3">
-      <c r="C877" s="5"/>
+      <c r="C877" s="7"/>
     </row>
     <row r="878" spans="3:3">
-      <c r="C878" s="5"/>
+      <c r="C878" s="7"/>
     </row>
     <row r="879" spans="3:3">
-      <c r="C879" s="5"/>
+      <c r="C879" s="7"/>
     </row>
     <row r="880" spans="3:3">
-      <c r="C880" s="5"/>
+      <c r="C880" s="7"/>
     </row>
     <row r="881" spans="3:3">
-      <c r="C881" s="5"/>
+      <c r="C881" s="7"/>
     </row>
     <row r="882" spans="3:3">
-      <c r="C882" s="5"/>
+      <c r="C882" s="7"/>
     </row>
     <row r="883" spans="3:3">
-      <c r="C883" s="5"/>
+      <c r="C883" s="7"/>
     </row>
     <row r="884" spans="3:3">
-      <c r="C884" s="5"/>
+      <c r="C884" s="7"/>
     </row>
     <row r="885" spans="3:3">
-      <c r="C885" s="5"/>
+      <c r="C885" s="7"/>
     </row>
     <row r="886" spans="3:3">
-      <c r="C886" s="5"/>
+      <c r="C886" s="7"/>
     </row>
     <row r="887" spans="3:3">
-      <c r="C887" s="5"/>
+      <c r="C887" s="7"/>
     </row>
     <row r="888" spans="3:3">
-      <c r="C888" s="5"/>
+      <c r="C888" s="7"/>
     </row>
     <row r="889" spans="3:3">
-      <c r="C889" s="5"/>
+      <c r="C889" s="7"/>
     </row>
     <row r="890" spans="3:3">
-      <c r="C890" s="5"/>
+      <c r="C890" s="7"/>
     </row>
     <row r="891" spans="3:3">
-      <c r="C891" s="5"/>
+      <c r="C891" s="7"/>
     </row>
     <row r="892" spans="3:3">
-      <c r="C892" s="5"/>
+      <c r="C892" s="7"/>
     </row>
     <row r="893" spans="3:3">
-      <c r="C893" s="5"/>
+      <c r="C893" s="7"/>
     </row>
     <row r="894" spans="3:3">
-      <c r="C894" s="5"/>
+      <c r="C894" s="7"/>
     </row>
     <row r="895" spans="3:3">
-      <c r="C895" s="5"/>
+      <c r="C895" s="7"/>
     </row>
     <row r="896" spans="3:3">
-      <c r="C896" s="5"/>
+      <c r="C896" s="7"/>
     </row>
     <row r="897" spans="3:3">
-      <c r="C897" s="5"/>
+      <c r="C897" s="7"/>
     </row>
     <row r="898" spans="3:3">
-      <c r="C898" s="5"/>
+      <c r="C898" s="7"/>
     </row>
     <row r="899" spans="3:3">
-      <c r="C899" s="5"/>
+      <c r="C899" s="7"/>
     </row>
     <row r="900" spans="3:3">
-      <c r="C900" s="5"/>
+      <c r="C900" s="7"/>
     </row>
     <row r="901" spans="3:3">
-      <c r="C901" s="5"/>
+      <c r="C901" s="7"/>
     </row>
     <row r="902" spans="3:3">
-      <c r="C902" s="5"/>
+      <c r="C902" s="7"/>
     </row>
     <row r="903" spans="3:3">
-      <c r="C903" s="5"/>
+      <c r="C903" s="7"/>
     </row>
     <row r="904" spans="3:3">
-      <c r="C904" s="5"/>
+      <c r="C904" s="7"/>
     </row>
     <row r="905" spans="3:3">
-      <c r="C905" s="5"/>
+      <c r="C905" s="7"/>
     </row>
     <row r="906" spans="3:3">
-      <c r="C906" s="5"/>
+      <c r="C906" s="7"/>
     </row>
     <row r="907" spans="3:3">
-      <c r="C907" s="5"/>
+      <c r="C907" s="7"/>
     </row>
     <row r="908" spans="3:3">
-      <c r="C908" s="23"/>
+      <c r="C908" s="28"/>
     </row>
     <row r="909" spans="3:3">
-      <c r="C909" s="23"/>
+      <c r="C909" s="28"/>
     </row>
     <row r="910" spans="3:3">
-      <c r="C910" s="23"/>
+      <c r="C910" s="28"/>
     </row>
     <row r="911" spans="3:3">
-      <c r="C911" s="23"/>
+      <c r="C911" s="28"/>
     </row>
     <row r="912" spans="3:3">
-      <c r="C912" s="23"/>
+      <c r="C912" s="28"/>
     </row>
     <row r="913" spans="3:3">
-      <c r="C913" s="23"/>
+      <c r="C913" s="28"/>
     </row>
     <row r="914" spans="3:3">
-      <c r="C914" s="23"/>
+      <c r="C914" s="28"/>
     </row>
     <row r="915" spans="3:3">
-      <c r="C915" s="23"/>
+      <c r="C915" s="28"/>
     </row>
     <row r="916" spans="3:3">
-      <c r="C916" s="5"/>
+      <c r="C916" s="7"/>
     </row>
     <row r="917" spans="3:3">
-      <c r="C917" s="5"/>
+      <c r="C917" s="7"/>
     </row>
     <row r="918" spans="3:3">
-      <c r="C918" s="5"/>
+      <c r="C918" s="7"/>
     </row>
     <row r="919" spans="3:3">
-      <c r="C919" s="5"/>
+      <c r="C919" s="7"/>
     </row>
     <row r="920" spans="3:3">
-      <c r="C920" s="5"/>
+      <c r="C920" s="7"/>
     </row>
     <row r="921" spans="3:3">
-      <c r="C921" s="5"/>
+      <c r="C921" s="7"/>
     </row>
     <row r="922" spans="3:3">
-      <c r="C922" s="5"/>
+      <c r="C922" s="7"/>
     </row>
     <row r="923" spans="3:3">
-      <c r="C923" s="5"/>
+      <c r="C923" s="7"/>
     </row>
     <row r="924" spans="3:3">
-      <c r="C924" s="5"/>
+      <c r="C924" s="7"/>
     </row>
     <row r="925" spans="3:3">
-      <c r="C925" s="5"/>
+      <c r="C925" s="7"/>
     </row>
     <row r="926" spans="3:3">
-      <c r="C926" s="5"/>
+      <c r="C926" s="7"/>
     </row>
     <row r="927" spans="3:3">
-      <c r="C927" s="5"/>
+      <c r="C927" s="7"/>
     </row>
     <row r="928" spans="3:3">
-      <c r="C928" s="5"/>
+      <c r="C928" s="7"/>
     </row>
     <row r="929" spans="3:3">
-      <c r="C929" s="5"/>
+      <c r="C929" s="7"/>
     </row>
     <row r="930" spans="3:3">
-      <c r="C930" s="5"/>
+      <c r="C930" s="7"/>
     </row>
     <row r="931" spans="3:3">
-      <c r="C931" s="5"/>
+      <c r="C931" s="7"/>
     </row>
     <row r="932" spans="3:3">
-      <c r="C932" s="5"/>
+      <c r="C932" s="7"/>
     </row>
     <row r="933" spans="3:3">
-      <c r="C933" s="5"/>
+      <c r="C933" s="7"/>
     </row>
     <row r="934" spans="3:3">
-      <c r="C934" s="5"/>
+      <c r="C934" s="7"/>
     </row>
     <row r="935" spans="3:3">
-      <c r="C935" s="5"/>
+      <c r="C935" s="7"/>
     </row>
     <row r="936" spans="3:3">
-      <c r="C936" s="5"/>
+      <c r="C936" s="7"/>
     </row>
     <row r="937" spans="3:3">
-      <c r="C937" s="5"/>
+      <c r="C937" s="7"/>
     </row>
     <row r="938" spans="3:3">
-      <c r="C938" s="5"/>
+      <c r="C938" s="7"/>
     </row>
     <row r="939" spans="3:3">
-      <c r="C939" s="5"/>
+      <c r="C939" s="7"/>
     </row>
     <row r="940" spans="3:3">
-      <c r="C940" s="5"/>
+      <c r="C940" s="7"/>
     </row>
     <row r="941" spans="3:3">
-      <c r="C941" s="5"/>
+      <c r="C941" s="7"/>
     </row>
     <row r="942" spans="3:3">
-      <c r="C942" s="5"/>
+      <c r="C942" s="7"/>
     </row>
     <row r="943" spans="3:3">
-      <c r="C943" s="5"/>
+      <c r="C943" s="7"/>
     </row>
     <row r="944" spans="3:3">
-      <c r="C944" s="5"/>
+      <c r="C944" s="7"/>
     </row>
     <row r="945" spans="3:3">
-      <c r="C945" s="5"/>
+      <c r="C945" s="7"/>
     </row>
     <row r="946" spans="3:3">
-      <c r="C946" s="5"/>
+      <c r="C946" s="7"/>
     </row>
     <row r="947" spans="3:3">
-      <c r="C947" s="5"/>
+      <c r="C947" s="7"/>
     </row>
     <row r="948" spans="3:3">
-      <c r="C948" s="5"/>
+      <c r="C948" s="7"/>
     </row>
     <row r="949" spans="3:3">
-      <c r="C949" s="5"/>
+      <c r="C949" s="7"/>
     </row>
     <row r="950" spans="3:3">
-      <c r="C950" s="5"/>
+      <c r="C950" s="7"/>
     </row>
     <row r="951" spans="3:3">
-      <c r="C951" s="5"/>
+      <c r="C951" s="7"/>
     </row>
     <row r="952" spans="3:3">
-      <c r="C952" s="5"/>
+      <c r="C952" s="7"/>
     </row>
     <row r="953" spans="3:3">
-      <c r="C953" s="5"/>
+      <c r="C953" s="7"/>
     </row>
     <row r="954" spans="3:3">
-      <c r="C954" s="5"/>
+      <c r="C954" s="7"/>
     </row>
     <row r="955" spans="3:3">
-      <c r="C955" s="5"/>
+      <c r="C955" s="7"/>
     </row>
     <row r="956" spans="3:3">
-      <c r="C956" s="5"/>
+      <c r="C956" s="7"/>
     </row>
     <row r="957" spans="3:3">
-      <c r="C957" s="5"/>
+      <c r="C957" s="7"/>
     </row>
     <row r="958" spans="3:3">
-      <c r="C958" s="5"/>
+      <c r="C958" s="7"/>
     </row>
     <row r="959" spans="3:3">
-      <c r="C959" s="5"/>
+      <c r="C959" s="7"/>
     </row>
     <row r="960" spans="3:3">
-      <c r="C960" s="5"/>
+      <c r="C960" s="7"/>
     </row>
     <row r="961" spans="3:3">
-      <c r="C961" s="5"/>
+      <c r="C961" s="7"/>
     </row>
     <row r="962" spans="3:3">
-      <c r="C962" s="5"/>
+      <c r="C962" s="7"/>
     </row>
     <row r="963" spans="3:3">
-      <c r="C963" s="5"/>
+      <c r="C963" s="7"/>
     </row>
     <row r="964" spans="3:3">
-      <c r="C964" s="5"/>
+      <c r="C964" s="7"/>
     </row>
     <row r="965" spans="3:3">
-      <c r="C965" s="5"/>
+      <c r="C965" s="7"/>
     </row>
     <row r="966" spans="3:3">
-      <c r="C966" s="5"/>
+      <c r="C966" s="7"/>
     </row>
     <row r="967" spans="3:3">
-      <c r="C967" s="5"/>
+      <c r="C967" s="7"/>
     </row>
     <row r="968" spans="3:3">
-      <c r="C968" s="5"/>
+      <c r="C968" s="7"/>
     </row>
     <row r="969" spans="3:3">
-      <c r="C969" s="5"/>
+      <c r="C969" s="7"/>
     </row>
     <row r="970" spans="3:3">
-      <c r="C970" s="5"/>
+      <c r="C970" s="7"/>
     </row>
     <row r="971" spans="3:3">
-      <c r="C971" s="5"/>
+      <c r="C971" s="7"/>
     </row>
     <row r="972" spans="3:3">
-      <c r="C972" s="5"/>
+      <c r="C972" s="7"/>
     </row>
     <row r="973" spans="3:3">
-      <c r="C973" s="5"/>
+      <c r="C973" s="7"/>
     </row>
     <row r="974" spans="3:3">
-      <c r="C974" s="5"/>
+      <c r="C974" s="7"/>
     </row>
     <row r="975" spans="3:3">
-      <c r="C975" s="5"/>
+      <c r="C975" s="7"/>
     </row>
     <row r="976" spans="3:3">
-      <c r="C976" s="5"/>
+      <c r="C976" s="7"/>
     </row>
     <row r="977" spans="3:3">
-      <c r="C977" s="5"/>
+      <c r="C977" s="7"/>
     </row>
     <row r="978" spans="3:3">
-      <c r="C978" s="5"/>
+      <c r="C978" s="7"/>
     </row>
     <row r="979" spans="3:3">
-      <c r="C979" s="5"/>
+      <c r="C979" s="7"/>
     </row>
     <row r="980" spans="3:3">
-      <c r="C980" s="5"/>
+      <c r="C980" s="7"/>
     </row>
     <row r="981" spans="3:3">
-      <c r="C981" s="5"/>
+      <c r="C981" s="7"/>
     </row>
     <row r="982" spans="3:3">
-      <c r="C982" s="5"/>
+      <c r="C982" s="7"/>
     </row>
     <row r="983" spans="3:3">
-      <c r="C983" s="5"/>
+      <c r="C983" s="7"/>
     </row>
     <row r="984" spans="3:3">
-      <c r="C984" s="5"/>
+      <c r="C984" s="7"/>
     </row>
     <row r="985" spans="3:3">
-      <c r="C985" s="5"/>
+      <c r="C985" s="7"/>
     </row>
     <row r="986" spans="3:3">
-      <c r="C986" s="5"/>
+      <c r="C986" s="7"/>
     </row>
     <row r="987" spans="3:3">
-      <c r="C987" s="5"/>
+      <c r="C987" s="7"/>
     </row>
     <row r="988" spans="3:3">
-      <c r="C988" s="5"/>
+      <c r="C988" s="7"/>
     </row>
     <row r="989" spans="3:3">
-      <c r="C989" s="5"/>
+      <c r="C989" s="7"/>
     </row>
     <row r="990" spans="3:3">
-      <c r="C990" s="5"/>
+      <c r="C990" s="7"/>
     </row>
     <row r="991" spans="3:3">
-      <c r="C991" s="5"/>
+      <c r="C991" s="7"/>
     </row>
     <row r="992" spans="3:3">
-      <c r="C992" s="5"/>
+      <c r="C992" s="7"/>
     </row>
     <row r="993" spans="3:3">
-      <c r="C993" s="5"/>
+      <c r="C993" s="7"/>
     </row>
     <row r="994" spans="3:3">
-      <c r="C994" s="5"/>
+      <c r="C994" s="7"/>
     </row>
     <row r="995" spans="3:3">
-      <c r="C995" s="5"/>
+      <c r="C995" s="7"/>
     </row>
     <row r="996" spans="3:3">
-      <c r="C996" s="5"/>
+      <c r="C996" s="7"/>
     </row>
     <row r="997" spans="3:3">
-      <c r="C997" s="5"/>
+      <c r="C997" s="7"/>
     </row>
     <row r="998" spans="3:3">
-      <c r="C998" s="5"/>
+      <c r="C998" s="7"/>
     </row>
     <row r="999" spans="3:3">
-      <c r="C999" s="5"/>
+      <c r="C999" s="7"/>
     </row>
     <row r="1000" spans="3:3">
-      <c r="C1000" s="5"/>
+      <c r="C1000" s="7"/>
     </row>
     <row r="1001" spans="3:3">
-      <c r="C1001" s="5"/>
+      <c r="C1001" s="7"/>
     </row>
     <row r="1002" spans="3:3">
-      <c r="C1002" s="5"/>
+      <c r="C1002" s="7"/>
     </row>
     <row r="1003" spans="3:3">
-      <c r="C1003" s="5"/>
+      <c r="C1003" s="7"/>
     </row>
     <row r="1004" spans="3:3">
-      <c r="C1004" s="5"/>
+      <c r="C1004" s="7"/>
     </row>
     <row r="1005" spans="3:3">
-      <c r="C1005" s="5"/>
+      <c r="C1005" s="7"/>
     </row>
     <row r="1006" spans="3:3">
-      <c r="C1006" s="5"/>
+      <c r="C1006" s="7"/>
     </row>
     <row r="1007" spans="3:3">
-      <c r="C1007" s="5"/>
+      <c r="C1007" s="7"/>
     </row>
     <row r="1008" spans="3:3">
-      <c r="C1008" s="5"/>
+      <c r="C1008" s="7"/>
     </row>
     <row r="1009" spans="3:3">
-      <c r="C1009" s="5"/>
+      <c r="C1009" s="7"/>
     </row>
     <row r="1010" spans="3:3">
-      <c r="C1010" s="5"/>
+      <c r="C1010" s="7"/>
     </row>
     <row r="1011" spans="3:3">
-      <c r="C1011" s="5"/>
+      <c r="C1011" s="7"/>
     </row>
     <row r="1012" spans="3:3">
-      <c r="C1012" s="23"/>
+      <c r="C1012" s="28"/>
     </row>
     <row r="1013" spans="3:3">
-      <c r="C1013" s="23"/>
+      <c r="C1013" s="28"/>
     </row>
     <row r="1014" spans="3:3">
-      <c r="C1014" s="23"/>
+      <c r="C1014" s="28"/>
     </row>
     <row r="1015" spans="3:3">
-      <c r="C1015" s="23"/>
+      <c r="C1015" s="28"/>
     </row>
     <row r="1016" spans="3:3">
-      <c r="C1016" s="23"/>
+      <c r="C1016" s="28"/>
     </row>
     <row r="1017" spans="3:3">
-      <c r="C1017" s="23"/>
+      <c r="C1017" s="28"/>
     </row>
     <row r="1018" spans="3:3">
-      <c r="C1018" s="23"/>
+      <c r="C1018" s="28"/>
     </row>
     <row r="1019" spans="3:3">
-      <c r="C1019" s="23"/>
+      <c r="C1019" s="28"/>
     </row>
     <row r="1020" spans="3:3">
-      <c r="C1020" s="23"/>
+      <c r="C1020" s="28"/>
     </row>
     <row r="1021" spans="3:3">
-      <c r="C1021" s="23"/>
+      <c r="C1021" s="28"/>
     </row>
     <row r="1022" spans="3:3">
-      <c r="C1022" s="23"/>
+      <c r="C1022" s="28"/>
     </row>
     <row r="1023" spans="3:3">
-      <c r="C1023" s="23"/>
+      <c r="C1023" s="28"/>
     </row>
     <row r="1024" spans="3:3">
-      <c r="C1024" s="23"/>
+      <c r="C1024" s="28"/>
     </row>
     <row r="1025" spans="3:3">
-      <c r="C1025" s="23"/>
+      <c r="C1025" s="28"/>
     </row>
     <row r="1026" spans="3:3">
-      <c r="C1026" s="23"/>
+      <c r="C1026" s="28"/>
     </row>
     <row r="1027" spans="3:3">
-      <c r="C1027" s="23"/>
+      <c r="C1027" s="28"/>
     </row>
     <row r="1028" spans="3:3">
-      <c r="C1028" s="23"/>
+      <c r="C1028" s="28"/>
     </row>
     <row r="1029" spans="3:3">
-      <c r="C1029" s="23"/>
+      <c r="C1029" s="28"/>
     </row>
     <row r="1030" spans="3:3">
-      <c r="C1030" s="23"/>
+      <c r="C1030" s="28"/>
     </row>
     <row r="1031" spans="3:3">
-      <c r="C1031" s="23"/>
+      <c r="C1031" s="28"/>
     </row>
     <row r="1032" spans="3:3">
-      <c r="C1032" s="5"/>
+      <c r="C1032" s="7"/>
     </row>
     <row r="1033" spans="3:3">
-      <c r="C1033" s="5"/>
+      <c r="C1033" s="7"/>
     </row>
     <row r="1034" spans="3:3">
-      <c r="C1034" s="5"/>
+      <c r="C1034" s="7"/>
     </row>
     <row r="1035" spans="3:3">
-      <c r="C1035" s="5"/>
+      <c r="C1035" s="7"/>
     </row>
     <row r="1036" spans="3:3">
-      <c r="C1036" s="5"/>
+      <c r="C1036" s="7"/>
     </row>
     <row r="1037" spans="3:3">
-      <c r="C1037" s="5"/>
+      <c r="C1037" s="7"/>
     </row>
     <row r="1038" spans="3:3">
-      <c r="C1038" s="5"/>
+      <c r="C1038" s="7"/>
     </row>
     <row r="1039" spans="3:3">
-      <c r="C1039" s="5"/>
+      <c r="C1039" s="7"/>
     </row>
     <row r="1040" spans="3:3">
-      <c r="C1040" s="5"/>
+      <c r="C1040" s="7"/>
     </row>
     <row r="1041" spans="3:3">
-      <c r="C1041" s="5"/>
+      <c r="C1041" s="7"/>
     </row>
     <row r="1042" spans="3:3">
-      <c r="C1042" s="23"/>
+      <c r="C1042" s="28"/>
     </row>
     <row r="1043" spans="3:3">
-      <c r="C1043" s="23"/>
+      <c r="C1043" s="28"/>
     </row>
     <row r="1044" spans="3:3">
-      <c r="C1044" s="23"/>
+      <c r="C1044" s="28"/>
     </row>
     <row r="1045" spans="3:3">
-      <c r="C1045" s="23"/>
+      <c r="C1045" s="28"/>
     </row>
     <row r="1046" spans="3:3">
-      <c r="C1046" s="17"/>
+      <c r="C1046" s="22"/>
     </row>
     <row r="1047" spans="3:3">
-      <c r="C1047" s="17"/>
+      <c r="C1047" s="22"/>
     </row>
     <row r="1048" spans="3:3">
-      <c r="C1048" s="17"/>
+      <c r="C1048" s="22"/>
     </row>
     <row r="1049" spans="3:3">
-      <c r="C1049" s="17"/>
+      <c r="C1049" s="22"/>
     </row>
     <row r="1050" spans="3:3">
-      <c r="C1050" s="17"/>
+      <c r="C1050" s="22"/>
     </row>
     <row r="1051" spans="3:3">
-      <c r="C1051" s="17"/>
+      <c r="C1051" s="22"/>
     </row>
     <row r="1052" spans="3:3">
-      <c r="C1052" s="17"/>
+      <c r="C1052" s="22"/>
     </row>
     <row r="1053" spans="3:3">
-      <c r="C1053" s="17"/>
+      <c r="C1053" s="22"/>
     </row>
     <row r="1054" spans="3:3">
-      <c r="C1054" s="17"/>
+      <c r="C1054" s="22"/>
     </row>
     <row r="1055" spans="3:3">
-      <c r="C1055" s="17"/>
+      <c r="C1055" s="22"/>
     </row>
     <row r="1056" spans="3:3">
-      <c r="C1056" s="17"/>
+      <c r="C1056" s="22"/>
     </row>
     <row r="1057" spans="3:3">
-      <c r="C1057" s="17"/>
+      <c r="C1057" s="22"/>
     </row>
     <row r="1058" spans="3:3">
-      <c r="C1058" s="17"/>
+      <c r="C1058" s="22"/>
     </row>
     <row r="1059" spans="3:3">
-      <c r="C1059" s="17"/>
+      <c r="C1059" s="22"/>
     </row>
     <row r="1060" spans="3:3">
-      <c r="C1060" s="17"/>
+      <c r="C1060" s="22"/>
     </row>
     <row r="1061" spans="3:3">
-      <c r="C1061" s="17"/>
+      <c r="C1061" s="22"/>
     </row>
     <row r="1062" spans="3:3">
-      <c r="C1062" s="17"/>
+      <c r="C1062" s="22"/>
     </row>
     <row r="1063" spans="3:3">
-      <c r="C1063" s="17"/>
+      <c r="C1063" s="22"/>
     </row>
     <row r="1064" spans="3:3">
-      <c r="C1064" s="17"/>
+      <c r="C1064" s="22"/>
     </row>
     <row r="1065" spans="3:3">
-      <c r="C1065" s="17"/>
+      <c r="C1065" s="22"/>
     </row>
     <row r="1066" spans="3:3">
-      <c r="C1066" s="17"/>
+      <c r="C1066" s="22"/>
     </row>
     <row r="1067" spans="3:3">
-      <c r="C1067" s="17"/>
+      <c r="C1067" s="22"/>
     </row>
     <row r="1068" spans="3:3">
-      <c r="C1068" s="17"/>
+      <c r="C1068" s="22"/>
     </row>
     <row r="1069" spans="3:3">
-      <c r="C1069" s="17"/>
+      <c r="C1069" s="22"/>
     </row>
     <row r="1070" spans="3:3">
-      <c r="C1070" s="17"/>
+      <c r="C1070" s="22"/>
     </row>
     <row r="1071" spans="3:3">
-      <c r="C1071" s="17"/>
+      <c r="C1071" s="22"/>
     </row>
     <row r="1072" spans="3:3">
-      <c r="C1072" s="17"/>
+      <c r="C1072" s="22"/>
     </row>
     <row r="1073" spans="3:3">
-      <c r="C1073" s="17"/>
+      <c r="C1073" s="22"/>
     </row>
     <row r="1074" spans="3:3">
-      <c r="C1074" s="17"/>
+      <c r="C1074" s="22"/>
     </row>
     <row r="1075" spans="3:3">
-      <c r="C1075" s="17"/>
+      <c r="C1075" s="22"/>
     </row>
     <row r="1076" spans="3:3">
-      <c r="C1076" s="17"/>
+      <c r="C1076" s="22"/>
     </row>
     <row r="1077" spans="3:3">
-      <c r="C1077" s="17"/>
+      <c r="C1077" s="22"/>
     </row>
     <row r="1078" spans="3:3">
-      <c r="C1078" s="17"/>
+      <c r="C1078" s="22"/>
     </row>
     <row r="1079" spans="3:3">
-      <c r="C1079" s="17"/>
+      <c r="C1079" s="22"/>
     </row>
     <row r="1080" spans="3:3">
-      <c r="C1080" s="17"/>
+      <c r="C1080" s="22"/>
     </row>
     <row r="1081" spans="3:3">
-      <c r="C1081" s="17"/>
+      <c r="C1081" s="22"/>
     </row>
     <row r="1082" spans="3:3">
-      <c r="C1082" s="17"/>
+      <c r="C1082" s="22"/>
     </row>
     <row r="1083" spans="3:3">
-      <c r="C1083" s="17"/>
+      <c r="C1083" s="22"/>
     </row>
     <row r="1084" spans="3:3">
-      <c r="C1084" s="17"/>
+      <c r="C1084" s="22"/>
     </row>
     <row r="1085" spans="3:3">
-      <c r="C1085" s="17"/>
+      <c r="C1085" s="22"/>
     </row>
     <row r="1086" spans="3:3">
-      <c r="C1086" s="17"/>
+      <c r="C1086" s="22"/>
     </row>
     <row r="1087" spans="3:3">
-      <c r="C1087" s="17"/>
+      <c r="C1087" s="22"/>
     </row>
     <row r="1088" spans="3:3">
-      <c r="C1088" s="17"/>
+      <c r="C1088" s="22"/>
     </row>
     <row r="1089" spans="3:3">
-      <c r="C1089" s="17"/>
+      <c r="C1089" s="22"/>
     </row>
     <row r="1090" spans="3:3">
-      <c r="C1090" s="17"/>
+      <c r="C1090" s="22"/>
     </row>
     <row r="1091" spans="3:3">
-      <c r="C1091" s="17"/>
+      <c r="C1091" s="22"/>
     </row>
     <row r="1092" spans="3:3">
-      <c r="C1092" s="17"/>
+      <c r="C1092" s="22"/>
     </row>
     <row r="1093" spans="3:3">
-      <c r="C1093" s="17"/>
+      <c r="C1093" s="22"/>
     </row>
     <row r="1094" spans="3:3">
-      <c r="C1094" s="17"/>
+      <c r="C1094" s="22"/>
     </row>
     <row r="1095" spans="3:3">
-      <c r="C1095" s="17"/>
+      <c r="C1095" s="22"/>
     </row>
     <row r="1096" spans="3:3">
-      <c r="C1096" s="17"/>
+      <c r="C1096" s="22"/>
     </row>
     <row r="1097" spans="3:3">
-      <c r="C1097" s="17"/>
+      <c r="C1097" s="22"/>
     </row>
     <row r="1098" spans="3:3">
-      <c r="C1098" s="17"/>
+      <c r="C1098" s="22"/>
     </row>
     <row r="1099" spans="3:3">
-      <c r="C1099" s="17"/>
+      <c r="C1099" s="22"/>
     </row>
     <row r="1100" spans="3:3">
-      <c r="C1100" s="5"/>
+      <c r="C1100" s="7"/>
     </row>
     <row r="1101" spans="3:3">
-      <c r="C1101" s="5"/>
+      <c r="C1101" s="7"/>
     </row>
     <row r="1102" spans="3:3">
-      <c r="C1102" s="5"/>
+      <c r="C1102" s="7"/>
     </row>
     <row r="1103" spans="3:3">
-      <c r="C1103" s="17"/>
+      <c r="C1103" s="22"/>
     </row>
     <row r="1104" spans="3:3">
-      <c r="C1104" s="17"/>
+      <c r="C1104" s="22"/>
     </row>
     <row r="1105" spans="3:3">
-      <c r="C1105" s="17"/>
+      <c r="C1105" s="22"/>
     </row>
     <row r="1106" spans="3:3">
-      <c r="C1106" s="5"/>
+      <c r="C1106" s="7"/>
     </row>
     <row r="1107" spans="3:3">
-      <c r="C1107" s="5"/>
+      <c r="C1107" s="7"/>
     </row>
     <row r="1108" spans="3:3">
-      <c r="C1108" s="17"/>
+      <c r="C1108" s="22"/>
     </row>
     <row r="1109" spans="3:3">
-      <c r="C1109" s="17"/>
+      <c r="C1109" s="22"/>
     </row>
     <row r="1110" spans="3:3">
-      <c r="C1110" s="5"/>
+      <c r="C1110" s="7"/>
     </row>
     <row r="1111" spans="3:3">
-      <c r="C1111" s="5"/>
+      <c r="C1111" s="7"/>
     </row>
     <row r="1112" spans="3:3">
-      <c r="C1112" s="17"/>
+      <c r="C1112" s="22"/>
     </row>
     <row r="1113" spans="3:3">
-      <c r="C1113" s="17"/>
+      <c r="C1113" s="22"/>
     </row>
     <row r="1114" spans="3:3">
-      <c r="C1114" s="5"/>
+      <c r="C1114" s="7"/>
     </row>
     <row r="1115" spans="3:3">
-      <c r="C1115" s="5"/>
+      <c r="C1115" s="7"/>
     </row>
     <row r="1116" spans="3:3">
-      <c r="C1116" s="17"/>
+      <c r="C1116" s="22"/>
     </row>
     <row r="1117" spans="3:3">
-      <c r="C1117" s="17"/>
+      <c r="C1117" s="22"/>
     </row>
     <row r="1118" spans="3:3">
-      <c r="C1118" s="5"/>
+      <c r="C1118" s="7"/>
     </row>
     <row r="1119" spans="3:3">
-      <c r="C1119" s="5"/>
+      <c r="C1119" s="7"/>
     </row>
     <row r="1120" spans="3:3">
-      <c r="C1120" s="5"/>
+      <c r="C1120" s="7"/>
     </row>
     <row r="1121" spans="3:3">
-      <c r="C1121" s="5"/>
+      <c r="C1121" s="7"/>
     </row>
     <row r="1122" spans="3:3">
-      <c r="C1122" s="5"/>
+      <c r="C1122" s="7"/>
     </row>
     <row r="1123" spans="3:3">
-      <c r="C1123" s="5"/>
+      <c r="C1123" s="7"/>
     </row>
     <row r="1124" spans="3:3">
-      <c r="C1124" s="5"/>
+      <c r="C1124" s="7"/>
     </row>
     <row r="1125" spans="3:3">
-      <c r="C1125" s="5"/>
+      <c r="C1125" s="7"/>
     </row>
     <row r="1126" spans="3:3">
-      <c r="C1126" s="5"/>
+      <c r="C1126" s="7"/>
     </row>
     <row r="1127" spans="3:3">
-      <c r="C1127" s="5"/>
+      <c r="C1127" s="7"/>
     </row>
     <row r="1128" spans="3:3">
-      <c r="C1128" s="5"/>
+      <c r="C1128" s="7"/>
     </row>
     <row r="1129" spans="3:3">
-      <c r="C1129" s="5"/>
+      <c r="C1129" s="7"/>
     </row>
     <row r="1130" spans="3:3">
-      <c r="C1130" s="5"/>
+      <c r="C1130" s="7"/>
     </row>
     <row r="1131" spans="3:3">
-      <c r="C1131" s="5"/>
+      <c r="C1131" s="7"/>
     </row>
     <row r="1132" spans="3:3">
-      <c r="C1132" s="5"/>
+      <c r="C1132" s="7"/>
     </row>
     <row r="1133" spans="3:3">
-      <c r="C1133" s="5"/>
+      <c r="C1133" s="7"/>
     </row>
     <row r="1134" spans="3:3">
-      <c r="C1134" s="5"/>
+      <c r="C1134" s="7"/>
     </row>
     <row r="1135" spans="3:3">
-      <c r="C1135" s="5"/>
+      <c r="C1135" s="7"/>
     </row>
     <row r="1136" spans="3:3">
-      <c r="C1136" s="5"/>
+      <c r="C1136" s="7"/>
     </row>
     <row r="1137" spans="3:3">
-      <c r="C1137" s="5"/>
+      <c r="C1137" s="7"/>
     </row>
     <row r="1138" spans="3:3">
-      <c r="C1138" s="5"/>
+      <c r="C1138" s="7"/>
     </row>
     <row r="1139" spans="3:3">
-      <c r="C1139" s="5"/>
+      <c r="C1139" s="7"/>
     </row>
     <row r="1140" spans="3:3">
-      <c r="C1140" s="5"/>
+      <c r="C1140" s="7"/>
     </row>
     <row r="1141" spans="3:3">
-      <c r="C1141" s="5"/>
+      <c r="C1141" s="7"/>
     </row>
     <row r="1142" spans="3:3">
-      <c r="C1142" s="5"/>
+      <c r="C1142" s="7"/>
     </row>
     <row r="1143" spans="3:3">
-      <c r="C1143" s="5"/>
+      <c r="C1143" s="7"/>
     </row>
     <row r="1144" spans="3:3">
-      <c r="C1144" s="5"/>
+      <c r="C1144" s="7"/>
     </row>
     <row r="1145" spans="3:3">
-      <c r="C1145" s="5"/>
+      <c r="C1145" s="7"/>
     </row>
     <row r="1146" spans="3:3">
-      <c r="C1146" s="5"/>
+      <c r="C1146" s="7"/>
     </row>
     <row r="1147" spans="3:3">
-      <c r="C1147" s="5"/>
+      <c r="C1147" s="7"/>
     </row>
     <row r="1148" spans="3:3">
-      <c r="C1148" s="5"/>
+      <c r="C1148" s="7"/>
     </row>
     <row r="1149" spans="3:3">
-      <c r="C1149" s="5"/>
+      <c r="C1149" s="7"/>
     </row>
     <row r="1150" spans="3:3">
-      <c r="C1150" s="5"/>
+      <c r="C1150" s="7"/>
     </row>
     <row r="1151" spans="3:3">
-      <c r="C1151" s="5"/>
+      <c r="C1151" s="7"/>
     </row>
     <row r="1152" spans="3:3">
-      <c r="C1152" s="5"/>
+      <c r="C1152" s="7"/>
     </row>
     <row r="1153" spans="3:3">
-      <c r="C1153" s="5"/>
+      <c r="C1153" s="7"/>
     </row>
     <row r="1154" spans="3:3">
-      <c r="C1154" s="5"/>
+      <c r="C1154" s="7"/>
     </row>
     <row r="1155" spans="3:3">
-      <c r="C1155" s="5"/>
+      <c r="C1155" s="7"/>
     </row>
     <row r="1156" spans="3:3">
-      <c r="C1156" s="5"/>
+      <c r="C1156" s="7"/>
     </row>
     <row r="1157" spans="3:3">
-      <c r="C1157" s="5"/>
+      <c r="C1157" s="7"/>
     </row>
     <row r="1158" spans="3:3">
-      <c r="C1158" s="5"/>
+      <c r="C1158" s="7"/>
     </row>
     <row r="1159" spans="3:3">
-      <c r="C1159" s="5"/>
+      <c r="C1159" s="7"/>
     </row>
     <row r="1160" spans="3:3">
-      <c r="C1160" s="5"/>
+      <c r="C1160" s="7"/>
     </row>
     <row r="1161" spans="3:3">
-      <c r="C1161" s="5"/>
+      <c r="C1161" s="7"/>
     </row>
     <row r="1162" spans="3:3">
-      <c r="C1162" s="5"/>
+      <c r="C1162" s="7"/>
     </row>
     <row r="1163" spans="3:3">
-      <c r="C1163" s="5"/>
+      <c r="C1163" s="7"/>
     </row>
     <row r="1164" spans="3:3">
-      <c r="C1164" s="5"/>
+      <c r="C1164" s="7"/>
     </row>
     <row r="1165" spans="3:3">
-      <c r="C1165" s="5"/>
+      <c r="C1165" s="7"/>
     </row>
     <row r="1166" spans="3:3">
-      <c r="C1166" s="5"/>
+      <c r="C1166" s="7"/>
     </row>
     <row r="1167" spans="3:3">
-      <c r="C1167" s="5"/>
+      <c r="C1167" s="7"/>
     </row>
     <row r="1168" spans="3:3">
-      <c r="C1168" s="5"/>
+      <c r="C1168" s="7"/>
     </row>
     <row r="1169" spans="3:3">
-      <c r="C1169" s="5"/>
+      <c r="C1169" s="7"/>
     </row>
     <row r="1170" spans="3:3">
-      <c r="C1170" s="5"/>
+      <c r="C1170" s="7"/>
     </row>
     <row r="1171" spans="3:3">
-      <c r="C1171" s="5"/>
+      <c r="C1171" s="7"/>
     </row>
     <row r="1172" spans="3:3">
-      <c r="C1172" s="5"/>
+      <c r="C1172" s="7"/>
     </row>
     <row r="1173" spans="3:3">
-      <c r="C1173" s="5"/>
+      <c r="C1173" s="7"/>
     </row>
     <row r="1174" spans="3:3">
-      <c r="C1174" s="5"/>
+      <c r="C1174" s="7"/>
     </row>
     <row r="1175" spans="3:3">
-      <c r="C1175" s="5"/>
+      <c r="C1175" s="7"/>
     </row>
     <row r="1176" spans="3:3">
-      <c r="C1176" s="5"/>
+      <c r="C1176" s="7"/>
     </row>
     <row r="1177" spans="3:3">
-      <c r="C1177" s="5"/>
+      <c r="C1177" s="7"/>
     </row>
     <row r="1178" spans="3:3">
-      <c r="C1178" s="5"/>
+      <c r="C1178" s="7"/>
     </row>
     <row r="1179" spans="3:3">
-      <c r="C1179" s="5"/>
+      <c r="C1179" s="7"/>
     </row>
     <row r="1180" spans="3:3">
-      <c r="C1180" s="5"/>
+      <c r="C1180" s="7"/>
     </row>
     <row r="1181" spans="3:3">
-      <c r="C1181" s="5"/>
+      <c r="C1181" s="7"/>
     </row>
     <row r="1182" spans="3:3">
-      <c r="C1182" s="5"/>
+      <c r="C1182" s="7"/>
     </row>
     <row r="1183" spans="3:3">
-      <c r="C1183" s="5"/>
+      <c r="C1183" s="7"/>
     </row>
     <row r="1184" spans="3:3">
-      <c r="C1184" s="5"/>
+      <c r="C1184" s="7"/>
     </row>
     <row r="1185" spans="3:3">
-      <c r="C1185" s="5"/>
+      <c r="C1185" s="7"/>
     </row>
     <row r="1186" spans="3:3">
-      <c r="C1186" s="5"/>
+      <c r="C1186" s="7"/>
     </row>
     <row r="1187" spans="3:3">
-      <c r="C1187" s="5"/>
+      <c r="C1187" s="7"/>
     </row>
     <row r="1188" spans="3:3">
-      <c r="C1188" s="5"/>
+      <c r="C1188" s="7"/>
     </row>
     <row r="1189" spans="3:3">
-      <c r="C1189" s="5"/>
+      <c r="C1189" s="7"/>
     </row>
     <row r="1190" spans="3:3">
-      <c r="C1190" s="5"/>
+      <c r="C1190" s="7"/>
     </row>
     <row r="1191" spans="3:3">
-      <c r="C1191" s="5"/>
+      <c r="C1191" s="7"/>
     </row>
     <row r="1192" spans="3:3">
-      <c r="C1192" s="5"/>
+      <c r="C1192" s="7"/>
     </row>
     <row r="1193" spans="3:3">
-      <c r="C1193" s="5"/>
+      <c r="C1193" s="7"/>
     </row>
     <row r="1194" spans="3:3">
-      <c r="C1194" s="5"/>
+      <c r="C1194" s="7"/>
     </row>
     <row r="1195" spans="3:3">
-      <c r="C1195" s="5"/>
+      <c r="C1195" s="7"/>
     </row>
     <row r="1196" spans="3:3">
-      <c r="C1196" s="5"/>
+      <c r="C1196" s="7"/>
     </row>
     <row r="1197" spans="3:3">
-      <c r="C1197" s="5"/>
+      <c r="C1197" s="7"/>
     </row>
     <row r="1198" spans="3:3">
-      <c r="C1198" s="5"/>
+      <c r="C1198" s="7"/>
     </row>
     <row r="1199" spans="3:3">
-      <c r="C1199" s="5"/>
+      <c r="C1199" s="7"/>
     </row>
     <row r="1200" spans="3:3">
-      <c r="C1200" s="5"/>
+      <c r="C1200" s="7"/>
     </row>
     <row r="1201" spans="3:3">
-      <c r="C1201" s="5"/>
+      <c r="C1201" s="7"/>
     </row>
     <row r="1202" spans="3:3">
-      <c r="C1202" s="5"/>
+      <c r="C1202" s="7"/>
     </row>
     <row r="1203" spans="3:3">
-      <c r="C1203" s="5"/>
+      <c r="C1203" s="7"/>
     </row>
     <row r="1204" spans="3:3">
-      <c r="C1204" s="5"/>
+      <c r="C1204" s="7"/>
     </row>
     <row r="1205" spans="3:3">
-      <c r="C1205" s="5"/>
+      <c r="C1205" s="7"/>
     </row>
     <row r="1206" spans="3:3">
-      <c r="C1206" s="5"/>
+      <c r="C1206" s="7"/>
     </row>
     <row r="1207" spans="3:3">
-      <c r="C1207" s="5"/>
+      <c r="C1207" s="7"/>
     </row>
     <row r="1208" spans="3:3">
-      <c r="C1208" s="5"/>
+      <c r="C1208" s="7"/>
     </row>
     <row r="1209" spans="3:3">
-      <c r="C1209" s="5"/>
+      <c r="C1209" s="7"/>
     </row>
     <row r="1210" spans="3:3">
-      <c r="C1210" s="5"/>
+      <c r="C1210" s="7"/>
     </row>
     <row r="1211" spans="3:3">
-      <c r="C1211" s="5"/>
+      <c r="C1211" s="7"/>
     </row>
     <row r="1212" spans="3:3">
-      <c r="C1212" s="5"/>
+      <c r="C1212" s="7"/>
     </row>
     <row r="1213" spans="3:3">
-      <c r="C1213" s="5"/>
+      <c r="C1213" s="7"/>
     </row>
     <row r="1214" spans="3:3">
-      <c r="C1214" s="5"/>
+      <c r="C1214" s="7"/>
     </row>
     <row r="1215" spans="3:3">
-      <c r="C1215" s="5"/>
+      <c r="C1215" s="7"/>
     </row>
     <row r="1216" spans="3:3">
-      <c r="C1216" s="5"/>
+      <c r="C1216" s="7"/>
     </row>
     <row r="1217" spans="3:3">
-      <c r="C1217" s="5"/>
+      <c r="C1217" s="7"/>
     </row>
     <row r="1218" spans="3:3">
-      <c r="C1218" s="5"/>
+      <c r="C1218" s="7"/>
     </row>
     <row r="1219" spans="3:3">
-      <c r="C1219" s="5"/>
+      <c r="C1219" s="7"/>
     </row>
     <row r="1220" spans="3:3">
-      <c r="C1220" s="5"/>
+      <c r="C1220" s="7"/>
     </row>
     <row r="1221" spans="3:3">
-      <c r="C1221" s="5"/>
+      <c r="C1221" s="7"/>
     </row>
     <row r="1222" spans="3:3">
-      <c r="C1222" s="5"/>
+      <c r="C1222" s="7"/>
     </row>
     <row r="1223" spans="3:3">
-      <c r="C1223" s="5"/>
+      <c r="C1223" s="7"/>
     </row>
     <row r="1224" spans="3:3">
-      <c r="C1224" s="5"/>
+      <c r="C1224" s="7"/>
     </row>
     <row r="1225" spans="3:3">
-      <c r="C1225" s="5"/>
+      <c r="C1225" s="7"/>
     </row>
     <row r="1226" spans="3:3">
-      <c r="C1226" s="5"/>
+      <c r="C1226" s="7"/>
     </row>
     <row r="1227" spans="3:3">
-      <c r="C1227" s="5"/>
+      <c r="C1227" s="7"/>
     </row>
     <row r="1228" spans="3:3">
-      <c r="C1228" s="5"/>
+      <c r="C1228" s="7"/>
     </row>
     <row r="1229" spans="3:3">
-      <c r="C1229" s="5"/>
+      <c r="C1229" s="7"/>
     </row>
     <row r="1230" spans="3:3">
-      <c r="C1230" s="5"/>
+      <c r="C1230" s="7"/>
     </row>
     <row r="1231" spans="3:3">
-      <c r="C1231" s="27"/>
+      <c r="C1231" s="32"/>
     </row>
     <row r="1232" spans="3:3">
-      <c r="C1232" s="5"/>
+      <c r="C1232" s="7"/>
     </row>
     <row r="1233" spans="3:3">
-      <c r="C1233" s="5"/>
+      <c r="C1233" s="7"/>
     </row>
     <row r="1234" spans="3:3">
-      <c r="C1234" s="5"/>
+      <c r="C1234" s="7"/>
     </row>
     <row r="1235" spans="3:3">
-      <c r="C1235" s="5"/>
+      <c r="C1235" s="7"/>
     </row>
     <row r="1236" spans="3:3">
-      <c r="C1236" s="7"/>
+      <c r="C1236" s="8"/>
     </row>
     <row r="1237" spans="3:3">
-      <c r="C1237" s="7"/>
+      <c r="C1237" s="8"/>
     </row>
     <row r="1238" spans="3:3">
-      <c r="C1238" s="7"/>
+      <c r="C1238" s="8"/>
     </row>
     <row r="1239" spans="3:3">
-      <c r="C1239" s="7"/>
+      <c r="C1239" s="8"/>
     </row>
     <row r="1240" spans="3:3">
-      <c r="C1240" s="7"/>
+      <c r="C1240" s="8"/>
     </row>
     <row r="1241" spans="3:3">
-      <c r="C1241" s="7"/>
+      <c r="C1241" s="8"/>
     </row>
     <row r="1242" spans="3:3">
-      <c r="C1242" s="7"/>
+      <c r="C1242" s="8"/>
     </row>
     <row r="1243" spans="3:3">
-      <c r="C1243" s="7"/>
+      <c r="C1243" s="8"/>
     </row>
     <row r="1244" spans="3:3">
-      <c r="C1244" s="7"/>
+      <c r="C1244" s="8"/>
     </row>
     <row r="1245" spans="3:3">
-      <c r="C1245" s="7"/>
+      <c r="C1245" s="8"/>
     </row>
     <row r="1246" spans="3:3">
-      <c r="C1246" s="7"/>
+      <c r="C1246" s="8"/>
     </row>
     <row r="1247" spans="3:3">
-      <c r="C1247" s="7"/>
+      <c r="C1247" s="8"/>
     </row>
     <row r="1248" spans="3:3">
-      <c r="C1248" s="7"/>
+      <c r="C1248" s="8"/>
     </row>
     <row r="1249" spans="3:3">
-      <c r="C1249" s="7"/>
+      <c r="C1249" s="8"/>
     </row>
     <row r="1250" spans="3:3">
-      <c r="C1250" s="7"/>
+      <c r="C1250" s="8"/>
     </row>
     <row r="1251" spans="3:3">
-      <c r="C1251" s="5"/>
+      <c r="C1251" s="7"/>
     </row>
     <row r="1252" spans="3:3">
-      <c r="C1252" s="5"/>
+      <c r="C1252" s="7"/>
     </row>
     <row r="1253" spans="3:3">
-      <c r="C1253" s="5"/>
+      <c r="C1253" s="7"/>
     </row>
     <row r="1254" spans="3:3">
-      <c r="C1254" s="5"/>
+      <c r="C1254" s="7"/>
     </row>
     <row r="1255" spans="3:3">
-      <c r="C1255" s="5"/>
+      <c r="C1255" s="7"/>
     </row>
     <row r="1256" spans="3:3">
-      <c r="C1256" s="5"/>
+      <c r="C1256" s="7"/>
     </row>
     <row r="1257" spans="3:3">
-      <c r="C1257" s="5"/>
+      <c r="C1257" s="7"/>
     </row>
     <row r="1258" spans="3:3">
-      <c r="C1258" s="5"/>
+      <c r="C1258" s="7"/>
     </row>
     <row r="1259" spans="3:3">
-      <c r="C1259" s="5"/>
+      <c r="C1259" s="7"/>
     </row>
     <row r="1260" spans="3:3">
-      <c r="C1260" s="5"/>
+      <c r="C1260" s="7"/>
     </row>
     <row r="1261" spans="3:3">
-      <c r="C1261" s="5"/>
+      <c r="C1261" s="7"/>
     </row>
     <row r="1262" spans="3:3">
-      <c r="C1262" s="5"/>
+      <c r="C1262" s="7"/>
     </row>
     <row r="1263" spans="3:3">
-      <c r="C1263" s="5"/>
+      <c r="C1263" s="7"/>
     </row>
     <row r="1264" spans="3:3">
-      <c r="C1264" s="5"/>
+      <c r="C1264" s="7"/>
     </row>
     <row r="1265" spans="3:3">
-      <c r="C1265" s="5"/>
+      <c r="C1265" s="7"/>
     </row>
     <row r="1266" spans="3:3">
-      <c r="C1266" s="5"/>
+      <c r="C1266" s="7"/>
     </row>
     <row r="1267" spans="3:3">
-      <c r="C1267" s="5"/>
+      <c r="C1267" s="7"/>
     </row>
     <row r="1268" spans="3:3">
-      <c r="C1268" s="5"/>
+      <c r="C1268" s="7"/>
     </row>
     <row r="1269" spans="3:3">
-      <c r="C1269" s="5"/>
+      <c r="C1269" s="7"/>
     </row>
     <row r="1270" spans="3:3">
-      <c r="C1270" s="5"/>
+      <c r="C1270" s="7"/>
     </row>
     <row r="1271" spans="3:3">
-      <c r="C1271" s="5"/>
+      <c r="C1271" s="7"/>
     </row>
     <row r="1272" spans="3:3">
-      <c r="C1272" s="5"/>
+      <c r="C1272" s="7"/>
     </row>
     <row r="1273" spans="3:3">
-      <c r="C1273" s="5"/>
+      <c r="C1273" s="7"/>
     </row>
     <row r="1274" spans="3:3">
-      <c r="C1274" s="5"/>
+      <c r="C1274" s="7"/>
     </row>
     <row r="1275" spans="3:3">
-      <c r="C1275" s="5"/>
+      <c r="C1275" s="7"/>
     </row>
     <row r="1276" spans="3:3">
-      <c r="C1276" s="5"/>
+      <c r="C1276" s="7"/>
     </row>
     <row r="1277" spans="3:3">
-      <c r="C1277" s="5"/>
+      <c r="C1277" s="7"/>
     </row>
     <row r="1278" spans="3:3">
-      <c r="C1278" s="5"/>
+      <c r="C1278" s="7"/>
     </row>
     <row r="1279" spans="3:3">
-      <c r="C1279" s="5"/>
+      <c r="C1279" s="7"/>
     </row>
     <row r="1280" spans="3:3">
-      <c r="C1280" s="5"/>
+      <c r="C1280" s="7"/>
     </row>
     <row r="1281" spans="3:3">
-      <c r="C1281" s="5"/>
+      <c r="C1281" s="7"/>
     </row>
     <row r="1282" spans="3:3">
-      <c r="C1282" s="5"/>
+      <c r="C1282" s="7"/>
     </row>
     <row r="1283" spans="3:3">
-      <c r="C1283" s="5"/>
+      <c r="C1283" s="7"/>
     </row>
     <row r="1284" spans="3:3">
-      <c r="C1284" s="5"/>
+      <c r="C1284" s="7"/>
     </row>
     <row r="1285" spans="3:3">
-      <c r="C1285" s="5"/>
+      <c r="C1285" s="7"/>
     </row>
     <row r="1286" spans="3:3">
-      <c r="C1286" s="5"/>
+      <c r="C1286" s="7"/>
     </row>
     <row r="1287" spans="3:3">
-      <c r="C1287" s="5"/>
+      <c r="C1287" s="7"/>
     </row>
     <row r="1288" spans="3:3">
-      <c r="C1288" s="5"/>
+      <c r="C1288" s="7"/>
     </row>
     <row r="1289" spans="3:3">
-      <c r="C1289" s="5"/>
+      <c r="C1289" s="7"/>
     </row>
     <row r="1290" spans="3:3">
-      <c r="C1290" s="5"/>
+      <c r="C1290" s="7"/>
     </row>
     <row r="1291" spans="3:3">
-      <c r="C1291" s="5"/>
+      <c r="C1291" s="7"/>
     </row>
     <row r="1292" spans="3:3">
-      <c r="C1292" s="5"/>
+      <c r="C1292" s="7"/>
     </row>
     <row r="1293" spans="3:3">
-      <c r="C1293" s="5"/>
+      <c r="C1293" s="7"/>
     </row>
     <row r="1294" spans="3:3">
-      <c r="C1294" s="5"/>
+      <c r="C1294" s="7"/>
     </row>
     <row r="1295" spans="3:3">
-      <c r="C1295" s="5"/>
+      <c r="C1295" s="7"/>
     </row>
     <row r="1296" spans="3:3">
-      <c r="C1296" s="5"/>
+      <c r="C1296" s="7"/>
     </row>
     <row r="1297" spans="3:3">
-      <c r="C1297" s="5"/>
+      <c r="C1297" s="7"/>
     </row>
     <row r="1298" spans="3:3">
-      <c r="C1298" s="5"/>
+      <c r="C1298" s="7"/>
     </row>
     <row r="1299" spans="3:3">
-      <c r="C1299" s="5"/>
+      <c r="C1299" s="7"/>
     </row>
     <row r="1300" spans="3:3">
-      <c r="C1300" s="5"/>
+      <c r="C1300" s="7"/>
     </row>
     <row r="1301" spans="3:3">
-      <c r="C1301" s="5"/>
+      <c r="C1301" s="7"/>
     </row>
     <row r="1302" spans="3:3">
-      <c r="C1302" s="5"/>
+      <c r="C1302" s="7"/>
     </row>
     <row r="1303" spans="3:3">
-      <c r="C1303" s="5"/>
+      <c r="C1303" s="7"/>
     </row>
     <row r="1304" spans="3:3">
-      <c r="C1304" s="5"/>
+      <c r="C1304" s="7"/>
     </row>
     <row r="1305" spans="3:3">
-      <c r="C1305" s="5"/>
+      <c r="C1305" s="7"/>
     </row>
     <row r="1306" spans="3:3">
-      <c r="C1306" s="5"/>
+      <c r="C1306" s="7"/>
     </row>
     <row r="1307" spans="3:3">
-      <c r="C1307" s="5"/>
+      <c r="C1307" s="7"/>
     </row>
     <row r="1308" spans="3:3">
-      <c r="C1308" s="5"/>
+      <c r="C1308" s="7"/>
     </row>
     <row r="1309" spans="3:3">
-      <c r="C1309" s="5"/>
+      <c r="C1309" s="7"/>
     </row>
     <row r="1310" spans="3:3">
-      <c r="C1310" s="5"/>
+      <c r="C1310" s="7"/>
     </row>
     <row r="1311" spans="3:3">
-      <c r="C1311" s="5"/>
+      <c r="C1311" s="7"/>
     </row>
     <row r="1312" spans="3:3">
-      <c r="C1312" s="5"/>
+      <c r="C1312" s="7"/>
     </row>
     <row r="1313" spans="3:3">
-      <c r="C1313" s="5"/>
+      <c r="C1313" s="7"/>
     </row>
     <row r="1314" spans="3:3">
-      <c r="C1314" s="5"/>
+      <c r="C1314" s="7"/>
     </row>
     <row r="1315" spans="3:3">
-      <c r="C1315" s="5"/>
+      <c r="C1315" s="7"/>
     </row>
     <row r="1316" spans="3:3">
-      <c r="C1316" s="5"/>
+      <c r="C1316" s="7"/>
     </row>
     <row r="1317" spans="3:3">
-      <c r="C1317" s="5"/>
+      <c r="C1317" s="7"/>
     </row>
     <row r="1318" spans="3:3">
-      <c r="C1318" s="5"/>
+      <c r="C1318" s="7"/>
     </row>
     <row r="1319" spans="3:3">
-      <c r="C1319" s="5"/>
+      <c r="C1319" s="7"/>
     </row>
     <row r="1320" spans="3:3">
-      <c r="C1320" s="5"/>
+      <c r="C1320" s="7"/>
     </row>
     <row r="1321" spans="3:3">
-      <c r="C1321" s="5"/>
+      <c r="C1321" s="7"/>
     </row>
     <row r="1322" spans="3:3">
-      <c r="C1322" s="5"/>
+      <c r="C1322" s="7"/>
     </row>
     <row r="1323" spans="3:3">
-      <c r="C1323" s="5"/>
+      <c r="C1323" s="7"/>
     </row>
     <row r="1324" spans="3:3">
-      <c r="C1324" s="5"/>
+      <c r="C1324" s="7"/>
     </row>
     <row r="1325" spans="3:3">
-      <c r="C1325" s="5"/>
+      <c r="C1325" s="7"/>
     </row>
     <row r="1326" spans="3:3">
-      <c r="C1326" s="5"/>
+      <c r="C1326" s="7"/>
     </row>
     <row r="1327" spans="3:3">
-      <c r="C1327" s="5"/>
+      <c r="C1327" s="7"/>
     </row>
     <row r="1328" spans="3:3">
-      <c r="C1328" s="5"/>
+      <c r="C1328" s="7"/>
     </row>
     <row r="1329" spans="3:3">
-      <c r="C1329" s="5"/>
+      <c r="C1329" s="7"/>
     </row>
     <row r="1330" spans="3:3">
-      <c r="C1330" s="5"/>
+      <c r="C1330" s="7"/>
     </row>
     <row r="1331" spans="3:3">
-      <c r="C1331" s="5"/>
+      <c r="C1331" s="7"/>
     </row>
     <row r="1332" spans="3:3">
-      <c r="C1332" s="5"/>
+      <c r="C1332" s="7"/>
     </row>
     <row r="1333" spans="3:3">
-      <c r="C1333" s="5"/>
+      <c r="C1333" s="7"/>
     </row>
     <row r="1334" spans="3:3">
-      <c r="C1334" s="5"/>
+      <c r="C1334" s="7"/>
     </row>
     <row r="1335" spans="3:3">
-      <c r="C1335" s="5"/>
+      <c r="C1335" s="7"/>
     </row>
     <row r="1336" spans="3:3">
-      <c r="C1336" s="5"/>
+      <c r="C1336" s="7"/>
     </row>
     <row r="1337" spans="3:3">
-      <c r="C1337" s="5"/>
+      <c r="C1337" s="7"/>
     </row>
     <row r="1338" spans="3:3">
-      <c r="C1338" s="5"/>
+      <c r="C1338" s="7"/>
     </row>
     <row r="1339" spans="3:3">
-      <c r="C1339" s="5"/>
+      <c r="C1339" s="7"/>
     </row>
     <row r="1340" spans="3:3">
-      <c r="C1340" s="5"/>
+      <c r="C1340" s="7"/>
     </row>
     <row r="1341" spans="3:3">
-      <c r="C1341" s="5"/>
+      <c r="C1341" s="7"/>
     </row>
     <row r="1342" spans="3:3">
-      <c r="C1342" s="5"/>
+      <c r="C1342" s="7"/>
     </row>
     <row r="1343" spans="3:3">
-      <c r="C1343" s="5"/>
+      <c r="C1343" s="7"/>
     </row>
     <row r="1344" spans="3:3">
-      <c r="C1344" s="5"/>
+      <c r="C1344" s="7"/>
     </row>
     <row r="1345" spans="3:3">
-      <c r="C1345" s="5"/>
+      <c r="C1345" s="7"/>
     </row>
     <row r="1346" spans="3:3">
-      <c r="C1346" s="5"/>
+      <c r="C1346" s="7"/>
     </row>
     <row r="1347" spans="3:3">
-      <c r="C1347" s="5"/>
+      <c r="C1347" s="7"/>
     </row>
     <row r="1348" spans="3:3">
-      <c r="C1348" s="5"/>
+      <c r="C1348" s="7"/>
     </row>
     <row r="1349" spans="3:3">
-      <c r="C1349" s="5"/>
+      <c r="C1349" s="7"/>
     </row>
     <row r="1350" spans="3:3">
-      <c r="C1350" s="5"/>
+      <c r="C1350" s="7"/>
     </row>
     <row r="1351" spans="3:3">
-      <c r="C1351" s="5"/>
+      <c r="C1351" s="7"/>
     </row>
     <row r="1352" spans="3:3">
-      <c r="C1352" s="5"/>
+      <c r="C1352" s="7"/>
     </row>
     <row r="1353" spans="3:3">
-      <c r="C1353" s="5"/>
+      <c r="C1353" s="7"/>
     </row>
     <row r="1354" spans="3:3">
-      <c r="C1354" s="5"/>
+      <c r="C1354" s="7"/>
     </row>
     <row r="1355" spans="3:3">
-      <c r="C1355" s="5"/>
+      <c r="C1355" s="7"/>
     </row>
     <row r="1356" spans="3:3">
-      <c r="C1356" s="5"/>
+      <c r="C1356" s="7"/>
     </row>
     <row r="1357" spans="3:3">
-      <c r="C1357" s="5"/>
+      <c r="C1357" s="7"/>
     </row>
     <row r="1358" spans="3:3">
-      <c r="C1358" s="8"/>
+      <c r="C1358" s="21"/>
     </row>
     <row r="1359" spans="3:3">
-      <c r="C1359" s="8"/>
+      <c r="C1359" s="21"/>
     </row>
     <row r="1360" spans="3:3">
-      <c r="C1360" s="8"/>
+      <c r="C1360" s="21"/>
     </row>
     <row r="1361" spans="3:3">
-      <c r="C1361" s="8"/>
+      <c r="C1361" s="21"/>
     </row>
     <row r="1362" spans="3:3">
-      <c r="C1362" s="8"/>
+      <c r="C1362" s="21"/>
     </row>
     <row r="1363" spans="3:3">
-      <c r="C1363" s="8"/>
+      <c r="C1363" s="21"/>
     </row>
     <row r="1364" spans="3:3">
-      <c r="C1364" s="8"/>
+      <c r="C1364" s="21"/>
     </row>
     <row r="1365" spans="3:3">
-      <c r="C1365" s="8"/>
+      <c r="C1365" s="21"/>
     </row>
     <row r="1366" spans="3:3">
-      <c r="C1366" s="8"/>
+      <c r="C1366" s="21"/>
     </row>
     <row r="1367" spans="3:3">
-      <c r="C1367" s="8"/>
+      <c r="C1367" s="21"/>
     </row>
     <row r="1368" spans="3:3">
-      <c r="C1368" s="8"/>
+      <c r="C1368" s="21"/>
     </row>
     <row r="1369" spans="3:3">
-      <c r="C1369" s="8"/>
+      <c r="C1369" s="21"/>
     </row>
     <row r="1370" spans="3:3">
-      <c r="C1370" s="8"/>
+      <c r="C1370" s="21"/>
     </row>
     <row r="1371" spans="3:3">
-      <c r="C1371" s="8"/>
+      <c r="C1371" s="21"/>
     </row>
     <row r="1372" spans="3:3">
-      <c r="C1372" s="8"/>
+      <c r="C1372" s="21"/>
     </row>
     <row r="1373" spans="3:3">
-      <c r="C1373" s="23"/>
+      <c r="C1373" s="28"/>
     </row>
     <row r="1374" spans="3:3">
-      <c r="C1374" s="23"/>
+      <c r="C1374" s="28"/>
     </row>
     <row r="1375" spans="3:3">
-      <c r="C1375" s="23"/>
+      <c r="C1375" s="28"/>
     </row>
     <row r="1376" spans="3:3">
-      <c r="C1376" s="23"/>
+      <c r="C1376" s="28"/>
     </row>
     <row r="1377" spans="3:3">
-      <c r="C1377" s="23"/>
+      <c r="C1377" s="28"/>
     </row>
     <row r="1378" spans="3:3">
-      <c r="C1378" s="23"/>
+      <c r="C1378" s="28"/>
     </row>
     <row r="1379" spans="3:3">
-      <c r="C1379" s="23"/>
+      <c r="C1379" s="28"/>
     </row>
     <row r="1380" spans="3:3">
-      <c r="C1380" s="23"/>
+      <c r="C1380" s="28"/>
     </row>
     <row r="1381" spans="3:3">
-      <c r="C1381" s="23"/>
+      <c r="C1381" s="28"/>
     </row>
     <row r="1382" spans="3:3">
-      <c r="C1382" s="23"/>
+      <c r="C1382" s="28"/>
     </row>
     <row r="1383" spans="3:3">
-      <c r="C1383" s="23"/>
+      <c r="C1383" s="28"/>
     </row>
     <row r="1384" spans="3:3">
-      <c r="C1384" s="23"/>
+      <c r="C1384" s="28"/>
     </row>
     <row r="1385" spans="3:3">
-      <c r="C1385" s="23"/>
+      <c r="C1385" s="28"/>
     </row>
     <row r="1386" spans="3:3">
-      <c r="C1386" s="23"/>
+      <c r="C1386" s="28"/>
     </row>
     <row r="1387" spans="3:3">
-      <c r="C1387" s="23"/>
+      <c r="C1387" s="28"/>
     </row>
     <row r="1388" spans="3:3">
-      <c r="C1388" s="23"/>
+      <c r="C1388" s="28"/>
     </row>
     <row r="1389" spans="3:3">
-      <c r="C1389" s="23"/>
+      <c r="C1389" s="28"/>
     </row>
     <row r="1390" spans="3:3">
-      <c r="C1390" s="23"/>
+      <c r="C1390" s="28"/>
     </row>
     <row r="1391" spans="3:3">
-      <c r="C1391" s="23"/>
+      <c r="C1391" s="28"/>
     </row>
     <row r="1392" spans="3:3">
-      <c r="C1392" s="23"/>
+      <c r="C1392" s="28"/>
     </row>
     <row r="1393" spans="3:3">
-      <c r="C1393" s="23"/>
+      <c r="C1393" s="28"/>
     </row>
     <row r="1394" spans="3:3">
-      <c r="C1394" s="23"/>
+      <c r="C1394" s="28"/>
     </row>
     <row r="1395" spans="3:3">
-      <c r="C1395" s="23"/>
+      <c r="C1395" s="28"/>
     </row>
     <row r="1396" spans="3:3">
-      <c r="C1396" s="23"/>
+      <c r="C1396" s="28"/>
     </row>
     <row r="1397" spans="3:3">
-      <c r="C1397" s="23"/>
+      <c r="C1397" s="28"/>
     </row>
     <row r="1398" spans="3:3">
-      <c r="C1398" s="23"/>
+      <c r="C1398" s="28"/>
     </row>
     <row r="1399" spans="3:3">
-      <c r="C1399" s="23"/>
+      <c r="C1399" s="28"/>
     </row>
     <row r="1400" spans="3:3">
-      <c r="C1400" s="23"/>
+      <c r="C1400" s="28"/>
     </row>
     <row r="1401" spans="3:3">
-      <c r="C1401" s="23"/>
+      <c r="C1401" s="28"/>
     </row>
     <row r="1402" spans="3:3">
-      <c r="C1402" s="23"/>
+      <c r="C1402" s="28"/>
     </row>
     <row r="1403" spans="3:3">
-      <c r="C1403" s="23"/>
+      <c r="C1403" s="28"/>
     </row>
     <row r="1404" spans="3:3">
-      <c r="C1404" s="23"/>
+      <c r="C1404" s="28"/>
     </row>
     <row r="1405" spans="3:3">
-      <c r="C1405" s="23"/>
+      <c r="C1405" s="28"/>
     </row>
     <row r="1406" spans="3:3">
-      <c r="C1406" s="23"/>
+      <c r="C1406" s="28"/>
     </row>
     <row r="1407" spans="3:3">
-      <c r="C1407" s="23"/>
+      <c r="C1407" s="28"/>
     </row>
     <row r="1408" spans="3:3">
-      <c r="C1408" s="23"/>
+      <c r="C1408" s="28"/>
     </row>
     <row r="1409" spans="3:3">
-      <c r="C1409" s="23"/>
+      <c r="C1409" s="28"/>
     </row>
     <row r="1410" spans="3:3">
-      <c r="C1410" s="23"/>
+      <c r="C1410" s="28"/>
     </row>
     <row r="1411" spans="3:3">
-      <c r="C1411" s="5"/>
+      <c r="C1411" s="7"/>
     </row>
     <row r="1412" spans="3:3">
-      <c r="C1412" s="5"/>
+      <c r="C1412" s="7"/>
     </row>
     <row r="1413" spans="3:3">
-      <c r="C1413" s="5"/>
+      <c r="C1413" s="7"/>
     </row>
     <row r="1414" spans="3:3">
-      <c r="C1414" s="5"/>
+      <c r="C1414" s="7"/>
     </row>
     <row r="1415" spans="3:3">
-      <c r="C1415" s="5"/>
+      <c r="C1415" s="7"/>
     </row>
     <row r="1416" spans="3:3">
-      <c r="C1416" s="5"/>
+      <c r="C1416" s="7"/>
     </row>
     <row r="1417" spans="3:3">
-      <c r="C1417" s="5"/>
+      <c r="C1417" s="7"/>
     </row>
     <row r="1418" spans="3:3">
-      <c r="C1418" s="5"/>
+      <c r="C1418" s="7"/>
     </row>
     <row r="1419" spans="3:3">
-      <c r="C1419" s="5"/>
+      <c r="C1419" s="7"/>
     </row>
     <row r="1420" spans="3:3">
-      <c r="C1420" s="5"/>
+      <c r="C1420" s="7"/>
     </row>
     <row r="1421" spans="3:3">
-      <c r="C1421" s="5"/>
+      <c r="C1421" s="7"/>
     </row>
     <row r="1422" spans="3:3">
-      <c r="C1422" s="5"/>
+      <c r="C1422" s="7"/>
     </row>
     <row r="1423" spans="3:3">
-      <c r="C1423" s="5"/>
+      <c r="C1423" s="7"/>
     </row>
     <row r="1424" spans="3:3">
-      <c r="C1424" s="5"/>
+      <c r="C1424" s="7"/>
     </row>
     <row r="1425" spans="3:3">
-      <c r="C1425" s="5"/>
+      <c r="C1425" s="7"/>
     </row>
     <row r="1426" spans="3:3">
-      <c r="C1426" s="5"/>
+      <c r="C1426" s="7"/>
     </row>
     <row r="1427" spans="3:3">
-      <c r="C1427" s="5"/>
+      <c r="C1427" s="7"/>
     </row>
     <row r="1428" spans="3:3">
-      <c r="C1428" s="5"/>
+      <c r="C1428" s="7"/>
     </row>
     <row r="1429" spans="3:3">
-      <c r="C1429" s="5"/>
+      <c r="C1429" s="7"/>
     </row>
     <row r="1430" spans="3:3">
-      <c r="C1430" s="5"/>
+      <c r="C1430" s="7"/>
     </row>
     <row r="1431" spans="3:3">
-      <c r="C1431" s="5"/>
+      <c r="C1431" s="7"/>
     </row>
     <row r="1432" spans="3:3">
-      <c r="C1432" s="5"/>
+      <c r="C1432" s="7"/>
     </row>
     <row r="1433" spans="3:3">
-      <c r="C1433" s="5"/>
+      <c r="C1433" s="7"/>
     </row>
     <row r="1434" spans="3:3">
-      <c r="C1434" s="5"/>
+      <c r="C1434" s="7"/>
     </row>
     <row r="1435" spans="3:3">
-      <c r="C1435" s="5"/>
+      <c r="C1435" s="7"/>
     </row>
     <row r="1436" spans="3:3">
-      <c r="C1436" s="5"/>
+      <c r="C1436" s="7"/>
     </row>
     <row r="1437" spans="3:3">
-      <c r="C1437" s="5"/>
+      <c r="C1437" s="7"/>
     </row>
     <row r="1438" spans="3:3">
-      <c r="C1438" s="5"/>
+      <c r="C1438" s="7"/>
     </row>
     <row r="1439" spans="3:3">
-      <c r="C1439" s="5"/>
+      <c r="C1439" s="7"/>
     </row>
     <row r="1440" spans="3:3">
-      <c r="C1440" s="5"/>
+      <c r="C1440" s="7"/>
     </row>
     <row r="1441" spans="3:3">
-      <c r="C1441" s="5"/>
+      <c r="C1441" s="7"/>
     </row>
     <row r="1442" spans="3:3">
-      <c r="C1442" s="5"/>
+      <c r="C1442" s="7"/>
     </row>
     <row r="1443" spans="3:3">
-      <c r="C1443" s="5"/>
+      <c r="C1443" s="7"/>
     </row>
     <row r="1444" spans="3:3">
-      <c r="C1444" s="5"/>
+      <c r="C1444" s="7"/>
     </row>
     <row r="1445" spans="3:3">
-      <c r="C1445" s="5"/>
+      <c r="C1445" s="7"/>
     </row>
     <row r="1446" spans="3:3">
-      <c r="C1446" s="5"/>
+      <c r="C1446" s="7"/>
     </row>
     <row r="1447" spans="3:3">
-      <c r="C1447" s="5"/>
+      <c r="C1447" s="7"/>
     </row>
     <row r="1448" spans="3:3">
-      <c r="C1448" s="5"/>
+      <c r="C1448" s="7"/>
     </row>
     <row r="1449" spans="3:3">
-      <c r="C1449" s="5"/>
+      <c r="C1449" s="7"/>
     </row>
     <row r="1450" spans="3:3">
-      <c r="C1450" s="5"/>
+      <c r="C1450" s="7"/>
     </row>
     <row r="1451" spans="3:3">
-      <c r="C1451" s="5"/>
+      <c r="C1451" s="7"/>
     </row>
     <row r="1452" spans="3:3">
-      <c r="C1452" s="5"/>
+      <c r="C1452" s="7"/>
     </row>
     <row r="1453" spans="3:3">
-      <c r="C1453" s="5"/>
+      <c r="C1453" s="7"/>
     </row>
     <row r="1454" spans="3:3">
-      <c r="C1454" s="5"/>
+      <c r="C1454" s="7"/>
     </row>
     <row r="1455" spans="3:3">
-      <c r="C1455" s="5"/>
+      <c r="C1455" s="7"/>
     </row>
     <row r="1456" spans="3:3">
-      <c r="C1456" s="5"/>
+      <c r="C1456" s="7"/>
     </row>
     <row r="1457" spans="3:3">
-      <c r="C1457" s="5"/>
+      <c r="C1457" s="7"/>
     </row>
     <row r="1458" spans="3:3">
-      <c r="C1458" s="5"/>
+      <c r="C1458" s="7"/>
     </row>
     <row r="1459" spans="3:3">
-      <c r="C1459" s="5"/>
+      <c r="C1459" s="7"/>
     </row>
     <row r="1460" spans="3:3">
-      <c r="C1460" s="5"/>
+      <c r="C1460" s="7"/>
     </row>
     <row r="1461" spans="3:3">
-      <c r="C1461" s="5"/>
+      <c r="C1461" s="7"/>
     </row>
     <row r="1462" spans="3:3">
-      <c r="C1462" s="5"/>
+      <c r="C1462" s="7"/>
     </row>
     <row r="1463" spans="3:3">
-      <c r="C1463" s="5"/>
+      <c r="C1463" s="7"/>
     </row>
     <row r="1464" spans="3:3">
-      <c r="C1464" s="5"/>
+      <c r="C1464" s="7"/>
     </row>
     <row r="1465" spans="3:3">
-      <c r="C1465" s="5"/>
+      <c r="C1465" s="7"/>
     </row>
     <row r="1466" spans="3:3">
-      <c r="C1466" s="5"/>
+      <c r="C1466" s="7"/>
     </row>
     <row r="1467" spans="3:3">
-      <c r="C1467" s="5"/>
+      <c r="C1467" s="7"/>
     </row>
     <row r="1468" spans="3:3">
-      <c r="C1468" s="5"/>
+      <c r="C1468" s="7"/>
     </row>
     <row r="1469" spans="3:3">
-      <c r="C1469" s="5"/>
+      <c r="C1469" s="7"/>
     </row>
     <row r="1470" spans="3:3">
-      <c r="C1470" s="5"/>
+      <c r="C1470" s="7"/>
     </row>
     <row r="1471" spans="3:3">
-      <c r="C1471" s="5"/>
+      <c r="C1471" s="7"/>
     </row>
     <row r="1472" spans="3:3">
-      <c r="C1472" s="5"/>
+      <c r="C1472" s="7"/>
     </row>
     <row r="1473" spans="3:3">
-      <c r="C1473" s="5"/>
+      <c r="C1473" s="7"/>
     </row>
     <row r="1474" spans="3:3">
-      <c r="C1474" s="5"/>
+      <c r="C1474" s="7"/>
     </row>
     <row r="1475" spans="3:3">
-      <c r="C1475" s="5"/>
+      <c r="C1475" s="7"/>
     </row>
     <row r="1476" spans="3:3">
-      <c r="C1476" s="5"/>
+      <c r="C1476" s="7"/>
     </row>
     <row r="1477" spans="3:3">
-      <c r="C1477" s="5"/>
+      <c r="C1477" s="7"/>
     </row>
     <row r="1478" spans="3:3">
-      <c r="C1478" s="5"/>
+      <c r="C1478" s="7"/>
     </row>
     <row r="1479" spans="3:3">
-      <c r="C1479" s="5"/>
+      <c r="C1479" s="7"/>
     </row>
     <row r="1480" spans="3:3">
-      <c r="C1480" s="5"/>
+      <c r="C1480" s="7"/>
     </row>
     <row r="1481" spans="3:3">
-      <c r="C1481" s="5"/>
+      <c r="C1481" s="7"/>
     </row>
     <row r="1482" spans="3:3">
-      <c r="C1482" s="5"/>
+      <c r="C1482" s="7"/>
     </row>
     <row r="1483" spans="3:3">
-      <c r="C1483" s="5"/>
+      <c r="C1483" s="7"/>
     </row>
     <row r="1484" spans="3:3">
-      <c r="C1484" s="5"/>
+      <c r="C1484" s="7"/>
     </row>
     <row r="1485" spans="3:3">
-      <c r="C1485" s="5"/>
+      <c r="C1485" s="7"/>
     </row>
     <row r="1486" spans="3:3">
-      <c r="C1486" s="5"/>
+      <c r="C1486" s="7"/>
     </row>
     <row r="1487" spans="3:3">
-      <c r="C1487" s="5"/>
+      <c r="C1487" s="7"/>
     </row>
     <row r="1488" spans="3:3">
-      <c r="C1488" s="5"/>
+      <c r="C1488" s="7"/>
     </row>
     <row r="1489" spans="3:3">
-      <c r="C1489" s="5"/>
+      <c r="C1489" s="7"/>
     </row>
     <row r="1490" spans="3:3">
-      <c r="C1490" s="5"/>
+      <c r="C1490" s="7"/>
     </row>
     <row r="1491" spans="3:3">
-      <c r="C1491" s="5"/>
+      <c r="C1491" s="7"/>
     </row>
     <row r="1492" spans="3:3">
-      <c r="C1492" s="5"/>
+      <c r="C1492" s="7"/>
     </row>
     <row r="1493" spans="3:3">
-      <c r="C1493" s="5"/>
+      <c r="C1493" s="7"/>
     </row>
     <row r="1494" spans="3:3">
-      <c r="C1494" s="5"/>
+      <c r="C1494" s="7"/>
     </row>
     <row r="1495" spans="3:3">
-      <c r="C1495" s="5"/>
+      <c r="C1495" s="7"/>
     </row>
     <row r="1496" spans="3:3">
-      <c r="C1496" s="5"/>
+      <c r="C1496" s="7"/>
     </row>
     <row r="1497" spans="3:3">
-      <c r="C1497" s="5"/>
+      <c r="C1497" s="7"/>
     </row>
     <row r="1498" spans="3:3">
-      <c r="C1498" s="5"/>
+      <c r="C1498" s="7"/>
     </row>
     <row r="1499" spans="3:3">
-      <c r="C1499" s="5"/>
+      <c r="C1499" s="7"/>
     </row>
     <row r="1500" spans="3:3">
-      <c r="C1500" s="5"/>
+      <c r="C1500" s="7"/>
     </row>
     <row r="1501" spans="3:3">
-      <c r="C1501" s="5"/>
+      <c r="C1501" s="7"/>
     </row>
     <row r="1502" spans="3:3">
-      <c r="C1502" s="5"/>
+      <c r="C1502" s="7"/>
     </row>
     <row r="1503" spans="3:3">
-      <c r="C1503" s="5"/>
+      <c r="C1503" s="7"/>
     </row>
     <row r="1504" spans="3:3">
-      <c r="C1504" s="5"/>
+      <c r="C1504" s="7"/>
     </row>
     <row r="1505" spans="3:3">
-      <c r="C1505" s="5"/>
+      <c r="C1505" s="7"/>
     </row>
     <row r="1506" spans="3:3">
-      <c r="C1506" s="5"/>
+      <c r="C1506" s="7"/>
     </row>
     <row r="1507" spans="3:3">
-      <c r="C1507" s="5"/>
+      <c r="C1507" s="7"/>
     </row>
     <row r="1508" spans="3:3">
-      <c r="C1508" s="5"/>
+      <c r="C1508" s="7"/>
     </row>
     <row r="1509" spans="3:3">
-      <c r="C1509" s="5"/>
+      <c r="C1509" s="7"/>
     </row>
     <row r="1510" spans="3:3">
-      <c r="C1510" s="5"/>
+      <c r="C1510" s="7"/>
     </row>
     <row r="1511" spans="3:3">
-      <c r="C1511" s="5"/>
+      <c r="C1511" s="7"/>
     </row>
     <row r="1512" spans="3:3">
-      <c r="C1512" s="5"/>
+      <c r="C1512" s="7"/>
     </row>
     <row r="1513" spans="3:3">
-      <c r="C1513" s="5"/>
+      <c r="C1513" s="7"/>
     </row>
     <row r="1514" spans="3:3">
-      <c r="C1514" s="5"/>
+      <c r="C1514" s="7"/>
     </row>
     <row r="1515" spans="3:3">
-      <c r="C1515" s="5"/>
+      <c r="C1515" s="7"/>
     </row>
     <row r="1516" spans="3:3">
-      <c r="C1516" s="5"/>
+      <c r="C1516" s="7"/>
     </row>
     <row r="1517" spans="3:3">
-      <c r="C1517" s="5"/>
+      <c r="C1517" s="7"/>
     </row>
     <row r="1518" spans="3:3">
-      <c r="C1518" s="5"/>
+      <c r="C1518" s="7"/>
     </row>
     <row r="1519" spans="3:3">
-      <c r="C1519" s="5"/>
+      <c r="C1519" s="7"/>
     </row>
     <row r="1520" spans="3:3">
-      <c r="C1520" s="5"/>
+      <c r="C1520" s="7"/>
     </row>
     <row r="1521" spans="3:3">
-      <c r="C1521" s="5"/>
+      <c r="C1521" s="7"/>
     </row>
     <row r="1522" spans="3:3">
-      <c r="C1522" s="5"/>
+      <c r="C1522" s="7"/>
     </row>
     <row r="1523" spans="3:3">
-      <c r="C1523" s="5"/>
+      <c r="C1523" s="7"/>
     </row>
     <row r="1524" spans="3:3">
-      <c r="C1524" s="5"/>
+      <c r="C1524" s="7"/>
     </row>
     <row r="1525" spans="3:3">
-      <c r="C1525" s="5"/>
+      <c r="C1525" s="7"/>
     </row>
     <row r="1526" spans="3:3">
-      <c r="C1526" s="5"/>
+      <c r="C1526" s="7"/>
     </row>
     <row r="1527" spans="3:3">
-      <c r="C1527" s="5"/>
+      <c r="C1527" s="7"/>
     </row>
     <row r="1528" spans="3:3">
-      <c r="C1528" s="5"/>
+      <c r="C1528" s="7"/>
     </row>
     <row r="1529" spans="3:3">
-      <c r="C1529" s="5"/>
+      <c r="C1529" s="7"/>
     </row>
     <row r="1530" spans="3:3">
-      <c r="C1530" s="5"/>
+      <c r="C1530" s="7"/>
     </row>
     <row r="1531" spans="3:3">
-      <c r="C1531" s="5"/>
+      <c r="C1531" s="7"/>
     </row>
     <row r="1532" spans="3:3">
-      <c r="C1532" s="5"/>
+      <c r="C1532" s="7"/>
     </row>
     <row r="1533" spans="3:3">
-      <c r="C1533" s="5"/>
+      <c r="C1533" s="7"/>
     </row>
     <row r="1534" spans="3:3">
-      <c r="C1534" s="5"/>
+      <c r="C1534" s="7"/>
     </row>
     <row r="1535" spans="3:3">
-      <c r="C1535" s="5"/>
+      <c r="C1535" s="7"/>
     </row>
     <row r="1536" spans="3:3">
-      <c r="C1536" s="5"/>
+      <c r="C1536" s="7"/>
     </row>
     <row r="1537" spans="3:3">
-      <c r="C1537" s="5"/>
+      <c r="C1537" s="7"/>
     </row>
     <row r="1538" spans="3:3">
-      <c r="C1538" s="5"/>
+      <c r="C1538" s="7"/>
     </row>
     <row r="1539" spans="3:3">
-      <c r="C1539" s="5"/>
+      <c r="C1539" s="7"/>
     </row>
     <row r="1540" spans="3:3">
-      <c r="C1540" s="5"/>
+      <c r="C1540" s="7"/>
     </row>
     <row r="1541" spans="3:3">
-      <c r="C1541" s="5"/>
+      <c r="C1541" s="7"/>
     </row>
     <row r="1542" spans="3:3">
-      <c r="C1542" s="5"/>
+      <c r="C1542" s="7"/>
     </row>
     <row r="1543" spans="3:3">
-      <c r="C1543" s="5"/>
+      <c r="C1543" s="7"/>
     </row>
     <row r="1544" spans="3:3">
-      <c r="C1544" s="5"/>
+      <c r="C1544" s="7"/>
     </row>
     <row r="1545" spans="3:3">
-      <c r="C1545" s="5"/>
+      <c r="C1545" s="7"/>
     </row>
     <row r="1546" spans="3:3">
-      <c r="C1546" s="5"/>
+      <c r="C1546" s="7"/>
     </row>
     <row r="1547" spans="3:3">
-      <c r="C1547" s="5"/>
+      <c r="C1547" s="7"/>
     </row>
     <row r="1548" spans="3:3">
-      <c r="C1548" s="5"/>
+      <c r="C1548" s="7"/>
     </row>
     <row r="1549" spans="3:3">
-      <c r="C1549" s="5"/>
+      <c r="C1549" s="7"/>
     </row>
     <row r="1550" spans="3:3">
-      <c r="C1550" s="5"/>
+      <c r="C1550" s="7"/>
     </row>
     <row r="1551" spans="3:3">
-      <c r="C1551" s="5"/>
+      <c r="C1551" s="7"/>
     </row>
     <row r="1552" spans="3:3">
-      <c r="C1552" s="5"/>
+      <c r="C1552" s="7"/>
     </row>
     <row r="1553" spans="3:3">
-      <c r="C1553" s="5"/>
+      <c r="C1553" s="7"/>
     </row>
     <row r="1554" spans="3:3">
-      <c r="C1554" s="5"/>
+      <c r="C1554" s="7"/>
     </row>
     <row r="1555" spans="3:3">
-      <c r="C1555" s="5"/>
+      <c r="C1555" s="7"/>
     </row>
     <row r="1556" spans="3:3">
-      <c r="C1556" s="5"/>
+      <c r="C1556" s="7"/>
     </row>
     <row r="1557" spans="3:3">
-      <c r="C1557" s="5"/>
+      <c r="C1557" s="7"/>
     </row>
     <row r="1558" spans="3:3">
-      <c r="C1558" s="5"/>
+      <c r="C1558" s="7"/>
     </row>
     <row r="1559" spans="3:3">
-      <c r="C1559" s="5"/>
+      <c r="C1559" s="7"/>
     </row>
     <row r="1560" spans="3:3">
-      <c r="C1560" s="18"/>
+      <c r="C1560" s="23"/>
     </row>
     <row r="1561" spans="3:3">
-      <c r="C1561" s="18"/>
+      <c r="C1561" s="23"/>
     </row>
     <row r="1562" spans="3:3">
-      <c r="C1562" s="18"/>
+      <c r="C1562" s="23"/>
     </row>
     <row r="1563" spans="3:3">
-      <c r="C1563" s="18"/>
+      <c r="C1563" s="23"/>
     </row>
     <row r="1564" spans="3:3">
-      <c r="C1564" s="18"/>
+      <c r="C1564" s="23"/>
     </row>
     <row r="1565" spans="3:3">
-      <c r="C1565" s="18"/>
+      <c r="C1565" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6846,7 +6852,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F62" sqref="A2:F62"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -6860,234 +6866,234 @@
   </cols>
   <sheetData>
     <row r="1" ht="42" customHeight="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="3:5">
-      <c r="C2" s="16"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="17"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="3:5">
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="17"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="3:5">
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="17"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="3:5">
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="17"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="3:5">
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="17"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="17"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="17"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="3:5">
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="17"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="3:5">
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="17"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="3:5">
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="17"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="17"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="17"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="17"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" spans="3:5">
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="17"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" spans="3:5">
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="17"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="17"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="17"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="17"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="17"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="17"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="17"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="3:5">
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="17"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" spans="3:5">
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="17"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
     </row>
     <row r="25" spans="3:5">
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="17"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
     </row>
     <row r="26" spans="5:5">
-      <c r="E26" s="17"/>
+      <c r="E26" s="22"/>
     </row>
     <row r="27" spans="5:5">
-      <c r="E27" s="17"/>
+      <c r="E27" s="22"/>
     </row>
     <row r="28" spans="5:5">
-      <c r="E28" s="17"/>
+      <c r="E28" s="22"/>
     </row>
     <row r="29" spans="5:5">
-      <c r="E29" s="17"/>
+      <c r="E29" s="22"/>
     </row>
     <row r="30" spans="5:5">
-      <c r="E30" s="17"/>
+      <c r="E30" s="22"/>
     </row>
     <row r="31" spans="5:5">
-      <c r="E31" s="17"/>
+      <c r="E31" s="22"/>
     </row>
     <row r="32" spans="5:5">
-      <c r="E32" s="17"/>
+      <c r="E32" s="22"/>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="17"/>
+      <c r="E33" s="22"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="25"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="25"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="20"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="25"/>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="20"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="25"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="18"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="18"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="20"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="25"/>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="18"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="20"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="25"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="9"/>
+      <c r="B52" s="13"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="9"/>
+      <c r="B54" s="13"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="9"/>
+      <c r="B56" s="13"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="9"/>
+      <c r="B58" s="13"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="9"/>
+      <c r="B60" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F60">
@@ -7116,69 +7122,68 @@
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="10"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="10"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="11"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="12"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="11"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="11"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="11"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="11"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="11"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="11"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="15"/>
+      <c r="D12" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7192,8 +7197,8 @@
   <sheetPr/>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -7202,234 +7207,201 @@
     <col min="2" max="2" width="36" style="3" customWidth="1"/>
     <col min="3" max="3" width="29.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="68.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="39.875" customWidth="1"/>
+    <col min="5" max="5" width="39.875" style="4" customWidth="1"/>
     <col min="6" max="6" width="39.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="5"/>
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1000649</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1000649</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="A6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="7"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="A9" s="7"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="7"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="7"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="7"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="A13" s="7"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="A14" s="7"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="A15" s="7"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="7"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="5"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="A17" s="7"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="5"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="A18" s="7"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="A19" s="7"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="5"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="A20" s="7"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="5"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="A21" s="7"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="5"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="A22" s="7"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="5"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="A23" s="7"/>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:5">
-      <c r="A24" s="5"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="3"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:5">
-      <c r="A25" s="5"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="3"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="5"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="A26" s="7"/>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="5"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="7"/>
+      <c r="C27" s="8"/>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="9"/>
+      <c r="C28" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D26">

--- a/config_Release/extra_award_server.xlsx
+++ b/config_Release/extra_award_server.xlsx
@@ -175,10 +175,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -207,43 +207,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,16 +237,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,6 +253,58 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -296,17 +312,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,9 +328,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,21 +337,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,7 +361,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,12 +372,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -406,7 +400,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,25 +442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,13 +460,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,25 +496,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,19 +544,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,49 +562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,6 +591,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -612,11 +639,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,55 +688,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,139 +706,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -866,7 +860,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -881,54 +875,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1291,43 +1282,43 @@
       </c>
     </row>
     <row r="2" ht="43.5" customHeight="1" spans="2:5">
-      <c r="B2" s="21"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="8"/>
-      <c r="D2" s="21"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" ht="43.5" customHeight="1" spans="2:5">
-      <c r="B3" s="21"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="8"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
     <row r="4" ht="43.5" customHeight="1" spans="2:5">
-      <c r="B4" s="21"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="8"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" ht="43.5" customHeight="1" spans="2:5">
-      <c r="B5" s="21"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="8"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
     <row r="6" ht="43.5" customHeight="1" spans="2:5">
-      <c r="B6" s="21"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="8"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="21"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="8"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="21"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="8"/>
       <c r="E8" s="2"/>
     </row>
@@ -1337,3217 +1328,3217 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="21"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="8"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="21"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="8"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" s="21" customFormat="1" spans="3:5">
+    <row r="12" s="9" customFormat="1" spans="3:5">
       <c r="C12" s="8"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="21"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="8"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" s="21" customFormat="1" spans="3:5">
+    <row r="14" s="9" customFormat="1" spans="3:5">
       <c r="C14" s="8"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="21"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="8"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" ht="18.75" customHeight="1" spans="2:5">
-      <c r="B16" s="21"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="8"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="21"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="8"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="21"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="8"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" s="21" customFormat="1" spans="3:5">
+    <row r="19" s="9" customFormat="1" spans="3:5">
       <c r="C19" s="8"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" s="21" customFormat="1" spans="3:5">
+    <row r="20" s="9" customFormat="1" spans="3:5">
       <c r="C20" s="8"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" s="21" customFormat="1" spans="3:5">
+    <row r="21" s="9" customFormat="1" spans="3:5">
       <c r="C21" s="8"/>
       <c r="D21" s="2"/>
       <c r="E21"/>
     </row>
-    <row r="22" s="21" customFormat="1" spans="3:5">
+    <row r="22" s="9" customFormat="1" spans="3:5">
       <c r="C22" s="8"/>
       <c r="D22" s="2"/>
       <c r="E22"/>
     </row>
-    <row r="23" s="21" customFormat="1" spans="3:5">
+    <row r="23" s="9" customFormat="1" spans="3:5">
       <c r="C23" s="8"/>
       <c r="D23" s="2"/>
       <c r="E23"/>
     </row>
-    <row r="24" s="21" customFormat="1" spans="3:5">
+    <row r="24" s="9" customFormat="1" spans="3:5">
       <c r="C24" s="8"/>
       <c r="D24" s="7"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" s="21" customFormat="1" spans="3:5">
+    <row r="25" s="9" customFormat="1" spans="3:5">
       <c r="C25" s="8"/>
       <c r="D25" s="7"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" s="21" customFormat="1" spans="3:5">
+    <row r="26" s="9" customFormat="1" spans="3:5">
       <c r="C26" s="8"/>
       <c r="D26" s="2"/>
       <c r="E26"/>
     </row>
-    <row r="27" s="21" customFormat="1" spans="3:5">
+    <row r="27" s="9" customFormat="1" spans="3:5">
       <c r="C27" s="8"/>
       <c r="D27" s="2"/>
       <c r="E27"/>
     </row>
-    <row r="28" s="21" customFormat="1" spans="3:5">
+    <row r="28" s="9" customFormat="1" spans="3:5">
       <c r="C28" s="8"/>
       <c r="D28" s="2"/>
       <c r="E28"/>
     </row>
-    <row r="29" s="21" customFormat="1" spans="3:5">
+    <row r="29" s="9" customFormat="1" spans="3:5">
       <c r="C29" s="8"/>
       <c r="D29" s="2"/>
       <c r="E29"/>
     </row>
-    <row r="30" s="21" customFormat="1" spans="3:5">
+    <row r="30" s="9" customFormat="1" spans="3:5">
       <c r="C30" s="8"/>
       <c r="D30" s="2"/>
       <c r="E30"/>
     </row>
-    <row r="31" s="21" customFormat="1" spans="3:5">
+    <row r="31" s="9" customFormat="1" spans="3:5">
       <c r="C31" s="8"/>
       <c r="D31" s="2"/>
       <c r="E31"/>
     </row>
-    <row r="32" s="21" customFormat="1" spans="3:5">
+    <row r="32" s="9" customFormat="1" spans="3:5">
       <c r="C32" s="8"/>
       <c r="D32" s="2"/>
       <c r="E32"/>
     </row>
-    <row r="33" s="21" customFormat="1" spans="3:5">
+    <row r="33" s="9" customFormat="1" spans="3:5">
       <c r="C33" s="8"/>
       <c r="D33" s="2"/>
       <c r="E33"/>
     </row>
-    <row r="34" s="21" customFormat="1" spans="3:5">
+    <row r="34" s="9" customFormat="1" spans="3:5">
       <c r="C34" s="8"/>
       <c r="D34" s="2"/>
       <c r="E34"/>
     </row>
-    <row r="35" s="21" customFormat="1" spans="3:5">
+    <row r="35" s="9" customFormat="1" spans="3:5">
       <c r="C35" s="8"/>
       <c r="D35" s="2"/>
       <c r="E35"/>
     </row>
-    <row r="36" s="21" customFormat="1" spans="3:5">
+    <row r="36" s="9" customFormat="1" spans="3:5">
       <c r="C36" s="8"/>
       <c r="D36" s="2"/>
       <c r="E36"/>
     </row>
-    <row r="37" s="21" customFormat="1" spans="3:5">
+    <row r="37" s="9" customFormat="1" spans="3:5">
       <c r="C37" s="8"/>
       <c r="D37" s="2"/>
       <c r="E37"/>
     </row>
-    <row r="38" s="21" customFormat="1" spans="3:5">
+    <row r="38" s="9" customFormat="1" spans="3:5">
       <c r="C38" s="8"/>
       <c r="D38" s="2"/>
       <c r="E38"/>
     </row>
-    <row r="39" s="21" customFormat="1" spans="3:5">
+    <row r="39" s="9" customFormat="1" spans="3:5">
       <c r="C39" s="8"/>
       <c r="D39" s="2"/>
       <c r="E39"/>
     </row>
-    <row r="40" s="21" customFormat="1" spans="3:5">
+    <row r="40" s="9" customFormat="1" spans="3:5">
       <c r="C40" s="8"/>
       <c r="D40" s="2"/>
       <c r="E40"/>
     </row>
-    <row r="41" s="21" customFormat="1" spans="3:5">
+    <row r="41" s="9" customFormat="1" spans="3:5">
       <c r="C41" s="8"/>
       <c r="D41" s="2"/>
       <c r="E41"/>
     </row>
-    <row r="42" s="21" customFormat="1" spans="3:5">
+    <row r="42" s="9" customFormat="1" spans="3:5">
       <c r="C42" s="8"/>
       <c r="D42" s="2"/>
       <c r="E42"/>
     </row>
-    <row r="43" s="21" customFormat="1" spans="3:5">
+    <row r="43" s="9" customFormat="1" spans="3:5">
       <c r="C43" s="8"/>
       <c r="D43" s="2"/>
       <c r="E43"/>
     </row>
-    <row r="44" s="21" customFormat="1" spans="3:5">
+    <row r="44" s="9" customFormat="1" spans="3:5">
       <c r="C44" s="8"/>
       <c r="D44" s="2"/>
       <c r="E44"/>
     </row>
-    <row r="45" s="21" customFormat="1" spans="3:5">
+    <row r="45" s="9" customFormat="1" spans="3:5">
       <c r="C45" s="8"/>
       <c r="D45" s="2"/>
       <c r="E45"/>
     </row>
-    <row r="46" s="24" customFormat="1" spans="2:5">
-      <c r="B46" s="21"/>
+    <row r="46" s="23" customFormat="1" spans="2:5">
+      <c r="B46" s="9"/>
       <c r="C46" s="8"/>
       <c r="D46" s="2"/>
       <c r="E46"/>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="21"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="8"/>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="21"/>
+      <c r="B48" s="9"/>
       <c r="C48" s="8"/>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="21"/>
+      <c r="B49" s="9"/>
       <c r="C49" s="8"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="21"/>
+      <c r="B50" s="9"/>
       <c r="C50" s="8"/>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="21"/>
+      <c r="B51" s="9"/>
       <c r="C51" s="8"/>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="21"/>
+      <c r="B52" s="9"/>
       <c r="C52" s="8"/>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="21"/>
+      <c r="B53" s="9"/>
       <c r="C53" s="8"/>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="21"/>
+      <c r="B54" s="9"/>
       <c r="C54" s="8"/>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="21"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="8"/>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="21"/>
+      <c r="B56" s="9"/>
       <c r="C56" s="8"/>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="21"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="8"/>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="21"/>
+      <c r="B58" s="9"/>
       <c r="C58" s="8"/>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="21"/>
+      <c r="B59" s="9"/>
       <c r="C59" s="8"/>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="21"/>
+      <c r="B60" s="9"/>
       <c r="C60" s="8"/>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="21"/>
+      <c r="B61" s="9"/>
       <c r="C61" s="8"/>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="21"/>
+      <c r="B62" s="9"/>
       <c r="C62" s="8"/>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="21"/>
+      <c r="B63" s="9"/>
       <c r="C63" s="8"/>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="21"/>
+      <c r="B64" s="9"/>
       <c r="C64" s="7"/>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="21"/>
+      <c r="B65" s="9"/>
       <c r="C65" s="8"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="21"/>
+      <c r="B66" s="9"/>
       <c r="C66" s="8"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="21"/>
+      <c r="B67" s="9"/>
       <c r="C67" s="8"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="21"/>
+      <c r="B68" s="9"/>
       <c r="C68" s="8"/>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="21"/>
+      <c r="B69" s="9"/>
       <c r="C69" s="8"/>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="21"/>
+      <c r="B70" s="9"/>
       <c r="C70" s="8"/>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="21"/>
+      <c r="B71" s="9"/>
       <c r="C71" s="7"/>
     </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="21"/>
+      <c r="B72" s="9"/>
       <c r="C72" s="8"/>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="21"/>
+      <c r="B73" s="9"/>
       <c r="C73" s="8"/>
     </row>
     <row r="74" spans="2:3">
-      <c r="B74" s="21"/>
+      <c r="B74" s="9"/>
       <c r="C74" s="8"/>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="21"/>
+      <c r="B75" s="9"/>
       <c r="C75" s="8"/>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="21"/>
+      <c r="B76" s="9"/>
       <c r="C76" s="8"/>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="21"/>
+      <c r="B77" s="9"/>
       <c r="C77" s="8"/>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="21"/>
+      <c r="B78" s="9"/>
       <c r="C78" s="8"/>
     </row>
     <row r="79" spans="2:3">
-      <c r="B79" s="21"/>
+      <c r="B79" s="9"/>
       <c r="C79" s="8"/>
     </row>
     <row r="80" spans="2:3">
-      <c r="B80" s="21"/>
+      <c r="B80" s="9"/>
       <c r="C80" s="8"/>
     </row>
     <row r="81" spans="2:3">
-      <c r="B81" s="21"/>
+      <c r="B81" s="9"/>
       <c r="C81" s="8"/>
     </row>
     <row r="82" spans="2:3">
-      <c r="B82" s="21"/>
+      <c r="B82" s="9"/>
       <c r="C82" s="8"/>
     </row>
     <row r="83" spans="2:3">
-      <c r="B83" s="21"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="8"/>
     </row>
     <row r="84" spans="2:3">
-      <c r="B84" s="21"/>
+      <c r="B84" s="9"/>
       <c r="C84" s="8"/>
     </row>
     <row r="85" spans="2:3">
-      <c r="B85" s="21"/>
+      <c r="B85" s="9"/>
       <c r="C85" s="8"/>
     </row>
     <row r="86" spans="2:3">
-      <c r="B86" s="21"/>
+      <c r="B86" s="9"/>
       <c r="C86" s="8"/>
     </row>
     <row r="87" spans="2:3">
-      <c r="B87" s="21"/>
+      <c r="B87" s="9"/>
       <c r="C87" s="8"/>
     </row>
     <row r="88" spans="2:3">
-      <c r="B88" s="21"/>
+      <c r="B88" s="9"/>
       <c r="C88" s="8"/>
     </row>
     <row r="89" spans="2:3">
-      <c r="B89" s="21"/>
+      <c r="B89" s="9"/>
       <c r="C89" s="8"/>
     </row>
     <row r="90" spans="2:3">
-      <c r="B90" s="21"/>
+      <c r="B90" s="9"/>
       <c r="C90" s="7"/>
     </row>
     <row r="91" spans="2:3">
-      <c r="B91" s="21"/>
+      <c r="B91" s="9"/>
       <c r="C91" s="7"/>
     </row>
     <row r="92" spans="2:3">
-      <c r="B92" s="21"/>
+      <c r="B92" s="9"/>
       <c r="C92" s="7"/>
     </row>
     <row r="93" spans="2:3">
-      <c r="B93" s="21"/>
+      <c r="B93" s="9"/>
       <c r="C93" s="7"/>
     </row>
     <row r="94" spans="2:3">
-      <c r="B94" s="21"/>
+      <c r="B94" s="9"/>
       <c r="C94" s="7"/>
     </row>
     <row r="95" spans="2:3">
-      <c r="B95" s="21"/>
+      <c r="B95" s="9"/>
       <c r="C95" s="7"/>
     </row>
     <row r="96" spans="2:3">
-      <c r="B96" s="21"/>
+      <c r="B96" s="9"/>
       <c r="C96" s="8"/>
     </row>
     <row r="97" spans="2:3">
-      <c r="B97" s="21"/>
+      <c r="B97" s="9"/>
       <c r="C97" s="7"/>
     </row>
     <row r="98" spans="2:3">
-      <c r="B98" s="21"/>
+      <c r="B98" s="9"/>
       <c r="C98" s="8"/>
     </row>
     <row r="99" spans="2:3">
-      <c r="B99" s="21"/>
+      <c r="B99" s="9"/>
       <c r="C99" s="8"/>
     </row>
     <row r="100" spans="2:3">
-      <c r="B100" s="21"/>
+      <c r="B100" s="9"/>
       <c r="C100" s="8"/>
     </row>
     <row r="101" spans="2:3">
-      <c r="B101" s="21"/>
+      <c r="B101" s="9"/>
       <c r="C101" s="8"/>
     </row>
     <row r="102" spans="2:3">
-      <c r="B102" s="21"/>
+      <c r="B102" s="9"/>
       <c r="C102" s="8"/>
     </row>
     <row r="103" spans="2:3">
-      <c r="B103" s="21"/>
+      <c r="B103" s="9"/>
       <c r="C103" s="8"/>
     </row>
     <row r="104" spans="2:3">
-      <c r="B104" s="21"/>
+      <c r="B104" s="9"/>
       <c r="C104" s="8"/>
     </row>
     <row r="105" spans="2:3">
-      <c r="B105" s="21"/>
+      <c r="B105" s="9"/>
       <c r="C105" s="8"/>
     </row>
     <row r="106" spans="2:3">
-      <c r="B106" s="21"/>
+      <c r="B106" s="9"/>
       <c r="C106" s="8"/>
     </row>
     <row r="107" spans="2:3">
-      <c r="B107" s="21"/>
+      <c r="B107" s="9"/>
       <c r="C107" s="8"/>
     </row>
     <row r="108" spans="2:3">
-      <c r="B108" s="21"/>
+      <c r="B108" s="9"/>
       <c r="C108" s="8"/>
     </row>
     <row r="109" spans="2:3">
-      <c r="B109" s="21"/>
+      <c r="B109" s="9"/>
       <c r="C109" s="8"/>
     </row>
     <row r="110" spans="2:3">
-      <c r="B110" s="21"/>
+      <c r="B110" s="9"/>
       <c r="C110" s="8"/>
     </row>
     <row r="111" spans="2:3">
-      <c r="B111" s="21"/>
+      <c r="B111" s="9"/>
       <c r="C111" s="8"/>
     </row>
     <row r="112" spans="2:3">
-      <c r="B112" s="21"/>
+      <c r="B112" s="9"/>
       <c r="C112" s="8"/>
     </row>
     <row r="113" spans="2:3">
-      <c r="B113" s="21"/>
+      <c r="B113" s="9"/>
       <c r="C113" s="8"/>
     </row>
     <row r="114" spans="2:3">
-      <c r="B114" s="21"/>
+      <c r="B114" s="9"/>
       <c r="C114" s="8"/>
     </row>
     <row r="115" spans="2:3">
-      <c r="B115" s="21"/>
+      <c r="B115" s="9"/>
       <c r="C115" s="8"/>
     </row>
     <row r="116" spans="2:3">
-      <c r="B116" s="21"/>
+      <c r="B116" s="9"/>
       <c r="C116" s="8"/>
     </row>
     <row r="117" spans="2:3">
-      <c r="B117" s="21"/>
+      <c r="B117" s="9"/>
       <c r="C117" s="8"/>
     </row>
     <row r="118" spans="2:3">
-      <c r="B118" s="21"/>
+      <c r="B118" s="9"/>
       <c r="C118" s="8"/>
     </row>
     <row r="119" spans="2:3">
-      <c r="B119" s="21"/>
+      <c r="B119" s="9"/>
       <c r="C119" s="8"/>
     </row>
     <row r="120" spans="2:3">
-      <c r="B120" s="21"/>
+      <c r="B120" s="9"/>
       <c r="C120" s="8"/>
     </row>
     <row r="121" spans="2:3">
-      <c r="B121" s="21"/>
+      <c r="B121" s="9"/>
       <c r="C121" s="8"/>
     </row>
     <row r="122" spans="2:3">
-      <c r="B122" s="21"/>
+      <c r="B122" s="9"/>
       <c r="C122" s="8"/>
     </row>
     <row r="123" spans="2:3">
-      <c r="B123" s="21"/>
+      <c r="B123" s="9"/>
       <c r="C123" s="8"/>
     </row>
     <row r="124" spans="2:3">
-      <c r="B124" s="26"/>
+      <c r="B124" s="25"/>
       <c r="C124" s="8"/>
     </row>
     <row r="125" spans="2:3">
-      <c r="B125" s="26"/>
+      <c r="B125" s="25"/>
       <c r="C125" s="8"/>
     </row>
     <row r="126" spans="2:3">
-      <c r="B126" s="26"/>
+      <c r="B126" s="25"/>
       <c r="C126" s="8"/>
     </row>
     <row r="127" spans="2:3">
-      <c r="B127" s="26"/>
+      <c r="B127" s="25"/>
       <c r="C127" s="8"/>
     </row>
     <row r="128" spans="2:3">
-      <c r="B128" s="26"/>
+      <c r="B128" s="25"/>
       <c r="C128" s="8"/>
     </row>
     <row r="129" spans="2:3">
-      <c r="B129" s="26"/>
+      <c r="B129" s="25"/>
       <c r="C129" s="8"/>
     </row>
     <row r="130" spans="2:3">
-      <c r="B130" s="26"/>
+      <c r="B130" s="25"/>
       <c r="C130" s="8"/>
     </row>
     <row r="131" spans="2:3">
-      <c r="B131" s="26"/>
+      <c r="B131" s="25"/>
       <c r="C131" s="8"/>
     </row>
     <row r="132" spans="2:3">
-      <c r="B132" s="21"/>
+      <c r="B132" s="9"/>
       <c r="C132" s="8"/>
     </row>
     <row r="133" spans="2:3">
-      <c r="B133" s="21"/>
+      <c r="B133" s="9"/>
       <c r="C133" s="8"/>
     </row>
     <row r="134" spans="2:3">
-      <c r="B134" s="21"/>
+      <c r="B134" s="9"/>
       <c r="C134" s="8"/>
     </row>
     <row r="135" spans="2:3">
-      <c r="B135" s="21"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="8"/>
     </row>
     <row r="136" spans="2:3">
-      <c r="B136" s="21"/>
+      <c r="B136" s="9"/>
       <c r="C136" s="8"/>
     </row>
     <row r="137" spans="2:3">
-      <c r="B137" s="21"/>
+      <c r="B137" s="9"/>
       <c r="C137" s="8"/>
     </row>
     <row r="138" spans="2:3">
-      <c r="B138" s="21"/>
+      <c r="B138" s="9"/>
       <c r="C138" s="8"/>
     </row>
     <row r="139" spans="2:3">
-      <c r="B139" s="21"/>
+      <c r="B139" s="9"/>
       <c r="C139" s="8"/>
     </row>
     <row r="140" spans="2:3">
-      <c r="B140" s="21"/>
+      <c r="B140" s="9"/>
       <c r="C140" s="8"/>
     </row>
     <row r="141" spans="2:3">
-      <c r="B141" s="21"/>
+      <c r="B141" s="9"/>
       <c r="C141" s="8"/>
     </row>
     <row r="142" spans="2:3">
-      <c r="B142" s="21"/>
+      <c r="B142" s="9"/>
       <c r="C142" s="8"/>
     </row>
     <row r="143" spans="2:3">
-      <c r="B143" s="21"/>
+      <c r="B143" s="9"/>
       <c r="C143" s="8"/>
     </row>
     <row r="144" spans="2:3">
-      <c r="B144" s="21"/>
+      <c r="B144" s="9"/>
       <c r="C144" s="8"/>
     </row>
     <row r="145" spans="2:3">
-      <c r="B145" s="21"/>
+      <c r="B145" s="9"/>
       <c r="C145" s="8"/>
     </row>
     <row r="146" spans="2:3">
-      <c r="B146" s="21"/>
+      <c r="B146" s="9"/>
       <c r="C146" s="8"/>
     </row>
     <row r="147" spans="2:3">
-      <c r="B147" s="21"/>
+      <c r="B147" s="9"/>
       <c r="C147" s="8"/>
     </row>
     <row r="148" spans="2:3">
-      <c r="B148" s="21"/>
+      <c r="B148" s="9"/>
       <c r="C148" s="8"/>
     </row>
     <row r="149" spans="2:3">
-      <c r="B149" s="21"/>
+      <c r="B149" s="9"/>
       <c r="C149" s="8"/>
     </row>
     <row r="150" spans="2:3">
-      <c r="B150" s="21"/>
+      <c r="B150" s="9"/>
       <c r="C150" s="8"/>
     </row>
     <row r="151" spans="2:3">
-      <c r="B151" s="21"/>
+      <c r="B151" s="9"/>
       <c r="C151" s="8"/>
     </row>
     <row r="152" spans="2:3">
-      <c r="B152" s="21"/>
+      <c r="B152" s="9"/>
       <c r="C152" s="8"/>
     </row>
     <row r="153" spans="2:3">
-      <c r="B153" s="21"/>
+      <c r="B153" s="9"/>
       <c r="C153" s="8"/>
     </row>
     <row r="154" spans="2:3">
-      <c r="B154" s="21"/>
+      <c r="B154" s="9"/>
       <c r="C154" s="8"/>
     </row>
     <row r="155" spans="2:3">
-      <c r="B155" s="21"/>
+      <c r="B155" s="9"/>
       <c r="C155" s="8"/>
     </row>
     <row r="156" spans="2:3">
-      <c r="B156" s="21"/>
+      <c r="B156" s="9"/>
       <c r="C156" s="8"/>
     </row>
     <row r="157" spans="2:3">
-      <c r="B157" s="21"/>
+      <c r="B157" s="9"/>
       <c r="C157" s="8"/>
     </row>
     <row r="158" spans="2:3">
-      <c r="B158" s="21"/>
+      <c r="B158" s="9"/>
       <c r="C158" s="8"/>
     </row>
     <row r="159" spans="2:3">
-      <c r="B159" s="21"/>
+      <c r="B159" s="9"/>
       <c r="C159" s="8"/>
     </row>
     <row r="160" spans="2:3">
-      <c r="B160" s="21"/>
+      <c r="B160" s="9"/>
       <c r="C160" s="8"/>
     </row>
     <row r="161" spans="2:3">
-      <c r="B161" s="21"/>
+      <c r="B161" s="9"/>
       <c r="C161" s="8"/>
     </row>
     <row r="162" spans="2:3">
-      <c r="B162" s="21"/>
+      <c r="B162" s="9"/>
       <c r="C162" s="8"/>
     </row>
     <row r="163" spans="2:3">
-      <c r="B163" s="21"/>
+      <c r="B163" s="9"/>
       <c r="C163" s="8"/>
     </row>
     <row r="164" spans="2:3">
-      <c r="B164" s="21"/>
+      <c r="B164" s="9"/>
       <c r="C164" s="8"/>
     </row>
     <row r="165" spans="2:3">
-      <c r="B165" s="21"/>
+      <c r="B165" s="9"/>
       <c r="C165" s="8"/>
     </row>
     <row r="166" spans="2:3">
-      <c r="B166" s="21"/>
+      <c r="B166" s="9"/>
       <c r="C166" s="8"/>
     </row>
     <row r="167" spans="2:3">
-      <c r="B167" s="21"/>
+      <c r="B167" s="9"/>
       <c r="C167" s="8"/>
     </row>
     <row r="168" spans="2:3">
-      <c r="B168" s="21"/>
+      <c r="B168" s="9"/>
       <c r="C168" s="8"/>
     </row>
     <row r="169" spans="2:3">
-      <c r="B169" s="21"/>
+      <c r="B169" s="9"/>
       <c r="C169" s="8"/>
     </row>
     <row r="170" spans="2:3">
-      <c r="B170" s="21"/>
+      <c r="B170" s="9"/>
       <c r="C170" s="8"/>
     </row>
     <row r="171" spans="2:3">
-      <c r="B171" s="21"/>
+      <c r="B171" s="9"/>
       <c r="C171" s="8"/>
     </row>
     <row r="172" spans="2:3">
-      <c r="B172" s="21"/>
+      <c r="B172" s="9"/>
       <c r="C172" s="8"/>
     </row>
     <row r="173" spans="2:3">
-      <c r="B173" s="21"/>
+      <c r="B173" s="9"/>
       <c r="C173" s="8"/>
     </row>
     <row r="174" spans="2:3">
-      <c r="B174" s="21"/>
+      <c r="B174" s="9"/>
       <c r="C174" s="8"/>
     </row>
     <row r="175" spans="2:3">
-      <c r="B175" s="21"/>
+      <c r="B175" s="9"/>
       <c r="C175" s="8"/>
     </row>
     <row r="176" spans="2:3">
-      <c r="B176" s="21"/>
+      <c r="B176" s="9"/>
       <c r="C176" s="8"/>
     </row>
     <row r="177" spans="2:3">
-      <c r="B177" s="21"/>
+      <c r="B177" s="9"/>
       <c r="C177" s="8"/>
     </row>
     <row r="178" spans="2:3">
-      <c r="B178" s="21"/>
+      <c r="B178" s="9"/>
       <c r="C178" s="7"/>
     </row>
     <row r="179" spans="2:3">
-      <c r="B179" s="21"/>
+      <c r="B179" s="9"/>
       <c r="C179" s="7"/>
     </row>
     <row r="180" spans="2:3">
-      <c r="B180" s="21"/>
+      <c r="B180" s="9"/>
       <c r="C180" s="7"/>
     </row>
     <row r="181" spans="2:3">
-      <c r="B181" s="21"/>
+      <c r="B181" s="9"/>
       <c r="C181" s="7"/>
     </row>
     <row r="182" spans="2:3">
-      <c r="B182" s="21"/>
+      <c r="B182" s="9"/>
       <c r="C182" s="7"/>
     </row>
     <row r="183" spans="2:3">
-      <c r="B183" s="26"/>
+      <c r="B183" s="25"/>
       <c r="C183" s="8"/>
     </row>
     <row r="184" spans="2:3">
-      <c r="B184" s="21"/>
+      <c r="B184" s="9"/>
       <c r="C184" s="7"/>
     </row>
     <row r="185" spans="2:3">
-      <c r="B185" s="21"/>
+      <c r="B185" s="9"/>
       <c r="C185" s="7"/>
     </row>
     <row r="186" spans="2:3">
-      <c r="B186" s="21"/>
+      <c r="B186" s="9"/>
       <c r="C186" s="7"/>
     </row>
     <row r="187" spans="2:3">
-      <c r="B187" s="21"/>
+      <c r="B187" s="9"/>
       <c r="C187" s="7"/>
     </row>
     <row r="188" spans="2:3">
-      <c r="B188" s="21"/>
+      <c r="B188" s="9"/>
       <c r="C188" s="8"/>
     </row>
     <row r="189" spans="2:3">
-      <c r="B189" s="21"/>
+      <c r="B189" s="9"/>
       <c r="C189" s="7"/>
     </row>
     <row r="190" spans="2:3">
-      <c r="B190" s="21"/>
+      <c r="B190" s="9"/>
       <c r="C190" s="8"/>
     </row>
     <row r="191" spans="2:3">
-      <c r="B191" s="21"/>
+      <c r="B191" s="9"/>
       <c r="C191" s="8"/>
     </row>
     <row r="192" spans="2:3">
-      <c r="B192" s="24"/>
+      <c r="B192" s="23"/>
       <c r="C192" s="8"/>
     </row>
     <row r="193" spans="2:3">
-      <c r="B193" s="24"/>
+      <c r="B193" s="23"/>
       <c r="C193" s="8"/>
     </row>
     <row r="194" spans="2:3">
-      <c r="B194" s="24"/>
+      <c r="B194" s="23"/>
       <c r="C194" s="8"/>
     </row>
     <row r="195" spans="2:3">
-      <c r="B195" s="24"/>
+      <c r="B195" s="23"/>
       <c r="C195" s="8"/>
     </row>
     <row r="196" spans="2:3">
-      <c r="B196" s="24"/>
+      <c r="B196" s="23"/>
       <c r="C196" s="8"/>
     </row>
     <row r="197" spans="2:3">
-      <c r="B197" s="24"/>
+      <c r="B197" s="23"/>
       <c r="C197" s="8"/>
     </row>
     <row r="198" spans="2:3">
-      <c r="B198" s="24"/>
+      <c r="B198" s="23"/>
       <c r="C198" s="8"/>
     </row>
     <row r="199" spans="2:3">
-      <c r="B199" s="21"/>
+      <c r="B199" s="9"/>
       <c r="C199" s="8"/>
     </row>
     <row r="200" spans="2:3">
-      <c r="B200" s="21"/>
+      <c r="B200" s="9"/>
       <c r="C200" s="8"/>
     </row>
     <row r="201" spans="2:3">
-      <c r="B201" s="21"/>
+      <c r="B201" s="9"/>
       <c r="C201" s="8"/>
     </row>
     <row r="202" spans="2:3">
-      <c r="B202" s="21"/>
+      <c r="B202" s="9"/>
       <c r="C202" s="8"/>
     </row>
     <row r="203" spans="2:3">
-      <c r="B203" s="21"/>
+      <c r="B203" s="9"/>
       <c r="C203" s="8"/>
     </row>
     <row r="204" spans="2:3">
-      <c r="B204" s="21"/>
+      <c r="B204" s="9"/>
       <c r="C204" s="8"/>
     </row>
     <row r="205" spans="2:3">
-      <c r="B205" s="21"/>
+      <c r="B205" s="9"/>
       <c r="C205" s="8"/>
     </row>
     <row r="206" spans="2:3">
-      <c r="B206" s="21"/>
+      <c r="B206" s="9"/>
       <c r="C206" s="8"/>
     </row>
     <row r="207" spans="2:3">
-      <c r="B207" s="21"/>
+      <c r="B207" s="9"/>
       <c r="C207" s="8"/>
     </row>
     <row r="208" spans="2:3">
-      <c r="B208" s="21"/>
-      <c r="C208" s="22"/>
+      <c r="B208" s="9"/>
+      <c r="C208" s="21"/>
     </row>
     <row r="209" spans="2:3">
-      <c r="B209" s="21"/>
-      <c r="C209" s="22"/>
+      <c r="B209" s="9"/>
+      <c r="C209" s="21"/>
     </row>
     <row r="210" spans="2:3">
-      <c r="B210" s="21"/>
-      <c r="C210" s="22"/>
+      <c r="B210" s="9"/>
+      <c r="C210" s="21"/>
     </row>
     <row r="211" spans="2:3">
-      <c r="B211" s="21"/>
-      <c r="C211" s="22"/>
+      <c r="B211" s="9"/>
+      <c r="C211" s="21"/>
     </row>
     <row r="212" spans="2:3">
-      <c r="B212" s="21"/>
-      <c r="C212" s="22"/>
+      <c r="B212" s="9"/>
+      <c r="C212" s="21"/>
     </row>
     <row r="213" spans="2:3">
-      <c r="B213" s="21"/>
-      <c r="C213" s="22"/>
+      <c r="B213" s="9"/>
+      <c r="C213" s="21"/>
     </row>
     <row r="214" spans="2:3">
-      <c r="B214" s="21"/>
-      <c r="C214" s="22"/>
+      <c r="B214" s="9"/>
+      <c r="C214" s="21"/>
     </row>
     <row r="215" spans="2:3">
-      <c r="B215" s="21"/>
-      <c r="C215" s="22"/>
+      <c r="B215" s="9"/>
+      <c r="C215" s="21"/>
     </row>
     <row r="216" spans="2:3">
-      <c r="B216" s="21"/>
-      <c r="C216" s="22"/>
+      <c r="B216" s="9"/>
+      <c r="C216" s="21"/>
     </row>
     <row r="217" spans="2:3">
-      <c r="B217" s="21"/>
-      <c r="C217" s="22"/>
+      <c r="B217" s="9"/>
+      <c r="C217" s="21"/>
     </row>
     <row r="218" spans="2:3">
-      <c r="B218" s="21"/>
-      <c r="C218" s="22"/>
+      <c r="B218" s="9"/>
+      <c r="C218" s="21"/>
     </row>
     <row r="219" spans="2:3">
-      <c r="B219" s="21"/>
-      <c r="C219" s="22"/>
+      <c r="B219" s="9"/>
+      <c r="C219" s="21"/>
     </row>
     <row r="220" spans="2:3">
-      <c r="B220" s="21"/>
-      <c r="C220" s="22"/>
+      <c r="B220" s="9"/>
+      <c r="C220" s="21"/>
     </row>
     <row r="221" spans="2:3">
-      <c r="B221" s="21"/>
-      <c r="C221" s="22"/>
+      <c r="B221" s="9"/>
+      <c r="C221" s="21"/>
     </row>
     <row r="222" spans="2:3">
-      <c r="B222" s="21"/>
-      <c r="C222" s="22"/>
+      <c r="B222" s="9"/>
+      <c r="C222" s="21"/>
     </row>
     <row r="223" spans="2:3">
-      <c r="B223" s="21"/>
-      <c r="C223" s="22"/>
+      <c r="B223" s="9"/>
+      <c r="C223" s="21"/>
     </row>
     <row r="224" spans="2:3">
-      <c r="B224" s="21"/>
-      <c r="C224" s="22"/>
+      <c r="B224" s="9"/>
+      <c r="C224" s="21"/>
     </row>
     <row r="225" spans="2:3">
-      <c r="B225" s="21"/>
-      <c r="C225" s="22"/>
+      <c r="B225" s="9"/>
+      <c r="C225" s="21"/>
     </row>
     <row r="226" spans="2:3">
-      <c r="B226" s="21"/>
-      <c r="C226" s="22"/>
+      <c r="B226" s="9"/>
+      <c r="C226" s="21"/>
     </row>
     <row r="227" spans="2:3">
-      <c r="B227" s="21"/>
-      <c r="C227" s="22"/>
+      <c r="B227" s="9"/>
+      <c r="C227" s="21"/>
     </row>
     <row r="228" spans="2:3">
-      <c r="B228" s="21"/>
-      <c r="C228" s="21"/>
+      <c r="B228" s="9"/>
+      <c r="C228" s="9"/>
     </row>
     <row r="229" spans="2:3">
-      <c r="B229" s="21"/>
-      <c r="C229" s="21"/>
+      <c r="B229" s="9"/>
+      <c r="C229" s="9"/>
     </row>
     <row r="230" spans="2:3">
-      <c r="B230" s="21"/>
-      <c r="C230" s="21"/>
+      <c r="B230" s="9"/>
+      <c r="C230" s="9"/>
     </row>
     <row r="231" spans="2:3">
-      <c r="B231" s="21"/>
-      <c r="C231" s="21"/>
+      <c r="B231" s="9"/>
+      <c r="C231" s="9"/>
     </row>
     <row r="232" spans="2:3">
-      <c r="B232" s="21"/>
-      <c r="C232" s="21"/>
+      <c r="B232" s="9"/>
+      <c r="C232" s="9"/>
     </row>
     <row r="233" spans="2:3">
-      <c r="B233" s="21"/>
-      <c r="C233" s="21"/>
+      <c r="B233" s="9"/>
+      <c r="C233" s="9"/>
     </row>
     <row r="234" spans="2:3">
-      <c r="B234" s="21"/>
-      <c r="C234" s="21"/>
+      <c r="B234" s="9"/>
+      <c r="C234" s="9"/>
     </row>
     <row r="235" spans="2:3">
-      <c r="B235" s="21"/>
-      <c r="C235" s="21"/>
+      <c r="B235" s="9"/>
+      <c r="C235" s="9"/>
     </row>
     <row r="236" spans="2:3">
-      <c r="B236" s="21"/>
-      <c r="C236" s="21"/>
+      <c r="B236" s="9"/>
+      <c r="C236" s="9"/>
     </row>
     <row r="237" spans="2:3">
-      <c r="B237" s="21"/>
-      <c r="C237" s="21"/>
+      <c r="B237" s="9"/>
+      <c r="C237" s="9"/>
     </row>
     <row r="238" spans="2:3">
-      <c r="B238" s="21"/>
-      <c r="C238" s="21"/>
+      <c r="B238" s="9"/>
+      <c r="C238" s="9"/>
     </row>
     <row r="239" spans="2:3">
-      <c r="B239" s="21"/>
-      <c r="C239" s="21"/>
+      <c r="B239" s="9"/>
+      <c r="C239" s="9"/>
     </row>
     <row r="240" spans="2:3">
-      <c r="B240" s="21"/>
-      <c r="C240" s="21"/>
+      <c r="B240" s="9"/>
+      <c r="C240" s="9"/>
     </row>
     <row r="241" spans="2:3">
-      <c r="B241" s="21"/>
-      <c r="C241" s="21"/>
+      <c r="B241" s="9"/>
+      <c r="C241" s="9"/>
     </row>
     <row r="242" spans="2:3">
-      <c r="B242" s="21"/>
-      <c r="C242" s="21"/>
+      <c r="B242" s="9"/>
+      <c r="C242" s="9"/>
     </row>
     <row r="243" spans="2:3">
-      <c r="B243" s="21"/>
+      <c r="B243" s="9"/>
       <c r="C243" s="8"/>
     </row>
     <row r="244" spans="2:3">
-      <c r="B244" s="21"/>
+      <c r="B244" s="9"/>
       <c r="C244" s="8"/>
     </row>
     <row r="245" spans="2:3">
-      <c r="B245" s="21"/>
+      <c r="B245" s="9"/>
       <c r="C245" s="8"/>
     </row>
     <row r="246" spans="2:3">
-      <c r="B246" s="21"/>
+      <c r="B246" s="9"/>
       <c r="C246" s="8"/>
     </row>
     <row r="247" spans="2:3">
-      <c r="B247" s="21"/>
+      <c r="B247" s="9"/>
       <c r="C247" s="8"/>
     </row>
     <row r="248" spans="2:3">
-      <c r="B248" s="21"/>
+      <c r="B248" s="9"/>
       <c r="C248" s="8"/>
     </row>
     <row r="249" spans="2:3">
-      <c r="B249" s="21"/>
+      <c r="B249" s="9"/>
       <c r="C249" s="8"/>
     </row>
     <row r="250" spans="2:3">
-      <c r="B250" s="21"/>
+      <c r="B250" s="9"/>
       <c r="C250" s="8"/>
     </row>
     <row r="251" spans="2:3">
-      <c r="B251" s="21"/>
+      <c r="B251" s="9"/>
       <c r="C251" s="8"/>
     </row>
     <row r="252" spans="2:3">
-      <c r="B252" s="21"/>
+      <c r="B252" s="9"/>
       <c r="C252" s="8"/>
     </row>
     <row r="253" spans="2:3">
-      <c r="B253" s="21"/>
+      <c r="B253" s="9"/>
       <c r="C253" s="8"/>
     </row>
     <row r="254" spans="2:3">
-      <c r="B254" s="21"/>
+      <c r="B254" s="9"/>
       <c r="C254" s="8"/>
     </row>
     <row r="255" spans="2:3">
-      <c r="B255" s="21"/>
+      <c r="B255" s="9"/>
       <c r="C255" s="8"/>
     </row>
     <row r="256" spans="2:3">
-      <c r="B256" s="21"/>
+      <c r="B256" s="9"/>
       <c r="C256" s="8"/>
     </row>
     <row r="257" spans="2:3">
-      <c r="B257" s="21"/>
+      <c r="B257" s="9"/>
       <c r="C257" s="8"/>
     </row>
     <row r="258" spans="2:3">
-      <c r="B258" s="21"/>
+      <c r="B258" s="9"/>
       <c r="C258" s="8"/>
     </row>
     <row r="259" spans="2:3">
-      <c r="B259" s="21"/>
+      <c r="B259" s="9"/>
       <c r="C259" s="8"/>
     </row>
     <row r="260" spans="2:3">
-      <c r="B260" s="21"/>
+      <c r="B260" s="9"/>
       <c r="C260" s="8"/>
     </row>
     <row r="261" spans="2:3">
-      <c r="B261" s="21"/>
+      <c r="B261" s="9"/>
       <c r="C261" s="8"/>
     </row>
     <row r="262" spans="2:3">
-      <c r="B262" s="21"/>
+      <c r="B262" s="9"/>
       <c r="C262" s="8"/>
     </row>
     <row r="263" spans="2:3">
-      <c r="B263" s="21"/>
+      <c r="B263" s="9"/>
       <c r="C263" s="8"/>
     </row>
     <row r="264" spans="2:3">
-      <c r="B264" s="21"/>
+      <c r="B264" s="9"/>
       <c r="C264" s="8"/>
     </row>
     <row r="265" spans="2:3">
-      <c r="B265" s="21"/>
+      <c r="B265" s="9"/>
       <c r="C265" s="8"/>
     </row>
     <row r="266" spans="2:3">
-      <c r="B266" s="21"/>
+      <c r="B266" s="9"/>
       <c r="C266" s="8"/>
     </row>
     <row r="267" spans="2:3">
-      <c r="B267" s="21"/>
+      <c r="B267" s="9"/>
       <c r="C267" s="8"/>
     </row>
     <row r="268" spans="2:3">
-      <c r="B268" s="21"/>
-      <c r="C268" s="22"/>
+      <c r="B268" s="9"/>
+      <c r="C268" s="21"/>
     </row>
     <row r="269" spans="2:3">
-      <c r="B269" s="21"/>
-      <c r="C269" s="22"/>
+      <c r="B269" s="9"/>
+      <c r="C269" s="21"/>
     </row>
     <row r="270" spans="2:3">
-      <c r="B270" s="21"/>
+      <c r="B270" s="9"/>
       <c r="C270" s="8"/>
     </row>
     <row r="271" spans="2:3">
-      <c r="B271" s="21"/>
+      <c r="B271" s="9"/>
       <c r="C271" s="8"/>
     </row>
     <row r="272" spans="2:3">
-      <c r="B272" s="21"/>
+      <c r="B272" s="9"/>
       <c r="C272" s="8"/>
     </row>
     <row r="273" spans="2:3">
-      <c r="B273" s="21"/>
+      <c r="B273" s="9"/>
       <c r="C273" s="8"/>
     </row>
     <row r="274" spans="2:3">
-      <c r="B274" s="21"/>
+      <c r="B274" s="9"/>
       <c r="C274" s="8"/>
     </row>
     <row r="275" spans="2:3">
-      <c r="B275" s="21"/>
+      <c r="B275" s="9"/>
       <c r="C275" s="8"/>
     </row>
     <row r="276" spans="2:3">
-      <c r="B276" s="21"/>
+      <c r="B276" s="9"/>
       <c r="C276" s="8"/>
     </row>
     <row r="277" spans="2:3">
-      <c r="B277" s="21"/>
+      <c r="B277" s="9"/>
       <c r="C277" s="8"/>
     </row>
     <row r="278" spans="2:3">
-      <c r="B278" s="21"/>
+      <c r="B278" s="9"/>
       <c r="C278" s="8"/>
     </row>
     <row r="279" spans="2:3">
-      <c r="B279" s="21"/>
+      <c r="B279" s="9"/>
       <c r="C279" s="8"/>
     </row>
     <row r="280" spans="2:3">
-      <c r="B280" s="21"/>
+      <c r="B280" s="9"/>
       <c r="C280" s="8"/>
     </row>
     <row r="281" spans="2:3">
-      <c r="B281" s="21"/>
+      <c r="B281" s="9"/>
       <c r="C281" s="8"/>
     </row>
     <row r="282" spans="2:3">
-      <c r="B282" s="21"/>
+      <c r="B282" s="9"/>
       <c r="C282" s="7"/>
     </row>
     <row r="283" spans="2:3">
-      <c r="B283" s="21"/>
+      <c r="B283" s="9"/>
       <c r="C283" s="7"/>
     </row>
     <row r="284" spans="2:3">
-      <c r="B284" s="21"/>
+      <c r="B284" s="9"/>
       <c r="C284" s="7"/>
     </row>
     <row r="285" spans="2:3">
-      <c r="B285" s="21"/>
+      <c r="B285" s="9"/>
       <c r="C285" s="7"/>
     </row>
     <row r="286" spans="2:3">
-      <c r="B286" s="21"/>
+      <c r="B286" s="9"/>
       <c r="C286" s="7"/>
     </row>
     <row r="287" spans="2:3">
-      <c r="B287" s="21"/>
+      <c r="B287" s="9"/>
       <c r="C287" s="7"/>
     </row>
     <row r="288" spans="2:3">
-      <c r="B288" s="21"/>
+      <c r="B288" s="9"/>
       <c r="C288" s="7"/>
     </row>
     <row r="289" spans="2:3">
-      <c r="B289" s="21"/>
+      <c r="B289" s="9"/>
       <c r="C289" s="7"/>
     </row>
     <row r="290" spans="2:3">
-      <c r="B290" s="21"/>
+      <c r="B290" s="9"/>
       <c r="C290" s="7"/>
     </row>
     <row r="291" spans="2:3">
-      <c r="B291" s="21"/>
+      <c r="B291" s="9"/>
       <c r="C291" s="7"/>
     </row>
     <row r="292" spans="2:3">
-      <c r="B292" s="21"/>
+      <c r="B292" s="9"/>
       <c r="C292" s="7"/>
     </row>
     <row r="293" spans="2:3">
-      <c r="B293" s="21"/>
+      <c r="B293" s="9"/>
       <c r="C293" s="7"/>
     </row>
     <row r="294" spans="2:3">
-      <c r="B294" s="21"/>
+      <c r="B294" s="9"/>
       <c r="C294" s="7"/>
     </row>
     <row r="295" spans="2:3">
-      <c r="B295" s="21"/>
+      <c r="B295" s="9"/>
       <c r="C295" s="7"/>
     </row>
     <row r="296" spans="2:3">
-      <c r="B296" s="21"/>
+      <c r="B296" s="9"/>
       <c r="C296" s="7"/>
     </row>
     <row r="297" spans="2:3">
-      <c r="B297" s="21"/>
+      <c r="B297" s="9"/>
       <c r="C297" s="8"/>
     </row>
     <row r="298" spans="2:3">
-      <c r="B298" s="21"/>
+      <c r="B298" s="9"/>
       <c r="C298" s="8"/>
     </row>
     <row r="299" spans="2:3">
-      <c r="B299" s="21"/>
+      <c r="B299" s="9"/>
       <c r="C299" s="8"/>
     </row>
     <row r="300" spans="2:3">
-      <c r="B300" s="21"/>
+      <c r="B300" s="9"/>
       <c r="C300" s="8"/>
     </row>
     <row r="301" spans="2:3">
-      <c r="B301" s="21"/>
+      <c r="B301" s="9"/>
       <c r="C301" s="8"/>
     </row>
     <row r="302" spans="2:3">
-      <c r="B302" s="21"/>
+      <c r="B302" s="9"/>
       <c r="C302" s="7"/>
     </row>
     <row r="303" spans="2:3">
-      <c r="B303" s="21"/>
+      <c r="B303" s="9"/>
       <c r="C303" s="7"/>
     </row>
     <row r="304" spans="2:3">
-      <c r="B304" s="21"/>
+      <c r="B304" s="9"/>
       <c r="C304" s="7"/>
     </row>
     <row r="305" spans="2:3">
-      <c r="B305" s="21"/>
+      <c r="B305" s="9"/>
       <c r="C305" s="7"/>
     </row>
     <row r="306" spans="2:3">
-      <c r="B306" s="21"/>
+      <c r="B306" s="9"/>
       <c r="C306" s="7"/>
     </row>
     <row r="307" spans="2:3">
-      <c r="B307" s="21"/>
+      <c r="B307" s="9"/>
       <c r="C307" s="8"/>
     </row>
     <row r="308" spans="2:3">
-      <c r="B308" s="21"/>
+      <c r="B308" s="9"/>
       <c r="C308" s="8"/>
     </row>
     <row r="309" spans="2:3">
-      <c r="B309" s="21"/>
+      <c r="B309" s="9"/>
       <c r="C309" s="8"/>
     </row>
     <row r="310" spans="2:3">
-      <c r="B310" s="21"/>
+      <c r="B310" s="9"/>
       <c r="C310" s="8"/>
     </row>
     <row r="311" spans="2:3">
-      <c r="B311" s="21"/>
+      <c r="B311" s="9"/>
       <c r="C311" s="8"/>
     </row>
     <row r="312" spans="2:3">
-      <c r="B312" s="21"/>
+      <c r="B312" s="9"/>
       <c r="C312" s="8"/>
     </row>
     <row r="313" spans="2:3">
-      <c r="B313" s="21"/>
+      <c r="B313" s="9"/>
       <c r="C313" s="7"/>
     </row>
     <row r="314" spans="2:3">
-      <c r="B314" s="21"/>
+      <c r="B314" s="9"/>
       <c r="C314" s="7"/>
     </row>
     <row r="315" spans="2:3">
-      <c r="B315" s="21"/>
+      <c r="B315" s="9"/>
       <c r="C315" s="7"/>
     </row>
     <row r="316" spans="2:3">
-      <c r="B316" s="21"/>
+      <c r="B316" s="9"/>
       <c r="C316" s="7"/>
     </row>
     <row r="317" spans="2:3">
-      <c r="B317" s="21"/>
+      <c r="B317" s="9"/>
       <c r="C317" s="7"/>
     </row>
     <row r="318" spans="2:3">
-      <c r="B318" s="21"/>
+      <c r="B318" s="9"/>
       <c r="C318" s="7"/>
     </row>
     <row r="319" spans="2:3">
-      <c r="B319" s="21"/>
+      <c r="B319" s="9"/>
       <c r="C319" s="7"/>
     </row>
     <row r="320" spans="2:3">
-      <c r="B320" s="21"/>
+      <c r="B320" s="9"/>
       <c r="C320" s="8"/>
     </row>
     <row r="321" spans="2:3">
-      <c r="B321" s="21"/>
+      <c r="B321" s="9"/>
       <c r="C321" s="8"/>
     </row>
     <row r="322" spans="2:3">
-      <c r="B322" s="21"/>
+      <c r="B322" s="9"/>
       <c r="C322" s="8"/>
     </row>
     <row r="323" spans="2:3">
-      <c r="B323" s="21"/>
+      <c r="B323" s="9"/>
       <c r="C323" s="7"/>
     </row>
     <row r="324" spans="2:3">
-      <c r="B324" s="21"/>
+      <c r="B324" s="9"/>
       <c r="C324" s="7"/>
     </row>
     <row r="325" spans="2:3">
-      <c r="B325" s="21"/>
+      <c r="B325" s="9"/>
       <c r="C325" s="7"/>
     </row>
     <row r="326" spans="2:3">
-      <c r="B326" s="21"/>
+      <c r="B326" s="9"/>
       <c r="C326" s="7"/>
     </row>
     <row r="327" spans="2:3">
-      <c r="B327" s="21"/>
+      <c r="B327" s="9"/>
       <c r="C327" s="7"/>
     </row>
     <row r="328" spans="2:3">
-      <c r="B328" s="21"/>
+      <c r="B328" s="9"/>
       <c r="C328" s="8"/>
     </row>
     <row r="329" spans="2:3">
-      <c r="B329" s="21"/>
+      <c r="B329" s="9"/>
       <c r="C329" s="8"/>
     </row>
     <row r="330" spans="2:3">
-      <c r="B330" s="21"/>
+      <c r="B330" s="9"/>
       <c r="C330" s="8"/>
     </row>
     <row r="331" spans="2:3">
-      <c r="B331" s="21"/>
+      <c r="B331" s="9"/>
       <c r="C331" s="8"/>
     </row>
     <row r="332" spans="2:3">
-      <c r="B332" s="21"/>
+      <c r="B332" s="9"/>
       <c r="C332" s="8"/>
     </row>
     <row r="333" spans="2:3">
-      <c r="B333" s="21"/>
+      <c r="B333" s="9"/>
       <c r="C333" s="8"/>
     </row>
     <row r="334" spans="2:3">
-      <c r="B334" s="21"/>
+      <c r="B334" s="9"/>
       <c r="C334" s="8"/>
     </row>
     <row r="335" spans="2:3">
-      <c r="B335" s="21"/>
+      <c r="B335" s="9"/>
       <c r="C335" s="8"/>
     </row>
     <row r="336" spans="2:3">
-      <c r="B336" s="21"/>
+      <c r="B336" s="9"/>
       <c r="C336" s="8"/>
     </row>
     <row r="337" spans="2:3">
-      <c r="B337" s="21"/>
+      <c r="B337" s="9"/>
       <c r="C337" s="8"/>
     </row>
     <row r="338" spans="2:3">
-      <c r="B338" s="21"/>
+      <c r="B338" s="9"/>
       <c r="C338" s="8"/>
     </row>
     <row r="339" spans="2:3">
-      <c r="B339" s="21"/>
+      <c r="B339" s="9"/>
       <c r="C339" s="8"/>
     </row>
     <row r="340" spans="2:3">
-      <c r="B340" s="21"/>
+      <c r="B340" s="9"/>
       <c r="C340" s="8"/>
     </row>
     <row r="341" spans="2:3">
-      <c r="B341" s="21"/>
+      <c r="B341" s="9"/>
       <c r="C341" s="8"/>
     </row>
     <row r="342" spans="2:3">
-      <c r="B342" s="21"/>
+      <c r="B342" s="9"/>
       <c r="C342" s="8"/>
     </row>
     <row r="343" spans="2:3">
-      <c r="B343" s="21"/>
+      <c r="B343" s="9"/>
       <c r="C343" s="8"/>
     </row>
     <row r="344" spans="2:3">
-      <c r="B344" s="21"/>
+      <c r="B344" s="9"/>
       <c r="C344" s="8"/>
     </row>
     <row r="345" spans="2:3">
-      <c r="B345" s="21"/>
+      <c r="B345" s="9"/>
       <c r="C345" s="8"/>
     </row>
     <row r="346" spans="2:3">
-      <c r="B346" s="21"/>
+      <c r="B346" s="9"/>
       <c r="C346" s="8"/>
     </row>
     <row r="347" spans="2:3">
-      <c r="B347" s="21"/>
+      <c r="B347" s="9"/>
       <c r="C347" s="8"/>
     </row>
     <row r="348" spans="2:3">
-      <c r="B348" s="21"/>
+      <c r="B348" s="9"/>
       <c r="C348" s="8"/>
     </row>
     <row r="349" spans="2:3">
-      <c r="B349" s="21"/>
+      <c r="B349" s="9"/>
       <c r="C349" s="8"/>
     </row>
     <row r="350" spans="2:3">
-      <c r="B350" s="21"/>
+      <c r="B350" s="9"/>
       <c r="C350" s="8"/>
     </row>
     <row r="351" spans="2:3">
-      <c r="B351" s="21"/>
+      <c r="B351" s="9"/>
       <c r="C351" s="8"/>
     </row>
     <row r="352" spans="2:3">
-      <c r="B352" s="21"/>
+      <c r="B352" s="9"/>
       <c r="C352" s="8"/>
     </row>
     <row r="353" spans="2:3">
-      <c r="B353" s="21"/>
+      <c r="B353" s="9"/>
       <c r="C353" s="8"/>
     </row>
     <row r="354" spans="2:3">
-      <c r="B354" s="21"/>
+      <c r="B354" s="9"/>
       <c r="C354" s="8"/>
     </row>
     <row r="355" spans="2:3">
-      <c r="B355" s="21"/>
+      <c r="B355" s="9"/>
       <c r="C355" s="8"/>
     </row>
     <row r="356" spans="2:3">
-      <c r="B356" s="21"/>
+      <c r="B356" s="9"/>
       <c r="C356" s="8"/>
     </row>
     <row r="357" spans="2:3">
-      <c r="B357" s="21"/>
+      <c r="B357" s="9"/>
       <c r="C357" s="8"/>
     </row>
     <row r="358" spans="2:3">
-      <c r="B358" s="21"/>
+      <c r="B358" s="9"/>
       <c r="C358" s="8"/>
     </row>
     <row r="359" spans="2:3">
-      <c r="B359" s="21"/>
+      <c r="B359" s="9"/>
       <c r="C359" s="8"/>
     </row>
     <row r="360" spans="2:3">
-      <c r="B360" s="21"/>
+      <c r="B360" s="9"/>
       <c r="C360" s="8"/>
     </row>
     <row r="361" spans="2:3">
-      <c r="B361" s="21"/>
+      <c r="B361" s="9"/>
       <c r="C361" s="8"/>
     </row>
     <row r="362" spans="2:3">
-      <c r="B362" s="21"/>
+      <c r="B362" s="9"/>
       <c r="C362" s="8"/>
     </row>
     <row r="363" spans="2:3">
-      <c r="B363" s="21"/>
+      <c r="B363" s="9"/>
       <c r="C363" s="8"/>
     </row>
     <row r="364" spans="2:3">
-      <c r="B364" s="21"/>
+      <c r="B364" s="9"/>
       <c r="C364" s="8"/>
     </row>
     <row r="365" spans="2:3">
-      <c r="B365" s="21"/>
+      <c r="B365" s="9"/>
       <c r="C365" s="8"/>
     </row>
     <row r="366" spans="2:3">
-      <c r="B366" s="21"/>
+      <c r="B366" s="9"/>
       <c r="C366" s="8"/>
     </row>
     <row r="367" spans="2:3">
-      <c r="B367" s="21"/>
+      <c r="B367" s="9"/>
       <c r="C367" s="8"/>
     </row>
     <row r="368" spans="2:3">
-      <c r="B368" s="21"/>
+      <c r="B368" s="9"/>
       <c r="C368" s="8"/>
     </row>
     <row r="369" spans="2:3">
-      <c r="B369" s="21"/>
+      <c r="B369" s="9"/>
       <c r="C369" s="8"/>
     </row>
     <row r="370" spans="2:3">
-      <c r="B370" s="21"/>
+      <c r="B370" s="9"/>
       <c r="C370" s="8"/>
     </row>
     <row r="371" spans="2:3">
-      <c r="B371" s="21"/>
+      <c r="B371" s="9"/>
       <c r="C371" s="8"/>
     </row>
     <row r="372" spans="2:3">
-      <c r="B372" s="21"/>
+      <c r="B372" s="9"/>
       <c r="C372" s="8"/>
     </row>
     <row r="373" spans="2:3">
-      <c r="B373" s="21"/>
+      <c r="B373" s="9"/>
       <c r="C373" s="8"/>
     </row>
     <row r="374" spans="2:3">
-      <c r="B374" s="21"/>
+      <c r="B374" s="9"/>
       <c r="C374" s="8"/>
     </row>
     <row r="375" spans="2:3">
-      <c r="B375" s="21"/>
+      <c r="B375" s="9"/>
       <c r="C375" s="8"/>
     </row>
     <row r="376" spans="2:3">
-      <c r="B376" s="21"/>
+      <c r="B376" s="9"/>
       <c r="C376" s="8"/>
     </row>
     <row r="377" spans="2:3">
-      <c r="B377" s="21"/>
+      <c r="B377" s="9"/>
       <c r="C377" s="8"/>
     </row>
     <row r="378" spans="2:3">
-      <c r="B378" s="21"/>
+      <c r="B378" s="9"/>
       <c r="C378" s="8"/>
     </row>
     <row r="379" spans="2:3">
-      <c r="B379" s="21"/>
+      <c r="B379" s="9"/>
       <c r="C379" s="8"/>
     </row>
     <row r="380" spans="2:3">
-      <c r="B380" s="21"/>
+      <c r="B380" s="9"/>
       <c r="C380" s="8"/>
     </row>
     <row r="381" spans="2:3">
-      <c r="B381" s="21"/>
+      <c r="B381" s="9"/>
       <c r="C381" s="8"/>
     </row>
     <row r="382" spans="2:3">
-      <c r="B382" s="21"/>
+      <c r="B382" s="9"/>
       <c r="C382" s="8"/>
     </row>
     <row r="383" spans="2:3">
-      <c r="B383" s="21"/>
+      <c r="B383" s="9"/>
       <c r="C383" s="8"/>
     </row>
     <row r="384" spans="2:3">
-      <c r="B384" s="21"/>
+      <c r="B384" s="9"/>
       <c r="C384" s="8"/>
     </row>
     <row r="385" spans="2:3">
-      <c r="B385" s="21"/>
+      <c r="B385" s="9"/>
       <c r="C385" s="8"/>
     </row>
     <row r="386" spans="2:3">
-      <c r="B386" s="21"/>
+      <c r="B386" s="9"/>
       <c r="C386" s="8"/>
     </row>
     <row r="387" spans="2:3">
-      <c r="B387" s="21"/>
+      <c r="B387" s="9"/>
       <c r="C387" s="8"/>
     </row>
     <row r="388" spans="2:3">
-      <c r="B388" s="21"/>
+      <c r="B388" s="9"/>
       <c r="C388" s="7"/>
     </row>
     <row r="389" spans="2:3">
-      <c r="B389" s="21"/>
+      <c r="B389" s="9"/>
       <c r="C389" s="7"/>
     </row>
     <row r="390" spans="2:3">
-      <c r="B390" s="21"/>
+      <c r="B390" s="9"/>
       <c r="C390" s="7"/>
     </row>
     <row r="391" spans="2:3">
-      <c r="B391" s="21"/>
+      <c r="B391" s="9"/>
       <c r="C391" s="7"/>
     </row>
     <row r="392" spans="2:3">
-      <c r="B392" s="21"/>
+      <c r="B392" s="9"/>
       <c r="C392" s="7"/>
     </row>
     <row r="393" spans="2:3">
-      <c r="B393" s="26"/>
+      <c r="B393" s="25"/>
       <c r="C393" s="7"/>
     </row>
     <row r="394" spans="2:3">
-      <c r="B394" s="21"/>
+      <c r="B394" s="9"/>
       <c r="C394" s="7"/>
     </row>
     <row r="395" spans="2:3">
-      <c r="B395" s="21"/>
+      <c r="B395" s="9"/>
       <c r="C395" s="7"/>
     </row>
     <row r="396" spans="2:3">
-      <c r="B396" s="21"/>
+      <c r="B396" s="9"/>
       <c r="C396" s="7"/>
     </row>
     <row r="397" spans="2:3">
-      <c r="B397" s="21"/>
+      <c r="B397" s="9"/>
       <c r="C397" s="7"/>
     </row>
     <row r="398" spans="2:3">
-      <c r="B398" s="21"/>
+      <c r="B398" s="9"/>
       <c r="C398" s="7"/>
     </row>
     <row r="399" spans="2:3">
-      <c r="B399" s="21"/>
+      <c r="B399" s="9"/>
       <c r="C399" s="7"/>
     </row>
     <row r="400" spans="2:3">
-      <c r="B400" s="21"/>
+      <c r="B400" s="9"/>
       <c r="C400" s="7"/>
     </row>
     <row r="401" spans="2:3">
-      <c r="B401" s="21"/>
+      <c r="B401" s="9"/>
       <c r="C401" s="7"/>
     </row>
     <row r="402" spans="2:3">
-      <c r="B402" s="21"/>
+      <c r="B402" s="9"/>
       <c r="C402" s="7"/>
     </row>
     <row r="403" spans="2:3">
-      <c r="B403" s="21"/>
+      <c r="B403" s="9"/>
       <c r="C403" s="8"/>
     </row>
     <row r="404" spans="2:3">
-      <c r="B404" s="21"/>
+      <c r="B404" s="9"/>
       <c r="C404" s="8"/>
     </row>
     <row r="405" spans="2:3">
-      <c r="B405" s="21"/>
+      <c r="B405" s="9"/>
       <c r="C405" s="8"/>
     </row>
     <row r="406" spans="2:3">
-      <c r="B406" s="21"/>
+      <c r="B406" s="9"/>
       <c r="C406" s="8"/>
     </row>
     <row r="407" spans="2:3">
-      <c r="B407" s="21"/>
+      <c r="B407" s="9"/>
       <c r="C407" s="8"/>
     </row>
     <row r="408" spans="2:3">
-      <c r="B408" s="21"/>
+      <c r="B408" s="9"/>
       <c r="C408" s="8"/>
     </row>
     <row r="409" spans="2:3">
-      <c r="B409" s="21"/>
+      <c r="B409" s="9"/>
       <c r="C409" s="8"/>
     </row>
     <row r="410" spans="2:3">
-      <c r="B410" s="21"/>
+      <c r="B410" s="9"/>
       <c r="C410" s="8"/>
     </row>
     <row r="411" spans="2:3">
-      <c r="B411" s="21"/>
+      <c r="B411" s="9"/>
       <c r="C411" s="8"/>
     </row>
     <row r="412" spans="2:3">
-      <c r="B412" s="21"/>
+      <c r="B412" s="9"/>
       <c r="C412" s="8"/>
     </row>
     <row r="413" spans="2:3">
-      <c r="B413" s="21"/>
+      <c r="B413" s="9"/>
       <c r="C413" s="8"/>
     </row>
     <row r="414" spans="2:3">
-      <c r="B414" s="21"/>
+      <c r="B414" s="9"/>
       <c r="C414" s="8"/>
     </row>
     <row r="415" spans="2:3">
-      <c r="B415" s="21"/>
+      <c r="B415" s="9"/>
       <c r="C415" s="8"/>
     </row>
     <row r="416" spans="2:3">
-      <c r="B416" s="21"/>
+      <c r="B416" s="9"/>
       <c r="C416" s="8"/>
     </row>
     <row r="417" spans="2:3">
-      <c r="B417" s="21"/>
+      <c r="B417" s="9"/>
       <c r="C417" s="8"/>
     </row>
     <row r="418" spans="2:3">
-      <c r="B418" s="21"/>
+      <c r="B418" s="9"/>
       <c r="C418" s="8"/>
     </row>
     <row r="419" spans="2:3">
-      <c r="B419" s="21"/>
+      <c r="B419" s="9"/>
       <c r="C419" s="7"/>
     </row>
     <row r="420" spans="2:3">
-      <c r="B420" s="21"/>
+      <c r="B420" s="9"/>
       <c r="C420" s="7"/>
     </row>
     <row r="421" spans="2:3">
-      <c r="B421" s="21"/>
+      <c r="B421" s="9"/>
       <c r="C421" s="7"/>
     </row>
     <row r="422" spans="2:3">
-      <c r="B422" s="21"/>
+      <c r="B422" s="9"/>
       <c r="C422" s="7"/>
     </row>
     <row r="423" spans="2:3">
-      <c r="B423" s="21"/>
+      <c r="B423" s="9"/>
       <c r="C423" s="7"/>
     </row>
     <row r="424" spans="2:3">
-      <c r="B424" s="21"/>
+      <c r="B424" s="9"/>
       <c r="C424" s="7"/>
     </row>
     <row r="425" spans="2:3">
-      <c r="B425" s="21"/>
+      <c r="B425" s="9"/>
       <c r="C425" s="7"/>
     </row>
     <row r="426" spans="2:3">
-      <c r="B426" s="21"/>
+      <c r="B426" s="9"/>
       <c r="C426" s="7"/>
     </row>
     <row r="427" spans="2:3">
-      <c r="B427" s="21"/>
+      <c r="B427" s="9"/>
       <c r="C427" s="7"/>
     </row>
     <row r="428" spans="2:3">
-      <c r="B428" s="21"/>
+      <c r="B428" s="9"/>
       <c r="C428" s="7"/>
     </row>
     <row r="429" spans="2:3">
-      <c r="B429" s="21"/>
+      <c r="B429" s="9"/>
       <c r="C429" s="7"/>
     </row>
     <row r="430" spans="2:3">
-      <c r="B430" s="21"/>
-      <c r="C430" s="27"/>
+      <c r="B430" s="9"/>
+      <c r="C430" s="26"/>
     </row>
     <row r="431" spans="2:3">
-      <c r="B431" s="21"/>
-      <c r="C431" s="23"/>
+      <c r="B431" s="9"/>
+      <c r="C431" s="22"/>
     </row>
     <row r="432" spans="2:3">
-      <c r="B432" s="21"/>
-      <c r="C432" s="23"/>
+      <c r="B432" s="9"/>
+      <c r="C432" s="22"/>
     </row>
     <row r="433" spans="2:3">
-      <c r="B433" s="21"/>
-      <c r="C433" s="23"/>
+      <c r="B433" s="9"/>
+      <c r="C433" s="22"/>
     </row>
     <row r="434" spans="2:3">
-      <c r="B434" s="21"/>
-      <c r="C434" s="23"/>
+      <c r="B434" s="9"/>
+      <c r="C434" s="22"/>
     </row>
     <row r="435" spans="2:3">
-      <c r="B435" s="21"/>
-      <c r="C435" s="27"/>
+      <c r="B435" s="9"/>
+      <c r="C435" s="26"/>
     </row>
     <row r="436" spans="2:3">
-      <c r="B436" s="21"/>
+      <c r="B436" s="9"/>
       <c r="C436" s="13"/>
     </row>
     <row r="437" spans="2:3">
-      <c r="B437" s="21"/>
+      <c r="B437" s="9"/>
       <c r="C437" s="13"/>
     </row>
     <row r="438" spans="2:3">
-      <c r="B438" s="21"/>
+      <c r="B438" s="9"/>
       <c r="C438" s="13"/>
     </row>
     <row r="439" spans="2:3">
-      <c r="B439" s="21"/>
+      <c r="B439" s="9"/>
       <c r="C439" s="13"/>
     </row>
     <row r="440" spans="2:3">
-      <c r="B440" s="21"/>
+      <c r="B440" s="9"/>
       <c r="C440" s="13"/>
     </row>
     <row r="441" spans="2:3">
-      <c r="B441" s="21"/>
+      <c r="B441" s="9"/>
       <c r="C441" s="13"/>
     </row>
     <row r="442" spans="2:3">
-      <c r="B442" s="21"/>
+      <c r="B442" s="9"/>
       <c r="C442" s="13"/>
     </row>
     <row r="443" spans="2:3">
-      <c r="B443" s="21"/>
+      <c r="B443" s="9"/>
       <c r="C443" s="13"/>
     </row>
     <row r="444" spans="2:3">
-      <c r="B444" s="21"/>
+      <c r="B444" s="9"/>
       <c r="C444" s="13"/>
     </row>
     <row r="445" spans="2:3">
-      <c r="B445" s="21"/>
+      <c r="B445" s="9"/>
       <c r="C445" s="13"/>
     </row>
     <row r="446" spans="2:3">
-      <c r="B446" s="21"/>
+      <c r="B446" s="9"/>
       <c r="C446" s="13"/>
     </row>
     <row r="447" spans="2:3">
-      <c r="B447" s="21"/>
+      <c r="B447" s="9"/>
       <c r="C447" s="13"/>
     </row>
     <row r="448" spans="2:3">
-      <c r="B448" s="21"/>
+      <c r="B448" s="9"/>
       <c r="C448" s="13"/>
     </row>
     <row r="449" spans="2:3">
-      <c r="B449" s="21"/>
+      <c r="B449" s="9"/>
       <c r="C449" s="13"/>
     </row>
     <row r="450" spans="2:3">
-      <c r="B450" s="21"/>
+      <c r="B450" s="9"/>
       <c r="C450" s="13"/>
     </row>
     <row r="451" spans="2:3">
-      <c r="B451" s="21"/>
+      <c r="B451" s="9"/>
       <c r="C451" s="13"/>
     </row>
     <row r="452" spans="2:3">
-      <c r="B452" s="21"/>
+      <c r="B452" s="9"/>
       <c r="C452" s="13"/>
     </row>
     <row r="453" spans="2:3">
-      <c r="B453" s="21"/>
+      <c r="B453" s="9"/>
       <c r="C453" s="13"/>
     </row>
     <row r="454" spans="2:3">
-      <c r="B454" s="21"/>
+      <c r="B454" s="9"/>
       <c r="C454" s="13"/>
     </row>
     <row r="455" spans="2:3">
-      <c r="B455" s="21"/>
+      <c r="B455" s="9"/>
       <c r="C455" s="13"/>
     </row>
     <row r="456" spans="2:3">
-      <c r="B456" s="21"/>
+      <c r="B456" s="9"/>
       <c r="C456" s="13"/>
     </row>
     <row r="457" spans="2:3">
-      <c r="B457" s="21"/>
-      <c r="C457" s="28"/>
+      <c r="B457" s="9"/>
+      <c r="C457" s="27"/>
     </row>
     <row r="458" spans="2:3">
-      <c r="B458" s="21"/>
-      <c r="C458" s="29"/>
+      <c r="B458" s="9"/>
+      <c r="C458" s="28"/>
     </row>
     <row r="459" spans="2:3">
-      <c r="B459" s="21"/>
-      <c r="C459" s="28"/>
+      <c r="B459" s="9"/>
+      <c r="C459" s="27"/>
     </row>
     <row r="460" spans="2:3">
-      <c r="B460" s="21"/>
-      <c r="C460" s="28"/>
+      <c r="B460" s="9"/>
+      <c r="C460" s="27"/>
     </row>
     <row r="461" spans="2:3">
-      <c r="B461" s="21"/>
-      <c r="C461" s="28"/>
+      <c r="B461" s="9"/>
+      <c r="C461" s="27"/>
     </row>
     <row r="462" spans="2:3">
-      <c r="B462" s="21"/>
-      <c r="C462" s="28"/>
+      <c r="B462" s="9"/>
+      <c r="C462" s="27"/>
     </row>
     <row r="463" spans="2:3">
-      <c r="B463" s="21"/>
-      <c r="C463" s="28"/>
+      <c r="B463" s="9"/>
+      <c r="C463" s="27"/>
     </row>
     <row r="464" spans="2:3">
-      <c r="B464" s="21"/>
-      <c r="C464" s="28"/>
+      <c r="B464" s="9"/>
+      <c r="C464" s="27"/>
     </row>
     <row r="465" spans="2:3">
-      <c r="B465" s="21"/>
-      <c r="C465" s="28"/>
+      <c r="B465" s="9"/>
+      <c r="C465" s="27"/>
     </row>
     <row r="466" spans="2:3">
-      <c r="B466" s="21"/>
-      <c r="C466" s="28"/>
+      <c r="B466" s="9"/>
+      <c r="C466" s="27"/>
     </row>
     <row r="467" spans="2:3">
-      <c r="B467" s="21"/>
-      <c r="C467" s="29"/>
+      <c r="B467" s="9"/>
+      <c r="C467" s="28"/>
     </row>
     <row r="468" spans="2:3">
-      <c r="B468" s="21"/>
-      <c r="C468" s="28"/>
+      <c r="B468" s="9"/>
+      <c r="C468" s="27"/>
     </row>
     <row r="469" spans="2:3">
-      <c r="B469" s="21"/>
-      <c r="C469" s="28"/>
+      <c r="B469" s="9"/>
+      <c r="C469" s="27"/>
     </row>
     <row r="470" spans="2:3">
-      <c r="B470" s="21"/>
-      <c r="C470" s="28"/>
+      <c r="B470" s="9"/>
+      <c r="C470" s="27"/>
     </row>
     <row r="471" spans="2:3">
-      <c r="B471" s="21"/>
-      <c r="C471" s="28"/>
+      <c r="B471" s="9"/>
+      <c r="C471" s="27"/>
     </row>
     <row r="472" spans="2:3">
-      <c r="B472" s="21"/>
-      <c r="C472" s="28"/>
+      <c r="B472" s="9"/>
+      <c r="C472" s="27"/>
     </row>
     <row r="473" spans="2:3">
-      <c r="B473" s="21"/>
-      <c r="C473" s="28"/>
+      <c r="B473" s="9"/>
+      <c r="C473" s="27"/>
     </row>
     <row r="474" spans="2:3">
-      <c r="B474" s="21"/>
-      <c r="C474" s="28"/>
+      <c r="B474" s="9"/>
+      <c r="C474" s="27"/>
     </row>
     <row r="475" spans="2:3">
-      <c r="B475" s="21"/>
-      <c r="C475" s="28"/>
+      <c r="B475" s="9"/>
+      <c r="C475" s="27"/>
     </row>
     <row r="476" spans="2:3">
-      <c r="B476" s="21"/>
-      <c r="C476" s="28"/>
+      <c r="B476" s="9"/>
+      <c r="C476" s="27"/>
     </row>
     <row r="477" spans="2:3">
-      <c r="B477" s="21"/>
-      <c r="C477" s="28"/>
+      <c r="B477" s="9"/>
+      <c r="C477" s="27"/>
     </row>
     <row r="478" spans="2:3">
-      <c r="B478" s="21"/>
-      <c r="C478" s="28"/>
+      <c r="B478" s="9"/>
+      <c r="C478" s="27"/>
     </row>
     <row r="479" spans="2:3">
-      <c r="B479" s="21"/>
-      <c r="C479" s="28"/>
+      <c r="B479" s="9"/>
+      <c r="C479" s="27"/>
     </row>
     <row r="480" spans="2:3">
-      <c r="B480" s="21"/>
-      <c r="C480" s="28"/>
+      <c r="B480" s="9"/>
+      <c r="C480" s="27"/>
     </row>
     <row r="481" spans="2:3">
-      <c r="B481" s="21"/>
-      <c r="C481" s="28"/>
+      <c r="B481" s="9"/>
+      <c r="C481" s="27"/>
     </row>
     <row r="482" spans="2:3">
-      <c r="B482" s="21"/>
-      <c r="C482" s="28"/>
+      <c r="B482" s="9"/>
+      <c r="C482" s="27"/>
     </row>
     <row r="483" spans="2:3">
-      <c r="B483" s="21"/>
-      <c r="C483" s="28"/>
+      <c r="B483" s="9"/>
+      <c r="C483" s="27"/>
     </row>
     <row r="484" spans="2:3">
-      <c r="B484" s="21"/>
-      <c r="C484" s="28"/>
+      <c r="B484" s="9"/>
+      <c r="C484" s="27"/>
     </row>
     <row r="485" spans="2:3">
-      <c r="B485" s="21"/>
-      <c r="C485" s="28"/>
+      <c r="B485" s="9"/>
+      <c r="C485" s="27"/>
     </row>
     <row r="486" spans="2:3">
-      <c r="B486" s="21"/>
+      <c r="B486" s="9"/>
       <c r="C486" s="7"/>
     </row>
     <row r="487" spans="2:3">
-      <c r="B487" s="21"/>
+      <c r="B487" s="9"/>
       <c r="C487" s="7"/>
     </row>
     <row r="488" spans="2:3">
-      <c r="B488" s="21"/>
+      <c r="B488" s="9"/>
       <c r="C488" s="7"/>
     </row>
     <row r="489" spans="2:3">
-      <c r="B489" s="21"/>
+      <c r="B489" s="9"/>
       <c r="C489" s="7"/>
     </row>
     <row r="490" spans="2:3">
-      <c r="B490" s="21"/>
+      <c r="B490" s="9"/>
       <c r="C490" s="7"/>
     </row>
     <row r="491" spans="2:3">
-      <c r="B491" s="21"/>
+      <c r="B491" s="9"/>
       <c r="C491" s="7"/>
     </row>
     <row r="492" spans="2:3">
-      <c r="B492" s="21"/>
+      <c r="B492" s="9"/>
       <c r="C492" s="7"/>
     </row>
     <row r="493" spans="2:3">
-      <c r="B493" s="21"/>
+      <c r="B493" s="9"/>
       <c r="C493" s="7"/>
     </row>
     <row r="494" spans="2:3">
-      <c r="B494" s="21"/>
+      <c r="B494" s="9"/>
       <c r="C494" s="7"/>
     </row>
     <row r="495" spans="2:3">
-      <c r="B495" s="21"/>
+      <c r="B495" s="9"/>
       <c r="C495" s="7"/>
     </row>
     <row r="496" spans="2:3">
-      <c r="B496" s="21"/>
+      <c r="B496" s="9"/>
       <c r="C496" s="7"/>
     </row>
     <row r="497" spans="2:3">
-      <c r="B497" s="21"/>
+      <c r="B497" s="9"/>
       <c r="C497" s="7"/>
     </row>
     <row r="498" spans="2:3">
-      <c r="B498" s="21"/>
+      <c r="B498" s="9"/>
       <c r="C498" s="7"/>
     </row>
     <row r="499" spans="2:3">
-      <c r="B499" s="21"/>
+      <c r="B499" s="9"/>
       <c r="C499" s="7"/>
     </row>
     <row r="500" spans="2:3">
-      <c r="B500" s="21"/>
+      <c r="B500" s="9"/>
       <c r="C500" s="7"/>
     </row>
     <row r="501" spans="2:3">
-      <c r="B501" s="21"/>
-      <c r="C501" s="30"/>
+      <c r="B501" s="9"/>
+      <c r="C501" s="29"/>
     </row>
     <row r="502" spans="2:3">
-      <c r="B502" s="21"/>
+      <c r="B502" s="9"/>
       <c r="C502" s="7"/>
     </row>
     <row r="503" spans="2:3">
-      <c r="B503" s="21"/>
+      <c r="B503" s="9"/>
       <c r="C503" s="7"/>
     </row>
     <row r="504" spans="2:3">
-      <c r="B504" s="21"/>
+      <c r="B504" s="9"/>
       <c r="C504" s="7"/>
     </row>
     <row r="505" spans="2:3">
-      <c r="B505" s="21"/>
+      <c r="B505" s="9"/>
       <c r="C505" s="7"/>
     </row>
     <row r="506" spans="2:3">
-      <c r="B506" s="21"/>
+      <c r="B506" s="9"/>
       <c r="C506" s="7"/>
     </row>
     <row r="507" spans="2:3">
-      <c r="B507" s="21"/>
+      <c r="B507" s="9"/>
       <c r="C507" s="7"/>
     </row>
     <row r="508" spans="2:3">
-      <c r="B508" s="21"/>
+      <c r="B508" s="9"/>
       <c r="C508" s="7"/>
     </row>
     <row r="509" spans="2:3">
-      <c r="B509" s="21"/>
+      <c r="B509" s="9"/>
       <c r="C509" s="7"/>
     </row>
     <row r="510" spans="2:3">
-      <c r="B510" s="21"/>
+      <c r="B510" s="9"/>
       <c r="C510" s="7"/>
     </row>
     <row r="511" spans="2:3">
-      <c r="B511" s="21"/>
+      <c r="B511" s="9"/>
       <c r="C511" s="7"/>
     </row>
     <row r="512" spans="2:3">
-      <c r="B512" s="21"/>
+      <c r="B512" s="9"/>
       <c r="C512" s="7"/>
     </row>
     <row r="513" spans="2:3">
-      <c r="B513" s="21"/>
+      <c r="B513" s="9"/>
       <c r="C513" s="7"/>
     </row>
     <row r="514" spans="2:3">
-      <c r="B514" s="21"/>
+      <c r="B514" s="9"/>
       <c r="C514" s="7"/>
     </row>
     <row r="515" spans="2:3">
-      <c r="B515" s="21"/>
+      <c r="B515" s="9"/>
       <c r="C515" s="7"/>
     </row>
     <row r="516" spans="2:3">
-      <c r="B516" s="21"/>
+      <c r="B516" s="9"/>
       <c r="C516" s="7"/>
     </row>
     <row r="517" spans="2:3">
-      <c r="B517" s="21"/>
+      <c r="B517" s="9"/>
       <c r="C517" s="7"/>
     </row>
     <row r="518" spans="2:3">
-      <c r="B518" s="21"/>
+      <c r="B518" s="9"/>
       <c r="C518" s="7"/>
     </row>
     <row r="519" spans="2:3">
-      <c r="B519" s="21"/>
+      <c r="B519" s="9"/>
       <c r="C519" s="7"/>
     </row>
     <row r="520" spans="2:3">
-      <c r="B520" s="21"/>
+      <c r="B520" s="9"/>
       <c r="C520" s="7"/>
     </row>
     <row r="521" spans="2:3">
-      <c r="B521" s="21"/>
+      <c r="B521" s="9"/>
       <c r="C521" s="7"/>
     </row>
     <row r="522" spans="2:3">
-      <c r="B522" s="21"/>
+      <c r="B522" s="9"/>
       <c r="C522" s="7"/>
     </row>
     <row r="523" spans="2:3">
-      <c r="B523" s="21"/>
+      <c r="B523" s="9"/>
       <c r="C523" s="7"/>
     </row>
     <row r="524" spans="2:3">
-      <c r="B524" s="21"/>
+      <c r="B524" s="9"/>
       <c r="C524" s="7"/>
     </row>
     <row r="525" spans="2:3">
-      <c r="B525" s="22"/>
+      <c r="B525" s="21"/>
       <c r="C525" s="7"/>
     </row>
     <row r="526" spans="2:3">
-      <c r="B526" s="22"/>
+      <c r="B526" s="21"/>
       <c r="C526" s="7"/>
     </row>
     <row r="527" spans="2:3">
-      <c r="B527" s="22"/>
+      <c r="B527" s="21"/>
       <c r="C527" s="7"/>
     </row>
     <row r="528" spans="2:3">
-      <c r="B528" s="22"/>
+      <c r="B528" s="21"/>
       <c r="C528" s="7"/>
     </row>
     <row r="529" spans="2:3">
-      <c r="B529" s="22"/>
+      <c r="B529" s="21"/>
       <c r="C529" s="7"/>
     </row>
     <row r="530" spans="2:3">
-      <c r="B530" s="22"/>
+      <c r="B530" s="21"/>
       <c r="C530" s="7"/>
     </row>
     <row r="531" spans="2:3">
-      <c r="B531" s="22"/>
+      <c r="B531" s="21"/>
       <c r="C531" s="7"/>
     </row>
     <row r="532" spans="2:3">
-      <c r="B532" s="22"/>
+      <c r="B532" s="21"/>
       <c r="C532" s="7"/>
     </row>
     <row r="533" spans="2:3">
-      <c r="B533" s="22"/>
+      <c r="B533" s="21"/>
       <c r="C533" s="7"/>
     </row>
     <row r="534" spans="2:3">
-      <c r="B534" s="22"/>
+      <c r="B534" s="21"/>
       <c r="C534" s="7"/>
     </row>
     <row r="535" spans="2:3">
-      <c r="B535" s="22"/>
+      <c r="B535" s="21"/>
       <c r="C535" s="7"/>
     </row>
     <row r="536" spans="2:3">
-      <c r="B536" s="22"/>
+      <c r="B536" s="21"/>
       <c r="C536" s="7"/>
     </row>
     <row r="537" spans="2:3">
-      <c r="B537" s="22"/>
+      <c r="B537" s="21"/>
       <c r="C537" s="7"/>
     </row>
     <row r="538" spans="2:3">
-      <c r="B538" s="22"/>
+      <c r="B538" s="21"/>
       <c r="C538" s="7"/>
     </row>
     <row r="539" spans="2:3">
-      <c r="B539" s="22"/>
+      <c r="B539" s="21"/>
       <c r="C539" s="7"/>
     </row>
     <row r="540" spans="2:3">
-      <c r="B540" s="22"/>
+      <c r="B540" s="21"/>
       <c r="C540" s="7"/>
     </row>
     <row r="541" spans="2:3">
-      <c r="B541" s="22"/>
+      <c r="B541" s="21"/>
       <c r="C541" s="7"/>
     </row>
     <row r="542" spans="2:3">
-      <c r="B542" s="22"/>
+      <c r="B542" s="21"/>
       <c r="C542" s="7"/>
     </row>
     <row r="543" spans="2:3">
-      <c r="B543" s="22"/>
+      <c r="B543" s="21"/>
       <c r="C543" s="7"/>
     </row>
     <row r="544" spans="2:3">
-      <c r="B544" s="22"/>
+      <c r="B544" s="21"/>
       <c r="C544" s="7"/>
     </row>
     <row r="545" spans="2:3">
-      <c r="B545" s="22"/>
+      <c r="B545" s="21"/>
       <c r="C545" s="7"/>
     </row>
     <row r="546" spans="2:3">
-      <c r="B546" s="22"/>
+      <c r="B546" s="21"/>
       <c r="C546" s="7"/>
     </row>
     <row r="547" spans="2:3">
-      <c r="B547" s="22"/>
+      <c r="B547" s="21"/>
       <c r="C547" s="7"/>
     </row>
     <row r="548" spans="2:3">
-      <c r="B548" s="22"/>
+      <c r="B548" s="21"/>
       <c r="C548" s="7"/>
     </row>
     <row r="549" spans="2:3">
-      <c r="B549" s="22"/>
+      <c r="B549" s="21"/>
       <c r="C549" s="7"/>
     </row>
     <row r="550" spans="2:3">
-      <c r="B550" s="22"/>
+      <c r="B550" s="21"/>
       <c r="C550" s="7"/>
     </row>
     <row r="551" spans="2:3">
-      <c r="B551" s="22"/>
+      <c r="B551" s="21"/>
       <c r="C551" s="7"/>
     </row>
     <row r="552" spans="2:3">
-      <c r="B552" s="22"/>
+      <c r="B552" s="21"/>
       <c r="C552" s="7"/>
     </row>
     <row r="553" spans="2:3">
-      <c r="B553" s="22"/>
+      <c r="B553" s="21"/>
       <c r="C553" s="7"/>
     </row>
     <row r="554" spans="2:3">
-      <c r="B554" s="22"/>
+      <c r="B554" s="21"/>
       <c r="C554" s="7"/>
     </row>
     <row r="555" spans="2:3">
-      <c r="B555" s="22"/>
+      <c r="B555" s="21"/>
       <c r="C555" s="7"/>
     </row>
     <row r="556" spans="2:3">
-      <c r="B556" s="22"/>
+      <c r="B556" s="21"/>
       <c r="C556" s="7"/>
     </row>
     <row r="557" spans="2:3">
-      <c r="B557" s="22"/>
+      <c r="B557" s="21"/>
       <c r="C557" s="7"/>
     </row>
     <row r="558" spans="2:3">
-      <c r="B558" s="22"/>
+      <c r="B558" s="21"/>
       <c r="C558" s="7"/>
     </row>
     <row r="559" spans="2:3">
-      <c r="B559" s="22"/>
+      <c r="B559" s="21"/>
       <c r="C559" s="7"/>
     </row>
     <row r="560" spans="2:3">
-      <c r="B560" s="22"/>
+      <c r="B560" s="21"/>
       <c r="C560" s="7"/>
     </row>
     <row r="561" spans="2:3">
-      <c r="B561" s="22"/>
+      <c r="B561" s="21"/>
       <c r="C561" s="7"/>
     </row>
     <row r="562" spans="2:3">
-      <c r="B562" s="22"/>
+      <c r="B562" s="21"/>
       <c r="C562" s="7"/>
     </row>
     <row r="563" spans="2:3">
-      <c r="B563" s="22"/>
-      <c r="C563" s="28"/>
+      <c r="B563" s="21"/>
+      <c r="C563" s="27"/>
     </row>
     <row r="564" spans="2:3">
-      <c r="B564" s="22"/>
-      <c r="C564" s="28"/>
+      <c r="B564" s="21"/>
+      <c r="C564" s="27"/>
     </row>
     <row r="565" spans="2:3">
-      <c r="B565" s="22"/>
-      <c r="C565" s="28"/>
+      <c r="B565" s="21"/>
+      <c r="C565" s="27"/>
     </row>
     <row r="566" spans="2:3">
-      <c r="B566" s="22"/>
-      <c r="C566" s="28"/>
+      <c r="B566" s="21"/>
+      <c r="C566" s="27"/>
     </row>
     <row r="567" spans="2:3">
-      <c r="B567" s="22"/>
-      <c r="C567" s="28"/>
+      <c r="B567" s="21"/>
+      <c r="C567" s="27"/>
     </row>
     <row r="568" spans="2:3">
-      <c r="B568" s="22"/>
-      <c r="C568" s="28"/>
+      <c r="B568" s="21"/>
+      <c r="C568" s="27"/>
     </row>
     <row r="569" spans="2:3">
-      <c r="B569" s="22"/>
-      <c r="C569" s="28"/>
+      <c r="B569" s="21"/>
+      <c r="C569" s="27"/>
     </row>
     <row r="570" spans="2:3">
-      <c r="B570" s="22"/>
-      <c r="C570" s="28"/>
+      <c r="B570" s="21"/>
+      <c r="C570" s="27"/>
     </row>
     <row r="571" spans="2:3">
-      <c r="B571" s="22"/>
-      <c r="C571" s="28"/>
+      <c r="B571" s="21"/>
+      <c r="C571" s="27"/>
     </row>
     <row r="572" spans="2:3">
-      <c r="B572" s="22"/>
-      <c r="C572" s="28"/>
+      <c r="B572" s="21"/>
+      <c r="C572" s="27"/>
     </row>
     <row r="573" spans="2:3">
-      <c r="B573" s="22"/>
-      <c r="C573" s="28"/>
+      <c r="B573" s="21"/>
+      <c r="C573" s="27"/>
     </row>
     <row r="574" spans="2:3">
-      <c r="B574" s="22"/>
-      <c r="C574" s="28"/>
+      <c r="B574" s="21"/>
+      <c r="C574" s="27"/>
     </row>
     <row r="575" spans="2:3">
-      <c r="B575" s="22"/>
-      <c r="C575" s="28"/>
+      <c r="B575" s="21"/>
+      <c r="C575" s="27"/>
     </row>
     <row r="576" spans="2:3">
-      <c r="B576" s="22"/>
-      <c r="C576" s="28"/>
+      <c r="B576" s="21"/>
+      <c r="C576" s="27"/>
     </row>
     <row r="577" spans="2:3">
-      <c r="B577" s="22"/>
+      <c r="B577" s="21"/>
       <c r="C577" s="7"/>
     </row>
     <row r="578" spans="2:3">
-      <c r="B578" s="22"/>
+      <c r="B578" s="21"/>
       <c r="C578" s="7"/>
     </row>
     <row r="579" spans="2:3">
-      <c r="B579" s="22"/>
+      <c r="B579" s="21"/>
       <c r="C579" s="7"/>
     </row>
     <row r="580" spans="2:3">
-      <c r="B580" s="21"/>
+      <c r="B580" s="9"/>
       <c r="C580" s="7"/>
     </row>
     <row r="581" spans="2:3">
-      <c r="B581" s="22"/>
+      <c r="B581" s="21"/>
       <c r="C581" s="7"/>
     </row>
     <row r="582" spans="2:3">
-      <c r="B582" s="22"/>
+      <c r="B582" s="21"/>
       <c r="C582" s="7"/>
     </row>
     <row r="583" spans="2:3">
-      <c r="B583" s="22"/>
+      <c r="B583" s="21"/>
       <c r="C583" s="7"/>
     </row>
     <row r="584" spans="2:3">
-      <c r="B584" s="22"/>
+      <c r="B584" s="21"/>
       <c r="C584" s="7"/>
     </row>
     <row r="585" spans="2:3">
-      <c r="B585" s="21"/>
+      <c r="B585" s="9"/>
       <c r="C585" s="7"/>
     </row>
     <row r="586" spans="2:3">
-      <c r="B586" s="22"/>
+      <c r="B586" s="21"/>
       <c r="C586" s="7"/>
     </row>
     <row r="587" spans="2:3">
-      <c r="B587" s="22"/>
+      <c r="B587" s="21"/>
       <c r="C587" s="7"/>
     </row>
     <row r="588" spans="2:3">
-      <c r="B588" s="21"/>
+      <c r="B588" s="9"/>
       <c r="C588" s="7"/>
     </row>
     <row r="589" spans="2:3">
-      <c r="B589" s="22"/>
+      <c r="B589" s="21"/>
       <c r="C589" s="7"/>
     </row>
     <row r="590" spans="2:3">
-      <c r="B590" s="22"/>
+      <c r="B590" s="21"/>
       <c r="C590" s="7"/>
     </row>
     <row r="591" spans="2:3">
-      <c r="B591" s="21"/>
+      <c r="B591" s="9"/>
       <c r="C591" s="7"/>
     </row>
     <row r="592" spans="2:3">
-      <c r="B592" s="21"/>
+      <c r="B592" s="9"/>
       <c r="C592" s="7"/>
     </row>
     <row r="593" spans="2:3">
-      <c r="B593" s="22"/>
+      <c r="B593" s="21"/>
       <c r="C593" s="7"/>
     </row>
     <row r="594" spans="2:3">
-      <c r="B594" s="21"/>
+      <c r="B594" s="9"/>
       <c r="C594" s="7"/>
     </row>
     <row r="595" spans="2:3">
-      <c r="B595" s="22"/>
+      <c r="B595" s="21"/>
       <c r="C595" s="7"/>
     </row>
     <row r="596" spans="2:3">
-      <c r="B596" s="21"/>
+      <c r="B596" s="9"/>
       <c r="C596" s="7"/>
     </row>
     <row r="597" spans="2:3">
-      <c r="B597" s="22"/>
+      <c r="B597" s="21"/>
       <c r="C597" s="7"/>
     </row>
     <row r="598" spans="2:3">
-      <c r="B598" s="21"/>
+      <c r="B598" s="9"/>
       <c r="C598" s="7"/>
     </row>
     <row r="599" spans="2:3">
-      <c r="B599" s="22"/>
+      <c r="B599" s="21"/>
       <c r="C599" s="7"/>
     </row>
     <row r="600" spans="2:3">
-      <c r="B600" s="21"/>
+      <c r="B600" s="9"/>
       <c r="C600" s="7"/>
     </row>
     <row r="601" spans="2:3">
-      <c r="B601" s="22"/>
+      <c r="B601" s="21"/>
       <c r="C601" s="7"/>
     </row>
     <row r="602" spans="2:3">
-      <c r="B602" s="21"/>
+      <c r="B602" s="9"/>
       <c r="C602" s="7"/>
     </row>
     <row r="603" spans="2:3">
-      <c r="B603" s="21"/>
+      <c r="B603" s="9"/>
       <c r="C603" s="7"/>
     </row>
     <row r="604" spans="2:3">
-      <c r="B604" s="21"/>
+      <c r="B604" s="9"/>
       <c r="C604" s="7"/>
     </row>
     <row r="605" spans="2:3">
-      <c r="B605" s="22"/>
+      <c r="B605" s="21"/>
       <c r="C605" s="7"/>
     </row>
     <row r="606" spans="2:3">
-      <c r="B606" s="21"/>
+      <c r="B606" s="9"/>
       <c r="C606" s="7"/>
     </row>
     <row r="607" spans="2:3">
-      <c r="B607" s="22"/>
+      <c r="B607" s="21"/>
       <c r="C607" s="7"/>
     </row>
     <row r="608" spans="2:3">
-      <c r="B608" s="21"/>
+      <c r="B608" s="9"/>
       <c r="C608" s="7"/>
     </row>
     <row r="609" spans="2:3">
-      <c r="B609" s="22"/>
+      <c r="B609" s="21"/>
       <c r="C609" s="7"/>
     </row>
     <row r="610" spans="2:3">
-      <c r="B610" s="21"/>
+      <c r="B610" s="9"/>
       <c r="C610" s="7"/>
     </row>
     <row r="611" spans="2:3">
-      <c r="B611" s="22"/>
+      <c r="B611" s="21"/>
       <c r="C611" s="7"/>
     </row>
     <row r="612" spans="2:3">
-      <c r="B612" s="21"/>
+      <c r="B612" s="9"/>
       <c r="C612" s="7"/>
     </row>
     <row r="613" spans="2:3">
-      <c r="B613" s="22"/>
+      <c r="B613" s="21"/>
       <c r="C613" s="7"/>
     </row>
     <row r="614" spans="2:3">
-      <c r="B614" s="21"/>
+      <c r="B614" s="9"/>
       <c r="C614" s="7"/>
     </row>
     <row r="615" spans="2:3">
-      <c r="B615" s="22"/>
+      <c r="B615" s="21"/>
       <c r="C615" s="7"/>
     </row>
     <row r="616" spans="2:3">
-      <c r="B616" s="21"/>
+      <c r="B616" s="9"/>
       <c r="C616" s="7"/>
     </row>
     <row r="617" spans="2:3">
-      <c r="B617" s="21"/>
+      <c r="B617" s="9"/>
       <c r="C617" s="7"/>
     </row>
     <row r="618" spans="2:3">
-      <c r="B618" s="22"/>
+      <c r="B618" s="21"/>
       <c r="C618" s="7"/>
     </row>
     <row r="619" spans="2:3">
-      <c r="B619" s="21"/>
+      <c r="B619" s="9"/>
       <c r="C619" s="7"/>
     </row>
     <row r="620" spans="2:3">
-      <c r="B620" s="21"/>
+      <c r="B620" s="9"/>
       <c r="C620" s="7"/>
     </row>
     <row r="621" spans="2:3">
-      <c r="B621" s="22"/>
+      <c r="B621" s="21"/>
       <c r="C621" s="7"/>
     </row>
     <row r="622" spans="2:3">
-      <c r="B622" s="22"/>
+      <c r="B622" s="21"/>
       <c r="C622" s="7"/>
     </row>
     <row r="623" spans="2:3">
-      <c r="B623" s="21"/>
+      <c r="B623" s="9"/>
       <c r="C623" s="7"/>
     </row>
     <row r="624" spans="2:3">
-      <c r="B624" s="21"/>
+      <c r="B624" s="9"/>
       <c r="C624" s="7"/>
     </row>
     <row r="625" spans="2:3">
-      <c r="B625" s="22"/>
+      <c r="B625" s="21"/>
       <c r="C625" s="7"/>
     </row>
     <row r="626" spans="2:3">
-      <c r="B626" s="21"/>
+      <c r="B626" s="9"/>
       <c r="C626" s="7"/>
     </row>
     <row r="627" spans="2:3">
-      <c r="B627" s="21"/>
+      <c r="B627" s="9"/>
       <c r="C627" s="7"/>
     </row>
     <row r="628" spans="2:3">
-      <c r="B628" s="21"/>
+      <c r="B628" s="9"/>
       <c r="C628" s="7"/>
     </row>
     <row r="629" spans="2:3">
-      <c r="B629" s="22"/>
+      <c r="B629" s="21"/>
       <c r="C629" s="7"/>
     </row>
     <row r="630" spans="2:3">
-      <c r="B630" s="21"/>
+      <c r="B630" s="9"/>
       <c r="C630" s="7"/>
     </row>
     <row r="631" spans="2:3">
-      <c r="B631" s="21"/>
+      <c r="B631" s="9"/>
       <c r="C631" s="7"/>
     </row>
     <row r="632" spans="2:3">
-      <c r="B632" s="22"/>
+      <c r="B632" s="21"/>
       <c r="C632" s="7"/>
     </row>
     <row r="633" spans="2:3">
-      <c r="B633" s="21"/>
+      <c r="B633" s="9"/>
       <c r="C633" s="7"/>
     </row>
     <row r="634" spans="2:3">
-      <c r="B634" s="21"/>
+      <c r="B634" s="9"/>
       <c r="C634" s="7"/>
     </row>
     <row r="635" spans="2:3">
-      <c r="B635" s="22"/>
+      <c r="B635" s="21"/>
       <c r="C635" s="7"/>
     </row>
     <row r="636" spans="2:3">
-      <c r="B636" s="21"/>
+      <c r="B636" s="9"/>
       <c r="C636" s="7"/>
     </row>
     <row r="637" spans="2:3">
-      <c r="B637" s="21"/>
+      <c r="B637" s="9"/>
       <c r="C637" s="7"/>
     </row>
     <row r="638" spans="2:3">
-      <c r="B638" s="22"/>
+      <c r="B638" s="21"/>
       <c r="C638" s="7"/>
     </row>
     <row r="639" spans="2:3">
-      <c r="B639" s="21"/>
+      <c r="B639" s="9"/>
       <c r="C639" s="7"/>
     </row>
     <row r="640" spans="2:3">
-      <c r="B640" s="21"/>
+      <c r="B640" s="9"/>
       <c r="C640" s="7"/>
     </row>
     <row r="641" spans="2:3">
-      <c r="B641" s="22"/>
+      <c r="B641" s="21"/>
       <c r="C641" s="7"/>
     </row>
     <row r="642" spans="2:3">
-      <c r="B642" s="21"/>
+      <c r="B642" s="9"/>
       <c r="C642" s="7"/>
     </row>
     <row r="643" spans="2:3">
-      <c r="B643" s="21"/>
+      <c r="B643" s="9"/>
       <c r="C643" s="7"/>
     </row>
     <row r="644" spans="2:3">
-      <c r="B644" s="21"/>
+      <c r="B644" s="9"/>
       <c r="C644" s="7"/>
     </row>
     <row r="645" spans="2:3">
-      <c r="B645" s="21"/>
+      <c r="B645" s="9"/>
       <c r="C645" s="7"/>
     </row>
     <row r="646" spans="2:3">
-      <c r="B646" s="21"/>
+      <c r="B646" s="9"/>
       <c r="C646" s="7"/>
     </row>
     <row r="647" spans="2:3">
-      <c r="B647" s="22"/>
+      <c r="B647" s="21"/>
       <c r="C647" s="7"/>
     </row>
     <row r="648" spans="2:3">
-      <c r="B648" s="21"/>
+      <c r="B648" s="9"/>
       <c r="C648" s="7"/>
     </row>
     <row r="649" spans="2:3">
-      <c r="B649" s="22"/>
+      <c r="B649" s="21"/>
       <c r="C649" s="7"/>
     </row>
     <row r="650" spans="2:3">
-      <c r="B650" s="21"/>
+      <c r="B650" s="9"/>
       <c r="C650" s="7"/>
     </row>
     <row r="651" spans="2:3">
-      <c r="B651" s="22"/>
+      <c r="B651" s="21"/>
       <c r="C651" s="7"/>
     </row>
     <row r="652" spans="2:3">
-      <c r="B652" s="21"/>
+      <c r="B652" s="9"/>
       <c r="C652" s="7"/>
     </row>
     <row r="653" spans="2:3">
-      <c r="B653" s="22"/>
+      <c r="B653" s="21"/>
       <c r="C653" s="7"/>
     </row>
     <row r="654" spans="2:3">
-      <c r="B654" s="21"/>
+      <c r="B654" s="9"/>
       <c r="C654" s="7"/>
     </row>
     <row r="655" spans="2:3">
-      <c r="B655" s="21"/>
+      <c r="B655" s="9"/>
       <c r="C655" s="7"/>
     </row>
     <row r="656" spans="2:3">
-      <c r="B656" s="21"/>
+      <c r="B656" s="9"/>
       <c r="C656" s="7"/>
     </row>
     <row r="657" spans="2:3">
-      <c r="B657" s="21"/>
-      <c r="C657" s="28"/>
+      <c r="B657" s="9"/>
+      <c r="C657" s="27"/>
     </row>
     <row r="658" spans="2:3">
-      <c r="B658" s="21"/>
-      <c r="C658" s="28"/>
+      <c r="B658" s="9"/>
+      <c r="C658" s="27"/>
     </row>
     <row r="659" spans="2:3">
-      <c r="B659" s="21"/>
-      <c r="C659" s="28"/>
+      <c r="B659" s="9"/>
+      <c r="C659" s="27"/>
     </row>
     <row r="660" spans="2:3">
-      <c r="B660" s="21"/>
-      <c r="C660" s="28"/>
+      <c r="B660" s="9"/>
+      <c r="C660" s="27"/>
     </row>
     <row r="661" spans="2:3">
-      <c r="B661" s="21"/>
-      <c r="C661" s="28"/>
+      <c r="B661" s="9"/>
+      <c r="C661" s="27"/>
     </row>
     <row r="662" spans="2:3">
-      <c r="B662" s="21"/>
-      <c r="C662" s="28"/>
+      <c r="B662" s="9"/>
+      <c r="C662" s="27"/>
     </row>
     <row r="663" spans="2:3">
-      <c r="B663" s="21"/>
-      <c r="C663" s="28"/>
+      <c r="B663" s="9"/>
+      <c r="C663" s="27"/>
     </row>
     <row r="664" spans="2:3">
-      <c r="B664" s="21"/>
-      <c r="C664" s="28"/>
+      <c r="B664" s="9"/>
+      <c r="C664" s="27"/>
     </row>
     <row r="665" spans="2:3">
-      <c r="B665" s="21"/>
-      <c r="C665" s="28"/>
+      <c r="B665" s="9"/>
+      <c r="C665" s="27"/>
     </row>
     <row r="666" spans="2:3">
-      <c r="B666" s="21"/>
-      <c r="C666" s="28"/>
+      <c r="B666" s="9"/>
+      <c r="C666" s="27"/>
     </row>
     <row r="667" spans="2:3">
-      <c r="B667" s="21"/>
-      <c r="C667" s="28"/>
+      <c r="B667" s="9"/>
+      <c r="C667" s="27"/>
     </row>
     <row r="668" spans="2:3">
-      <c r="B668" s="21"/>
-      <c r="C668" s="28"/>
+      <c r="B668" s="9"/>
+      <c r="C668" s="27"/>
     </row>
     <row r="669" spans="2:3">
-      <c r="B669" s="21"/>
-      <c r="C669" s="28"/>
+      <c r="B669" s="9"/>
+      <c r="C669" s="27"/>
     </row>
     <row r="670" spans="2:3">
-      <c r="B670" s="21"/>
-      <c r="C670" s="28"/>
+      <c r="B670" s="9"/>
+      <c r="C670" s="27"/>
     </row>
     <row r="671" spans="2:3">
-      <c r="B671" s="21"/>
-      <c r="C671" s="28"/>
+      <c r="B671" s="9"/>
+      <c r="C671" s="27"/>
     </row>
     <row r="672" spans="2:3">
-      <c r="B672" s="21"/>
-      <c r="C672" s="28"/>
+      <c r="B672" s="9"/>
+      <c r="C672" s="27"/>
     </row>
     <row r="673" spans="2:3">
-      <c r="B673" s="21"/>
-      <c r="C673" s="28"/>
+      <c r="B673" s="9"/>
+      <c r="C673" s="27"/>
     </row>
     <row r="674" spans="2:3">
-      <c r="B674" s="21"/>
-      <c r="C674" s="28"/>
+      <c r="B674" s="9"/>
+      <c r="C674" s="27"/>
     </row>
     <row r="675" spans="2:3">
-      <c r="B675" s="21"/>
-      <c r="C675" s="28"/>
+      <c r="B675" s="9"/>
+      <c r="C675" s="27"/>
     </row>
     <row r="676" spans="2:3">
-      <c r="B676" s="21"/>
-      <c r="C676" s="28"/>
+      <c r="B676" s="9"/>
+      <c r="C676" s="27"/>
     </row>
     <row r="677" spans="2:3">
-      <c r="B677" s="21"/>
-      <c r="C677" s="28"/>
+      <c r="B677" s="9"/>
+      <c r="C677" s="27"/>
     </row>
     <row r="678" spans="2:3">
-      <c r="B678" s="21"/>
+      <c r="B678" s="9"/>
       <c r="C678" s="7"/>
     </row>
     <row r="679" spans="2:3">
-      <c r="B679" s="21"/>
+      <c r="B679" s="9"/>
       <c r="C679" s="7"/>
     </row>
     <row r="680" spans="2:3">
-      <c r="B680" s="21"/>
+      <c r="B680" s="9"/>
       <c r="C680" s="7"/>
     </row>
     <row r="681" spans="2:3">
-      <c r="B681" s="21"/>
-      <c r="C681" s="21"/>
+      <c r="B681" s="9"/>
+      <c r="C681" s="9"/>
     </row>
     <row r="682" spans="2:3">
-      <c r="B682" s="21"/>
-      <c r="C682" s="21"/>
+      <c r="B682" s="9"/>
+      <c r="C682" s="9"/>
     </row>
     <row r="683" spans="2:3">
-      <c r="B683" s="21"/>
-      <c r="C683" s="21"/>
+      <c r="B683" s="9"/>
+      <c r="C683" s="9"/>
     </row>
     <row r="684" spans="2:3">
-      <c r="B684" s="21"/>
-      <c r="C684" s="21"/>
+      <c r="B684" s="9"/>
+      <c r="C684" s="9"/>
     </row>
     <row r="685" spans="2:3">
-      <c r="B685" s="21"/>
-      <c r="C685" s="21"/>
+      <c r="B685" s="9"/>
+      <c r="C685" s="9"/>
     </row>
     <row r="686" spans="2:3">
-      <c r="B686" s="21"/>
-      <c r="C686" s="21"/>
+      <c r="B686" s="9"/>
+      <c r="C686" s="9"/>
     </row>
     <row r="687" spans="2:3">
-      <c r="B687" s="21"/>
-      <c r="C687" s="21"/>
+      <c r="B687" s="9"/>
+      <c r="C687" s="9"/>
     </row>
     <row r="688" spans="2:3">
-      <c r="B688" s="21"/>
-      <c r="C688" s="21"/>
+      <c r="B688" s="9"/>
+      <c r="C688" s="9"/>
     </row>
     <row r="689" spans="2:3">
-      <c r="B689" s="21"/>
-      <c r="C689" s="21"/>
+      <c r="B689" s="9"/>
+      <c r="C689" s="9"/>
     </row>
     <row r="690" spans="2:3">
-      <c r="B690" s="21"/>
-      <c r="C690" s="21"/>
+      <c r="B690" s="9"/>
+      <c r="C690" s="9"/>
     </row>
     <row r="691" spans="2:3">
-      <c r="B691" s="21"/>
-      <c r="C691" s="21"/>
+      <c r="B691" s="9"/>
+      <c r="C691" s="9"/>
     </row>
     <row r="692" spans="2:3">
-      <c r="B692" s="21"/>
-      <c r="C692" s="21"/>
+      <c r="B692" s="9"/>
+      <c r="C692" s="9"/>
     </row>
     <row r="693" spans="2:3">
-      <c r="B693" s="21"/>
-      <c r="C693" s="21"/>
+      <c r="B693" s="9"/>
+      <c r="C693" s="9"/>
     </row>
     <row r="694" spans="2:3">
-      <c r="B694" s="21"/>
-      <c r="C694" s="21"/>
+      <c r="B694" s="9"/>
+      <c r="C694" s="9"/>
     </row>
     <row r="695" spans="2:3">
-      <c r="B695" s="21"/>
-      <c r="C695" s="21"/>
+      <c r="B695" s="9"/>
+      <c r="C695" s="9"/>
     </row>
     <row r="696" spans="2:3">
-      <c r="B696" s="21"/>
-      <c r="C696" s="21"/>
+      <c r="B696" s="9"/>
+      <c r="C696" s="9"/>
     </row>
     <row r="697" spans="2:3">
-      <c r="B697" s="21"/>
+      <c r="B697" s="9"/>
       <c r="C697" s="7"/>
     </row>
     <row r="698" spans="2:3">
-      <c r="B698" s="21"/>
+      <c r="B698" s="9"/>
       <c r="C698" s="7"/>
     </row>
     <row r="699" spans="2:3">
-      <c r="B699" s="21"/>
+      <c r="B699" s="9"/>
       <c r="C699" s="7"/>
     </row>
     <row r="700" spans="2:3">
-      <c r="B700" s="21"/>
+      <c r="B700" s="9"/>
       <c r="C700" s="7"/>
     </row>
     <row r="701" spans="2:3">
-      <c r="B701" s="21"/>
+      <c r="B701" s="9"/>
       <c r="C701" s="7"/>
     </row>
     <row r="702" spans="2:3">
-      <c r="B702" s="21"/>
+      <c r="B702" s="9"/>
       <c r="C702" s="7"/>
     </row>
     <row r="703" spans="2:3">
-      <c r="B703" s="21"/>
-      <c r="C703" s="28"/>
+      <c r="B703" s="9"/>
+      <c r="C703" s="27"/>
     </row>
     <row r="704" spans="2:3">
-      <c r="B704" s="21"/>
-      <c r="C704" s="28"/>
+      <c r="B704" s="9"/>
+      <c r="C704" s="27"/>
     </row>
     <row r="705" spans="2:3">
-      <c r="B705" s="21"/>
-      <c r="C705" s="28"/>
+      <c r="B705" s="9"/>
+      <c r="C705" s="27"/>
     </row>
     <row r="706" spans="2:3">
-      <c r="B706" s="21"/>
-      <c r="C706" s="28"/>
+      <c r="B706" s="9"/>
+      <c r="C706" s="27"/>
     </row>
     <row r="707" spans="2:3">
-      <c r="B707" s="21"/>
-      <c r="C707" s="28"/>
+      <c r="B707" s="9"/>
+      <c r="C707" s="27"/>
     </row>
     <row r="708" spans="2:3">
-      <c r="B708" s="21"/>
-      <c r="C708" s="28"/>
+      <c r="B708" s="9"/>
+      <c r="C708" s="27"/>
     </row>
     <row r="709" spans="2:3">
-      <c r="B709" s="21"/>
-      <c r="C709" s="28"/>
+      <c r="B709" s="9"/>
+      <c r="C709" s="27"/>
     </row>
     <row r="710" spans="2:3">
-      <c r="B710" s="21"/>
-      <c r="C710" s="28"/>
+      <c r="B710" s="9"/>
+      <c r="C710" s="27"/>
     </row>
     <row r="711" spans="2:3">
-      <c r="B711" s="21"/>
-      <c r="C711" s="28"/>
+      <c r="B711" s="9"/>
+      <c r="C711" s="27"/>
     </row>
     <row r="712" spans="2:3">
-      <c r="B712" s="21"/>
-      <c r="C712" s="28"/>
+      <c r="B712" s="9"/>
+      <c r="C712" s="27"/>
     </row>
     <row r="713" spans="2:3">
-      <c r="B713" s="21"/>
-      <c r="C713" s="28"/>
+      <c r="B713" s="9"/>
+      <c r="C713" s="27"/>
     </row>
     <row r="714" spans="2:3">
-      <c r="B714" s="21"/>
-      <c r="C714" s="28"/>
+      <c r="B714" s="9"/>
+      <c r="C714" s="27"/>
     </row>
     <row r="715" spans="2:3">
-      <c r="B715" s="21"/>
-      <c r="C715" s="28"/>
+      <c r="B715" s="9"/>
+      <c r="C715" s="27"/>
     </row>
     <row r="716" spans="2:3">
-      <c r="B716" s="21"/>
-      <c r="C716" s="28"/>
+      <c r="B716" s="9"/>
+      <c r="C716" s="27"/>
     </row>
     <row r="717" spans="2:3">
-      <c r="B717" s="21"/>
+      <c r="B717" s="9"/>
       <c r="C717" s="7"/>
     </row>
     <row r="718" spans="2:3">
-      <c r="B718" s="21"/>
-      <c r="C718" s="28"/>
+      <c r="B718" s="9"/>
+      <c r="C718" s="27"/>
     </row>
     <row r="719" spans="2:3">
-      <c r="B719" s="21"/>
-      <c r="C719" s="28"/>
+      <c r="B719" s="9"/>
+      <c r="C719" s="27"/>
     </row>
     <row r="720" spans="2:3">
-      <c r="B720" s="21"/>
-      <c r="C720" s="28"/>
+      <c r="B720" s="9"/>
+      <c r="C720" s="27"/>
     </row>
     <row r="721" spans="2:3">
-      <c r="B721" s="21"/>
-      <c r="C721" s="28"/>
+      <c r="B721" s="9"/>
+      <c r="C721" s="27"/>
     </row>
     <row r="722" spans="2:3">
-      <c r="B722" s="21"/>
-      <c r="C722" s="28"/>
+      <c r="B722" s="9"/>
+      <c r="C722" s="27"/>
     </row>
     <row r="723" spans="2:3">
-      <c r="B723" s="21"/>
-      <c r="C723" s="28"/>
+      <c r="B723" s="9"/>
+      <c r="C723" s="27"/>
     </row>
     <row r="724" spans="2:3">
-      <c r="B724" s="21"/>
-      <c r="C724" s="28"/>
+      <c r="B724" s="9"/>
+      <c r="C724" s="27"/>
     </row>
     <row r="725" spans="2:3">
-      <c r="B725" s="21"/>
+      <c r="B725" s="9"/>
       <c r="C725" s="7"/>
     </row>
     <row r="726" spans="2:3">
-      <c r="B726" s="21"/>
+      <c r="B726" s="9"/>
       <c r="C726" s="7"/>
     </row>
     <row r="727" spans="2:3">
-      <c r="B727" s="21"/>
+      <c r="B727" s="9"/>
       <c r="C727" s="7"/>
     </row>
     <row r="728" spans="2:3">
-      <c r="B728" s="21"/>
+      <c r="B728" s="9"/>
       <c r="C728" s="7"/>
     </row>
     <row r="729" spans="2:3">
-      <c r="B729" s="21"/>
+      <c r="B729" s="9"/>
       <c r="C729" s="7"/>
     </row>
     <row r="730" spans="2:3">
-      <c r="B730" s="21"/>
+      <c r="B730" s="9"/>
       <c r="C730" s="7"/>
     </row>
     <row r="731" spans="2:3">
-      <c r="B731" s="21"/>
+      <c r="B731" s="9"/>
       <c r="C731" s="7"/>
     </row>
     <row r="732" spans="2:3">
-      <c r="B732" s="21"/>
+      <c r="B732" s="9"/>
       <c r="C732" s="7"/>
     </row>
     <row r="733" spans="2:3">
-      <c r="B733" s="21"/>
+      <c r="B733" s="9"/>
       <c r="C733" s="7"/>
     </row>
     <row r="734" spans="2:3">
-      <c r="B734" s="21"/>
+      <c r="B734" s="9"/>
       <c r="C734" s="7"/>
     </row>
     <row r="735" spans="2:3">
-      <c r="B735" s="21"/>
+      <c r="B735" s="9"/>
       <c r="C735" s="7"/>
     </row>
     <row r="736" spans="2:3">
-      <c r="B736" s="21"/>
+      <c r="B736" s="9"/>
       <c r="C736" s="7"/>
     </row>
     <row r="737" spans="2:3">
-      <c r="B737" s="21"/>
+      <c r="B737" s="9"/>
       <c r="C737" s="7"/>
     </row>
     <row r="738" spans="2:3">
-      <c r="B738" s="21"/>
+      <c r="B738" s="9"/>
       <c r="C738" s="7"/>
     </row>
     <row r="739" spans="2:3">
-      <c r="B739" s="21"/>
+      <c r="B739" s="9"/>
       <c r="C739" s="7"/>
     </row>
     <row r="740" spans="2:3">
-      <c r="B740" s="21"/>
+      <c r="B740" s="9"/>
       <c r="C740" s="7"/>
     </row>
     <row r="741" spans="2:3">
-      <c r="B741" s="21"/>
+      <c r="B741" s="9"/>
       <c r="C741" s="7"/>
     </row>
     <row r="742" spans="2:3">
-      <c r="B742" s="21"/>
+      <c r="B742" s="9"/>
       <c r="C742" s="7"/>
     </row>
     <row r="743" spans="2:3">
-      <c r="B743" s="21"/>
+      <c r="B743" s="9"/>
       <c r="C743" s="7"/>
     </row>
     <row r="744" spans="2:3">
-      <c r="B744" s="21"/>
+      <c r="B744" s="9"/>
       <c r="C744" s="7"/>
     </row>
     <row r="745" spans="2:3">
-      <c r="B745" s="21"/>
+      <c r="B745" s="9"/>
       <c r="C745" s="7"/>
     </row>
     <row r="746" spans="2:3">
-      <c r="B746" s="21"/>
+      <c r="B746" s="9"/>
       <c r="C746" s="7"/>
     </row>
     <row r="747" spans="2:3">
-      <c r="B747" s="21"/>
+      <c r="B747" s="9"/>
       <c r="C747" s="7"/>
     </row>
     <row r="748" spans="2:3">
-      <c r="B748" s="21"/>
+      <c r="B748" s="9"/>
       <c r="C748" s="7"/>
     </row>
     <row r="749" spans="2:3">
-      <c r="B749" s="21"/>
+      <c r="B749" s="9"/>
       <c r="C749" s="7"/>
     </row>
     <row r="750" spans="2:3">
-      <c r="B750" s="21"/>
+      <c r="B750" s="9"/>
       <c r="C750" s="7"/>
     </row>
     <row r="751" spans="2:3">
-      <c r="B751" s="21"/>
+      <c r="B751" s="9"/>
       <c r="C751" s="7"/>
     </row>
     <row r="752" spans="2:3">
-      <c r="B752" s="21"/>
+      <c r="B752" s="9"/>
       <c r="C752" s="7"/>
     </row>
     <row r="753" spans="2:3">
-      <c r="B753" s="21"/>
+      <c r="B753" s="9"/>
       <c r="C753" s="7"/>
     </row>
     <row r="754" spans="2:3">
-      <c r="B754" s="21"/>
+      <c r="B754" s="9"/>
       <c r="C754" s="7"/>
     </row>
     <row r="755" spans="2:3">
-      <c r="B755" s="21"/>
+      <c r="B755" s="9"/>
       <c r="C755" s="7"/>
     </row>
     <row r="756" spans="2:3">
-      <c r="B756" s="21"/>
+      <c r="B756" s="9"/>
       <c r="C756" s="7"/>
     </row>
     <row r="757" spans="2:3">
-      <c r="B757" s="21"/>
+      <c r="B757" s="9"/>
       <c r="C757" s="7"/>
     </row>
     <row r="758" spans="2:3">
-      <c r="B758" s="21"/>
+      <c r="B758" s="9"/>
       <c r="C758" s="7"/>
     </row>
     <row r="759" spans="2:3">
-      <c r="B759" s="21"/>
+      <c r="B759" s="9"/>
       <c r="C759" s="7"/>
     </row>
     <row r="760" spans="2:3">
-      <c r="B760" s="21"/>
+      <c r="B760" s="9"/>
       <c r="C760" s="7"/>
     </row>
     <row r="761" spans="2:3">
-      <c r="B761" s="21"/>
+      <c r="B761" s="9"/>
       <c r="C761" s="7"/>
     </row>
     <row r="762" spans="2:3">
-      <c r="B762" s="21"/>
+      <c r="B762" s="9"/>
       <c r="C762" s="7"/>
     </row>
     <row r="763" spans="2:3">
-      <c r="B763" s="21"/>
+      <c r="B763" s="9"/>
       <c r="C763" s="7"/>
     </row>
     <row r="764" spans="2:3">
-      <c r="B764" s="21"/>
+      <c r="B764" s="9"/>
       <c r="C764" s="7"/>
     </row>
     <row r="765" spans="2:3">
-      <c r="B765" s="21"/>
+      <c r="B765" s="9"/>
       <c r="C765" s="7"/>
     </row>
     <row r="766" spans="2:3">
-      <c r="B766" s="21"/>
+      <c r="B766" s="9"/>
       <c r="C766" s="7"/>
     </row>
     <row r="767" spans="2:3">
-      <c r="B767" s="21"/>
+      <c r="B767" s="9"/>
       <c r="C767" s="7"/>
     </row>
     <row r="768" spans="2:3">
-      <c r="B768" s="21"/>
+      <c r="B768" s="9"/>
       <c r="C768" s="7"/>
     </row>
     <row r="769" spans="2:3">
-      <c r="B769" s="21"/>
+      <c r="B769" s="9"/>
       <c r="C769" s="7"/>
     </row>
     <row r="770" spans="2:3">
-      <c r="B770" s="21"/>
+      <c r="B770" s="9"/>
       <c r="C770" s="7"/>
     </row>
     <row r="771" spans="2:3">
-      <c r="B771" s="21"/>
+      <c r="B771" s="9"/>
       <c r="C771" s="7"/>
     </row>
     <row r="772" spans="2:3">
-      <c r="B772" s="21"/>
+      <c r="B772" s="9"/>
       <c r="C772" s="7"/>
     </row>
     <row r="773" spans="2:3">
-      <c r="B773" s="21"/>
+      <c r="B773" s="9"/>
       <c r="C773" s="7"/>
     </row>
     <row r="774" spans="2:3">
-      <c r="B774" s="21"/>
+      <c r="B774" s="9"/>
       <c r="C774" s="7"/>
     </row>
     <row r="775" spans="2:3">
-      <c r="B775" s="21"/>
+      <c r="B775" s="9"/>
       <c r="C775" s="7"/>
     </row>
     <row r="776" spans="2:3">
-      <c r="B776" s="21"/>
+      <c r="B776" s="9"/>
       <c r="C776" s="7"/>
     </row>
     <row r="777" spans="2:3">
-      <c r="B777" s="21"/>
+      <c r="B777" s="9"/>
       <c r="C777" s="7"/>
     </row>
     <row r="778" spans="2:3">
-      <c r="B778" s="21"/>
+      <c r="B778" s="9"/>
       <c r="C778" s="7"/>
     </row>
     <row r="779" spans="2:3">
-      <c r="B779" s="21"/>
+      <c r="B779" s="9"/>
       <c r="C779" s="7"/>
     </row>
     <row r="780" spans="2:3">
-      <c r="B780" s="21"/>
+      <c r="B780" s="9"/>
       <c r="C780" s="7"/>
     </row>
     <row r="781" spans="2:3">
-      <c r="B781" s="21"/>
+      <c r="B781" s="9"/>
       <c r="C781" s="7"/>
     </row>
     <row r="782" spans="2:3">
-      <c r="B782" s="21"/>
+      <c r="B782" s="9"/>
       <c r="C782" s="7"/>
     </row>
     <row r="783" spans="2:3">
-      <c r="B783" s="21"/>
+      <c r="B783" s="9"/>
       <c r="C783" s="7"/>
     </row>
     <row r="784" spans="2:3">
-      <c r="B784" s="21"/>
+      <c r="B784" s="9"/>
       <c r="C784" s="7"/>
     </row>
     <row r="785" spans="2:3">
-      <c r="B785" s="21"/>
+      <c r="B785" s="9"/>
       <c r="C785" s="7"/>
     </row>
     <row r="786" spans="2:3">
-      <c r="B786" s="21"/>
+      <c r="B786" s="9"/>
       <c r="C786" s="7"/>
     </row>
     <row r="787" spans="2:3">
-      <c r="B787" s="21"/>
+      <c r="B787" s="9"/>
       <c r="C787" s="7"/>
     </row>
     <row r="788" spans="2:3">
-      <c r="B788" s="24"/>
+      <c r="B788" s="23"/>
       <c r="C788" s="7"/>
     </row>
     <row r="789" spans="2:3">
-      <c r="B789" s="24"/>
+      <c r="B789" s="23"/>
       <c r="C789" s="7"/>
     </row>
     <row r="790" spans="2:3">
-      <c r="B790" s="24"/>
+      <c r="B790" s="23"/>
       <c r="C790" s="7"/>
     </row>
     <row r="791" spans="2:3">
-      <c r="B791" s="24"/>
+      <c r="B791" s="23"/>
       <c r="C791" s="7"/>
     </row>
     <row r="792" spans="2:3">
-      <c r="B792" s="24"/>
+      <c r="B792" s="23"/>
       <c r="C792" s="7"/>
     </row>
     <row r="793" spans="2:3">
-      <c r="B793" s="24"/>
+      <c r="B793" s="23"/>
       <c r="C793" s="7"/>
     </row>
     <row r="794" spans="2:3">
-      <c r="B794" s="24"/>
+      <c r="B794" s="23"/>
       <c r="C794" s="7"/>
     </row>
     <row r="795" spans="2:3">
-      <c r="B795" s="24"/>
+      <c r="B795" s="23"/>
       <c r="C795" s="7"/>
     </row>
     <row r="796" spans="2:3">
-      <c r="B796" s="24"/>
+      <c r="B796" s="23"/>
       <c r="C796" s="7"/>
     </row>
     <row r="797" spans="2:3">
-      <c r="B797" s="24"/>
+      <c r="B797" s="23"/>
       <c r="C797" s="7"/>
     </row>
     <row r="798" spans="2:3">
-      <c r="B798" s="24"/>
+      <c r="B798" s="23"/>
       <c r="C798" s="7"/>
     </row>
     <row r="799" spans="2:3">
-      <c r="B799" s="24"/>
+      <c r="B799" s="23"/>
       <c r="C799" s="7"/>
     </row>
     <row r="800" spans="2:3">
-      <c r="B800" s="24"/>
+      <c r="B800" s="23"/>
       <c r="C800" s="7"/>
     </row>
     <row r="801" spans="2:3">
-      <c r="B801" s="24"/>
+      <c r="B801" s="23"/>
       <c r="C801" s="7"/>
     </row>
     <row r="802" spans="2:3">
-      <c r="B802" s="24"/>
+      <c r="B802" s="23"/>
       <c r="C802" s="7"/>
     </row>
     <row r="803" spans="2:3">
-      <c r="B803" s="24"/>
+      <c r="B803" s="23"/>
       <c r="C803" s="7"/>
     </row>
     <row r="804" spans="3:3">
@@ -4611,7 +4602,7 @@
       <c r="C823" s="7"/>
     </row>
     <row r="824" spans="3:3">
-      <c r="C824" s="31"/>
+      <c r="C824" s="30"/>
     </row>
     <row r="825" spans="3:3">
       <c r="C825" s="7"/>
@@ -4863,28 +4854,28 @@
       <c r="C907" s="7"/>
     </row>
     <row r="908" spans="3:3">
-      <c r="C908" s="28"/>
+      <c r="C908" s="27"/>
     </row>
     <row r="909" spans="3:3">
-      <c r="C909" s="28"/>
+      <c r="C909" s="27"/>
     </row>
     <row r="910" spans="3:3">
-      <c r="C910" s="28"/>
+      <c r="C910" s="27"/>
     </row>
     <row r="911" spans="3:3">
-      <c r="C911" s="28"/>
+      <c r="C911" s="27"/>
     </row>
     <row r="912" spans="3:3">
-      <c r="C912" s="28"/>
+      <c r="C912" s="27"/>
     </row>
     <row r="913" spans="3:3">
-      <c r="C913" s="28"/>
+      <c r="C913" s="27"/>
     </row>
     <row r="914" spans="3:3">
-      <c r="C914" s="28"/>
+      <c r="C914" s="27"/>
     </row>
     <row r="915" spans="3:3">
-      <c r="C915" s="28"/>
+      <c r="C915" s="27"/>
     </row>
     <row r="916" spans="3:3">
       <c r="C916" s="7"/>
@@ -5175,64 +5166,64 @@
       <c r="C1011" s="7"/>
     </row>
     <row r="1012" spans="3:3">
-      <c r="C1012" s="28"/>
+      <c r="C1012" s="27"/>
     </row>
     <row r="1013" spans="3:3">
-      <c r="C1013" s="28"/>
+      <c r="C1013" s="27"/>
     </row>
     <row r="1014" spans="3:3">
-      <c r="C1014" s="28"/>
+      <c r="C1014" s="27"/>
     </row>
     <row r="1015" spans="3:3">
-      <c r="C1015" s="28"/>
+      <c r="C1015" s="27"/>
     </row>
     <row r="1016" spans="3:3">
-      <c r="C1016" s="28"/>
+      <c r="C1016" s="27"/>
     </row>
     <row r="1017" spans="3:3">
-      <c r="C1017" s="28"/>
+      <c r="C1017" s="27"/>
     </row>
     <row r="1018" spans="3:3">
-      <c r="C1018" s="28"/>
+      <c r="C1018" s="27"/>
     </row>
     <row r="1019" spans="3:3">
-      <c r="C1019" s="28"/>
+      <c r="C1019" s="27"/>
     </row>
     <row r="1020" spans="3:3">
-      <c r="C1020" s="28"/>
+      <c r="C1020" s="27"/>
     </row>
     <row r="1021" spans="3:3">
-      <c r="C1021" s="28"/>
+      <c r="C1021" s="27"/>
     </row>
     <row r="1022" spans="3:3">
-      <c r="C1022" s="28"/>
+      <c r="C1022" s="27"/>
     </row>
     <row r="1023" spans="3:3">
-      <c r="C1023" s="28"/>
+      <c r="C1023" s="27"/>
     </row>
     <row r="1024" spans="3:3">
-      <c r="C1024" s="28"/>
+      <c r="C1024" s="27"/>
     </row>
     <row r="1025" spans="3:3">
-      <c r="C1025" s="28"/>
+      <c r="C1025" s="27"/>
     </row>
     <row r="1026" spans="3:3">
-      <c r="C1026" s="28"/>
+      <c r="C1026" s="27"/>
     </row>
     <row r="1027" spans="3:3">
-      <c r="C1027" s="28"/>
+      <c r="C1027" s="27"/>
     </row>
     <row r="1028" spans="3:3">
-      <c r="C1028" s="28"/>
+      <c r="C1028" s="27"/>
     </row>
     <row r="1029" spans="3:3">
-      <c r="C1029" s="28"/>
+      <c r="C1029" s="27"/>
     </row>
     <row r="1030" spans="3:3">
-      <c r="C1030" s="28"/>
+      <c r="C1030" s="27"/>
     </row>
     <row r="1031" spans="3:3">
-      <c r="C1031" s="28"/>
+      <c r="C1031" s="27"/>
     </row>
     <row r="1032" spans="3:3">
       <c r="C1032" s="7"/>
@@ -5265,178 +5256,178 @@
       <c r="C1041" s="7"/>
     </row>
     <row r="1042" spans="3:3">
-      <c r="C1042" s="28"/>
+      <c r="C1042" s="27"/>
     </row>
     <row r="1043" spans="3:3">
-      <c r="C1043" s="28"/>
+      <c r="C1043" s="27"/>
     </row>
     <row r="1044" spans="3:3">
-      <c r="C1044" s="28"/>
+      <c r="C1044" s="27"/>
     </row>
     <row r="1045" spans="3:3">
-      <c r="C1045" s="28"/>
+      <c r="C1045" s="27"/>
     </row>
     <row r="1046" spans="3:3">
-      <c r="C1046" s="22"/>
+      <c r="C1046" s="21"/>
     </row>
     <row r="1047" spans="3:3">
-      <c r="C1047" s="22"/>
+      <c r="C1047" s="21"/>
     </row>
     <row r="1048" spans="3:3">
-      <c r="C1048" s="22"/>
+      <c r="C1048" s="21"/>
     </row>
     <row r="1049" spans="3:3">
-      <c r="C1049" s="22"/>
+      <c r="C1049" s="21"/>
     </row>
     <row r="1050" spans="3:3">
-      <c r="C1050" s="22"/>
+      <c r="C1050" s="21"/>
     </row>
     <row r="1051" spans="3:3">
-      <c r="C1051" s="22"/>
+      <c r="C1051" s="21"/>
     </row>
     <row r="1052" spans="3:3">
-      <c r="C1052" s="22"/>
+      <c r="C1052" s="21"/>
     </row>
     <row r="1053" spans="3:3">
-      <c r="C1053" s="22"/>
+      <c r="C1053" s="21"/>
     </row>
     <row r="1054" spans="3:3">
-      <c r="C1054" s="22"/>
+      <c r="C1054" s="21"/>
     </row>
     <row r="1055" spans="3:3">
-      <c r="C1055" s="22"/>
+      <c r="C1055" s="21"/>
     </row>
     <row r="1056" spans="3:3">
-      <c r="C1056" s="22"/>
+      <c r="C1056" s="21"/>
     </row>
     <row r="1057" spans="3:3">
-      <c r="C1057" s="22"/>
+      <c r="C1057" s="21"/>
     </row>
     <row r="1058" spans="3:3">
-      <c r="C1058" s="22"/>
+      <c r="C1058" s="21"/>
     </row>
     <row r="1059" spans="3:3">
-      <c r="C1059" s="22"/>
+      <c r="C1059" s="21"/>
     </row>
     <row r="1060" spans="3:3">
-      <c r="C1060" s="22"/>
+      <c r="C1060" s="21"/>
     </row>
     <row r="1061" spans="3:3">
-      <c r="C1061" s="22"/>
+      <c r="C1061" s="21"/>
     </row>
     <row r="1062" spans="3:3">
-      <c r="C1062" s="22"/>
+      <c r="C1062" s="21"/>
     </row>
     <row r="1063" spans="3:3">
-      <c r="C1063" s="22"/>
+      <c r="C1063" s="21"/>
     </row>
     <row r="1064" spans="3:3">
-      <c r="C1064" s="22"/>
+      <c r="C1064" s="21"/>
     </row>
     <row r="1065" spans="3:3">
-      <c r="C1065" s="22"/>
+      <c r="C1065" s="21"/>
     </row>
     <row r="1066" spans="3:3">
-      <c r="C1066" s="22"/>
+      <c r="C1066" s="21"/>
     </row>
     <row r="1067" spans="3:3">
-      <c r="C1067" s="22"/>
+      <c r="C1067" s="21"/>
     </row>
     <row r="1068" spans="3:3">
-      <c r="C1068" s="22"/>
+      <c r="C1068" s="21"/>
     </row>
     <row r="1069" spans="3:3">
-      <c r="C1069" s="22"/>
+      <c r="C1069" s="21"/>
     </row>
     <row r="1070" spans="3:3">
-      <c r="C1070" s="22"/>
+      <c r="C1070" s="21"/>
     </row>
     <row r="1071" spans="3:3">
-      <c r="C1071" s="22"/>
+      <c r="C1071" s="21"/>
     </row>
     <row r="1072" spans="3:3">
-      <c r="C1072" s="22"/>
+      <c r="C1072" s="21"/>
     </row>
     <row r="1073" spans="3:3">
-      <c r="C1073" s="22"/>
+      <c r="C1073" s="21"/>
     </row>
     <row r="1074" spans="3:3">
-      <c r="C1074" s="22"/>
+      <c r="C1074" s="21"/>
     </row>
     <row r="1075" spans="3:3">
-      <c r="C1075" s="22"/>
+      <c r="C1075" s="21"/>
     </row>
     <row r="1076" spans="3:3">
-      <c r="C1076" s="22"/>
+      <c r="C1076" s="21"/>
     </row>
     <row r="1077" spans="3:3">
-      <c r="C1077" s="22"/>
+      <c r="C1077" s="21"/>
     </row>
     <row r="1078" spans="3:3">
-      <c r="C1078" s="22"/>
+      <c r="C1078" s="21"/>
     </row>
     <row r="1079" spans="3:3">
-      <c r="C1079" s="22"/>
+      <c r="C1079" s="21"/>
     </row>
     <row r="1080" spans="3:3">
-      <c r="C1080" s="22"/>
+      <c r="C1080" s="21"/>
     </row>
     <row r="1081" spans="3:3">
-      <c r="C1081" s="22"/>
+      <c r="C1081" s="21"/>
     </row>
     <row r="1082" spans="3:3">
-      <c r="C1082" s="22"/>
+      <c r="C1082" s="21"/>
     </row>
     <row r="1083" spans="3:3">
-      <c r="C1083" s="22"/>
+      <c r="C1083" s="21"/>
     </row>
     <row r="1084" spans="3:3">
-      <c r="C1084" s="22"/>
+      <c r="C1084" s="21"/>
     </row>
     <row r="1085" spans="3:3">
-      <c r="C1085" s="22"/>
+      <c r="C1085" s="21"/>
     </row>
     <row r="1086" spans="3:3">
-      <c r="C1086" s="22"/>
+      <c r="C1086" s="21"/>
     </row>
     <row r="1087" spans="3:3">
-      <c r="C1087" s="22"/>
+      <c r="C1087" s="21"/>
     </row>
     <row r="1088" spans="3:3">
-      <c r="C1088" s="22"/>
+      <c r="C1088" s="21"/>
     </row>
     <row r="1089" spans="3:3">
-      <c r="C1089" s="22"/>
+      <c r="C1089" s="21"/>
     </row>
     <row r="1090" spans="3:3">
-      <c r="C1090" s="22"/>
+      <c r="C1090" s="21"/>
     </row>
     <row r="1091" spans="3:3">
-      <c r="C1091" s="22"/>
+      <c r="C1091" s="21"/>
     </row>
     <row r="1092" spans="3:3">
-      <c r="C1092" s="22"/>
+      <c r="C1092" s="21"/>
     </row>
     <row r="1093" spans="3:3">
-      <c r="C1093" s="22"/>
+      <c r="C1093" s="21"/>
     </row>
     <row r="1094" spans="3:3">
-      <c r="C1094" s="22"/>
+      <c r="C1094" s="21"/>
     </row>
     <row r="1095" spans="3:3">
-      <c r="C1095" s="22"/>
+      <c r="C1095" s="21"/>
     </row>
     <row r="1096" spans="3:3">
-      <c r="C1096" s="22"/>
+      <c r="C1096" s="21"/>
     </row>
     <row r="1097" spans="3:3">
-      <c r="C1097" s="22"/>
+      <c r="C1097" s="21"/>
     </row>
     <row r="1098" spans="3:3">
-      <c r="C1098" s="22"/>
+      <c r="C1098" s="21"/>
     </row>
     <row r="1099" spans="3:3">
-      <c r="C1099" s="22"/>
+      <c r="C1099" s="21"/>
     </row>
     <row r="1100" spans="3:3">
       <c r="C1100" s="7"/>
@@ -5448,13 +5439,13 @@
       <c r="C1102" s="7"/>
     </row>
     <row r="1103" spans="3:3">
-      <c r="C1103" s="22"/>
+      <c r="C1103" s="21"/>
     </row>
     <row r="1104" spans="3:3">
-      <c r="C1104" s="22"/>
+      <c r="C1104" s="21"/>
     </row>
     <row r="1105" spans="3:3">
-      <c r="C1105" s="22"/>
+      <c r="C1105" s="21"/>
     </row>
     <row r="1106" spans="3:3">
       <c r="C1106" s="7"/>
@@ -5463,10 +5454,10 @@
       <c r="C1107" s="7"/>
     </row>
     <row r="1108" spans="3:3">
-      <c r="C1108" s="22"/>
+      <c r="C1108" s="21"/>
     </row>
     <row r="1109" spans="3:3">
-      <c r="C1109" s="22"/>
+      <c r="C1109" s="21"/>
     </row>
     <row r="1110" spans="3:3">
       <c r="C1110" s="7"/>
@@ -5475,10 +5466,10 @@
       <c r="C1111" s="7"/>
     </row>
     <row r="1112" spans="3:3">
-      <c r="C1112" s="22"/>
+      <c r="C1112" s="21"/>
     </row>
     <row r="1113" spans="3:3">
-      <c r="C1113" s="22"/>
+      <c r="C1113" s="21"/>
     </row>
     <row r="1114" spans="3:3">
       <c r="C1114" s="7"/>
@@ -5487,10 +5478,10 @@
       <c r="C1115" s="7"/>
     </row>
     <row r="1116" spans="3:3">
-      <c r="C1116" s="22"/>
+      <c r="C1116" s="21"/>
     </row>
     <row r="1117" spans="3:3">
-      <c r="C1117" s="22"/>
+      <c r="C1117" s="21"/>
     </row>
     <row r="1118" spans="3:3">
       <c r="C1118" s="7"/>
@@ -5832,7 +5823,7 @@
       <c r="C1230" s="7"/>
     </row>
     <row r="1231" spans="3:3">
-      <c r="C1231" s="32"/>
+      <c r="C1231" s="31"/>
     </row>
     <row r="1232" spans="3:3">
       <c r="C1232" s="7"/>
@@ -6213,163 +6204,163 @@
       <c r="C1357" s="7"/>
     </row>
     <row r="1358" spans="3:3">
-      <c r="C1358" s="21"/>
+      <c r="C1358" s="9"/>
     </row>
     <row r="1359" spans="3:3">
-      <c r="C1359" s="21"/>
+      <c r="C1359" s="9"/>
     </row>
     <row r="1360" spans="3:3">
-      <c r="C1360" s="21"/>
+      <c r="C1360" s="9"/>
     </row>
     <row r="1361" spans="3:3">
-      <c r="C1361" s="21"/>
+      <c r="C1361" s="9"/>
     </row>
     <row r="1362" spans="3:3">
-      <c r="C1362" s="21"/>
+      <c r="C1362" s="9"/>
     </row>
     <row r="1363" spans="3:3">
-      <c r="C1363" s="21"/>
+      <c r="C1363" s="9"/>
     </row>
     <row r="1364" spans="3:3">
-      <c r="C1364" s="21"/>
+      <c r="C1364" s="9"/>
     </row>
     <row r="1365" spans="3:3">
-      <c r="C1365" s="21"/>
+      <c r="C1365" s="9"/>
     </row>
     <row r="1366" spans="3:3">
-      <c r="C1366" s="21"/>
+      <c r="C1366" s="9"/>
     </row>
     <row r="1367" spans="3:3">
-      <c r="C1367" s="21"/>
+      <c r="C1367" s="9"/>
     </row>
     <row r="1368" spans="3:3">
-      <c r="C1368" s="21"/>
+      <c r="C1368" s="9"/>
     </row>
     <row r="1369" spans="3:3">
-      <c r="C1369" s="21"/>
+      <c r="C1369" s="9"/>
     </row>
     <row r="1370" spans="3:3">
-      <c r="C1370" s="21"/>
+      <c r="C1370" s="9"/>
     </row>
     <row r="1371" spans="3:3">
-      <c r="C1371" s="21"/>
+      <c r="C1371" s="9"/>
     </row>
     <row r="1372" spans="3:3">
-      <c r="C1372" s="21"/>
+      <c r="C1372" s="9"/>
     </row>
     <row r="1373" spans="3:3">
-      <c r="C1373" s="28"/>
+      <c r="C1373" s="27"/>
     </row>
     <row r="1374" spans="3:3">
-      <c r="C1374" s="28"/>
+      <c r="C1374" s="27"/>
     </row>
     <row r="1375" spans="3:3">
-      <c r="C1375" s="28"/>
+      <c r="C1375" s="27"/>
     </row>
     <row r="1376" spans="3:3">
-      <c r="C1376" s="28"/>
+      <c r="C1376" s="27"/>
     </row>
     <row r="1377" spans="3:3">
-      <c r="C1377" s="28"/>
+      <c r="C1377" s="27"/>
     </row>
     <row r="1378" spans="3:3">
-      <c r="C1378" s="28"/>
+      <c r="C1378" s="27"/>
     </row>
     <row r="1379" spans="3:3">
-      <c r="C1379" s="28"/>
+      <c r="C1379" s="27"/>
     </row>
     <row r="1380" spans="3:3">
-      <c r="C1380" s="28"/>
+      <c r="C1380" s="27"/>
     </row>
     <row r="1381" spans="3:3">
-      <c r="C1381" s="28"/>
+      <c r="C1381" s="27"/>
     </row>
     <row r="1382" spans="3:3">
-      <c r="C1382" s="28"/>
+      <c r="C1382" s="27"/>
     </row>
     <row r="1383" spans="3:3">
-      <c r="C1383" s="28"/>
+      <c r="C1383" s="27"/>
     </row>
     <row r="1384" spans="3:3">
-      <c r="C1384" s="28"/>
+      <c r="C1384" s="27"/>
     </row>
     <row r="1385" spans="3:3">
-      <c r="C1385" s="28"/>
+      <c r="C1385" s="27"/>
     </row>
     <row r="1386" spans="3:3">
-      <c r="C1386" s="28"/>
+      <c r="C1386" s="27"/>
     </row>
     <row r="1387" spans="3:3">
-      <c r="C1387" s="28"/>
+      <c r="C1387" s="27"/>
     </row>
     <row r="1388" spans="3:3">
-      <c r="C1388" s="28"/>
+      <c r="C1388" s="27"/>
     </row>
     <row r="1389" spans="3:3">
-      <c r="C1389" s="28"/>
+      <c r="C1389" s="27"/>
     </row>
     <row r="1390" spans="3:3">
-      <c r="C1390" s="28"/>
+      <c r="C1390" s="27"/>
     </row>
     <row r="1391" spans="3:3">
-      <c r="C1391" s="28"/>
+      <c r="C1391" s="27"/>
     </row>
     <row r="1392" spans="3:3">
-      <c r="C1392" s="28"/>
+      <c r="C1392" s="27"/>
     </row>
     <row r="1393" spans="3:3">
-      <c r="C1393" s="28"/>
+      <c r="C1393" s="27"/>
     </row>
     <row r="1394" spans="3:3">
-      <c r="C1394" s="28"/>
+      <c r="C1394" s="27"/>
     </row>
     <row r="1395" spans="3:3">
-      <c r="C1395" s="28"/>
+      <c r="C1395" s="27"/>
     </row>
     <row r="1396" spans="3:3">
-      <c r="C1396" s="28"/>
+      <c r="C1396" s="27"/>
     </row>
     <row r="1397" spans="3:3">
-      <c r="C1397" s="28"/>
+      <c r="C1397" s="27"/>
     </row>
     <row r="1398" spans="3:3">
-      <c r="C1398" s="28"/>
+      <c r="C1398" s="27"/>
     </row>
     <row r="1399" spans="3:3">
-      <c r="C1399" s="28"/>
+      <c r="C1399" s="27"/>
     </row>
     <row r="1400" spans="3:3">
-      <c r="C1400" s="28"/>
+      <c r="C1400" s="27"/>
     </row>
     <row r="1401" spans="3:3">
-      <c r="C1401" s="28"/>
+      <c r="C1401" s="27"/>
     </row>
     <row r="1402" spans="3:3">
-      <c r="C1402" s="28"/>
+      <c r="C1402" s="27"/>
     </row>
     <row r="1403" spans="3:3">
-      <c r="C1403" s="28"/>
+      <c r="C1403" s="27"/>
     </row>
     <row r="1404" spans="3:3">
-      <c r="C1404" s="28"/>
+      <c r="C1404" s="27"/>
     </row>
     <row r="1405" spans="3:3">
-      <c r="C1405" s="28"/>
+      <c r="C1405" s="27"/>
     </row>
     <row r="1406" spans="3:3">
-      <c r="C1406" s="28"/>
+      <c r="C1406" s="27"/>
     </row>
     <row r="1407" spans="3:3">
-      <c r="C1407" s="28"/>
+      <c r="C1407" s="27"/>
     </row>
     <row r="1408" spans="3:3">
-      <c r="C1408" s="28"/>
+      <c r="C1408" s="27"/>
     </row>
     <row r="1409" spans="3:3">
-      <c r="C1409" s="28"/>
+      <c r="C1409" s="27"/>
     </row>
     <row r="1410" spans="3:3">
-      <c r="C1410" s="28"/>
+      <c r="C1410" s="27"/>
     </row>
     <row r="1411" spans="3:3">
       <c r="C1411" s="7"/>
@@ -6819,22 +6810,22 @@
       <c r="C1559" s="7"/>
     </row>
     <row r="1560" spans="3:3">
-      <c r="C1560" s="23"/>
+      <c r="C1560" s="22"/>
     </row>
     <row r="1561" spans="3:3">
-      <c r="C1561" s="23"/>
+      <c r="C1561" s="22"/>
     </row>
     <row r="1562" spans="3:3">
-      <c r="C1562" s="23"/>
+      <c r="C1562" s="22"/>
     </row>
     <row r="1563" spans="3:3">
-      <c r="C1563" s="23"/>
+      <c r="C1563" s="22"/>
     </row>
     <row r="1564" spans="3:3">
-      <c r="C1564" s="23"/>
+      <c r="C1564" s="22"/>
     </row>
     <row r="1565" spans="3:3">
-      <c r="C1565" s="23"/>
+      <c r="C1565" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6890,195 +6881,195 @@
     </row>
     <row r="2" spans="3:5">
       <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="3:5">
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="3:5">
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="3:5">
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" spans="3:5">
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" spans="3:5">
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="3:5">
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="3:5">
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="21"/>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="21"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="21"/>
     </row>
     <row r="15" spans="3:5">
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="21"/>
     </row>
     <row r="16" spans="3:5">
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="21"/>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="21"/>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="21"/>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="3:5">
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" spans="3:5">
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" spans="3:5">
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="21"/>
     </row>
     <row r="26" spans="5:5">
-      <c r="E26" s="22"/>
+      <c r="E26" s="21"/>
     </row>
     <row r="27" spans="5:5">
-      <c r="E27" s="22"/>
+      <c r="E27" s="21"/>
     </row>
     <row r="28" spans="5:5">
-      <c r="E28" s="22"/>
+      <c r="E28" s="21"/>
     </row>
     <row r="29" spans="5:5">
-      <c r="E29" s="22"/>
+      <c r="E29" s="21"/>
     </row>
     <row r="30" spans="5:5">
-      <c r="E30" s="22"/>
+      <c r="E30" s="21"/>
     </row>
     <row r="31" spans="5:5">
-      <c r="E31" s="22"/>
+      <c r="E31" s="21"/>
     </row>
     <row r="32" spans="5:5">
-      <c r="E32" s="22"/>
+      <c r="E32" s="21"/>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="22"/>
+      <c r="E33" s="21"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="25"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="24"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="25"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="24"/>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="25"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="24"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="25"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="24"/>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="23"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="25"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="24"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="23"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="25"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="24"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="23"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="25"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="24"/>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="23"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="25"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="13"/>
@@ -7197,8 +7188,8 @@
   <sheetPr/>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -7245,7 +7236,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="9">
-        <v>1000649</v>
+        <v>1000685</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>15</v>
@@ -7264,7 +7255,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="9">
-        <v>1000649</v>
+        <v>1000685</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>15</v>

--- a/config_Release/extra_award_server.xlsx
+++ b/config_Release/extra_award_server.xlsx
@@ -158,7 +158,7 @@
     <t>source_type</t>
   </si>
   <si>
-    <t>ymshf_017_hldr_rank</t>
+    <t>qlyx_021_xgphb_rank</t>
   </si>
   <si>
     <t>buyu_3d_get_use_item</t>
@@ -175,10 +175,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -206,6 +206,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -214,8 +267,24 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,23 +307,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,62 +322,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -335,16 +335,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,7 +400,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,25 +436,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,19 +466,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,49 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,6 +497,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,18 +563,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,32 +594,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,6 +641,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -672,19 +668,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,10 +694,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,133 +706,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -7188,8 +7188,8 @@
   <sheetPr/>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -7236,7 +7236,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="9">
-        <v>1000685</v>
+        <v>1000686</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>15</v>
@@ -7255,7 +7255,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="9">
-        <v>1000685</v>
+        <v>1000686</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>15</v>

--- a/config_Release/extra_award_server.xlsx
+++ b/config_Release/extra_award_server.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task|任务配置" sheetId="2" r:id="rId1"/>
@@ -26,7 +31,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +63,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +95,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t>id|</t>
   </si>
@@ -149,6 +154,9 @@
     <t>|对应参数说明</t>
   </si>
   <si>
+    <t>1,1.1,1.3,1.5</t>
+  </si>
+  <si>
     <t>box_id|宝箱id</t>
   </si>
   <si>
@@ -173,14 +181,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,150 +209,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -360,8 +218,21 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,19 +247,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,176 +269,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -590,255 +293,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -848,10 +309,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -889,7 +350,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -922,67 +386,23 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 4" xfId="49"/>
-    <cellStyle name="常规 4 2" xfId="50"/>
+    <cellStyle name="常规 4" xfId="1"/>
+    <cellStyle name="常规 4 2" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1240,21 +660,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="3" customWidth="1"/>
@@ -1264,7 +683,7 @@
     <col min="6" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="56.1" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="56.1" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1281,83 +700,83 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="43.5" customHeight="1" spans="2:5">
+    <row r="2" spans="1:5" ht="43.5" customHeight="1">
       <c r="B2" s="9"/>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" ht="43.5" customHeight="1" spans="2:5">
+    <row r="3" spans="1:5" ht="43.5" customHeight="1">
       <c r="B3" s="9"/>
       <c r="C3" s="8"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" ht="43.5" customHeight="1" spans="2:5">
+    <row r="4" spans="1:5" ht="43.5" customHeight="1">
       <c r="B4" s="9"/>
       <c r="C4" s="8"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" ht="43.5" customHeight="1" spans="2:5">
+    <row r="5" spans="1:5" ht="43.5" customHeight="1">
       <c r="B5" s="9"/>
       <c r="C5" s="8"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" ht="43.5" customHeight="1" spans="2:5">
+    <row r="6" spans="1:5" ht="43.5" customHeight="1">
       <c r="B6" s="9"/>
       <c r="C6" s="8"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="1:5">
       <c r="B7" s="9"/>
       <c r="C7" s="8"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="1:5">
       <c r="B8" s="9"/>
       <c r="C8" s="8"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="1:5">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="1:5">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="1:5">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" s="9" customFormat="1" spans="3:5">
+    <row r="12" spans="1:5" s="9" customFormat="1">
       <c r="C12" s="8"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="1:5">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" s="9" customFormat="1" spans="3:5">
+    <row r="14" spans="1:5" s="9" customFormat="1">
       <c r="C14" s="8"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="1:5">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" ht="18.75" customHeight="1" spans="2:5">
+    <row r="16" spans="1:5" ht="18.75" customHeight="1">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
       <c r="E16" s="2"/>
@@ -1372,152 +791,152 @@
       <c r="C18" s="8"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" s="9" customFormat="1" spans="3:5">
+    <row r="19" spans="2:5" s="9" customFormat="1">
       <c r="C19" s="8"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" s="9" customFormat="1" spans="3:5">
+    <row r="20" spans="2:5" s="9" customFormat="1">
       <c r="C20" s="8"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" s="9" customFormat="1" spans="3:5">
+    <row r="21" spans="2:5" s="9" customFormat="1">
       <c r="C21" s="8"/>
       <c r="D21" s="2"/>
       <c r="E21"/>
     </row>
-    <row r="22" s="9" customFormat="1" spans="3:5">
+    <row r="22" spans="2:5" s="9" customFormat="1">
       <c r="C22" s="8"/>
       <c r="D22" s="2"/>
       <c r="E22"/>
     </row>
-    <row r="23" s="9" customFormat="1" spans="3:5">
+    <row r="23" spans="2:5" s="9" customFormat="1">
       <c r="C23" s="8"/>
       <c r="D23" s="2"/>
       <c r="E23"/>
     </row>
-    <row r="24" s="9" customFormat="1" spans="3:5">
+    <row r="24" spans="2:5" s="9" customFormat="1">
       <c r="C24" s="8"/>
       <c r="D24" s="7"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" s="9" customFormat="1" spans="3:5">
+    <row r="25" spans="2:5" s="9" customFormat="1">
       <c r="C25" s="8"/>
       <c r="D25" s="7"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" s="9" customFormat="1" spans="3:5">
+    <row r="26" spans="2:5" s="9" customFormat="1">
       <c r="C26" s="8"/>
       <c r="D26" s="2"/>
       <c r="E26"/>
     </row>
-    <row r="27" s="9" customFormat="1" spans="3:5">
+    <row r="27" spans="2:5" s="9" customFormat="1">
       <c r="C27" s="8"/>
       <c r="D27" s="2"/>
       <c r="E27"/>
     </row>
-    <row r="28" s="9" customFormat="1" spans="3:5">
+    <row r="28" spans="2:5" s="9" customFormat="1">
       <c r="C28" s="8"/>
       <c r="D28" s="2"/>
       <c r="E28"/>
     </row>
-    <row r="29" s="9" customFormat="1" spans="3:5">
+    <row r="29" spans="2:5" s="9" customFormat="1">
       <c r="C29" s="8"/>
       <c r="D29" s="2"/>
       <c r="E29"/>
     </row>
-    <row r="30" s="9" customFormat="1" spans="3:5">
+    <row r="30" spans="2:5" s="9" customFormat="1">
       <c r="C30" s="8"/>
       <c r="D30" s="2"/>
       <c r="E30"/>
     </row>
-    <row r="31" s="9" customFormat="1" spans="3:5">
+    <row r="31" spans="2:5" s="9" customFormat="1">
       <c r="C31" s="8"/>
       <c r="D31" s="2"/>
       <c r="E31"/>
     </row>
-    <row r="32" s="9" customFormat="1" spans="3:5">
+    <row r="32" spans="2:5" s="9" customFormat="1">
       <c r="C32" s="8"/>
       <c r="D32" s="2"/>
       <c r="E32"/>
     </row>
-    <row r="33" s="9" customFormat="1" spans="3:5">
+    <row r="33" spans="2:5" s="9" customFormat="1">
       <c r="C33" s="8"/>
       <c r="D33" s="2"/>
       <c r="E33"/>
     </row>
-    <row r="34" s="9" customFormat="1" spans="3:5">
+    <row r="34" spans="2:5" s="9" customFormat="1">
       <c r="C34" s="8"/>
       <c r="D34" s="2"/>
       <c r="E34"/>
     </row>
-    <row r="35" s="9" customFormat="1" spans="3:5">
+    <row r="35" spans="2:5" s="9" customFormat="1">
       <c r="C35" s="8"/>
       <c r="D35" s="2"/>
       <c r="E35"/>
     </row>
-    <row r="36" s="9" customFormat="1" spans="3:5">
+    <row r="36" spans="2:5" s="9" customFormat="1">
       <c r="C36" s="8"/>
       <c r="D36" s="2"/>
       <c r="E36"/>
     </row>
-    <row r="37" s="9" customFormat="1" spans="3:5">
+    <row r="37" spans="2:5" s="9" customFormat="1">
       <c r="C37" s="8"/>
       <c r="D37" s="2"/>
       <c r="E37"/>
     </row>
-    <row r="38" s="9" customFormat="1" spans="3:5">
+    <row r="38" spans="2:5" s="9" customFormat="1">
       <c r="C38" s="8"/>
       <c r="D38" s="2"/>
       <c r="E38"/>
     </row>
-    <row r="39" s="9" customFormat="1" spans="3:5">
+    <row r="39" spans="2:5" s="9" customFormat="1">
       <c r="C39" s="8"/>
       <c r="D39" s="2"/>
       <c r="E39"/>
     </row>
-    <row r="40" s="9" customFormat="1" spans="3:5">
+    <row r="40" spans="2:5" s="9" customFormat="1">
       <c r="C40" s="8"/>
       <c r="D40" s="2"/>
       <c r="E40"/>
     </row>
-    <row r="41" s="9" customFormat="1" spans="3:5">
+    <row r="41" spans="2:5" s="9" customFormat="1">
       <c r="C41" s="8"/>
       <c r="D41" s="2"/>
       <c r="E41"/>
     </row>
-    <row r="42" s="9" customFormat="1" spans="3:5">
+    <row r="42" spans="2:5" s="9" customFormat="1">
       <c r="C42" s="8"/>
       <c r="D42" s="2"/>
       <c r="E42"/>
     </row>
-    <row r="43" s="9" customFormat="1" spans="3:5">
+    <row r="43" spans="2:5" s="9" customFormat="1">
       <c r="C43" s="8"/>
       <c r="D43" s="2"/>
       <c r="E43"/>
     </row>
-    <row r="44" s="9" customFormat="1" spans="3:5">
+    <row r="44" spans="2:5" s="9" customFormat="1">
       <c r="C44" s="8"/>
       <c r="D44" s="2"/>
       <c r="E44"/>
     </row>
-    <row r="45" s="9" customFormat="1" spans="3:5">
+    <row r="45" spans="2:5" s="9" customFormat="1">
       <c r="C45" s="8"/>
       <c r="D45" s="2"/>
       <c r="E45"/>
     </row>
-    <row r="46" s="23" customFormat="1" spans="2:5">
+    <row r="46" spans="2:5" s="24" customFormat="1">
       <c r="B46" s="9"/>
       <c r="C46" s="8"/>
       <c r="D46" s="2"/>
       <c r="E46"/>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:5">
       <c r="B47" s="9"/>
       <c r="C47" s="8"/>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:5">
       <c r="B48" s="9"/>
       <c r="C48" s="8"/>
     </row>
@@ -1822,35 +1241,35 @@
       <c r="C123" s="8"/>
     </row>
     <row r="124" spans="2:3">
-      <c r="B124" s="25"/>
+      <c r="B124" s="26"/>
       <c r="C124" s="8"/>
     </row>
     <row r="125" spans="2:3">
-      <c r="B125" s="25"/>
+      <c r="B125" s="26"/>
       <c r="C125" s="8"/>
     </row>
     <row r="126" spans="2:3">
-      <c r="B126" s="25"/>
+      <c r="B126" s="26"/>
       <c r="C126" s="8"/>
     </row>
     <row r="127" spans="2:3">
-      <c r="B127" s="25"/>
+      <c r="B127" s="26"/>
       <c r="C127" s="8"/>
     </row>
     <row r="128" spans="2:3">
-      <c r="B128" s="25"/>
+      <c r="B128" s="26"/>
       <c r="C128" s="8"/>
     </row>
     <row r="129" spans="2:3">
-      <c r="B129" s="25"/>
+      <c r="B129" s="26"/>
       <c r="C129" s="8"/>
     </row>
     <row r="130" spans="2:3">
-      <c r="B130" s="25"/>
+      <c r="B130" s="26"/>
       <c r="C130" s="8"/>
     </row>
     <row r="131" spans="2:3">
-      <c r="B131" s="25"/>
+      <c r="B131" s="26"/>
       <c r="C131" s="8"/>
     </row>
     <row r="132" spans="2:3">
@@ -2058,7 +1477,7 @@
       <c r="C182" s="7"/>
     </row>
     <row r="183" spans="2:3">
-      <c r="B183" s="25"/>
+      <c r="B183" s="26"/>
       <c r="C183" s="8"/>
     </row>
     <row r="184" spans="2:3">
@@ -2094,31 +1513,31 @@
       <c r="C191" s="8"/>
     </row>
     <row r="192" spans="2:3">
-      <c r="B192" s="23"/>
+      <c r="B192" s="24"/>
       <c r="C192" s="8"/>
     </row>
     <row r="193" spans="2:3">
-      <c r="B193" s="23"/>
+      <c r="B193" s="24"/>
       <c r="C193" s="8"/>
     </row>
     <row r="194" spans="2:3">
-      <c r="B194" s="23"/>
+      <c r="B194" s="24"/>
       <c r="C194" s="8"/>
     </row>
     <row r="195" spans="2:3">
-      <c r="B195" s="23"/>
+      <c r="B195" s="24"/>
       <c r="C195" s="8"/>
     </row>
     <row r="196" spans="2:3">
-      <c r="B196" s="23"/>
+      <c r="B196" s="24"/>
       <c r="C196" s="8"/>
     </row>
     <row r="197" spans="2:3">
-      <c r="B197" s="23"/>
+      <c r="B197" s="24"/>
       <c r="C197" s="8"/>
     </row>
     <row r="198" spans="2:3">
-      <c r="B198" s="23"/>
+      <c r="B198" s="24"/>
       <c r="C198" s="8"/>
     </row>
     <row r="199" spans="2:3">
@@ -2159,83 +1578,83 @@
     </row>
     <row r="208" spans="2:3">
       <c r="B208" s="9"/>
-      <c r="C208" s="21"/>
+      <c r="C208" s="22"/>
     </row>
     <row r="209" spans="2:3">
       <c r="B209" s="9"/>
-      <c r="C209" s="21"/>
+      <c r="C209" s="22"/>
     </row>
     <row r="210" spans="2:3">
       <c r="B210" s="9"/>
-      <c r="C210" s="21"/>
+      <c r="C210" s="22"/>
     </row>
     <row r="211" spans="2:3">
       <c r="B211" s="9"/>
-      <c r="C211" s="21"/>
+      <c r="C211" s="22"/>
     </row>
     <row r="212" spans="2:3">
       <c r="B212" s="9"/>
-      <c r="C212" s="21"/>
+      <c r="C212" s="22"/>
     </row>
     <row r="213" spans="2:3">
       <c r="B213" s="9"/>
-      <c r="C213" s="21"/>
+      <c r="C213" s="22"/>
     </row>
     <row r="214" spans="2:3">
       <c r="B214" s="9"/>
-      <c r="C214" s="21"/>
+      <c r="C214" s="22"/>
     </row>
     <row r="215" spans="2:3">
       <c r="B215" s="9"/>
-      <c r="C215" s="21"/>
+      <c r="C215" s="22"/>
     </row>
     <row r="216" spans="2:3">
       <c r="B216" s="9"/>
-      <c r="C216" s="21"/>
+      <c r="C216" s="22"/>
     </row>
     <row r="217" spans="2:3">
       <c r="B217" s="9"/>
-      <c r="C217" s="21"/>
+      <c r="C217" s="22"/>
     </row>
     <row r="218" spans="2:3">
       <c r="B218" s="9"/>
-      <c r="C218" s="21"/>
+      <c r="C218" s="22"/>
     </row>
     <row r="219" spans="2:3">
       <c r="B219" s="9"/>
-      <c r="C219" s="21"/>
+      <c r="C219" s="22"/>
     </row>
     <row r="220" spans="2:3">
       <c r="B220" s="9"/>
-      <c r="C220" s="21"/>
+      <c r="C220" s="22"/>
     </row>
     <row r="221" spans="2:3">
       <c r="B221" s="9"/>
-      <c r="C221" s="21"/>
+      <c r="C221" s="22"/>
     </row>
     <row r="222" spans="2:3">
       <c r="B222" s="9"/>
-      <c r="C222" s="21"/>
+      <c r="C222" s="22"/>
     </row>
     <row r="223" spans="2:3">
       <c r="B223" s="9"/>
-      <c r="C223" s="21"/>
+      <c r="C223" s="22"/>
     </row>
     <row r="224" spans="2:3">
       <c r="B224" s="9"/>
-      <c r="C224" s="21"/>
+      <c r="C224" s="22"/>
     </row>
     <row r="225" spans="2:3">
       <c r="B225" s="9"/>
-      <c r="C225" s="21"/>
+      <c r="C225" s="22"/>
     </row>
     <row r="226" spans="2:3">
       <c r="B226" s="9"/>
-      <c r="C226" s="21"/>
+      <c r="C226" s="22"/>
     </row>
     <row r="227" spans="2:3">
       <c r="B227" s="9"/>
-      <c r="C227" s="21"/>
+      <c r="C227" s="22"/>
     </row>
     <row r="228" spans="2:3">
       <c r="B228" s="9"/>
@@ -2399,11 +1818,11 @@
     </row>
     <row r="268" spans="2:3">
       <c r="B268" s="9"/>
-      <c r="C268" s="21"/>
+      <c r="C268" s="22"/>
     </row>
     <row r="269" spans="2:3">
       <c r="B269" s="9"/>
-      <c r="C269" s="21"/>
+      <c r="C269" s="22"/>
     </row>
     <row r="270" spans="2:3">
       <c r="B270" s="9"/>
@@ -2898,7 +2317,7 @@
       <c r="C392" s="7"/>
     </row>
     <row r="393" spans="2:3">
-      <c r="B393" s="25"/>
+      <c r="B393" s="26"/>
       <c r="C393" s="7"/>
     </row>
     <row r="394" spans="2:3">
@@ -3047,27 +2466,27 @@
     </row>
     <row r="430" spans="2:3">
       <c r="B430" s="9"/>
-      <c r="C430" s="26"/>
+      <c r="C430" s="27"/>
     </row>
     <row r="431" spans="2:3">
       <c r="B431" s="9"/>
-      <c r="C431" s="22"/>
+      <c r="C431" s="23"/>
     </row>
     <row r="432" spans="2:3">
       <c r="B432" s="9"/>
-      <c r="C432" s="22"/>
+      <c r="C432" s="23"/>
     </row>
     <row r="433" spans="2:3">
       <c r="B433" s="9"/>
-      <c r="C433" s="22"/>
+      <c r="C433" s="23"/>
     </row>
     <row r="434" spans="2:3">
       <c r="B434" s="9"/>
-      <c r="C434" s="22"/>
+      <c r="C434" s="23"/>
     </row>
     <row r="435" spans="2:3">
       <c r="B435" s="9"/>
-      <c r="C435" s="26"/>
+      <c r="C435" s="27"/>
     </row>
     <row r="436" spans="2:3">
       <c r="B436" s="9"/>
@@ -3155,119 +2574,119 @@
     </row>
     <row r="457" spans="2:3">
       <c r="B457" s="9"/>
-      <c r="C457" s="27"/>
+      <c r="C457" s="28"/>
     </row>
     <row r="458" spans="2:3">
       <c r="B458" s="9"/>
-      <c r="C458" s="28"/>
+      <c r="C458" s="29"/>
     </row>
     <row r="459" spans="2:3">
       <c r="B459" s="9"/>
-      <c r="C459" s="27"/>
+      <c r="C459" s="28"/>
     </row>
     <row r="460" spans="2:3">
       <c r="B460" s="9"/>
-      <c r="C460" s="27"/>
+      <c r="C460" s="28"/>
     </row>
     <row r="461" spans="2:3">
       <c r="B461" s="9"/>
-      <c r="C461" s="27"/>
+      <c r="C461" s="28"/>
     </row>
     <row r="462" spans="2:3">
       <c r="B462" s="9"/>
-      <c r="C462" s="27"/>
+      <c r="C462" s="28"/>
     </row>
     <row r="463" spans="2:3">
       <c r="B463" s="9"/>
-      <c r="C463" s="27"/>
+      <c r="C463" s="28"/>
     </row>
     <row r="464" spans="2:3">
       <c r="B464" s="9"/>
-      <c r="C464" s="27"/>
+      <c r="C464" s="28"/>
     </row>
     <row r="465" spans="2:3">
       <c r="B465" s="9"/>
-      <c r="C465" s="27"/>
+      <c r="C465" s="28"/>
     </row>
     <row r="466" spans="2:3">
       <c r="B466" s="9"/>
-      <c r="C466" s="27"/>
+      <c r="C466" s="28"/>
     </row>
     <row r="467" spans="2:3">
       <c r="B467" s="9"/>
-      <c r="C467" s="28"/>
+      <c r="C467" s="29"/>
     </row>
     <row r="468" spans="2:3">
       <c r="B468" s="9"/>
-      <c r="C468" s="27"/>
+      <c r="C468" s="28"/>
     </row>
     <row r="469" spans="2:3">
       <c r="B469" s="9"/>
-      <c r="C469" s="27"/>
+      <c r="C469" s="28"/>
     </row>
     <row r="470" spans="2:3">
       <c r="B470" s="9"/>
-      <c r="C470" s="27"/>
+      <c r="C470" s="28"/>
     </row>
     <row r="471" spans="2:3">
       <c r="B471" s="9"/>
-      <c r="C471" s="27"/>
+      <c r="C471" s="28"/>
     </row>
     <row r="472" spans="2:3">
       <c r="B472" s="9"/>
-      <c r="C472" s="27"/>
+      <c r="C472" s="28"/>
     </row>
     <row r="473" spans="2:3">
       <c r="B473" s="9"/>
-      <c r="C473" s="27"/>
+      <c r="C473" s="28"/>
     </row>
     <row r="474" spans="2:3">
       <c r="B474" s="9"/>
-      <c r="C474" s="27"/>
+      <c r="C474" s="28"/>
     </row>
     <row r="475" spans="2:3">
       <c r="B475" s="9"/>
-      <c r="C475" s="27"/>
+      <c r="C475" s="28"/>
     </row>
     <row r="476" spans="2:3">
       <c r="B476" s="9"/>
-      <c r="C476" s="27"/>
+      <c r="C476" s="28"/>
     </row>
     <row r="477" spans="2:3">
       <c r="B477" s="9"/>
-      <c r="C477" s="27"/>
+      <c r="C477" s="28"/>
     </row>
     <row r="478" spans="2:3">
       <c r="B478" s="9"/>
-      <c r="C478" s="27"/>
+      <c r="C478" s="28"/>
     </row>
     <row r="479" spans="2:3">
       <c r="B479" s="9"/>
-      <c r="C479" s="27"/>
+      <c r="C479" s="28"/>
     </row>
     <row r="480" spans="2:3">
       <c r="B480" s="9"/>
-      <c r="C480" s="27"/>
+      <c r="C480" s="28"/>
     </row>
     <row r="481" spans="2:3">
       <c r="B481" s="9"/>
-      <c r="C481" s="27"/>
+      <c r="C481" s="28"/>
     </row>
     <row r="482" spans="2:3">
       <c r="B482" s="9"/>
-      <c r="C482" s="27"/>
+      <c r="C482" s="28"/>
     </row>
     <row r="483" spans="2:3">
       <c r="B483" s="9"/>
-      <c r="C483" s="27"/>
+      <c r="C483" s="28"/>
     </row>
     <row r="484" spans="2:3">
       <c r="B484" s="9"/>
-      <c r="C484" s="27"/>
+      <c r="C484" s="28"/>
     </row>
     <row r="485" spans="2:3">
       <c r="B485" s="9"/>
-      <c r="C485" s="27"/>
+      <c r="C485" s="28"/>
     </row>
     <row r="486" spans="2:3">
       <c r="B486" s="9"/>
@@ -3331,7 +2750,7 @@
     </row>
     <row r="501" spans="2:3">
       <c r="B501" s="9"/>
-      <c r="C501" s="29"/>
+      <c r="C501" s="30"/>
     </row>
     <row r="502" spans="2:3">
       <c r="B502" s="9"/>
@@ -3426,223 +2845,223 @@
       <c r="C524" s="7"/>
     </row>
     <row r="525" spans="2:3">
-      <c r="B525" s="21"/>
+      <c r="B525" s="22"/>
       <c r="C525" s="7"/>
     </row>
     <row r="526" spans="2:3">
-      <c r="B526" s="21"/>
+      <c r="B526" s="22"/>
       <c r="C526" s="7"/>
     </row>
     <row r="527" spans="2:3">
-      <c r="B527" s="21"/>
+      <c r="B527" s="22"/>
       <c r="C527" s="7"/>
     </row>
     <row r="528" spans="2:3">
-      <c r="B528" s="21"/>
+      <c r="B528" s="22"/>
       <c r="C528" s="7"/>
     </row>
     <row r="529" spans="2:3">
-      <c r="B529" s="21"/>
+      <c r="B529" s="22"/>
       <c r="C529" s="7"/>
     </row>
     <row r="530" spans="2:3">
-      <c r="B530" s="21"/>
+      <c r="B530" s="22"/>
       <c r="C530" s="7"/>
     </row>
     <row r="531" spans="2:3">
-      <c r="B531" s="21"/>
+      <c r="B531" s="22"/>
       <c r="C531" s="7"/>
     </row>
     <row r="532" spans="2:3">
-      <c r="B532" s="21"/>
+      <c r="B532" s="22"/>
       <c r="C532" s="7"/>
     </row>
     <row r="533" spans="2:3">
-      <c r="B533" s="21"/>
+      <c r="B533" s="22"/>
       <c r="C533" s="7"/>
     </row>
     <row r="534" spans="2:3">
-      <c r="B534" s="21"/>
+      <c r="B534" s="22"/>
       <c r="C534" s="7"/>
     </row>
     <row r="535" spans="2:3">
-      <c r="B535" s="21"/>
+      <c r="B535" s="22"/>
       <c r="C535" s="7"/>
     </row>
     <row r="536" spans="2:3">
-      <c r="B536" s="21"/>
+      <c r="B536" s="22"/>
       <c r="C536" s="7"/>
     </row>
     <row r="537" spans="2:3">
-      <c r="B537" s="21"/>
+      <c r="B537" s="22"/>
       <c r="C537" s="7"/>
     </row>
     <row r="538" spans="2:3">
-      <c r="B538" s="21"/>
+      <c r="B538" s="22"/>
       <c r="C538" s="7"/>
     </row>
     <row r="539" spans="2:3">
-      <c r="B539" s="21"/>
+      <c r="B539" s="22"/>
       <c r="C539" s="7"/>
     </row>
     <row r="540" spans="2:3">
-      <c r="B540" s="21"/>
+      <c r="B540" s="22"/>
       <c r="C540" s="7"/>
     </row>
     <row r="541" spans="2:3">
-      <c r="B541" s="21"/>
+      <c r="B541" s="22"/>
       <c r="C541" s="7"/>
     </row>
     <row r="542" spans="2:3">
-      <c r="B542" s="21"/>
+      <c r="B542" s="22"/>
       <c r="C542" s="7"/>
     </row>
     <row r="543" spans="2:3">
-      <c r="B543" s="21"/>
+      <c r="B543" s="22"/>
       <c r="C543" s="7"/>
     </row>
     <row r="544" spans="2:3">
-      <c r="B544" s="21"/>
+      <c r="B544" s="22"/>
       <c r="C544" s="7"/>
     </row>
     <row r="545" spans="2:3">
-      <c r="B545" s="21"/>
+      <c r="B545" s="22"/>
       <c r="C545" s="7"/>
     </row>
     <row r="546" spans="2:3">
-      <c r="B546" s="21"/>
+      <c r="B546" s="22"/>
       <c r="C546" s="7"/>
     </row>
     <row r="547" spans="2:3">
-      <c r="B547" s="21"/>
+      <c r="B547" s="22"/>
       <c r="C547" s="7"/>
     </row>
     <row r="548" spans="2:3">
-      <c r="B548" s="21"/>
+      <c r="B548" s="22"/>
       <c r="C548" s="7"/>
     </row>
     <row r="549" spans="2:3">
-      <c r="B549" s="21"/>
+      <c r="B549" s="22"/>
       <c r="C549" s="7"/>
     </row>
     <row r="550" spans="2:3">
-      <c r="B550" s="21"/>
+      <c r="B550" s="22"/>
       <c r="C550" s="7"/>
     </row>
     <row r="551" spans="2:3">
-      <c r="B551" s="21"/>
+      <c r="B551" s="22"/>
       <c r="C551" s="7"/>
     </row>
     <row r="552" spans="2:3">
-      <c r="B552" s="21"/>
+      <c r="B552" s="22"/>
       <c r="C552" s="7"/>
     </row>
     <row r="553" spans="2:3">
-      <c r="B553" s="21"/>
+      <c r="B553" s="22"/>
       <c r="C553" s="7"/>
     </row>
     <row r="554" spans="2:3">
-      <c r="B554" s="21"/>
+      <c r="B554" s="22"/>
       <c r="C554" s="7"/>
     </row>
     <row r="555" spans="2:3">
-      <c r="B555" s="21"/>
+      <c r="B555" s="22"/>
       <c r="C555" s="7"/>
     </row>
     <row r="556" spans="2:3">
-      <c r="B556" s="21"/>
+      <c r="B556" s="22"/>
       <c r="C556" s="7"/>
     </row>
     <row r="557" spans="2:3">
-      <c r="B557" s="21"/>
+      <c r="B557" s="22"/>
       <c r="C557" s="7"/>
     </row>
     <row r="558" spans="2:3">
-      <c r="B558" s="21"/>
+      <c r="B558" s="22"/>
       <c r="C558" s="7"/>
     </row>
     <row r="559" spans="2:3">
-      <c r="B559" s="21"/>
+      <c r="B559" s="22"/>
       <c r="C559" s="7"/>
     </row>
     <row r="560" spans="2:3">
-      <c r="B560" s="21"/>
+      <c r="B560" s="22"/>
       <c r="C560" s="7"/>
     </row>
     <row r="561" spans="2:3">
-      <c r="B561" s="21"/>
+      <c r="B561" s="22"/>
       <c r="C561" s="7"/>
     </row>
     <row r="562" spans="2:3">
-      <c r="B562" s="21"/>
+      <c r="B562" s="22"/>
       <c r="C562" s="7"/>
     </row>
     <row r="563" spans="2:3">
-      <c r="B563" s="21"/>
-      <c r="C563" s="27"/>
+      <c r="B563" s="22"/>
+      <c r="C563" s="28"/>
     </row>
     <row r="564" spans="2:3">
-      <c r="B564" s="21"/>
-      <c r="C564" s="27"/>
+      <c r="B564" s="22"/>
+      <c r="C564" s="28"/>
     </row>
     <row r="565" spans="2:3">
-      <c r="B565" s="21"/>
-      <c r="C565" s="27"/>
+      <c r="B565" s="22"/>
+      <c r="C565" s="28"/>
     </row>
     <row r="566" spans="2:3">
-      <c r="B566" s="21"/>
-      <c r="C566" s="27"/>
+      <c r="B566" s="22"/>
+      <c r="C566" s="28"/>
     </row>
     <row r="567" spans="2:3">
-      <c r="B567" s="21"/>
-      <c r="C567" s="27"/>
+      <c r="B567" s="22"/>
+      <c r="C567" s="28"/>
     </row>
     <row r="568" spans="2:3">
-      <c r="B568" s="21"/>
-      <c r="C568" s="27"/>
+      <c r="B568" s="22"/>
+      <c r="C568" s="28"/>
     </row>
     <row r="569" spans="2:3">
-      <c r="B569" s="21"/>
-      <c r="C569" s="27"/>
+      <c r="B569" s="22"/>
+      <c r="C569" s="28"/>
     </row>
     <row r="570" spans="2:3">
-      <c r="B570" s="21"/>
-      <c r="C570" s="27"/>
+      <c r="B570" s="22"/>
+      <c r="C570" s="28"/>
     </row>
     <row r="571" spans="2:3">
-      <c r="B571" s="21"/>
-      <c r="C571" s="27"/>
+      <c r="B571" s="22"/>
+      <c r="C571" s="28"/>
     </row>
     <row r="572" spans="2:3">
-      <c r="B572" s="21"/>
-      <c r="C572" s="27"/>
+      <c r="B572" s="22"/>
+      <c r="C572" s="28"/>
     </row>
     <row r="573" spans="2:3">
-      <c r="B573" s="21"/>
-      <c r="C573" s="27"/>
+      <c r="B573" s="22"/>
+      <c r="C573" s="28"/>
     </row>
     <row r="574" spans="2:3">
-      <c r="B574" s="21"/>
-      <c r="C574" s="27"/>
+      <c r="B574" s="22"/>
+      <c r="C574" s="28"/>
     </row>
     <row r="575" spans="2:3">
-      <c r="B575" s="21"/>
-      <c r="C575" s="27"/>
+      <c r="B575" s="22"/>
+      <c r="C575" s="28"/>
     </row>
     <row r="576" spans="2:3">
-      <c r="B576" s="21"/>
-      <c r="C576" s="27"/>
+      <c r="B576" s="22"/>
+      <c r="C576" s="28"/>
     </row>
     <row r="577" spans="2:3">
-      <c r="B577" s="21"/>
+      <c r="B577" s="22"/>
       <c r="C577" s="7"/>
     </row>
     <row r="578" spans="2:3">
-      <c r="B578" s="21"/>
+      <c r="B578" s="22"/>
       <c r="C578" s="7"/>
     </row>
     <row r="579" spans="2:3">
-      <c r="B579" s="21"/>
+      <c r="B579" s="22"/>
       <c r="C579" s="7"/>
     </row>
     <row r="580" spans="2:3">
@@ -3650,19 +3069,19 @@
       <c r="C580" s="7"/>
     </row>
     <row r="581" spans="2:3">
-      <c r="B581" s="21"/>
+      <c r="B581" s="22"/>
       <c r="C581" s="7"/>
     </row>
     <row r="582" spans="2:3">
-      <c r="B582" s="21"/>
+      <c r="B582" s="22"/>
       <c r="C582" s="7"/>
     </row>
     <row r="583" spans="2:3">
-      <c r="B583" s="21"/>
+      <c r="B583" s="22"/>
       <c r="C583" s="7"/>
     </row>
     <row r="584" spans="2:3">
-      <c r="B584" s="21"/>
+      <c r="B584" s="22"/>
       <c r="C584" s="7"/>
     </row>
     <row r="585" spans="2:3">
@@ -3670,11 +3089,11 @@
       <c r="C585" s="7"/>
     </row>
     <row r="586" spans="2:3">
-      <c r="B586" s="21"/>
+      <c r="B586" s="22"/>
       <c r="C586" s="7"/>
     </row>
     <row r="587" spans="2:3">
-      <c r="B587" s="21"/>
+      <c r="B587" s="22"/>
       <c r="C587" s="7"/>
     </row>
     <row r="588" spans="2:3">
@@ -3682,11 +3101,11 @@
       <c r="C588" s="7"/>
     </row>
     <row r="589" spans="2:3">
-      <c r="B589" s="21"/>
+      <c r="B589" s="22"/>
       <c r="C589" s="7"/>
     </row>
     <row r="590" spans="2:3">
-      <c r="B590" s="21"/>
+      <c r="B590" s="22"/>
       <c r="C590" s="7"/>
     </row>
     <row r="591" spans="2:3">
@@ -3698,7 +3117,7 @@
       <c r="C592" s="7"/>
     </row>
     <row r="593" spans="2:3">
-      <c r="B593" s="21"/>
+      <c r="B593" s="22"/>
       <c r="C593" s="7"/>
     </row>
     <row r="594" spans="2:3">
@@ -3706,7 +3125,7 @@
       <c r="C594" s="7"/>
     </row>
     <row r="595" spans="2:3">
-      <c r="B595" s="21"/>
+      <c r="B595" s="22"/>
       <c r="C595" s="7"/>
     </row>
     <row r="596" spans="2:3">
@@ -3714,7 +3133,7 @@
       <c r="C596" s="7"/>
     </row>
     <row r="597" spans="2:3">
-      <c r="B597" s="21"/>
+      <c r="B597" s="22"/>
       <c r="C597" s="7"/>
     </row>
     <row r="598" spans="2:3">
@@ -3722,7 +3141,7 @@
       <c r="C598" s="7"/>
     </row>
     <row r="599" spans="2:3">
-      <c r="B599" s="21"/>
+      <c r="B599" s="22"/>
       <c r="C599" s="7"/>
     </row>
     <row r="600" spans="2:3">
@@ -3730,7 +3149,7 @@
       <c r="C600" s="7"/>
     </row>
     <row r="601" spans="2:3">
-      <c r="B601" s="21"/>
+      <c r="B601" s="22"/>
       <c r="C601" s="7"/>
     </row>
     <row r="602" spans="2:3">
@@ -3746,7 +3165,7 @@
       <c r="C604" s="7"/>
     </row>
     <row r="605" spans="2:3">
-      <c r="B605" s="21"/>
+      <c r="B605" s="22"/>
       <c r="C605" s="7"/>
     </row>
     <row r="606" spans="2:3">
@@ -3754,7 +3173,7 @@
       <c r="C606" s="7"/>
     </row>
     <row r="607" spans="2:3">
-      <c r="B607" s="21"/>
+      <c r="B607" s="22"/>
       <c r="C607" s="7"/>
     </row>
     <row r="608" spans="2:3">
@@ -3762,7 +3181,7 @@
       <c r="C608" s="7"/>
     </row>
     <row r="609" spans="2:3">
-      <c r="B609" s="21"/>
+      <c r="B609" s="22"/>
       <c r="C609" s="7"/>
     </row>
     <row r="610" spans="2:3">
@@ -3770,7 +3189,7 @@
       <c r="C610" s="7"/>
     </row>
     <row r="611" spans="2:3">
-      <c r="B611" s="21"/>
+      <c r="B611" s="22"/>
       <c r="C611" s="7"/>
     </row>
     <row r="612" spans="2:3">
@@ -3778,7 +3197,7 @@
       <c r="C612" s="7"/>
     </row>
     <row r="613" spans="2:3">
-      <c r="B613" s="21"/>
+      <c r="B613" s="22"/>
       <c r="C613" s="7"/>
     </row>
     <row r="614" spans="2:3">
@@ -3786,7 +3205,7 @@
       <c r="C614" s="7"/>
     </row>
     <row r="615" spans="2:3">
-      <c r="B615" s="21"/>
+      <c r="B615" s="22"/>
       <c r="C615" s="7"/>
     </row>
     <row r="616" spans="2:3">
@@ -3798,7 +3217,7 @@
       <c r="C617" s="7"/>
     </row>
     <row r="618" spans="2:3">
-      <c r="B618" s="21"/>
+      <c r="B618" s="22"/>
       <c r="C618" s="7"/>
     </row>
     <row r="619" spans="2:3">
@@ -3810,11 +3229,11 @@
       <c r="C620" s="7"/>
     </row>
     <row r="621" spans="2:3">
-      <c r="B621" s="21"/>
+      <c r="B621" s="22"/>
       <c r="C621" s="7"/>
     </row>
     <row r="622" spans="2:3">
-      <c r="B622" s="21"/>
+      <c r="B622" s="22"/>
       <c r="C622" s="7"/>
     </row>
     <row r="623" spans="2:3">
@@ -3826,7 +3245,7 @@
       <c r="C624" s="7"/>
     </row>
     <row r="625" spans="2:3">
-      <c r="B625" s="21"/>
+      <c r="B625" s="22"/>
       <c r="C625" s="7"/>
     </row>
     <row r="626" spans="2:3">
@@ -3842,7 +3261,7 @@
       <c r="C628" s="7"/>
     </row>
     <row r="629" spans="2:3">
-      <c r="B629" s="21"/>
+      <c r="B629" s="22"/>
       <c r="C629" s="7"/>
     </row>
     <row r="630" spans="2:3">
@@ -3854,7 +3273,7 @@
       <c r="C631" s="7"/>
     </row>
     <row r="632" spans="2:3">
-      <c r="B632" s="21"/>
+      <c r="B632" s="22"/>
       <c r="C632" s="7"/>
     </row>
     <row r="633" spans="2:3">
@@ -3866,7 +3285,7 @@
       <c r="C634" s="7"/>
     </row>
     <row r="635" spans="2:3">
-      <c r="B635" s="21"/>
+      <c r="B635" s="22"/>
       <c r="C635" s="7"/>
     </row>
     <row r="636" spans="2:3">
@@ -3878,7 +3297,7 @@
       <c r="C637" s="7"/>
     </row>
     <row r="638" spans="2:3">
-      <c r="B638" s="21"/>
+      <c r="B638" s="22"/>
       <c r="C638" s="7"/>
     </row>
     <row r="639" spans="2:3">
@@ -3890,7 +3309,7 @@
       <c r="C640" s="7"/>
     </row>
     <row r="641" spans="2:3">
-      <c r="B641" s="21"/>
+      <c r="B641" s="22"/>
       <c r="C641" s="7"/>
     </row>
     <row r="642" spans="2:3">
@@ -3914,7 +3333,7 @@
       <c r="C646" s="7"/>
     </row>
     <row r="647" spans="2:3">
-      <c r="B647" s="21"/>
+      <c r="B647" s="22"/>
       <c r="C647" s="7"/>
     </row>
     <row r="648" spans="2:3">
@@ -3922,7 +3341,7 @@
       <c r="C648" s="7"/>
     </row>
     <row r="649" spans="2:3">
-      <c r="B649" s="21"/>
+      <c r="B649" s="22"/>
       <c r="C649" s="7"/>
     </row>
     <row r="650" spans="2:3">
@@ -3930,7 +3349,7 @@
       <c r="C650" s="7"/>
     </row>
     <row r="651" spans="2:3">
-      <c r="B651" s="21"/>
+      <c r="B651" s="22"/>
       <c r="C651" s="7"/>
     </row>
     <row r="652" spans="2:3">
@@ -3938,7 +3357,7 @@
       <c r="C652" s="7"/>
     </row>
     <row r="653" spans="2:3">
-      <c r="B653" s="21"/>
+      <c r="B653" s="22"/>
       <c r="C653" s="7"/>
     </row>
     <row r="654" spans="2:3">
@@ -3955,87 +3374,87 @@
     </row>
     <row r="657" spans="2:3">
       <c r="B657" s="9"/>
-      <c r="C657" s="27"/>
+      <c r="C657" s="28"/>
     </row>
     <row r="658" spans="2:3">
       <c r="B658" s="9"/>
-      <c r="C658" s="27"/>
+      <c r="C658" s="28"/>
     </row>
     <row r="659" spans="2:3">
       <c r="B659" s="9"/>
-      <c r="C659" s="27"/>
+      <c r="C659" s="28"/>
     </row>
     <row r="660" spans="2:3">
       <c r="B660" s="9"/>
-      <c r="C660" s="27"/>
+      <c r="C660" s="28"/>
     </row>
     <row r="661" spans="2:3">
       <c r="B661" s="9"/>
-      <c r="C661" s="27"/>
+      <c r="C661" s="28"/>
     </row>
     <row r="662" spans="2:3">
       <c r="B662" s="9"/>
-      <c r="C662" s="27"/>
+      <c r="C662" s="28"/>
     </row>
     <row r="663" spans="2:3">
       <c r="B663" s="9"/>
-      <c r="C663" s="27"/>
+      <c r="C663" s="28"/>
     </row>
     <row r="664" spans="2:3">
       <c r="B664" s="9"/>
-      <c r="C664" s="27"/>
+      <c r="C664" s="28"/>
     </row>
     <row r="665" spans="2:3">
       <c r="B665" s="9"/>
-      <c r="C665" s="27"/>
+      <c r="C665" s="28"/>
     </row>
     <row r="666" spans="2:3">
       <c r="B666" s="9"/>
-      <c r="C666" s="27"/>
+      <c r="C666" s="28"/>
     </row>
     <row r="667" spans="2:3">
       <c r="B667" s="9"/>
-      <c r="C667" s="27"/>
+      <c r="C667" s="28"/>
     </row>
     <row r="668" spans="2:3">
       <c r="B668" s="9"/>
-      <c r="C668" s="27"/>
+      <c r="C668" s="28"/>
     </row>
     <row r="669" spans="2:3">
       <c r="B669" s="9"/>
-      <c r="C669" s="27"/>
+      <c r="C669" s="28"/>
     </row>
     <row r="670" spans="2:3">
       <c r="B670" s="9"/>
-      <c r="C670" s="27"/>
+      <c r="C670" s="28"/>
     </row>
     <row r="671" spans="2:3">
       <c r="B671" s="9"/>
-      <c r="C671" s="27"/>
+      <c r="C671" s="28"/>
     </row>
     <row r="672" spans="2:3">
       <c r="B672" s="9"/>
-      <c r="C672" s="27"/>
+      <c r="C672" s="28"/>
     </row>
     <row r="673" spans="2:3">
       <c r="B673" s="9"/>
-      <c r="C673" s="27"/>
+      <c r="C673" s="28"/>
     </row>
     <row r="674" spans="2:3">
       <c r="B674" s="9"/>
-      <c r="C674" s="27"/>
+      <c r="C674" s="28"/>
     </row>
     <row r="675" spans="2:3">
       <c r="B675" s="9"/>
-      <c r="C675" s="27"/>
+      <c r="C675" s="28"/>
     </row>
     <row r="676" spans="2:3">
       <c r="B676" s="9"/>
-      <c r="C676" s="27"/>
+      <c r="C676" s="28"/>
     </row>
     <row r="677" spans="2:3">
       <c r="B677" s="9"/>
-      <c r="C677" s="27"/>
+      <c r="C677" s="28"/>
     </row>
     <row r="678" spans="2:3">
       <c r="B678" s="9"/>
@@ -4139,59 +3558,59 @@
     </row>
     <row r="703" spans="2:3">
       <c r="B703" s="9"/>
-      <c r="C703" s="27"/>
+      <c r="C703" s="28"/>
     </row>
     <row r="704" spans="2:3">
       <c r="B704" s="9"/>
-      <c r="C704" s="27"/>
+      <c r="C704" s="28"/>
     </row>
     <row r="705" spans="2:3">
       <c r="B705" s="9"/>
-      <c r="C705" s="27"/>
+      <c r="C705" s="28"/>
     </row>
     <row r="706" spans="2:3">
       <c r="B706" s="9"/>
-      <c r="C706" s="27"/>
+      <c r="C706" s="28"/>
     </row>
     <row r="707" spans="2:3">
       <c r="B707" s="9"/>
-      <c r="C707" s="27"/>
+      <c r="C707" s="28"/>
     </row>
     <row r="708" spans="2:3">
       <c r="B708" s="9"/>
-      <c r="C708" s="27"/>
+      <c r="C708" s="28"/>
     </row>
     <row r="709" spans="2:3">
       <c r="B709" s="9"/>
-      <c r="C709" s="27"/>
+      <c r="C709" s="28"/>
     </row>
     <row r="710" spans="2:3">
       <c r="B710" s="9"/>
-      <c r="C710" s="27"/>
+      <c r="C710" s="28"/>
     </row>
     <row r="711" spans="2:3">
       <c r="B711" s="9"/>
-      <c r="C711" s="27"/>
+      <c r="C711" s="28"/>
     </row>
     <row r="712" spans="2:3">
       <c r="B712" s="9"/>
-      <c r="C712" s="27"/>
+      <c r="C712" s="28"/>
     </row>
     <row r="713" spans="2:3">
       <c r="B713" s="9"/>
-      <c r="C713" s="27"/>
+      <c r="C713" s="28"/>
     </row>
     <row r="714" spans="2:3">
       <c r="B714" s="9"/>
-      <c r="C714" s="27"/>
+      <c r="C714" s="28"/>
     </row>
     <row r="715" spans="2:3">
       <c r="B715" s="9"/>
-      <c r="C715" s="27"/>
+      <c r="C715" s="28"/>
     </row>
     <row r="716" spans="2:3">
       <c r="B716" s="9"/>
-      <c r="C716" s="27"/>
+      <c r="C716" s="28"/>
     </row>
     <row r="717" spans="2:3">
       <c r="B717" s="9"/>
@@ -4199,31 +3618,31 @@
     </row>
     <row r="718" spans="2:3">
       <c r="B718" s="9"/>
-      <c r="C718" s="27"/>
+      <c r="C718" s="28"/>
     </row>
     <row r="719" spans="2:3">
       <c r="B719" s="9"/>
-      <c r="C719" s="27"/>
+      <c r="C719" s="28"/>
     </row>
     <row r="720" spans="2:3">
       <c r="B720" s="9"/>
-      <c r="C720" s="27"/>
+      <c r="C720" s="28"/>
     </row>
     <row r="721" spans="2:3">
       <c r="B721" s="9"/>
-      <c r="C721" s="27"/>
+      <c r="C721" s="28"/>
     </row>
     <row r="722" spans="2:3">
       <c r="B722" s="9"/>
-      <c r="C722" s="27"/>
+      <c r="C722" s="28"/>
     </row>
     <row r="723" spans="2:3">
       <c r="B723" s="9"/>
-      <c r="C723" s="27"/>
+      <c r="C723" s="28"/>
     </row>
     <row r="724" spans="2:3">
       <c r="B724" s="9"/>
-      <c r="C724" s="27"/>
+      <c r="C724" s="28"/>
     </row>
     <row r="725" spans="2:3">
       <c r="B725" s="9"/>
@@ -4478,106 +3897,106 @@
       <c r="C787" s="7"/>
     </row>
     <row r="788" spans="2:3">
-      <c r="B788" s="23"/>
+      <c r="B788" s="24"/>
       <c r="C788" s="7"/>
     </row>
     <row r="789" spans="2:3">
-      <c r="B789" s="23"/>
+      <c r="B789" s="24"/>
       <c r="C789" s="7"/>
     </row>
     <row r="790" spans="2:3">
-      <c r="B790" s="23"/>
+      <c r="B790" s="24"/>
       <c r="C790" s="7"/>
     </row>
     <row r="791" spans="2:3">
-      <c r="B791" s="23"/>
+      <c r="B791" s="24"/>
       <c r="C791" s="7"/>
     </row>
     <row r="792" spans="2:3">
-      <c r="B792" s="23"/>
+      <c r="B792" s="24"/>
       <c r="C792" s="7"/>
     </row>
     <row r="793" spans="2:3">
-      <c r="B793" s="23"/>
+      <c r="B793" s="24"/>
       <c r="C793" s="7"/>
     </row>
     <row r="794" spans="2:3">
-      <c r="B794" s="23"/>
+      <c r="B794" s="24"/>
       <c r="C794" s="7"/>
     </row>
     <row r="795" spans="2:3">
-      <c r="B795" s="23"/>
+      <c r="B795" s="24"/>
       <c r="C795" s="7"/>
     </row>
     <row r="796" spans="2:3">
-      <c r="B796" s="23"/>
+      <c r="B796" s="24"/>
       <c r="C796" s="7"/>
     </row>
     <row r="797" spans="2:3">
-      <c r="B797" s="23"/>
+      <c r="B797" s="24"/>
       <c r="C797" s="7"/>
     </row>
     <row r="798" spans="2:3">
-      <c r="B798" s="23"/>
+      <c r="B798" s="24"/>
       <c r="C798" s="7"/>
     </row>
     <row r="799" spans="2:3">
-      <c r="B799" s="23"/>
+      <c r="B799" s="24"/>
       <c r="C799" s="7"/>
     </row>
     <row r="800" spans="2:3">
-      <c r="B800" s="23"/>
+      <c r="B800" s="24"/>
       <c r="C800" s="7"/>
     </row>
     <row r="801" spans="2:3">
-      <c r="B801" s="23"/>
+      <c r="B801" s="24"/>
       <c r="C801" s="7"/>
     </row>
     <row r="802" spans="2:3">
-      <c r="B802" s="23"/>
+      <c r="B802" s="24"/>
       <c r="C802" s="7"/>
     </row>
     <row r="803" spans="2:3">
-      <c r="B803" s="23"/>
+      <c r="B803" s="24"/>
       <c r="C803" s="7"/>
     </row>
-    <row r="804" spans="3:3">
+    <row r="804" spans="2:3">
       <c r="C804" s="7"/>
     </row>
-    <row r="805" spans="3:3">
+    <row r="805" spans="2:3">
       <c r="C805" s="7"/>
     </row>
-    <row r="806" spans="3:3">
+    <row r="806" spans="2:3">
       <c r="C806" s="7"/>
     </row>
-    <row r="807" spans="3:3">
+    <row r="807" spans="2:3">
       <c r="C807" s="7"/>
     </row>
-    <row r="808" spans="3:3">
+    <row r="808" spans="2:3">
       <c r="C808" s="7"/>
     </row>
-    <row r="809" spans="3:3">
+    <row r="809" spans="2:3">
       <c r="C809" s="7"/>
     </row>
-    <row r="810" spans="3:3">
+    <row r="810" spans="2:3">
       <c r="C810" s="7"/>
     </row>
-    <row r="811" spans="3:3">
+    <row r="811" spans="2:3">
       <c r="C811" s="7"/>
     </row>
-    <row r="812" spans="3:3">
+    <row r="812" spans="2:3">
       <c r="C812" s="7"/>
     </row>
-    <row r="813" spans="3:3">
+    <row r="813" spans="2:3">
       <c r="C813" s="7"/>
     </row>
-    <row r="814" spans="3:3">
+    <row r="814" spans="2:3">
       <c r="C814" s="7"/>
     </row>
-    <row r="815" spans="3:3">
+    <row r="815" spans="2:3">
       <c r="C815" s="7"/>
     </row>
-    <row r="816" spans="3:3">
+    <row r="816" spans="2:3">
       <c r="C816" s="7"/>
     </row>
     <row r="817" spans="3:3">
@@ -4602,7 +4021,7 @@
       <c r="C823" s="7"/>
     </row>
     <row r="824" spans="3:3">
-      <c r="C824" s="30"/>
+      <c r="C824" s="31"/>
     </row>
     <row r="825" spans="3:3">
       <c r="C825" s="7"/>
@@ -4854,28 +4273,28 @@
       <c r="C907" s="7"/>
     </row>
     <row r="908" spans="3:3">
-      <c r="C908" s="27"/>
+      <c r="C908" s="28"/>
     </row>
     <row r="909" spans="3:3">
-      <c r="C909" s="27"/>
+      <c r="C909" s="28"/>
     </row>
     <row r="910" spans="3:3">
-      <c r="C910" s="27"/>
+      <c r="C910" s="28"/>
     </row>
     <row r="911" spans="3:3">
-      <c r="C911" s="27"/>
+      <c r="C911" s="28"/>
     </row>
     <row r="912" spans="3:3">
-      <c r="C912" s="27"/>
+      <c r="C912" s="28"/>
     </row>
     <row r="913" spans="3:3">
-      <c r="C913" s="27"/>
+      <c r="C913" s="28"/>
     </row>
     <row r="914" spans="3:3">
-      <c r="C914" s="27"/>
+      <c r="C914" s="28"/>
     </row>
     <row r="915" spans="3:3">
-      <c r="C915" s="27"/>
+      <c r="C915" s="28"/>
     </row>
     <row r="916" spans="3:3">
       <c r="C916" s="7"/>
@@ -5166,64 +4585,64 @@
       <c r="C1011" s="7"/>
     </row>
     <row r="1012" spans="3:3">
-      <c r="C1012" s="27"/>
+      <c r="C1012" s="28"/>
     </row>
     <row r="1013" spans="3:3">
-      <c r="C1013" s="27"/>
+      <c r="C1013" s="28"/>
     </row>
     <row r="1014" spans="3:3">
-      <c r="C1014" s="27"/>
+      <c r="C1014" s="28"/>
     </row>
     <row r="1015" spans="3:3">
-      <c r="C1015" s="27"/>
+      <c r="C1015" s="28"/>
     </row>
     <row r="1016" spans="3:3">
-      <c r="C1016" s="27"/>
+      <c r="C1016" s="28"/>
     </row>
     <row r="1017" spans="3:3">
-      <c r="C1017" s="27"/>
+      <c r="C1017" s="28"/>
     </row>
     <row r="1018" spans="3:3">
-      <c r="C1018" s="27"/>
+      <c r="C1018" s="28"/>
     </row>
     <row r="1019" spans="3:3">
-      <c r="C1019" s="27"/>
+      <c r="C1019" s="28"/>
     </row>
     <row r="1020" spans="3:3">
-      <c r="C1020" s="27"/>
+      <c r="C1020" s="28"/>
     </row>
     <row r="1021" spans="3:3">
-      <c r="C1021" s="27"/>
+      <c r="C1021" s="28"/>
     </row>
     <row r="1022" spans="3:3">
-      <c r="C1022" s="27"/>
+      <c r="C1022" s="28"/>
     </row>
     <row r="1023" spans="3:3">
-      <c r="C1023" s="27"/>
+      <c r="C1023" s="28"/>
     </row>
     <row r="1024" spans="3:3">
-      <c r="C1024" s="27"/>
+      <c r="C1024" s="28"/>
     </row>
     <row r="1025" spans="3:3">
-      <c r="C1025" s="27"/>
+      <c r="C1025" s="28"/>
     </row>
     <row r="1026" spans="3:3">
-      <c r="C1026" s="27"/>
+      <c r="C1026" s="28"/>
     </row>
     <row r="1027" spans="3:3">
-      <c r="C1027" s="27"/>
+      <c r="C1027" s="28"/>
     </row>
     <row r="1028" spans="3:3">
-      <c r="C1028" s="27"/>
+      <c r="C1028" s="28"/>
     </row>
     <row r="1029" spans="3:3">
-      <c r="C1029" s="27"/>
+      <c r="C1029" s="28"/>
     </row>
     <row r="1030" spans="3:3">
-      <c r="C1030" s="27"/>
+      <c r="C1030" s="28"/>
     </row>
     <row r="1031" spans="3:3">
-      <c r="C1031" s="27"/>
+      <c r="C1031" s="28"/>
     </row>
     <row r="1032" spans="3:3">
       <c r="C1032" s="7"/>
@@ -5256,178 +4675,178 @@
       <c r="C1041" s="7"/>
     </row>
     <row r="1042" spans="3:3">
-      <c r="C1042" s="27"/>
+      <c r="C1042" s="28"/>
     </row>
     <row r="1043" spans="3:3">
-      <c r="C1043" s="27"/>
+      <c r="C1043" s="28"/>
     </row>
     <row r="1044" spans="3:3">
-      <c r="C1044" s="27"/>
+      <c r="C1044" s="28"/>
     </row>
     <row r="1045" spans="3:3">
-      <c r="C1045" s="27"/>
+      <c r="C1045" s="28"/>
     </row>
     <row r="1046" spans="3:3">
-      <c r="C1046" s="21"/>
+      <c r="C1046" s="22"/>
     </row>
     <row r="1047" spans="3:3">
-      <c r="C1047" s="21"/>
+      <c r="C1047" s="22"/>
     </row>
     <row r="1048" spans="3:3">
-      <c r="C1048" s="21"/>
+      <c r="C1048" s="22"/>
     </row>
     <row r="1049" spans="3:3">
-      <c r="C1049" s="21"/>
+      <c r="C1049" s="22"/>
     </row>
     <row r="1050" spans="3:3">
-      <c r="C1050" s="21"/>
+      <c r="C1050" s="22"/>
     </row>
     <row r="1051" spans="3:3">
-      <c r="C1051" s="21"/>
+      <c r="C1051" s="22"/>
     </row>
     <row r="1052" spans="3:3">
-      <c r="C1052" s="21"/>
+      <c r="C1052" s="22"/>
     </row>
     <row r="1053" spans="3:3">
-      <c r="C1053" s="21"/>
+      <c r="C1053" s="22"/>
     </row>
     <row r="1054" spans="3:3">
-      <c r="C1054" s="21"/>
+      <c r="C1054" s="22"/>
     </row>
     <row r="1055" spans="3:3">
-      <c r="C1055" s="21"/>
+      <c r="C1055" s="22"/>
     </row>
     <row r="1056" spans="3:3">
-      <c r="C1056" s="21"/>
+      <c r="C1056" s="22"/>
     </row>
     <row r="1057" spans="3:3">
-      <c r="C1057" s="21"/>
+      <c r="C1057" s="22"/>
     </row>
     <row r="1058" spans="3:3">
-      <c r="C1058" s="21"/>
+      <c r="C1058" s="22"/>
     </row>
     <row r="1059" spans="3:3">
-      <c r="C1059" s="21"/>
+      <c r="C1059" s="22"/>
     </row>
     <row r="1060" spans="3:3">
-      <c r="C1060" s="21"/>
+      <c r="C1060" s="22"/>
     </row>
     <row r="1061" spans="3:3">
-      <c r="C1061" s="21"/>
+      <c r="C1061" s="22"/>
     </row>
     <row r="1062" spans="3:3">
-      <c r="C1062" s="21"/>
+      <c r="C1062" s="22"/>
     </row>
     <row r="1063" spans="3:3">
-      <c r="C1063" s="21"/>
+      <c r="C1063" s="22"/>
     </row>
     <row r="1064" spans="3:3">
-      <c r="C1064" s="21"/>
+      <c r="C1064" s="22"/>
     </row>
     <row r="1065" spans="3:3">
-      <c r="C1065" s="21"/>
+      <c r="C1065" s="22"/>
     </row>
     <row r="1066" spans="3:3">
-      <c r="C1066" s="21"/>
+      <c r="C1066" s="22"/>
     </row>
     <row r="1067" spans="3:3">
-      <c r="C1067" s="21"/>
+      <c r="C1067" s="22"/>
     </row>
     <row r="1068" spans="3:3">
-      <c r="C1068" s="21"/>
+      <c r="C1068" s="22"/>
     </row>
     <row r="1069" spans="3:3">
-      <c r="C1069" s="21"/>
+      <c r="C1069" s="22"/>
     </row>
     <row r="1070" spans="3:3">
-      <c r="C1070" s="21"/>
+      <c r="C1070" s="22"/>
     </row>
     <row r="1071" spans="3:3">
-      <c r="C1071" s="21"/>
+      <c r="C1071" s="22"/>
     </row>
     <row r="1072" spans="3:3">
-      <c r="C1072" s="21"/>
+      <c r="C1072" s="22"/>
     </row>
     <row r="1073" spans="3:3">
-      <c r="C1073" s="21"/>
+      <c r="C1073" s="22"/>
     </row>
     <row r="1074" spans="3:3">
-      <c r="C1074" s="21"/>
+      <c r="C1074" s="22"/>
     </row>
     <row r="1075" spans="3:3">
-      <c r="C1075" s="21"/>
+      <c r="C1075" s="22"/>
     </row>
     <row r="1076" spans="3:3">
-      <c r="C1076" s="21"/>
+      <c r="C1076" s="22"/>
     </row>
     <row r="1077" spans="3:3">
-      <c r="C1077" s="21"/>
+      <c r="C1077" s="22"/>
     </row>
     <row r="1078" spans="3:3">
-      <c r="C1078" s="21"/>
+      <c r="C1078" s="22"/>
     </row>
     <row r="1079" spans="3:3">
-      <c r="C1079" s="21"/>
+      <c r="C1079" s="22"/>
     </row>
     <row r="1080" spans="3:3">
-      <c r="C1080" s="21"/>
+      <c r="C1080" s="22"/>
     </row>
     <row r="1081" spans="3:3">
-      <c r="C1081" s="21"/>
+      <c r="C1081" s="22"/>
     </row>
     <row r="1082" spans="3:3">
-      <c r="C1082" s="21"/>
+      <c r="C1082" s="22"/>
     </row>
     <row r="1083" spans="3:3">
-      <c r="C1083" s="21"/>
+      <c r="C1083" s="22"/>
     </row>
     <row r="1084" spans="3:3">
-      <c r="C1084" s="21"/>
+      <c r="C1084" s="22"/>
     </row>
     <row r="1085" spans="3:3">
-      <c r="C1085" s="21"/>
+      <c r="C1085" s="22"/>
     </row>
     <row r="1086" spans="3:3">
-      <c r="C1086" s="21"/>
+      <c r="C1086" s="22"/>
     </row>
     <row r="1087" spans="3:3">
-      <c r="C1087" s="21"/>
+      <c r="C1087" s="22"/>
     </row>
     <row r="1088" spans="3:3">
-      <c r="C1088" s="21"/>
+      <c r="C1088" s="22"/>
     </row>
     <row r="1089" spans="3:3">
-      <c r="C1089" s="21"/>
+      <c r="C1089" s="22"/>
     </row>
     <row r="1090" spans="3:3">
-      <c r="C1090" s="21"/>
+      <c r="C1090" s="22"/>
     </row>
     <row r="1091" spans="3:3">
-      <c r="C1091" s="21"/>
+      <c r="C1091" s="22"/>
     </row>
     <row r="1092" spans="3:3">
-      <c r="C1092" s="21"/>
+      <c r="C1092" s="22"/>
     </row>
     <row r="1093" spans="3:3">
-      <c r="C1093" s="21"/>
+      <c r="C1093" s="22"/>
     </row>
     <row r="1094" spans="3:3">
-      <c r="C1094" s="21"/>
+      <c r="C1094" s="22"/>
     </row>
     <row r="1095" spans="3:3">
-      <c r="C1095" s="21"/>
+      <c r="C1095" s="22"/>
     </row>
     <row r="1096" spans="3:3">
-      <c r="C1096" s="21"/>
+      <c r="C1096" s="22"/>
     </row>
     <row r="1097" spans="3:3">
-      <c r="C1097" s="21"/>
+      <c r="C1097" s="22"/>
     </row>
     <row r="1098" spans="3:3">
-      <c r="C1098" s="21"/>
+      <c r="C1098" s="22"/>
     </row>
     <row r="1099" spans="3:3">
-      <c r="C1099" s="21"/>
+      <c r="C1099" s="22"/>
     </row>
     <row r="1100" spans="3:3">
       <c r="C1100" s="7"/>
@@ -5439,13 +4858,13 @@
       <c r="C1102" s="7"/>
     </row>
     <row r="1103" spans="3:3">
-      <c r="C1103" s="21"/>
+      <c r="C1103" s="22"/>
     </row>
     <row r="1104" spans="3:3">
-      <c r="C1104" s="21"/>
+      <c r="C1104" s="22"/>
     </row>
     <row r="1105" spans="3:3">
-      <c r="C1105" s="21"/>
+      <c r="C1105" s="22"/>
     </row>
     <row r="1106" spans="3:3">
       <c r="C1106" s="7"/>
@@ -5454,10 +4873,10 @@
       <c r="C1107" s="7"/>
     </row>
     <row r="1108" spans="3:3">
-      <c r="C1108" s="21"/>
+      <c r="C1108" s="22"/>
     </row>
     <row r="1109" spans="3:3">
-      <c r="C1109" s="21"/>
+      <c r="C1109" s="22"/>
     </row>
     <row r="1110" spans="3:3">
       <c r="C1110" s="7"/>
@@ -5466,10 +4885,10 @@
       <c r="C1111" s="7"/>
     </row>
     <row r="1112" spans="3:3">
-      <c r="C1112" s="21"/>
+      <c r="C1112" s="22"/>
     </row>
     <row r="1113" spans="3:3">
-      <c r="C1113" s="21"/>
+      <c r="C1113" s="22"/>
     </row>
     <row r="1114" spans="3:3">
       <c r="C1114" s="7"/>
@@ -5478,10 +4897,10 @@
       <c r="C1115" s="7"/>
     </row>
     <row r="1116" spans="3:3">
-      <c r="C1116" s="21"/>
+      <c r="C1116" s="22"/>
     </row>
     <row r="1117" spans="3:3">
-      <c r="C1117" s="21"/>
+      <c r="C1117" s="22"/>
     </row>
     <row r="1118" spans="3:3">
       <c r="C1118" s="7"/>
@@ -5823,7 +5242,7 @@
       <c r="C1230" s="7"/>
     </row>
     <row r="1231" spans="3:3">
-      <c r="C1231" s="31"/>
+      <c r="C1231" s="32"/>
     </row>
     <row r="1232" spans="3:3">
       <c r="C1232" s="7"/>
@@ -6249,118 +5668,118 @@
       <c r="C1372" s="9"/>
     </row>
     <row r="1373" spans="3:3">
-      <c r="C1373" s="27"/>
+      <c r="C1373" s="28"/>
     </row>
     <row r="1374" spans="3:3">
-      <c r="C1374" s="27"/>
+      <c r="C1374" s="28"/>
     </row>
     <row r="1375" spans="3:3">
-      <c r="C1375" s="27"/>
+      <c r="C1375" s="28"/>
     </row>
     <row r="1376" spans="3:3">
-      <c r="C1376" s="27"/>
+      <c r="C1376" s="28"/>
     </row>
     <row r="1377" spans="3:3">
-      <c r="C1377" s="27"/>
+      <c r="C1377" s="28"/>
     </row>
     <row r="1378" spans="3:3">
-      <c r="C1378" s="27"/>
+      <c r="C1378" s="28"/>
     </row>
     <row r="1379" spans="3:3">
-      <c r="C1379" s="27"/>
+      <c r="C1379" s="28"/>
     </row>
     <row r="1380" spans="3:3">
-      <c r="C1380" s="27"/>
+      <c r="C1380" s="28"/>
     </row>
     <row r="1381" spans="3:3">
-      <c r="C1381" s="27"/>
+      <c r="C1381" s="28"/>
     </row>
     <row r="1382" spans="3:3">
-      <c r="C1382" s="27"/>
+      <c r="C1382" s="28"/>
     </row>
     <row r="1383" spans="3:3">
-      <c r="C1383" s="27"/>
+      <c r="C1383" s="28"/>
     </row>
     <row r="1384" spans="3:3">
-      <c r="C1384" s="27"/>
+      <c r="C1384" s="28"/>
     </row>
     <row r="1385" spans="3:3">
-      <c r="C1385" s="27"/>
+      <c r="C1385" s="28"/>
     </row>
     <row r="1386" spans="3:3">
-      <c r="C1386" s="27"/>
+      <c r="C1386" s="28"/>
     </row>
     <row r="1387" spans="3:3">
-      <c r="C1387" s="27"/>
+      <c r="C1387" s="28"/>
     </row>
     <row r="1388" spans="3:3">
-      <c r="C1388" s="27"/>
+      <c r="C1388" s="28"/>
     </row>
     <row r="1389" spans="3:3">
-      <c r="C1389" s="27"/>
+      <c r="C1389" s="28"/>
     </row>
     <row r="1390" spans="3:3">
-      <c r="C1390" s="27"/>
+      <c r="C1390" s="28"/>
     </row>
     <row r="1391" spans="3:3">
-      <c r="C1391" s="27"/>
+      <c r="C1391" s="28"/>
     </row>
     <row r="1392" spans="3:3">
-      <c r="C1392" s="27"/>
+      <c r="C1392" s="28"/>
     </row>
     <row r="1393" spans="3:3">
-      <c r="C1393" s="27"/>
+      <c r="C1393" s="28"/>
     </row>
     <row r="1394" spans="3:3">
-      <c r="C1394" s="27"/>
+      <c r="C1394" s="28"/>
     </row>
     <row r="1395" spans="3:3">
-      <c r="C1395" s="27"/>
+      <c r="C1395" s="28"/>
     </row>
     <row r="1396" spans="3:3">
-      <c r="C1396" s="27"/>
+      <c r="C1396" s="28"/>
     </row>
     <row r="1397" spans="3:3">
-      <c r="C1397" s="27"/>
+      <c r="C1397" s="28"/>
     </row>
     <row r="1398" spans="3:3">
-      <c r="C1398" s="27"/>
+      <c r="C1398" s="28"/>
     </row>
     <row r="1399" spans="3:3">
-      <c r="C1399" s="27"/>
+      <c r="C1399" s="28"/>
     </row>
     <row r="1400" spans="3:3">
-      <c r="C1400" s="27"/>
+      <c r="C1400" s="28"/>
     </row>
     <row r="1401" spans="3:3">
-      <c r="C1401" s="27"/>
+      <c r="C1401" s="28"/>
     </row>
     <row r="1402" spans="3:3">
-      <c r="C1402" s="27"/>
+      <c r="C1402" s="28"/>
     </row>
     <row r="1403" spans="3:3">
-      <c r="C1403" s="27"/>
+      <c r="C1403" s="28"/>
     </row>
     <row r="1404" spans="3:3">
-      <c r="C1404" s="27"/>
+      <c r="C1404" s="28"/>
     </row>
     <row r="1405" spans="3:3">
-      <c r="C1405" s="27"/>
+      <c r="C1405" s="28"/>
     </row>
     <row r="1406" spans="3:3">
-      <c r="C1406" s="27"/>
+      <c r="C1406" s="28"/>
     </row>
     <row r="1407" spans="3:3">
-      <c r="C1407" s="27"/>
+      <c r="C1407" s="28"/>
     </row>
     <row r="1408" spans="3:3">
-      <c r="C1408" s="27"/>
+      <c r="C1408" s="28"/>
     </row>
     <row r="1409" spans="3:3">
-      <c r="C1409" s="27"/>
+      <c r="C1409" s="28"/>
     </row>
     <row r="1410" spans="3:3">
-      <c r="C1410" s="27"/>
+      <c r="C1410" s="28"/>
     </row>
     <row r="1411" spans="3:3">
       <c r="C1411" s="7"/>
@@ -6810,43 +6229,41 @@
       <c r="C1559" s="7"/>
     </row>
     <row r="1560" spans="3:3">
-      <c r="C1560" s="22"/>
+      <c r="C1560" s="23"/>
     </row>
     <row r="1561" spans="3:3">
-      <c r="C1561" s="22"/>
+      <c r="C1561" s="23"/>
     </row>
     <row r="1562" spans="3:3">
-      <c r="C1562" s="22"/>
+      <c r="C1562" s="23"/>
     </row>
     <row r="1563" spans="3:3">
-      <c r="C1563" s="22"/>
+      <c r="C1563" s="23"/>
     </row>
     <row r="1564" spans="3:3">
-      <c r="C1564" s="22"/>
+      <c r="C1564" s="23"/>
     </row>
     <row r="1565" spans="3:3">
-      <c r="C1565" s="22"/>
+      <c r="C1565" s="23"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="21.375" style="2" customWidth="1"/>
@@ -6856,7 +6273,7 @@
     <col min="7" max="7" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="42" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -6879,197 +6296,317 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="3:5">
-      <c r="C2" s="20"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="21"/>
-    </row>
-    <row r="3" spans="3:5">
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="21"/>
-    </row>
-    <row r="4" spans="3:5">
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="21"/>
-    </row>
-    <row r="5" spans="3:5">
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="6" spans="3:5">
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" spans="3:5">
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="21"/>
-    </row>
-    <row r="10" spans="3:5">
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="21"/>
-    </row>
-    <row r="11" spans="3:5">
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="21"/>
-    </row>
-    <row r="12" spans="3:5">
+    <row r="2" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20">
+        <v>59</v>
+      </c>
+      <c r="C2" s="21">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1000703</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20">
+        <v>59</v>
+      </c>
+      <c r="C3" s="21">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1000703</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20">
+        <v>59</v>
+      </c>
+      <c r="C4" s="21">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1000703</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20">
+        <v>59</v>
+      </c>
+      <c r="C5" s="21">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1000703</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20">
+        <v>59</v>
+      </c>
+      <c r="C6" s="21">
+        <v>5</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1000703</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20">
+        <v>59</v>
+      </c>
+      <c r="C7" s="21">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1000703</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20">
+        <v>59</v>
+      </c>
+      <c r="C8" s="21">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1000703</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20">
+        <v>59</v>
+      </c>
+      <c r="C9" s="21">
+        <v>8</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1000703</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20">
+        <v>59</v>
+      </c>
+      <c r="C10" s="21">
+        <v>9</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1000703</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20">
+        <v>59</v>
+      </c>
+      <c r="C11" s="21">
+        <v>10</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1000703</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="21"/>
-    </row>
-    <row r="13" spans="3:5">
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="21"/>
-    </row>
-    <row r="14" spans="3:5">
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" spans="3:5">
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="21"/>
-    </row>
-    <row r="16" spans="3:5">
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="21"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="3:5">
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="21"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="3:5">
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="21"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="21"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="21"/>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" spans="3:5">
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="21"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="21"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="21"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" spans="3:5">
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="21"/>
+      <c r="E24" s="22"/>
     </row>
     <row r="25" spans="3:5">
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="21"/>
-    </row>
-    <row r="26" spans="5:5">
-      <c r="E26" s="21"/>
-    </row>
-    <row r="27" spans="5:5">
-      <c r="E27" s="21"/>
-    </row>
-    <row r="28" spans="5:5">
-      <c r="E28" s="21"/>
-    </row>
-    <row r="29" spans="5:5">
-      <c r="E29" s="21"/>
-    </row>
-    <row r="30" spans="5:5">
-      <c r="E30" s="21"/>
-    </row>
-    <row r="31" spans="5:5">
-      <c r="E31" s="21"/>
-    </row>
-    <row r="32" spans="5:5">
-      <c r="E32" s="21"/>
-    </row>
-    <row r="33" spans="5:5">
-      <c r="E33" s="21"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="3:5">
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="3:5">
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="3:5">
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="E33" s="22"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="24"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="25"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="24"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="24"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="25"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="24"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="25"/>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="22"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="24"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="25"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="22"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="24"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="24"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="25"/>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="22"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="24"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="25"/>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="13"/>
@@ -7087,37 +6624,34 @@
       <c r="B60" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F60">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:F60"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="A2:F27"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="13.25" customWidth="1"/>
     <col min="3" max="3" width="19.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:4">
+    <row r="1" spans="1:4" ht="27">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -7126,73 +6660,72 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="3:3">
+    <row r="2" spans="1:4">
       <c r="C2" s="14"/>
     </row>
-    <row r="3" spans="3:3">
+    <row r="3" spans="1:4">
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="1:4">
       <c r="B4" s="15"/>
       <c r="C4" s="7"/>
       <c r="D4" s="16"/>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="1:4">
       <c r="B5" s="15"/>
       <c r="C5" s="7"/>
       <c r="D5" s="16"/>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="1:4">
       <c r="B6" s="15"/>
       <c r="C6" s="7"/>
       <c r="D6" s="16"/>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="1:4">
       <c r="B7" s="15"/>
       <c r="C7" s="7"/>
       <c r="D7" s="16"/>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="1:4">
       <c r="B8" s="15"/>
       <c r="C8" s="7"/>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="1:4">
       <c r="B9" s="15"/>
       <c r="C9" s="7"/>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="1:4">
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="1:4">
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
       <c r="D11" s="19"/>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="1:4">
       <c r="B12" s="15"/>
       <c r="D12" s="16"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="36" style="3" customWidth="1"/>
@@ -7202,15 +6735,15 @@
     <col min="6" max="6" width="39.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:7">
+    <row r="1" spans="1:7" ht="27">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
@@ -7225,114 +6758,115 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+    <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="9">
         <v>1000686</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="9">
         <v>1000686</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="11"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="11"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="7"/>
       <c r="E6" s="11"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="7"/>
       <c r="E7" s="11"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="7"/>
       <c r="B8" s="12"/>
       <c r="C8" s="7"/>
+      <c r="D8"/>
       <c r="E8" s="10"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="7"/>
       <c r="E9" s="10"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="7"/>
       <c r="E10" s="10"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="7"/>
       <c r="E11" s="10"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="7"/>
       <c r="E12" s="10"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="7"/>
       <c r="E13" s="10"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="7"/>
       <c r="E14" s="10"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="7"/>
       <c r="E15" s="10"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" s="7"/>
       <c r="E16" s="10"/>
       <c r="F16" s="2"/>
@@ -7357,50 +6891,48 @@
       <c r="E20" s="10"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="7"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" s="7"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" s="7"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:5">
+    <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="7"/>
       <c r="B24" s="3"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:5">
+    <row r="25" spans="1:6" s="1" customFormat="1">
       <c r="A25" s="7"/>
       <c r="B25" s="3"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="7"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:6">
       <c r="A27" s="7"/>
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="1:6">
       <c r="C28" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D26">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:D26"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_Release/extra_award_server.xlsx
+++ b/config_Release/extra_award_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_7.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -166,7 +166,7 @@
     <t>source_type</t>
   </si>
   <si>
-    <t>qlyx_021_xgphb_rank</t>
+    <t>ymshf_017_hldr_rank</t>
   </si>
   <si>
     <t>buyu_3d_get_use_item</t>
@@ -6260,7 +6260,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6722,7 +6722,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6769,7 +6769,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="9">
-        <v>1000686</v>
+        <v>1000649</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>16</v>
@@ -6788,7 +6788,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="9">
-        <v>1000686</v>
+        <v>1000649</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>16</v>
@@ -6805,7 +6805,7 @@
     <row r="5" spans="1:7">
       <c r="A5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="11"/>
       <c r="F5" s="2"/>
     </row>

--- a/config_Release/extra_award_server.xlsx
+++ b/config_Release/extra_award_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_7.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
   </bookViews>
   <sheets>
     <sheet name="task|任务配置" sheetId="2" r:id="rId1"/>
@@ -38,6 +38,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -46,6 +47,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -70,6 +72,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -78,6 +81,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -102,6 +106,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -110,6 +115,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -122,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t>id|</t>
   </si>
@@ -177,12 +183,16 @@
   <si>
     <t>buyu_get_use_item</t>
   </si>
+  <si>
+    <t>_common_rank_ymshf_017_hldr_rank</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,16 +204,19 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -211,21 +224,32 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -299,7 +323,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -387,6 +411,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -668,9 +695,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1565"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -701,16 +728,27 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="43.5" customHeight="1">
-      <c r="B2" s="9"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1000702</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1000703</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="43.5" customHeight="1">
       <c r="B3" s="9"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="43.5" customHeight="1">
       <c r="B4" s="9"/>
@@ -6258,7 +6296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
@@ -6722,7 +6760,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D2" sqref="D2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6769,7 +6807,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="9">
-        <v>1000649</v>
+        <v>1000703</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>16</v>
@@ -6788,7 +6826,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="9">
-        <v>1000649</v>
+        <v>1000703</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>16</v>
@@ -6932,7 +6970,7 @@
   <autoFilter ref="A1:D26"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config_Release/extra_award_server.xlsx
+++ b/config_Release/extra_award_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task|任务配置" sheetId="2" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>id|</t>
   </si>
@@ -185,6 +185,18 @@
   </si>
   <si>
     <t>_common_rank_ymshf_017_hldr_rank</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra_rank_type|排行榜类型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ymshf_017_hldr_rank</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ymshf_017_hldr_rank</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -323,7 +335,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -414,6 +426,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -693,11 +708,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1565"/>
+  <dimension ref="A1:F1565"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -707,10 +722,11 @@
     <col min="3" max="3" width="30.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="68.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="39.875" customWidth="1"/>
-    <col min="6" max="16384" width="11" style="3"/>
+    <col min="6" max="6" width="19.75" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="56.1" customHeight="1">
+    <row r="1" spans="1:6" ht="56.1" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -726,8 +742,11 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="43.5" customHeight="1">
+      <c r="F1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.5" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -743,78 +762,81 @@
       <c r="E2" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.5" customHeight="1">
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="43.5" customHeight="1">
       <c r="B3" s="9"/>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="43.5" customHeight="1">
+    <row r="4" spans="1:6" ht="43.5" customHeight="1">
       <c r="B4" s="9"/>
       <c r="C4" s="8"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="43.5" customHeight="1">
+    <row r="5" spans="1:6" ht="43.5" customHeight="1">
       <c r="B5" s="9"/>
       <c r="C5" s="8"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="43.5" customHeight="1">
+    <row r="6" spans="1:6" ht="43.5" customHeight="1">
       <c r="B6" s="9"/>
       <c r="C6" s="8"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="B7" s="9"/>
       <c r="C7" s="8"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="B8" s="9"/>
       <c r="C8" s="8"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" s="9" customFormat="1">
+    <row r="12" spans="1:6" s="9" customFormat="1">
       <c r="C12" s="8"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" s="9" customFormat="1">
+    <row r="14" spans="1:6" s="9" customFormat="1">
       <c r="C14" s="8"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="18.75" customHeight="1">
+    <row r="16" spans="1:6" ht="18.75" customHeight="1">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
       <c r="E16" s="2"/>
@@ -6757,10 +6779,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6769,11 +6791,11 @@
     <col min="2" max="2" width="36" style="3" customWidth="1"/>
     <col min="3" max="3" width="29.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="68.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="39.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="39.375" customWidth="1"/>
+    <col min="5" max="6" width="39.875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="39.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27">
+    <row r="1" spans="1:8" ht="27">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -6789,14 +6811,17 @@
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -6812,10 +6837,13 @@
       <c r="E2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="F2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -6831,139 +6859,165 @@
       <c r="E3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="F3" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="F4" s="11"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="9"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="F5" s="11"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="7"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="F6" s="11"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="7"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="F7" s="11"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="7"/>
       <c r="B8" s="12"/>
       <c r="C8" s="7"/>
       <c r="D8"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="F8" s="10"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="7"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="F9" s="10"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="7"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="F10" s="10"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="F11" s="10"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="F12" s="10"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="F13" s="10"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="F14" s="10"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="F15" s="10"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="7"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="F16" s="10"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="7"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17" s="10"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="7"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="F18" s="10"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="7"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="F19" s="10"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="7"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="F20" s="10"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="7"/>
       <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="7"/>
       <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="7"/>
       <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" s="1" customFormat="1">
       <c r="A24" s="7"/>
       <c r="B24" s="3"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="1:6" s="1" customFormat="1">
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1">
       <c r="A25" s="7"/>
       <c r="B25" s="3"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="7"/>
       <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="7"/>
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="C28" s="13"/>
     </row>
   </sheetData>

--- a/config_Release/extra_award_server.xlsx
+++ b/config_Release/extra_award_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
   <si>
     <t>id|</t>
   </si>
@@ -197,6 +197,14 @@
   </si>
   <si>
     <t>ymshf_017_hldr_rank</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1.1,1.3,1.5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1.1,1.3,1.5</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -712,7 +720,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -757,10 +765,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="9">
-        <v>1000703</v>
+        <v>1000685</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>20</v>
@@ -6320,7 +6328,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6370,7 +6378,7 @@
         <v>1000703</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6782,7 +6790,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6832,10 +6840,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="9">
-        <v>1000703</v>
+        <v>1000685</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>21</v>
@@ -6854,10 +6862,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="9">
-        <v>1000703</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>16</v>
+        <v>1000685</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>23</v>
       </c>
       <c r="F3" s="34" t="s">
         <v>21</v>

--- a/config_Release/extra_award_server.xlsx
+++ b/config_Release/extra_award_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="37">
   <si>
     <t>id|</t>
   </si>
@@ -178,45 +178,131 @@
     <t>buyu_3d_get_use_item</t>
   </si>
   <si>
-    <t>100,110,130,150</t>
-  </si>
-  <si>
     <t>buyu_get_use_item</t>
   </si>
   <si>
     <t>_common_rank_ymshf_017_hldr_rank</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>extra_rank_type|排行榜类型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ymshf_017_hldr_rank</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ymshf_017_hldr_rank</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1,1.1,1.3,1.5</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1,1.1,1.3,1.5</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_spend</t>
+  </si>
+  <si>
+    <t>zajindan_spend</t>
+  </si>
+  <si>
+    <t>jykp_spend</t>
+  </si>
+  <si>
+    <t>xiaoxiaole_shuihu_spend</t>
+  </si>
+  <si>
+    <t>xiaoxiaole_caishen_spend</t>
+  </si>
+  <si>
+    <t>xiaoxiaole_xiyou_spend</t>
+  </si>
+  <si>
+    <t>buyu_spend</t>
+  </si>
+  <si>
+    <t>lwzb_game_spend</t>
+  </si>
+  <si>
+    <t>buyu_3d_spend</t>
+  </si>
+  <si>
+    <t>tantanle_spend</t>
+  </si>
+  <si>
+    <t>zajindan_caishen_model_spend</t>
+  </si>
+  <si>
+    <t>leijixiaohao_rank</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1.05</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1.05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -274,6 +360,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF171A1D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -340,10 +432,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -353,10 +445,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -370,12 +462,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -397,7 +483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -430,13 +516,28 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -720,7 +821,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -751,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="43.5" customHeight="1">
@@ -761,17 +862,17 @@
       <c r="B2" s="9">
         <v>1000702</v>
       </c>
-      <c r="C2" s="33" t="s">
-        <v>18</v>
+      <c r="C2" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="D2" s="9">
-        <v>1000685</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>23</v>
+        <v>1000703</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="43.5" customHeight="1">
@@ -994,7 +1095,7 @@
       <c r="D45" s="2"/>
       <c r="E45"/>
     </row>
-    <row r="46" spans="2:5" s="24" customFormat="1">
+    <row r="46" spans="2:5" s="22" customFormat="1">
       <c r="B46" s="9"/>
       <c r="C46" s="8"/>
       <c r="D46" s="2"/>
@@ -1309,35 +1410,35 @@
       <c r="C123" s="8"/>
     </row>
     <row r="124" spans="2:3">
-      <c r="B124" s="26"/>
+      <c r="B124" s="24"/>
       <c r="C124" s="8"/>
     </row>
     <row r="125" spans="2:3">
-      <c r="B125" s="26"/>
+      <c r="B125" s="24"/>
       <c r="C125" s="8"/>
     </row>
     <row r="126" spans="2:3">
-      <c r="B126" s="26"/>
+      <c r="B126" s="24"/>
       <c r="C126" s="8"/>
     </row>
     <row r="127" spans="2:3">
-      <c r="B127" s="26"/>
+      <c r="B127" s="24"/>
       <c r="C127" s="8"/>
     </row>
     <row r="128" spans="2:3">
-      <c r="B128" s="26"/>
+      <c r="B128" s="24"/>
       <c r="C128" s="8"/>
     </row>
     <row r="129" spans="2:3">
-      <c r="B129" s="26"/>
+      <c r="B129" s="24"/>
       <c r="C129" s="8"/>
     </row>
     <row r="130" spans="2:3">
-      <c r="B130" s="26"/>
+      <c r="B130" s="24"/>
       <c r="C130" s="8"/>
     </row>
     <row r="131" spans="2:3">
-      <c r="B131" s="26"/>
+      <c r="B131" s="24"/>
       <c r="C131" s="8"/>
     </row>
     <row r="132" spans="2:3">
@@ -1545,7 +1646,7 @@
       <c r="C182" s="7"/>
     </row>
     <row r="183" spans="2:3">
-      <c r="B183" s="26"/>
+      <c r="B183" s="24"/>
       <c r="C183" s="8"/>
     </row>
     <row r="184" spans="2:3">
@@ -1581,31 +1682,31 @@
       <c r="C191" s="8"/>
     </row>
     <row r="192" spans="2:3">
-      <c r="B192" s="24"/>
+      <c r="B192" s="22"/>
       <c r="C192" s="8"/>
     </row>
     <row r="193" spans="2:3">
-      <c r="B193" s="24"/>
+      <c r="B193" s="22"/>
       <c r="C193" s="8"/>
     </row>
     <row r="194" spans="2:3">
-      <c r="B194" s="24"/>
+      <c r="B194" s="22"/>
       <c r="C194" s="8"/>
     </row>
     <row r="195" spans="2:3">
-      <c r="B195" s="24"/>
+      <c r="B195" s="22"/>
       <c r="C195" s="8"/>
     </row>
     <row r="196" spans="2:3">
-      <c r="B196" s="24"/>
+      <c r="B196" s="22"/>
       <c r="C196" s="8"/>
     </row>
     <row r="197" spans="2:3">
-      <c r="B197" s="24"/>
+      <c r="B197" s="22"/>
       <c r="C197" s="8"/>
     </row>
     <row r="198" spans="2:3">
-      <c r="B198" s="24"/>
+      <c r="B198" s="22"/>
       <c r="C198" s="8"/>
     </row>
     <row r="199" spans="2:3">
@@ -1646,83 +1747,83 @@
     </row>
     <row r="208" spans="2:3">
       <c r="B208" s="9"/>
-      <c r="C208" s="22"/>
+      <c r="C208" s="20"/>
     </row>
     <row r="209" spans="2:3">
       <c r="B209" s="9"/>
-      <c r="C209" s="22"/>
+      <c r="C209" s="20"/>
     </row>
     <row r="210" spans="2:3">
       <c r="B210" s="9"/>
-      <c r="C210" s="22"/>
+      <c r="C210" s="20"/>
     </row>
     <row r="211" spans="2:3">
       <c r="B211" s="9"/>
-      <c r="C211" s="22"/>
+      <c r="C211" s="20"/>
     </row>
     <row r="212" spans="2:3">
       <c r="B212" s="9"/>
-      <c r="C212" s="22"/>
+      <c r="C212" s="20"/>
     </row>
     <row r="213" spans="2:3">
       <c r="B213" s="9"/>
-      <c r="C213" s="22"/>
+      <c r="C213" s="20"/>
     </row>
     <row r="214" spans="2:3">
       <c r="B214" s="9"/>
-      <c r="C214" s="22"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="2:3">
       <c r="B215" s="9"/>
-      <c r="C215" s="22"/>
+      <c r="C215" s="20"/>
     </row>
     <row r="216" spans="2:3">
       <c r="B216" s="9"/>
-      <c r="C216" s="22"/>
+      <c r="C216" s="20"/>
     </row>
     <row r="217" spans="2:3">
       <c r="B217" s="9"/>
-      <c r="C217" s="22"/>
+      <c r="C217" s="20"/>
     </row>
     <row r="218" spans="2:3">
       <c r="B218" s="9"/>
-      <c r="C218" s="22"/>
+      <c r="C218" s="20"/>
     </row>
     <row r="219" spans="2:3">
       <c r="B219" s="9"/>
-      <c r="C219" s="22"/>
+      <c r="C219" s="20"/>
     </row>
     <row r="220" spans="2:3">
       <c r="B220" s="9"/>
-      <c r="C220" s="22"/>
+      <c r="C220" s="20"/>
     </row>
     <row r="221" spans="2:3">
       <c r="B221" s="9"/>
-      <c r="C221" s="22"/>
+      <c r="C221" s="20"/>
     </row>
     <row r="222" spans="2:3">
       <c r="B222" s="9"/>
-      <c r="C222" s="22"/>
+      <c r="C222" s="20"/>
     </row>
     <row r="223" spans="2:3">
       <c r="B223" s="9"/>
-      <c r="C223" s="22"/>
+      <c r="C223" s="20"/>
     </row>
     <row r="224" spans="2:3">
       <c r="B224" s="9"/>
-      <c r="C224" s="22"/>
+      <c r="C224" s="20"/>
     </row>
     <row r="225" spans="2:3">
       <c r="B225" s="9"/>
-      <c r="C225" s="22"/>
+      <c r="C225" s="20"/>
     </row>
     <row r="226" spans="2:3">
       <c r="B226" s="9"/>
-      <c r="C226" s="22"/>
+      <c r="C226" s="20"/>
     </row>
     <row r="227" spans="2:3">
       <c r="B227" s="9"/>
-      <c r="C227" s="22"/>
+      <c r="C227" s="20"/>
     </row>
     <row r="228" spans="2:3">
       <c r="B228" s="9"/>
@@ -1886,11 +1987,11 @@
     </row>
     <row r="268" spans="2:3">
       <c r="B268" s="9"/>
-      <c r="C268" s="22"/>
+      <c r="C268" s="20"/>
     </row>
     <row r="269" spans="2:3">
       <c r="B269" s="9"/>
-      <c r="C269" s="22"/>
+      <c r="C269" s="20"/>
     </row>
     <row r="270" spans="2:3">
       <c r="B270" s="9"/>
@@ -2385,7 +2486,7 @@
       <c r="C392" s="7"/>
     </row>
     <row r="393" spans="2:3">
-      <c r="B393" s="26"/>
+      <c r="B393" s="24"/>
       <c r="C393" s="7"/>
     </row>
     <row r="394" spans="2:3">
@@ -2534,227 +2635,227 @@
     </row>
     <row r="430" spans="2:3">
       <c r="B430" s="9"/>
-      <c r="C430" s="27"/>
+      <c r="C430" s="25"/>
     </row>
     <row r="431" spans="2:3">
       <c r="B431" s="9"/>
-      <c r="C431" s="23"/>
+      <c r="C431" s="21"/>
     </row>
     <row r="432" spans="2:3">
       <c r="B432" s="9"/>
-      <c r="C432" s="23"/>
+      <c r="C432" s="21"/>
     </row>
     <row r="433" spans="2:3">
       <c r="B433" s="9"/>
-      <c r="C433" s="23"/>
+      <c r="C433" s="21"/>
     </row>
     <row r="434" spans="2:3">
       <c r="B434" s="9"/>
-      <c r="C434" s="23"/>
+      <c r="C434" s="21"/>
     </row>
     <row r="435" spans="2:3">
       <c r="B435" s="9"/>
-      <c r="C435" s="27"/>
+      <c r="C435" s="25"/>
     </row>
     <row r="436" spans="2:3">
       <c r="B436" s="9"/>
-      <c r="C436" s="13"/>
+      <c r="C436" s="11"/>
     </row>
     <row r="437" spans="2:3">
       <c r="B437" s="9"/>
-      <c r="C437" s="13"/>
+      <c r="C437" s="11"/>
     </row>
     <row r="438" spans="2:3">
       <c r="B438" s="9"/>
-      <c r="C438" s="13"/>
+      <c r="C438" s="11"/>
     </row>
     <row r="439" spans="2:3">
       <c r="B439" s="9"/>
-      <c r="C439" s="13"/>
+      <c r="C439" s="11"/>
     </row>
     <row r="440" spans="2:3">
       <c r="B440" s="9"/>
-      <c r="C440" s="13"/>
+      <c r="C440" s="11"/>
     </row>
     <row r="441" spans="2:3">
       <c r="B441" s="9"/>
-      <c r="C441" s="13"/>
+      <c r="C441" s="11"/>
     </row>
     <row r="442" spans="2:3">
       <c r="B442" s="9"/>
-      <c r="C442" s="13"/>
+      <c r="C442" s="11"/>
     </row>
     <row r="443" spans="2:3">
       <c r="B443" s="9"/>
-      <c r="C443" s="13"/>
+      <c r="C443" s="11"/>
     </row>
     <row r="444" spans="2:3">
       <c r="B444" s="9"/>
-      <c r="C444" s="13"/>
+      <c r="C444" s="11"/>
     </row>
     <row r="445" spans="2:3">
       <c r="B445" s="9"/>
-      <c r="C445" s="13"/>
+      <c r="C445" s="11"/>
     </row>
     <row r="446" spans="2:3">
       <c r="B446" s="9"/>
-      <c r="C446" s="13"/>
+      <c r="C446" s="11"/>
     </row>
     <row r="447" spans="2:3">
       <c r="B447" s="9"/>
-      <c r="C447" s="13"/>
+      <c r="C447" s="11"/>
     </row>
     <row r="448" spans="2:3">
       <c r="B448" s="9"/>
-      <c r="C448" s="13"/>
+      <c r="C448" s="11"/>
     </row>
     <row r="449" spans="2:3">
       <c r="B449" s="9"/>
-      <c r="C449" s="13"/>
+      <c r="C449" s="11"/>
     </row>
     <row r="450" spans="2:3">
       <c r="B450" s="9"/>
-      <c r="C450" s="13"/>
+      <c r="C450" s="11"/>
     </row>
     <row r="451" spans="2:3">
       <c r="B451" s="9"/>
-      <c r="C451" s="13"/>
+      <c r="C451" s="11"/>
     </row>
     <row r="452" spans="2:3">
       <c r="B452" s="9"/>
-      <c r="C452" s="13"/>
+      <c r="C452" s="11"/>
     </row>
     <row r="453" spans="2:3">
       <c r="B453" s="9"/>
-      <c r="C453" s="13"/>
+      <c r="C453" s="11"/>
     </row>
     <row r="454" spans="2:3">
       <c r="B454" s="9"/>
-      <c r="C454" s="13"/>
+      <c r="C454" s="11"/>
     </row>
     <row r="455" spans="2:3">
       <c r="B455" s="9"/>
-      <c r="C455" s="13"/>
+      <c r="C455" s="11"/>
     </row>
     <row r="456" spans="2:3">
       <c r="B456" s="9"/>
-      <c r="C456" s="13"/>
+      <c r="C456" s="11"/>
     </row>
     <row r="457" spans="2:3">
       <c r="B457" s="9"/>
-      <c r="C457" s="28"/>
+      <c r="C457" s="26"/>
     </row>
     <row r="458" spans="2:3">
       <c r="B458" s="9"/>
-      <c r="C458" s="29"/>
+      <c r="C458" s="27"/>
     </row>
     <row r="459" spans="2:3">
       <c r="B459" s="9"/>
-      <c r="C459" s="28"/>
+      <c r="C459" s="26"/>
     </row>
     <row r="460" spans="2:3">
       <c r="B460" s="9"/>
-      <c r="C460" s="28"/>
+      <c r="C460" s="26"/>
     </row>
     <row r="461" spans="2:3">
       <c r="B461" s="9"/>
-      <c r="C461" s="28"/>
+      <c r="C461" s="26"/>
     </row>
     <row r="462" spans="2:3">
       <c r="B462" s="9"/>
-      <c r="C462" s="28"/>
+      <c r="C462" s="26"/>
     </row>
     <row r="463" spans="2:3">
       <c r="B463" s="9"/>
-      <c r="C463" s="28"/>
+      <c r="C463" s="26"/>
     </row>
     <row r="464" spans="2:3">
       <c r="B464" s="9"/>
-      <c r="C464" s="28"/>
+      <c r="C464" s="26"/>
     </row>
     <row r="465" spans="2:3">
       <c r="B465" s="9"/>
-      <c r="C465" s="28"/>
+      <c r="C465" s="26"/>
     </row>
     <row r="466" spans="2:3">
       <c r="B466" s="9"/>
-      <c r="C466" s="28"/>
+      <c r="C466" s="26"/>
     </row>
     <row r="467" spans="2:3">
       <c r="B467" s="9"/>
-      <c r="C467" s="29"/>
+      <c r="C467" s="27"/>
     </row>
     <row r="468" spans="2:3">
       <c r="B468" s="9"/>
-      <c r="C468" s="28"/>
+      <c r="C468" s="26"/>
     </row>
     <row r="469" spans="2:3">
       <c r="B469" s="9"/>
-      <c r="C469" s="28"/>
+      <c r="C469" s="26"/>
     </row>
     <row r="470" spans="2:3">
       <c r="B470" s="9"/>
-      <c r="C470" s="28"/>
+      <c r="C470" s="26"/>
     </row>
     <row r="471" spans="2:3">
       <c r="B471" s="9"/>
-      <c r="C471" s="28"/>
+      <c r="C471" s="26"/>
     </row>
     <row r="472" spans="2:3">
       <c r="B472" s="9"/>
-      <c r="C472" s="28"/>
+      <c r="C472" s="26"/>
     </row>
     <row r="473" spans="2:3">
       <c r="B473" s="9"/>
-      <c r="C473" s="28"/>
+      <c r="C473" s="26"/>
     </row>
     <row r="474" spans="2:3">
       <c r="B474" s="9"/>
-      <c r="C474" s="28"/>
+      <c r="C474" s="26"/>
     </row>
     <row r="475" spans="2:3">
       <c r="B475" s="9"/>
-      <c r="C475" s="28"/>
+      <c r="C475" s="26"/>
     </row>
     <row r="476" spans="2:3">
       <c r="B476" s="9"/>
-      <c r="C476" s="28"/>
+      <c r="C476" s="26"/>
     </row>
     <row r="477" spans="2:3">
       <c r="B477" s="9"/>
-      <c r="C477" s="28"/>
+      <c r="C477" s="26"/>
     </row>
     <row r="478" spans="2:3">
       <c r="B478" s="9"/>
-      <c r="C478" s="28"/>
+      <c r="C478" s="26"/>
     </row>
     <row r="479" spans="2:3">
       <c r="B479" s="9"/>
-      <c r="C479" s="28"/>
+      <c r="C479" s="26"/>
     </row>
     <row r="480" spans="2:3">
       <c r="B480" s="9"/>
-      <c r="C480" s="28"/>
+      <c r="C480" s="26"/>
     </row>
     <row r="481" spans="2:3">
       <c r="B481" s="9"/>
-      <c r="C481" s="28"/>
+      <c r="C481" s="26"/>
     </row>
     <row r="482" spans="2:3">
       <c r="B482" s="9"/>
-      <c r="C482" s="28"/>
+      <c r="C482" s="26"/>
     </row>
     <row r="483" spans="2:3">
       <c r="B483" s="9"/>
-      <c r="C483" s="28"/>
+      <c r="C483" s="26"/>
     </row>
     <row r="484" spans="2:3">
       <c r="B484" s="9"/>
-      <c r="C484" s="28"/>
+      <c r="C484" s="26"/>
     </row>
     <row r="485" spans="2:3">
       <c r="B485" s="9"/>
-      <c r="C485" s="28"/>
+      <c r="C485" s="26"/>
     </row>
     <row r="486" spans="2:3">
       <c r="B486" s="9"/>
@@ -2818,7 +2919,7 @@
     </row>
     <row r="501" spans="2:3">
       <c r="B501" s="9"/>
-      <c r="C501" s="30"/>
+      <c r="C501" s="28"/>
     </row>
     <row r="502" spans="2:3">
       <c r="B502" s="9"/>
@@ -2913,223 +3014,223 @@
       <c r="C524" s="7"/>
     </row>
     <row r="525" spans="2:3">
-      <c r="B525" s="22"/>
+      <c r="B525" s="20"/>
       <c r="C525" s="7"/>
     </row>
     <row r="526" spans="2:3">
-      <c r="B526" s="22"/>
+      <c r="B526" s="20"/>
       <c r="C526" s="7"/>
     </row>
     <row r="527" spans="2:3">
-      <c r="B527" s="22"/>
+      <c r="B527" s="20"/>
       <c r="C527" s="7"/>
     </row>
     <row r="528" spans="2:3">
-      <c r="B528" s="22"/>
+      <c r="B528" s="20"/>
       <c r="C528" s="7"/>
     </row>
     <row r="529" spans="2:3">
-      <c r="B529" s="22"/>
+      <c r="B529" s="20"/>
       <c r="C529" s="7"/>
     </row>
     <row r="530" spans="2:3">
-      <c r="B530" s="22"/>
+      <c r="B530" s="20"/>
       <c r="C530" s="7"/>
     </row>
     <row r="531" spans="2:3">
-      <c r="B531" s="22"/>
+      <c r="B531" s="20"/>
       <c r="C531" s="7"/>
     </row>
     <row r="532" spans="2:3">
-      <c r="B532" s="22"/>
+      <c r="B532" s="20"/>
       <c r="C532" s="7"/>
     </row>
     <row r="533" spans="2:3">
-      <c r="B533" s="22"/>
+      <c r="B533" s="20"/>
       <c r="C533" s="7"/>
     </row>
     <row r="534" spans="2:3">
-      <c r="B534" s="22"/>
+      <c r="B534" s="20"/>
       <c r="C534" s="7"/>
     </row>
     <row r="535" spans="2:3">
-      <c r="B535" s="22"/>
+      <c r="B535" s="20"/>
       <c r="C535" s="7"/>
     </row>
     <row r="536" spans="2:3">
-      <c r="B536" s="22"/>
+      <c r="B536" s="20"/>
       <c r="C536" s="7"/>
     </row>
     <row r="537" spans="2:3">
-      <c r="B537" s="22"/>
+      <c r="B537" s="20"/>
       <c r="C537" s="7"/>
     </row>
     <row r="538" spans="2:3">
-      <c r="B538" s="22"/>
+      <c r="B538" s="20"/>
       <c r="C538" s="7"/>
     </row>
     <row r="539" spans="2:3">
-      <c r="B539" s="22"/>
+      <c r="B539" s="20"/>
       <c r="C539" s="7"/>
     </row>
     <row r="540" spans="2:3">
-      <c r="B540" s="22"/>
+      <c r="B540" s="20"/>
       <c r="C540" s="7"/>
     </row>
     <row r="541" spans="2:3">
-      <c r="B541" s="22"/>
+      <c r="B541" s="20"/>
       <c r="C541" s="7"/>
     </row>
     <row r="542" spans="2:3">
-      <c r="B542" s="22"/>
+      <c r="B542" s="20"/>
       <c r="C542" s="7"/>
     </row>
     <row r="543" spans="2:3">
-      <c r="B543" s="22"/>
+      <c r="B543" s="20"/>
       <c r="C543" s="7"/>
     </row>
     <row r="544" spans="2:3">
-      <c r="B544" s="22"/>
+      <c r="B544" s="20"/>
       <c r="C544" s="7"/>
     </row>
     <row r="545" spans="2:3">
-      <c r="B545" s="22"/>
+      <c r="B545" s="20"/>
       <c r="C545" s="7"/>
     </row>
     <row r="546" spans="2:3">
-      <c r="B546" s="22"/>
+      <c r="B546" s="20"/>
       <c r="C546" s="7"/>
     </row>
     <row r="547" spans="2:3">
-      <c r="B547" s="22"/>
+      <c r="B547" s="20"/>
       <c r="C547" s="7"/>
     </row>
     <row r="548" spans="2:3">
-      <c r="B548" s="22"/>
+      <c r="B548" s="20"/>
       <c r="C548" s="7"/>
     </row>
     <row r="549" spans="2:3">
-      <c r="B549" s="22"/>
+      <c r="B549" s="20"/>
       <c r="C549" s="7"/>
     </row>
     <row r="550" spans="2:3">
-      <c r="B550" s="22"/>
+      <c r="B550" s="20"/>
       <c r="C550" s="7"/>
     </row>
     <row r="551" spans="2:3">
-      <c r="B551" s="22"/>
+      <c r="B551" s="20"/>
       <c r="C551" s="7"/>
     </row>
     <row r="552" spans="2:3">
-      <c r="B552" s="22"/>
+      <c r="B552" s="20"/>
       <c r="C552" s="7"/>
     </row>
     <row r="553" spans="2:3">
-      <c r="B553" s="22"/>
+      <c r="B553" s="20"/>
       <c r="C553" s="7"/>
     </row>
     <row r="554" spans="2:3">
-      <c r="B554" s="22"/>
+      <c r="B554" s="20"/>
       <c r="C554" s="7"/>
     </row>
     <row r="555" spans="2:3">
-      <c r="B555" s="22"/>
+      <c r="B555" s="20"/>
       <c r="C555" s="7"/>
     </row>
     <row r="556" spans="2:3">
-      <c r="B556" s="22"/>
+      <c r="B556" s="20"/>
       <c r="C556" s="7"/>
     </row>
     <row r="557" spans="2:3">
-      <c r="B557" s="22"/>
+      <c r="B557" s="20"/>
       <c r="C557" s="7"/>
     </row>
     <row r="558" spans="2:3">
-      <c r="B558" s="22"/>
+      <c r="B558" s="20"/>
       <c r="C558" s="7"/>
     </row>
     <row r="559" spans="2:3">
-      <c r="B559" s="22"/>
+      <c r="B559" s="20"/>
       <c r="C559" s="7"/>
     </row>
     <row r="560" spans="2:3">
-      <c r="B560" s="22"/>
+      <c r="B560" s="20"/>
       <c r="C560" s="7"/>
     </row>
     <row r="561" spans="2:3">
-      <c r="B561" s="22"/>
+      <c r="B561" s="20"/>
       <c r="C561" s="7"/>
     </row>
     <row r="562" spans="2:3">
-      <c r="B562" s="22"/>
+      <c r="B562" s="20"/>
       <c r="C562" s="7"/>
     </row>
     <row r="563" spans="2:3">
-      <c r="B563" s="22"/>
-      <c r="C563" s="28"/>
+      <c r="B563" s="20"/>
+      <c r="C563" s="26"/>
     </row>
     <row r="564" spans="2:3">
-      <c r="B564" s="22"/>
-      <c r="C564" s="28"/>
+      <c r="B564" s="20"/>
+      <c r="C564" s="26"/>
     </row>
     <row r="565" spans="2:3">
-      <c r="B565" s="22"/>
-      <c r="C565" s="28"/>
+      <c r="B565" s="20"/>
+      <c r="C565" s="26"/>
     </row>
     <row r="566" spans="2:3">
-      <c r="B566" s="22"/>
-      <c r="C566" s="28"/>
+      <c r="B566" s="20"/>
+      <c r="C566" s="26"/>
     </row>
     <row r="567" spans="2:3">
-      <c r="B567" s="22"/>
-      <c r="C567" s="28"/>
+      <c r="B567" s="20"/>
+      <c r="C567" s="26"/>
     </row>
     <row r="568" spans="2:3">
-      <c r="B568" s="22"/>
-      <c r="C568" s="28"/>
+      <c r="B568" s="20"/>
+      <c r="C568" s="26"/>
     </row>
     <row r="569" spans="2:3">
-      <c r="B569" s="22"/>
-      <c r="C569" s="28"/>
+      <c r="B569" s="20"/>
+      <c r="C569" s="26"/>
     </row>
     <row r="570" spans="2:3">
-      <c r="B570" s="22"/>
-      <c r="C570" s="28"/>
+      <c r="B570" s="20"/>
+      <c r="C570" s="26"/>
     </row>
     <row r="571" spans="2:3">
-      <c r="B571" s="22"/>
-      <c r="C571" s="28"/>
+      <c r="B571" s="20"/>
+      <c r="C571" s="26"/>
     </row>
     <row r="572" spans="2:3">
-      <c r="B572" s="22"/>
-      <c r="C572" s="28"/>
+      <c r="B572" s="20"/>
+      <c r="C572" s="26"/>
     </row>
     <row r="573" spans="2:3">
-      <c r="B573" s="22"/>
-      <c r="C573" s="28"/>
+      <c r="B573" s="20"/>
+      <c r="C573" s="26"/>
     </row>
     <row r="574" spans="2:3">
-      <c r="B574" s="22"/>
-      <c r="C574" s="28"/>
+      <c r="B574" s="20"/>
+      <c r="C574" s="26"/>
     </row>
     <row r="575" spans="2:3">
-      <c r="B575" s="22"/>
-      <c r="C575" s="28"/>
+      <c r="B575" s="20"/>
+      <c r="C575" s="26"/>
     </row>
     <row r="576" spans="2:3">
-      <c r="B576" s="22"/>
-      <c r="C576" s="28"/>
+      <c r="B576" s="20"/>
+      <c r="C576" s="26"/>
     </row>
     <row r="577" spans="2:3">
-      <c r="B577" s="22"/>
+      <c r="B577" s="20"/>
       <c r="C577" s="7"/>
     </row>
     <row r="578" spans="2:3">
-      <c r="B578" s="22"/>
+      <c r="B578" s="20"/>
       <c r="C578" s="7"/>
     </row>
     <row r="579" spans="2:3">
-      <c r="B579" s="22"/>
+      <c r="B579" s="20"/>
       <c r="C579" s="7"/>
     </row>
     <row r="580" spans="2:3">
@@ -3137,19 +3238,19 @@
       <c r="C580" s="7"/>
     </row>
     <row r="581" spans="2:3">
-      <c r="B581" s="22"/>
+      <c r="B581" s="20"/>
       <c r="C581" s="7"/>
     </row>
     <row r="582" spans="2:3">
-      <c r="B582" s="22"/>
+      <c r="B582" s="20"/>
       <c r="C582" s="7"/>
     </row>
     <row r="583" spans="2:3">
-      <c r="B583" s="22"/>
+      <c r="B583" s="20"/>
       <c r="C583" s="7"/>
     </row>
     <row r="584" spans="2:3">
-      <c r="B584" s="22"/>
+      <c r="B584" s="20"/>
       <c r="C584" s="7"/>
     </row>
     <row r="585" spans="2:3">
@@ -3157,11 +3258,11 @@
       <c r="C585" s="7"/>
     </row>
     <row r="586" spans="2:3">
-      <c r="B586" s="22"/>
+      <c r="B586" s="20"/>
       <c r="C586" s="7"/>
     </row>
     <row r="587" spans="2:3">
-      <c r="B587" s="22"/>
+      <c r="B587" s="20"/>
       <c r="C587" s="7"/>
     </row>
     <row r="588" spans="2:3">
@@ -3169,11 +3270,11 @@
       <c r="C588" s="7"/>
     </row>
     <row r="589" spans="2:3">
-      <c r="B589" s="22"/>
+      <c r="B589" s="20"/>
       <c r="C589" s="7"/>
     </row>
     <row r="590" spans="2:3">
-      <c r="B590" s="22"/>
+      <c r="B590" s="20"/>
       <c r="C590" s="7"/>
     </row>
     <row r="591" spans="2:3">
@@ -3185,7 +3286,7 @@
       <c r="C592" s="7"/>
     </row>
     <row r="593" spans="2:3">
-      <c r="B593" s="22"/>
+      <c r="B593" s="20"/>
       <c r="C593" s="7"/>
     </row>
     <row r="594" spans="2:3">
@@ -3193,7 +3294,7 @@
       <c r="C594" s="7"/>
     </row>
     <row r="595" spans="2:3">
-      <c r="B595" s="22"/>
+      <c r="B595" s="20"/>
       <c r="C595" s="7"/>
     </row>
     <row r="596" spans="2:3">
@@ -3201,7 +3302,7 @@
       <c r="C596" s="7"/>
     </row>
     <row r="597" spans="2:3">
-      <c r="B597" s="22"/>
+      <c r="B597" s="20"/>
       <c r="C597" s="7"/>
     </row>
     <row r="598" spans="2:3">
@@ -3209,7 +3310,7 @@
       <c r="C598" s="7"/>
     </row>
     <row r="599" spans="2:3">
-      <c r="B599" s="22"/>
+      <c r="B599" s="20"/>
       <c r="C599" s="7"/>
     </row>
     <row r="600" spans="2:3">
@@ -3217,7 +3318,7 @@
       <c r="C600" s="7"/>
     </row>
     <row r="601" spans="2:3">
-      <c r="B601" s="22"/>
+      <c r="B601" s="20"/>
       <c r="C601" s="7"/>
     </row>
     <row r="602" spans="2:3">
@@ -3233,7 +3334,7 @@
       <c r="C604" s="7"/>
     </row>
     <row r="605" spans="2:3">
-      <c r="B605" s="22"/>
+      <c r="B605" s="20"/>
       <c r="C605" s="7"/>
     </row>
     <row r="606" spans="2:3">
@@ -3241,7 +3342,7 @@
       <c r="C606" s="7"/>
     </row>
     <row r="607" spans="2:3">
-      <c r="B607" s="22"/>
+      <c r="B607" s="20"/>
       <c r="C607" s="7"/>
     </row>
     <row r="608" spans="2:3">
@@ -3249,7 +3350,7 @@
       <c r="C608" s="7"/>
     </row>
     <row r="609" spans="2:3">
-      <c r="B609" s="22"/>
+      <c r="B609" s="20"/>
       <c r="C609" s="7"/>
     </row>
     <row r="610" spans="2:3">
@@ -3257,7 +3358,7 @@
       <c r="C610" s="7"/>
     </row>
     <row r="611" spans="2:3">
-      <c r="B611" s="22"/>
+      <c r="B611" s="20"/>
       <c r="C611" s="7"/>
     </row>
     <row r="612" spans="2:3">
@@ -3265,7 +3366,7 @@
       <c r="C612" s="7"/>
     </row>
     <row r="613" spans="2:3">
-      <c r="B613" s="22"/>
+      <c r="B613" s="20"/>
       <c r="C613" s="7"/>
     </row>
     <row r="614" spans="2:3">
@@ -3273,7 +3374,7 @@
       <c r="C614" s="7"/>
     </row>
     <row r="615" spans="2:3">
-      <c r="B615" s="22"/>
+      <c r="B615" s="20"/>
       <c r="C615" s="7"/>
     </row>
     <row r="616" spans="2:3">
@@ -3285,7 +3386,7 @@
       <c r="C617" s="7"/>
     </row>
     <row r="618" spans="2:3">
-      <c r="B618" s="22"/>
+      <c r="B618" s="20"/>
       <c r="C618" s="7"/>
     </row>
     <row r="619" spans="2:3">
@@ -3297,11 +3398,11 @@
       <c r="C620" s="7"/>
     </row>
     <row r="621" spans="2:3">
-      <c r="B621" s="22"/>
+      <c r="B621" s="20"/>
       <c r="C621" s="7"/>
     </row>
     <row r="622" spans="2:3">
-      <c r="B622" s="22"/>
+      <c r="B622" s="20"/>
       <c r="C622" s="7"/>
     </row>
     <row r="623" spans="2:3">
@@ -3313,7 +3414,7 @@
       <c r="C624" s="7"/>
     </row>
     <row r="625" spans="2:3">
-      <c r="B625" s="22"/>
+      <c r="B625" s="20"/>
       <c r="C625" s="7"/>
     </row>
     <row r="626" spans="2:3">
@@ -3329,7 +3430,7 @@
       <c r="C628" s="7"/>
     </row>
     <row r="629" spans="2:3">
-      <c r="B629" s="22"/>
+      <c r="B629" s="20"/>
       <c r="C629" s="7"/>
     </row>
     <row r="630" spans="2:3">
@@ -3341,7 +3442,7 @@
       <c r="C631" s="7"/>
     </row>
     <row r="632" spans="2:3">
-      <c r="B632" s="22"/>
+      <c r="B632" s="20"/>
       <c r="C632" s="7"/>
     </row>
     <row r="633" spans="2:3">
@@ -3353,7 +3454,7 @@
       <c r="C634" s="7"/>
     </row>
     <row r="635" spans="2:3">
-      <c r="B635" s="22"/>
+      <c r="B635" s="20"/>
       <c r="C635" s="7"/>
     </row>
     <row r="636" spans="2:3">
@@ -3365,7 +3466,7 @@
       <c r="C637" s="7"/>
     </row>
     <row r="638" spans="2:3">
-      <c r="B638" s="22"/>
+      <c r="B638" s="20"/>
       <c r="C638" s="7"/>
     </row>
     <row r="639" spans="2:3">
@@ -3377,7 +3478,7 @@
       <c r="C640" s="7"/>
     </row>
     <row r="641" spans="2:3">
-      <c r="B641" s="22"/>
+      <c r="B641" s="20"/>
       <c r="C641" s="7"/>
     </row>
     <row r="642" spans="2:3">
@@ -3401,7 +3502,7 @@
       <c r="C646" s="7"/>
     </row>
     <row r="647" spans="2:3">
-      <c r="B647" s="22"/>
+      <c r="B647" s="20"/>
       <c r="C647" s="7"/>
     </row>
     <row r="648" spans="2:3">
@@ -3409,7 +3510,7 @@
       <c r="C648" s="7"/>
     </row>
     <row r="649" spans="2:3">
-      <c r="B649" s="22"/>
+      <c r="B649" s="20"/>
       <c r="C649" s="7"/>
     </row>
     <row r="650" spans="2:3">
@@ -3417,7 +3518,7 @@
       <c r="C650" s="7"/>
     </row>
     <row r="651" spans="2:3">
-      <c r="B651" s="22"/>
+      <c r="B651" s="20"/>
       <c r="C651" s="7"/>
     </row>
     <row r="652" spans="2:3">
@@ -3425,7 +3526,7 @@
       <c r="C652" s="7"/>
     </row>
     <row r="653" spans="2:3">
-      <c r="B653" s="22"/>
+      <c r="B653" s="20"/>
       <c r="C653" s="7"/>
     </row>
     <row r="654" spans="2:3">
@@ -3442,87 +3543,87 @@
     </row>
     <row r="657" spans="2:3">
       <c r="B657" s="9"/>
-      <c r="C657" s="28"/>
+      <c r="C657" s="26"/>
     </row>
     <row r="658" spans="2:3">
       <c r="B658" s="9"/>
-      <c r="C658" s="28"/>
+      <c r="C658" s="26"/>
     </row>
     <row r="659" spans="2:3">
       <c r="B659" s="9"/>
-      <c r="C659" s="28"/>
+      <c r="C659" s="26"/>
     </row>
     <row r="660" spans="2:3">
       <c r="B660" s="9"/>
-      <c r="C660" s="28"/>
+      <c r="C660" s="26"/>
     </row>
     <row r="661" spans="2:3">
       <c r="B661" s="9"/>
-      <c r="C661" s="28"/>
+      <c r="C661" s="26"/>
     </row>
     <row r="662" spans="2:3">
       <c r="B662" s="9"/>
-      <c r="C662" s="28"/>
+      <c r="C662" s="26"/>
     </row>
     <row r="663" spans="2:3">
       <c r="B663" s="9"/>
-      <c r="C663" s="28"/>
+      <c r="C663" s="26"/>
     </row>
     <row r="664" spans="2:3">
       <c r="B664" s="9"/>
-      <c r="C664" s="28"/>
+      <c r="C664" s="26"/>
     </row>
     <row r="665" spans="2:3">
       <c r="B665" s="9"/>
-      <c r="C665" s="28"/>
+      <c r="C665" s="26"/>
     </row>
     <row r="666" spans="2:3">
       <c r="B666" s="9"/>
-      <c r="C666" s="28"/>
+      <c r="C666" s="26"/>
     </row>
     <row r="667" spans="2:3">
       <c r="B667" s="9"/>
-      <c r="C667" s="28"/>
+      <c r="C667" s="26"/>
     </row>
     <row r="668" spans="2:3">
       <c r="B668" s="9"/>
-      <c r="C668" s="28"/>
+      <c r="C668" s="26"/>
     </row>
     <row r="669" spans="2:3">
       <c r="B669" s="9"/>
-      <c r="C669" s="28"/>
+      <c r="C669" s="26"/>
     </row>
     <row r="670" spans="2:3">
       <c r="B670" s="9"/>
-      <c r="C670" s="28"/>
+      <c r="C670" s="26"/>
     </row>
     <row r="671" spans="2:3">
       <c r="B671" s="9"/>
-      <c r="C671" s="28"/>
+      <c r="C671" s="26"/>
     </row>
     <row r="672" spans="2:3">
       <c r="B672" s="9"/>
-      <c r="C672" s="28"/>
+      <c r="C672" s="26"/>
     </row>
     <row r="673" spans="2:3">
       <c r="B673" s="9"/>
-      <c r="C673" s="28"/>
+      <c r="C673" s="26"/>
     </row>
     <row r="674" spans="2:3">
       <c r="B674" s="9"/>
-      <c r="C674" s="28"/>
+      <c r="C674" s="26"/>
     </row>
     <row r="675" spans="2:3">
       <c r="B675" s="9"/>
-      <c r="C675" s="28"/>
+      <c r="C675" s="26"/>
     </row>
     <row r="676" spans="2:3">
       <c r="B676" s="9"/>
-      <c r="C676" s="28"/>
+      <c r="C676" s="26"/>
     </row>
     <row r="677" spans="2:3">
       <c r="B677" s="9"/>
-      <c r="C677" s="28"/>
+      <c r="C677" s="26"/>
     </row>
     <row r="678" spans="2:3">
       <c r="B678" s="9"/>
@@ -3626,59 +3727,59 @@
     </row>
     <row r="703" spans="2:3">
       <c r="B703" s="9"/>
-      <c r="C703" s="28"/>
+      <c r="C703" s="26"/>
     </row>
     <row r="704" spans="2:3">
       <c r="B704" s="9"/>
-      <c r="C704" s="28"/>
+      <c r="C704" s="26"/>
     </row>
     <row r="705" spans="2:3">
       <c r="B705" s="9"/>
-      <c r="C705" s="28"/>
+      <c r="C705" s="26"/>
     </row>
     <row r="706" spans="2:3">
       <c r="B706" s="9"/>
-      <c r="C706" s="28"/>
+      <c r="C706" s="26"/>
     </row>
     <row r="707" spans="2:3">
       <c r="B707" s="9"/>
-      <c r="C707" s="28"/>
+      <c r="C707" s="26"/>
     </row>
     <row r="708" spans="2:3">
       <c r="B708" s="9"/>
-      <c r="C708" s="28"/>
+      <c r="C708" s="26"/>
     </row>
     <row r="709" spans="2:3">
       <c r="B709" s="9"/>
-      <c r="C709" s="28"/>
+      <c r="C709" s="26"/>
     </row>
     <row r="710" spans="2:3">
       <c r="B710" s="9"/>
-      <c r="C710" s="28"/>
+      <c r="C710" s="26"/>
     </row>
     <row r="711" spans="2:3">
       <c r="B711" s="9"/>
-      <c r="C711" s="28"/>
+      <c r="C711" s="26"/>
     </row>
     <row r="712" spans="2:3">
       <c r="B712" s="9"/>
-      <c r="C712" s="28"/>
+      <c r="C712" s="26"/>
     </row>
     <row r="713" spans="2:3">
       <c r="B713" s="9"/>
-      <c r="C713" s="28"/>
+      <c r="C713" s="26"/>
     </row>
     <row r="714" spans="2:3">
       <c r="B714" s="9"/>
-      <c r="C714" s="28"/>
+      <c r="C714" s="26"/>
     </row>
     <row r="715" spans="2:3">
       <c r="B715" s="9"/>
-      <c r="C715" s="28"/>
+      <c r="C715" s="26"/>
     </row>
     <row r="716" spans="2:3">
       <c r="B716" s="9"/>
-      <c r="C716" s="28"/>
+      <c r="C716" s="26"/>
     </row>
     <row r="717" spans="2:3">
       <c r="B717" s="9"/>
@@ -3686,31 +3787,31 @@
     </row>
     <row r="718" spans="2:3">
       <c r="B718" s="9"/>
-      <c r="C718" s="28"/>
+      <c r="C718" s="26"/>
     </row>
     <row r="719" spans="2:3">
       <c r="B719" s="9"/>
-      <c r="C719" s="28"/>
+      <c r="C719" s="26"/>
     </row>
     <row r="720" spans="2:3">
       <c r="B720" s="9"/>
-      <c r="C720" s="28"/>
+      <c r="C720" s="26"/>
     </row>
     <row r="721" spans="2:3">
       <c r="B721" s="9"/>
-      <c r="C721" s="28"/>
+      <c r="C721" s="26"/>
     </row>
     <row r="722" spans="2:3">
       <c r="B722" s="9"/>
-      <c r="C722" s="28"/>
+      <c r="C722" s="26"/>
     </row>
     <row r="723" spans="2:3">
       <c r="B723" s="9"/>
-      <c r="C723" s="28"/>
+      <c r="C723" s="26"/>
     </row>
     <row r="724" spans="2:3">
       <c r="B724" s="9"/>
-      <c r="C724" s="28"/>
+      <c r="C724" s="26"/>
     </row>
     <row r="725" spans="2:3">
       <c r="B725" s="9"/>
@@ -3965,67 +4066,67 @@
       <c r="C787" s="7"/>
     </row>
     <row r="788" spans="2:3">
-      <c r="B788" s="24"/>
+      <c r="B788" s="22"/>
       <c r="C788" s="7"/>
     </row>
     <row r="789" spans="2:3">
-      <c r="B789" s="24"/>
+      <c r="B789" s="22"/>
       <c r="C789" s="7"/>
     </row>
     <row r="790" spans="2:3">
-      <c r="B790" s="24"/>
+      <c r="B790" s="22"/>
       <c r="C790" s="7"/>
     </row>
     <row r="791" spans="2:3">
-      <c r="B791" s="24"/>
+      <c r="B791" s="22"/>
       <c r="C791" s="7"/>
     </row>
     <row r="792" spans="2:3">
-      <c r="B792" s="24"/>
+      <c r="B792" s="22"/>
       <c r="C792" s="7"/>
     </row>
     <row r="793" spans="2:3">
-      <c r="B793" s="24"/>
+      <c r="B793" s="22"/>
       <c r="C793" s="7"/>
     </row>
     <row r="794" spans="2:3">
-      <c r="B794" s="24"/>
+      <c r="B794" s="22"/>
       <c r="C794" s="7"/>
     </row>
     <row r="795" spans="2:3">
-      <c r="B795" s="24"/>
+      <c r="B795" s="22"/>
       <c r="C795" s="7"/>
     </row>
     <row r="796" spans="2:3">
-      <c r="B796" s="24"/>
+      <c r="B796" s="22"/>
       <c r="C796" s="7"/>
     </row>
     <row r="797" spans="2:3">
-      <c r="B797" s="24"/>
+      <c r="B797" s="22"/>
       <c r="C797" s="7"/>
     </row>
     <row r="798" spans="2:3">
-      <c r="B798" s="24"/>
+      <c r="B798" s="22"/>
       <c r="C798" s="7"/>
     </row>
     <row r="799" spans="2:3">
-      <c r="B799" s="24"/>
+      <c r="B799" s="22"/>
       <c r="C799" s="7"/>
     </row>
     <row r="800" spans="2:3">
-      <c r="B800" s="24"/>
+      <c r="B800" s="22"/>
       <c r="C800" s="7"/>
     </row>
     <row r="801" spans="2:3">
-      <c r="B801" s="24"/>
+      <c r="B801" s="22"/>
       <c r="C801" s="7"/>
     </row>
     <row r="802" spans="2:3">
-      <c r="B802" s="24"/>
+      <c r="B802" s="22"/>
       <c r="C802" s="7"/>
     </row>
     <row r="803" spans="2:3">
-      <c r="B803" s="24"/>
+      <c r="B803" s="22"/>
       <c r="C803" s="7"/>
     </row>
     <row r="804" spans="2:3">
@@ -4089,7 +4190,7 @@
       <c r="C823" s="7"/>
     </row>
     <row r="824" spans="3:3">
-      <c r="C824" s="31"/>
+      <c r="C824" s="29"/>
     </row>
     <row r="825" spans="3:3">
       <c r="C825" s="7"/>
@@ -4341,28 +4442,28 @@
       <c r="C907" s="7"/>
     </row>
     <row r="908" spans="3:3">
-      <c r="C908" s="28"/>
+      <c r="C908" s="26"/>
     </row>
     <row r="909" spans="3:3">
-      <c r="C909" s="28"/>
+      <c r="C909" s="26"/>
     </row>
     <row r="910" spans="3:3">
-      <c r="C910" s="28"/>
+      <c r="C910" s="26"/>
     </row>
     <row r="911" spans="3:3">
-      <c r="C911" s="28"/>
+      <c r="C911" s="26"/>
     </row>
     <row r="912" spans="3:3">
-      <c r="C912" s="28"/>
+      <c r="C912" s="26"/>
     </row>
     <row r="913" spans="3:3">
-      <c r="C913" s="28"/>
+      <c r="C913" s="26"/>
     </row>
     <row r="914" spans="3:3">
-      <c r="C914" s="28"/>
+      <c r="C914" s="26"/>
     </row>
     <row r="915" spans="3:3">
-      <c r="C915" s="28"/>
+      <c r="C915" s="26"/>
     </row>
     <row r="916" spans="3:3">
       <c r="C916" s="7"/>
@@ -4653,64 +4754,64 @@
       <c r="C1011" s="7"/>
     </row>
     <row r="1012" spans="3:3">
-      <c r="C1012" s="28"/>
+      <c r="C1012" s="26"/>
     </row>
     <row r="1013" spans="3:3">
-      <c r="C1013" s="28"/>
+      <c r="C1013" s="26"/>
     </row>
     <row r="1014" spans="3:3">
-      <c r="C1014" s="28"/>
+      <c r="C1014" s="26"/>
     </row>
     <row r="1015" spans="3:3">
-      <c r="C1015" s="28"/>
+      <c r="C1015" s="26"/>
     </row>
     <row r="1016" spans="3:3">
-      <c r="C1016" s="28"/>
+      <c r="C1016" s="26"/>
     </row>
     <row r="1017" spans="3:3">
-      <c r="C1017" s="28"/>
+      <c r="C1017" s="26"/>
     </row>
     <row r="1018" spans="3:3">
-      <c r="C1018" s="28"/>
+      <c r="C1018" s="26"/>
     </row>
     <row r="1019" spans="3:3">
-      <c r="C1019" s="28"/>
+      <c r="C1019" s="26"/>
     </row>
     <row r="1020" spans="3:3">
-      <c r="C1020" s="28"/>
+      <c r="C1020" s="26"/>
     </row>
     <row r="1021" spans="3:3">
-      <c r="C1021" s="28"/>
+      <c r="C1021" s="26"/>
     </row>
     <row r="1022" spans="3:3">
-      <c r="C1022" s="28"/>
+      <c r="C1022" s="26"/>
     </row>
     <row r="1023" spans="3:3">
-      <c r="C1023" s="28"/>
+      <c r="C1023" s="26"/>
     </row>
     <row r="1024" spans="3:3">
-      <c r="C1024" s="28"/>
+      <c r="C1024" s="26"/>
     </row>
     <row r="1025" spans="3:3">
-      <c r="C1025" s="28"/>
+      <c r="C1025" s="26"/>
     </row>
     <row r="1026" spans="3:3">
-      <c r="C1026" s="28"/>
+      <c r="C1026" s="26"/>
     </row>
     <row r="1027" spans="3:3">
-      <c r="C1027" s="28"/>
+      <c r="C1027" s="26"/>
     </row>
     <row r="1028" spans="3:3">
-      <c r="C1028" s="28"/>
+      <c r="C1028" s="26"/>
     </row>
     <row r="1029" spans="3:3">
-      <c r="C1029" s="28"/>
+      <c r="C1029" s="26"/>
     </row>
     <row r="1030" spans="3:3">
-      <c r="C1030" s="28"/>
+      <c r="C1030" s="26"/>
     </row>
     <row r="1031" spans="3:3">
-      <c r="C1031" s="28"/>
+      <c r="C1031" s="26"/>
     </row>
     <row r="1032" spans="3:3">
       <c r="C1032" s="7"/>
@@ -4743,178 +4844,178 @@
       <c r="C1041" s="7"/>
     </row>
     <row r="1042" spans="3:3">
-      <c r="C1042" s="28"/>
+      <c r="C1042" s="26"/>
     </row>
     <row r="1043" spans="3:3">
-      <c r="C1043" s="28"/>
+      <c r="C1043" s="26"/>
     </row>
     <row r="1044" spans="3:3">
-      <c r="C1044" s="28"/>
+      <c r="C1044" s="26"/>
     </row>
     <row r="1045" spans="3:3">
-      <c r="C1045" s="28"/>
+      <c r="C1045" s="26"/>
     </row>
     <row r="1046" spans="3:3">
-      <c r="C1046" s="22"/>
+      <c r="C1046" s="20"/>
     </row>
     <row r="1047" spans="3:3">
-      <c r="C1047" s="22"/>
+      <c r="C1047" s="20"/>
     </row>
     <row r="1048" spans="3:3">
-      <c r="C1048" s="22"/>
+      <c r="C1048" s="20"/>
     </row>
     <row r="1049" spans="3:3">
-      <c r="C1049" s="22"/>
+      <c r="C1049" s="20"/>
     </row>
     <row r="1050" spans="3:3">
-      <c r="C1050" s="22"/>
+      <c r="C1050" s="20"/>
     </row>
     <row r="1051" spans="3:3">
-      <c r="C1051" s="22"/>
+      <c r="C1051" s="20"/>
     </row>
     <row r="1052" spans="3:3">
-      <c r="C1052" s="22"/>
+      <c r="C1052" s="20"/>
     </row>
     <row r="1053" spans="3:3">
-      <c r="C1053" s="22"/>
+      <c r="C1053" s="20"/>
     </row>
     <row r="1054" spans="3:3">
-      <c r="C1054" s="22"/>
+      <c r="C1054" s="20"/>
     </row>
     <row r="1055" spans="3:3">
-      <c r="C1055" s="22"/>
+      <c r="C1055" s="20"/>
     </row>
     <row r="1056" spans="3:3">
-      <c r="C1056" s="22"/>
+      <c r="C1056" s="20"/>
     </row>
     <row r="1057" spans="3:3">
-      <c r="C1057" s="22"/>
+      <c r="C1057" s="20"/>
     </row>
     <row r="1058" spans="3:3">
-      <c r="C1058" s="22"/>
+      <c r="C1058" s="20"/>
     </row>
     <row r="1059" spans="3:3">
-      <c r="C1059" s="22"/>
+      <c r="C1059" s="20"/>
     </row>
     <row r="1060" spans="3:3">
-      <c r="C1060" s="22"/>
+      <c r="C1060" s="20"/>
     </row>
     <row r="1061" spans="3:3">
-      <c r="C1061" s="22"/>
+      <c r="C1061" s="20"/>
     </row>
     <row r="1062" spans="3:3">
-      <c r="C1062" s="22"/>
+      <c r="C1062" s="20"/>
     </row>
     <row r="1063" spans="3:3">
-      <c r="C1063" s="22"/>
+      <c r="C1063" s="20"/>
     </row>
     <row r="1064" spans="3:3">
-      <c r="C1064" s="22"/>
+      <c r="C1064" s="20"/>
     </row>
     <row r="1065" spans="3:3">
-      <c r="C1065" s="22"/>
+      <c r="C1065" s="20"/>
     </row>
     <row r="1066" spans="3:3">
-      <c r="C1066" s="22"/>
+      <c r="C1066" s="20"/>
     </row>
     <row r="1067" spans="3:3">
-      <c r="C1067" s="22"/>
+      <c r="C1067" s="20"/>
     </row>
     <row r="1068" spans="3:3">
-      <c r="C1068" s="22"/>
+      <c r="C1068" s="20"/>
     </row>
     <row r="1069" spans="3:3">
-      <c r="C1069" s="22"/>
+      <c r="C1069" s="20"/>
     </row>
     <row r="1070" spans="3:3">
-      <c r="C1070" s="22"/>
+      <c r="C1070" s="20"/>
     </row>
     <row r="1071" spans="3:3">
-      <c r="C1071" s="22"/>
+      <c r="C1071" s="20"/>
     </row>
     <row r="1072" spans="3:3">
-      <c r="C1072" s="22"/>
+      <c r="C1072" s="20"/>
     </row>
     <row r="1073" spans="3:3">
-      <c r="C1073" s="22"/>
+      <c r="C1073" s="20"/>
     </row>
     <row r="1074" spans="3:3">
-      <c r="C1074" s="22"/>
+      <c r="C1074" s="20"/>
     </row>
     <row r="1075" spans="3:3">
-      <c r="C1075" s="22"/>
+      <c r="C1075" s="20"/>
     </row>
     <row r="1076" spans="3:3">
-      <c r="C1076" s="22"/>
+      <c r="C1076" s="20"/>
     </row>
     <row r="1077" spans="3:3">
-      <c r="C1077" s="22"/>
+      <c r="C1077" s="20"/>
     </row>
     <row r="1078" spans="3:3">
-      <c r="C1078" s="22"/>
+      <c r="C1078" s="20"/>
     </row>
     <row r="1079" spans="3:3">
-      <c r="C1079" s="22"/>
+      <c r="C1079" s="20"/>
     </row>
     <row r="1080" spans="3:3">
-      <c r="C1080" s="22"/>
+      <c r="C1080" s="20"/>
     </row>
     <row r="1081" spans="3:3">
-      <c r="C1081" s="22"/>
+      <c r="C1081" s="20"/>
     </row>
     <row r="1082" spans="3:3">
-      <c r="C1082" s="22"/>
+      <c r="C1082" s="20"/>
     </row>
     <row r="1083" spans="3:3">
-      <c r="C1083" s="22"/>
+      <c r="C1083" s="20"/>
     </row>
     <row r="1084" spans="3:3">
-      <c r="C1084" s="22"/>
+      <c r="C1084" s="20"/>
     </row>
     <row r="1085" spans="3:3">
-      <c r="C1085" s="22"/>
+      <c r="C1085" s="20"/>
     </row>
     <row r="1086" spans="3:3">
-      <c r="C1086" s="22"/>
+      <c r="C1086" s="20"/>
     </row>
     <row r="1087" spans="3:3">
-      <c r="C1087" s="22"/>
+      <c r="C1087" s="20"/>
     </row>
     <row r="1088" spans="3:3">
-      <c r="C1088" s="22"/>
+      <c r="C1088" s="20"/>
     </row>
     <row r="1089" spans="3:3">
-      <c r="C1089" s="22"/>
+      <c r="C1089" s="20"/>
     </row>
     <row r="1090" spans="3:3">
-      <c r="C1090" s="22"/>
+      <c r="C1090" s="20"/>
     </row>
     <row r="1091" spans="3:3">
-      <c r="C1091" s="22"/>
+      <c r="C1091" s="20"/>
     </row>
     <row r="1092" spans="3:3">
-      <c r="C1092" s="22"/>
+      <c r="C1092" s="20"/>
     </row>
     <row r="1093" spans="3:3">
-      <c r="C1093" s="22"/>
+      <c r="C1093" s="20"/>
     </row>
     <row r="1094" spans="3:3">
-      <c r="C1094" s="22"/>
+      <c r="C1094" s="20"/>
     </row>
     <row r="1095" spans="3:3">
-      <c r="C1095" s="22"/>
+      <c r="C1095" s="20"/>
     </row>
     <row r="1096" spans="3:3">
-      <c r="C1096" s="22"/>
+      <c r="C1096" s="20"/>
     </row>
     <row r="1097" spans="3:3">
-      <c r="C1097" s="22"/>
+      <c r="C1097" s="20"/>
     </row>
     <row r="1098" spans="3:3">
-      <c r="C1098" s="22"/>
+      <c r="C1098" s="20"/>
     </row>
     <row r="1099" spans="3:3">
-      <c r="C1099" s="22"/>
+      <c r="C1099" s="20"/>
     </row>
     <row r="1100" spans="3:3">
       <c r="C1100" s="7"/>
@@ -4926,13 +5027,13 @@
       <c r="C1102" s="7"/>
     </row>
     <row r="1103" spans="3:3">
-      <c r="C1103" s="22"/>
+      <c r="C1103" s="20"/>
     </row>
     <row r="1104" spans="3:3">
-      <c r="C1104" s="22"/>
+      <c r="C1104" s="20"/>
     </row>
     <row r="1105" spans="3:3">
-      <c r="C1105" s="22"/>
+      <c r="C1105" s="20"/>
     </row>
     <row r="1106" spans="3:3">
       <c r="C1106" s="7"/>
@@ -4941,10 +5042,10 @@
       <c r="C1107" s="7"/>
     </row>
     <row r="1108" spans="3:3">
-      <c r="C1108" s="22"/>
+      <c r="C1108" s="20"/>
     </row>
     <row r="1109" spans="3:3">
-      <c r="C1109" s="22"/>
+      <c r="C1109" s="20"/>
     </row>
     <row r="1110" spans="3:3">
       <c r="C1110" s="7"/>
@@ -4953,10 +5054,10 @@
       <c r="C1111" s="7"/>
     </row>
     <row r="1112" spans="3:3">
-      <c r="C1112" s="22"/>
+      <c r="C1112" s="20"/>
     </row>
     <row r="1113" spans="3:3">
-      <c r="C1113" s="22"/>
+      <c r="C1113" s="20"/>
     </row>
     <row r="1114" spans="3:3">
       <c r="C1114" s="7"/>
@@ -4965,10 +5066,10 @@
       <c r="C1115" s="7"/>
     </row>
     <row r="1116" spans="3:3">
-      <c r="C1116" s="22"/>
+      <c r="C1116" s="20"/>
     </row>
     <row r="1117" spans="3:3">
-      <c r="C1117" s="22"/>
+      <c r="C1117" s="20"/>
     </row>
     <row r="1118" spans="3:3">
       <c r="C1118" s="7"/>
@@ -5310,7 +5411,7 @@
       <c r="C1230" s="7"/>
     </row>
     <row r="1231" spans="3:3">
-      <c r="C1231" s="32"/>
+      <c r="C1231" s="30"/>
     </row>
     <row r="1232" spans="3:3">
       <c r="C1232" s="7"/>
@@ -5736,118 +5837,118 @@
       <c r="C1372" s="9"/>
     </row>
     <row r="1373" spans="3:3">
-      <c r="C1373" s="28"/>
+      <c r="C1373" s="26"/>
     </row>
     <row r="1374" spans="3:3">
-      <c r="C1374" s="28"/>
+      <c r="C1374" s="26"/>
     </row>
     <row r="1375" spans="3:3">
-      <c r="C1375" s="28"/>
+      <c r="C1375" s="26"/>
     </row>
     <row r="1376" spans="3:3">
-      <c r="C1376" s="28"/>
+      <c r="C1376" s="26"/>
     </row>
     <row r="1377" spans="3:3">
-      <c r="C1377" s="28"/>
+      <c r="C1377" s="26"/>
     </row>
     <row r="1378" spans="3:3">
-      <c r="C1378" s="28"/>
+      <c r="C1378" s="26"/>
     </row>
     <row r="1379" spans="3:3">
-      <c r="C1379" s="28"/>
+      <c r="C1379" s="26"/>
     </row>
     <row r="1380" spans="3:3">
-      <c r="C1380" s="28"/>
+      <c r="C1380" s="26"/>
     </row>
     <row r="1381" spans="3:3">
-      <c r="C1381" s="28"/>
+      <c r="C1381" s="26"/>
     </row>
     <row r="1382" spans="3:3">
-      <c r="C1382" s="28"/>
+      <c r="C1382" s="26"/>
     </row>
     <row r="1383" spans="3:3">
-      <c r="C1383" s="28"/>
+      <c r="C1383" s="26"/>
     </row>
     <row r="1384" spans="3:3">
-      <c r="C1384" s="28"/>
+      <c r="C1384" s="26"/>
     </row>
     <row r="1385" spans="3:3">
-      <c r="C1385" s="28"/>
+      <c r="C1385" s="26"/>
     </row>
     <row r="1386" spans="3:3">
-      <c r="C1386" s="28"/>
+      <c r="C1386" s="26"/>
     </row>
     <row r="1387" spans="3:3">
-      <c r="C1387" s="28"/>
+      <c r="C1387" s="26"/>
     </row>
     <row r="1388" spans="3:3">
-      <c r="C1388" s="28"/>
+      <c r="C1388" s="26"/>
     </row>
     <row r="1389" spans="3:3">
-      <c r="C1389" s="28"/>
+      <c r="C1389" s="26"/>
     </row>
     <row r="1390" spans="3:3">
-      <c r="C1390" s="28"/>
+      <c r="C1390" s="26"/>
     </row>
     <row r="1391" spans="3:3">
-      <c r="C1391" s="28"/>
+      <c r="C1391" s="26"/>
     </row>
     <row r="1392" spans="3:3">
-      <c r="C1392" s="28"/>
+      <c r="C1392" s="26"/>
     </row>
     <row r="1393" spans="3:3">
-      <c r="C1393" s="28"/>
+      <c r="C1393" s="26"/>
     </row>
     <row r="1394" spans="3:3">
-      <c r="C1394" s="28"/>
+      <c r="C1394" s="26"/>
     </row>
     <row r="1395" spans="3:3">
-      <c r="C1395" s="28"/>
+      <c r="C1395" s="26"/>
     </row>
     <row r="1396" spans="3:3">
-      <c r="C1396" s="28"/>
+      <c r="C1396" s="26"/>
     </row>
     <row r="1397" spans="3:3">
-      <c r="C1397" s="28"/>
+      <c r="C1397" s="26"/>
     </row>
     <row r="1398" spans="3:3">
-      <c r="C1398" s="28"/>
+      <c r="C1398" s="26"/>
     </row>
     <row r="1399" spans="3:3">
-      <c r="C1399" s="28"/>
+      <c r="C1399" s="26"/>
     </row>
     <row r="1400" spans="3:3">
-      <c r="C1400" s="28"/>
+      <c r="C1400" s="26"/>
     </row>
     <row r="1401" spans="3:3">
-      <c r="C1401" s="28"/>
+      <c r="C1401" s="26"/>
     </row>
     <row r="1402" spans="3:3">
-      <c r="C1402" s="28"/>
+      <c r="C1402" s="26"/>
     </row>
     <row r="1403" spans="3:3">
-      <c r="C1403" s="28"/>
+      <c r="C1403" s="26"/>
     </row>
     <row r="1404" spans="3:3">
-      <c r="C1404" s="28"/>
+      <c r="C1404" s="26"/>
     </row>
     <row r="1405" spans="3:3">
-      <c r="C1405" s="28"/>
+      <c r="C1405" s="26"/>
     </row>
     <row r="1406" spans="3:3">
-      <c r="C1406" s="28"/>
+      <c r="C1406" s="26"/>
     </row>
     <row r="1407" spans="3:3">
-      <c r="C1407" s="28"/>
+      <c r="C1407" s="26"/>
     </row>
     <row r="1408" spans="3:3">
-      <c r="C1408" s="28"/>
+      <c r="C1408" s="26"/>
     </row>
     <row r="1409" spans="3:3">
-      <c r="C1409" s="28"/>
+      <c r="C1409" s="26"/>
     </row>
     <row r="1410" spans="3:3">
-      <c r="C1410" s="28"/>
+      <c r="C1410" s="26"/>
     </row>
     <row r="1411" spans="3:3">
       <c r="C1411" s="7"/>
@@ -6297,25 +6398,25 @@
       <c r="C1559" s="7"/>
     </row>
     <row r="1560" spans="3:3">
-      <c r="C1560" s="23"/>
+      <c r="C1560" s="21"/>
     </row>
     <row r="1561" spans="3:3">
-      <c r="C1561" s="23"/>
+      <c r="C1561" s="21"/>
     </row>
     <row r="1562" spans="3:3">
-      <c r="C1562" s="23"/>
+      <c r="C1562" s="21"/>
     </row>
     <row r="1563" spans="3:3">
-      <c r="C1563" s="23"/>
+      <c r="C1563" s="21"/>
     </row>
     <row r="1564" spans="3:3">
-      <c r="C1564" s="23"/>
+      <c r="C1564" s="21"/>
     </row>
     <row r="1565" spans="3:3">
-      <c r="C1565" s="23"/>
+      <c r="C1565" s="21"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -6328,7 +6429,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6368,27 +6469,27 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="18">
         <v>59</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="19">
         <v>1</v>
       </c>
       <c r="D2" s="9">
         <v>1000703</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="18">
         <v>59</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="19">
         <v>2</v>
       </c>
       <c r="D3" s="9">
@@ -6402,10 +6503,10 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="18">
         <v>59</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="19">
         <v>3</v>
       </c>
       <c r="D4" s="9">
@@ -6419,10 +6520,10 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="18">
         <v>59</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="19">
         <v>4</v>
       </c>
       <c r="D5" s="9">
@@ -6436,10 +6537,10 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="18">
         <v>59</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="19">
         <v>5</v>
       </c>
       <c r="D6" s="9">
@@ -6453,10 +6554,10 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="18">
         <v>59</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="19">
         <v>6</v>
       </c>
       <c r="D7" s="9">
@@ -6470,10 +6571,10 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="18">
         <v>59</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="19">
         <v>7</v>
       </c>
       <c r="D8" s="9">
@@ -6487,10 +6588,10 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="18">
         <v>59</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="19">
         <v>8</v>
       </c>
       <c r="D9" s="9">
@@ -6504,10 +6605,10 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="18">
         <v>59</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="19">
         <v>9</v>
       </c>
       <c r="D10" s="9">
@@ -6521,10 +6622,10 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="18">
         <v>59</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="19">
         <v>10</v>
       </c>
       <c r="D11" s="9">
@@ -6537,163 +6638,163 @@
     <row r="12" spans="1:7">
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="22"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:7">
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="22"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:7">
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="22"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" spans="1:7">
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="22"/>
+      <c r="E15" s="20"/>
     </row>
     <row r="16" spans="1:7">
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="22"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" spans="3:5">
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="22"/>
+      <c r="E17" s="20"/>
     </row>
     <row r="18" spans="3:5">
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="22"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="22"/>
+      <c r="E19" s="20"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="22"/>
+      <c r="E20" s="20"/>
     </row>
     <row r="21" spans="3:5">
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="22"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="22"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="22"/>
+      <c r="E23" s="20"/>
     </row>
     <row r="24" spans="3:5">
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="22"/>
+      <c r="E24" s="20"/>
     </row>
     <row r="25" spans="3:5">
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="22"/>
+      <c r="E25" s="20"/>
     </row>
     <row r="26" spans="3:5">
-      <c r="E26" s="22"/>
+      <c r="E26" s="20"/>
     </row>
     <row r="27" spans="3:5">
-      <c r="E27" s="22"/>
+      <c r="E27" s="20"/>
     </row>
     <row r="28" spans="3:5">
-      <c r="E28" s="22"/>
+      <c r="E28" s="20"/>
     </row>
     <row r="29" spans="3:5">
-      <c r="E29" s="22"/>
+      <c r="E29" s="20"/>
     </row>
     <row r="30" spans="3:5">
-      <c r="E30" s="22"/>
+      <c r="E30" s="20"/>
     </row>
     <row r="31" spans="3:5">
-      <c r="E31" s="22"/>
+      <c r="E31" s="20"/>
     </row>
     <row r="32" spans="3:5">
-      <c r="E32" s="22"/>
+      <c r="E32" s="20"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="E33" s="22"/>
+      <c r="E33" s="20"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="25"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="25"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="25"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="25"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="23"/>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="23"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="25"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="23"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="23"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="25"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="23"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="23"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="25"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="23"/>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="23"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="25"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="23"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="13"/>
+      <c r="B52" s="11"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="13"/>
+      <c r="B54" s="11"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="13"/>
+      <c r="B56" s="11"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="13"/>
+      <c r="B58" s="11"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="13"/>
+      <c r="B60" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F60"/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -6729,57 +6830,57 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="C2" s="14"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="C3" s="14"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="B4" s="15"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="16"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="15"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="16"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="15"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="16"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="B7" s="15"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="16"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="15"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="16"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9" s="15"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="16"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="B12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="B12" s="13"/>
+      <c r="D12" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -6789,8 +6890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6820,7 +6921,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>8</v>
@@ -6840,13 +6941,13 @@
         <v>15</v>
       </c>
       <c r="D2" s="9">
-        <v>1000685</v>
+        <v>1000703</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2"/>
@@ -6859,178 +6960,352 @@
         <v>14</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="9">
-        <v>1000685</v>
-      </c>
-      <c r="E3" s="34" t="s">
+        <v>1000703</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="D4" s="7">
+        <v>30042</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="9">
+        <v>30042</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7">
+        <v>30042</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="9">
+        <v>30042</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="7"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="7"/>
-      <c r="D8"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="7">
+        <v>30042</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="7"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="9">
+        <v>30042</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="7"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="7">
+        <v>30042</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="7"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+    <row r="11" spans="1:8" ht="16.5">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="9">
+        <v>30042</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="7"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="7">
+        <v>30042</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="7"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="9">
+        <v>30042</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="7"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="7">
+        <v>30042</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="B15" s="36"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="7"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="B16" s="36"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="7"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="B17" s="36"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="7"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="B18" s="36"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="7"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="B19" s="36"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="7"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="B20" s="36"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="7"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="B21" s="36"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="7"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="B22" s="36"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="7"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="B23" s="36"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1">
       <c r="A24" s="7"/>
-      <c r="B24" s="3"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1">
       <c r="A25" s="7"/>
-      <c r="B25" s="3"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="7"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="B26" s="36"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="7"/>
       <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="C28" s="13"/>
+      <c r="C28" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D26"/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
